--- a/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/BALANCE    ZAVALETA   ENERO     2022.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/BALANCE    ZAVALETA   ENERO     2022.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3690" yWindow="0" windowWidth="16605" windowHeight="10920" firstSheet="5" activeTab="6"/>
+    <workbookView xWindow="3690" yWindow="0" windowWidth="16605" windowHeight="10920" firstSheet="4" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="OCTUBRE      2 0 2 1     " sheetId="1" r:id="rId1"/>
@@ -296,7 +296,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="653" uniqueCount="341">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="344">
   <si>
     <t>COMPRAS</t>
   </si>
@@ -1319,6 +1319,15 @@
   </si>
   <si>
     <t>JAMONES-POLLO-LONGANIZA-SALCHICHONERIA</t>
+  </si>
+  <si>
+    <t>QUESOS-POLLO</t>
+  </si>
+  <si>
+    <t>JAMON-POLLO-QUESO</t>
+  </si>
+  <si>
+    <t>JAMON-QUESO-POLLO-LONGANIZA</t>
   </si>
 </sst>
 </file>
@@ -3146,7 +3155,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="505">
+  <cellXfs count="506">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -3994,6 +4003,80 @@
     <xf numFmtId="44" fontId="2" fillId="18" borderId="84" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="44" fontId="46" fillId="6" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="46" fillId="0" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="6" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="6" borderId="51" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="11" fillId="6" borderId="51" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="11" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="11" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="49" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="49" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="50" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="12" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="12" fillId="0" borderId="49" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4027,84 +4110,45 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="6" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="6" borderId="51" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="11" fillId="6" borderId="51" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="11" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="11" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="10" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="10" fillId="0" borderId="49" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="0" borderId="49" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="0" borderId="50" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="12" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="12" fillId="0" borderId="49" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="1" fontId="43" fillId="6" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="43" fillId="6" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="44" fontId="13" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="33" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="33" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="14" borderId="65" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="14" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="33" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="44" fontId="13" fillId="0" borderId="57" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4147,39 +4191,6 @@
     <xf numFmtId="44" fontId="41" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="7" fontId="33" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="33" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="14" borderId="65" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="14" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="33" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="7" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="44" fontId="3" fillId="3" borderId="74" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4264,8 +4275,7 @@
     <xf numFmtId="44" fontId="11" fillId="14" borderId="99" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="46" fillId="6" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="46" fillId="0" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="41" fillId="0" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -6294,23 +6304,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="413"/>
-      <c r="C1" s="415" t="s">
+      <c r="B1" s="439"/>
+      <c r="C1" s="441" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="416"/>
-      <c r="E1" s="416"/>
-      <c r="F1" s="416"/>
-      <c r="G1" s="416"/>
-      <c r="H1" s="416"/>
-      <c r="I1" s="416"/>
-      <c r="J1" s="416"/>
-      <c r="K1" s="416"/>
-      <c r="L1" s="416"/>
-      <c r="M1" s="416"/>
+      <c r="D1" s="442"/>
+      <c r="E1" s="442"/>
+      <c r="F1" s="442"/>
+      <c r="G1" s="442"/>
+      <c r="H1" s="442"/>
+      <c r="I1" s="442"/>
+      <c r="J1" s="442"/>
+      <c r="K1" s="442"/>
+      <c r="L1" s="442"/>
+      <c r="M1" s="442"/>
     </row>
     <row r="2" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="414"/>
+      <c r="B2" s="440"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -6320,17 +6330,17 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:19" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="417" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="418"/>
+      <c r="B3" s="443" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="444"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="419" t="s">
+      <c r="H3" s="445" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="419"/>
+      <c r="I3" s="445"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
@@ -6344,14 +6354,14 @@
         <v>0</v>
       </c>
       <c r="D4" s="18"/>
-      <c r="E4" s="420" t="s">
+      <c r="E4" s="446" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="421"/>
-      <c r="H4" s="422" t="s">
+      <c r="F4" s="447"/>
+      <c r="H4" s="448" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="423"/>
+      <c r="I4" s="449"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -6361,10 +6371,10 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="429" t="s">
+      <c r="P4" s="420" t="s">
         <v>6</v>
       </c>
-      <c r="Q4" s="430"/>
+      <c r="Q4" s="421"/>
     </row>
     <row r="5" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="23" t="s">
@@ -7805,11 +7815,11 @@
       <c r="J39" s="60"/>
       <c r="K39" s="177"/>
       <c r="L39" s="61"/>
-      <c r="M39" s="431">
+      <c r="M39" s="422">
         <f>SUM(M5:M38)</f>
         <v>247061</v>
       </c>
-      <c r="N39" s="433">
+      <c r="N39" s="424">
         <f>SUM(N5:N38)</f>
         <v>172863</v>
       </c>
@@ -7835,8 +7845,8 @@
       <c r="J40" s="60"/>
       <c r="K40" s="41"/>
       <c r="L40" s="61"/>
-      <c r="M40" s="432"/>
-      <c r="N40" s="434"/>
+      <c r="M40" s="423"/>
+      <c r="N40" s="425"/>
       <c r="P40" s="34"/>
       <c r="Q40" s="9"/>
     </row>
@@ -8051,29 +8061,29 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="435" t="s">
+      <c r="H52" s="426" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="436"/>
+      <c r="I52" s="427"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="437">
+      <c r="K52" s="428">
         <f>I50+L50</f>
         <v>53873.49</v>
       </c>
-      <c r="L52" s="438"/>
-      <c r="M52" s="439">
+      <c r="L52" s="429"/>
+      <c r="M52" s="430">
         <f>N39+M39</f>
         <v>419924</v>
       </c>
-      <c r="N52" s="440"/>
+      <c r="N52" s="431"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="9"/>
     </row>
     <row r="53" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D53" s="441" t="s">
+      <c r="D53" s="432" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="441"/>
+      <c r="E53" s="432"/>
       <c r="F53" s="101">
         <f>F50-K52-C50</f>
         <v>471038.61</v>
@@ -8084,22 +8094,22 @@
       <c r="Q53" s="9"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="441" t="s">
+      <c r="D54" s="432" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="441"/>
+      <c r="E54" s="432"/>
       <c r="F54" s="96">
         <v>-549976.4</v>
       </c>
-      <c r="I54" s="442" t="s">
+      <c r="I54" s="433" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="443"/>
-      <c r="K54" s="444">
+      <c r="J54" s="434"/>
+      <c r="K54" s="435">
         <f>F56+F57+F58</f>
         <v>-24577.400000000023</v>
       </c>
-      <c r="L54" s="445"/>
+      <c r="L54" s="436"/>
       <c r="P54" s="34"/>
       <c r="Q54" s="9"/>
     </row>
@@ -8132,11 +8142,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="446">
+      <c r="K56" s="437">
         <f>-C4</f>
         <v>0</v>
       </c>
-      <c r="L56" s="447"/>
+      <c r="L56" s="438"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -8153,22 +8163,22 @@
       <c r="C58" s="112">
         <v>44507</v>
       </c>
-      <c r="D58" s="424" t="s">
+      <c r="D58" s="415" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="425"/>
+      <c r="E58" s="416"/>
       <c r="F58" s="113">
         <v>567389.35</v>
       </c>
-      <c r="I58" s="426" t="s">
+      <c r="I58" s="417" t="s">
         <v>97</v>
       </c>
-      <c r="J58" s="427"/>
-      <c r="K58" s="428">
+      <c r="J58" s="418"/>
+      <c r="K58" s="419">
         <f>K54+K56</f>
         <v>-24577.400000000023</v>
       </c>
-      <c r="L58" s="428"/>
+      <c r="L58" s="419"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -8312,6 +8322,12 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
     <mergeCell ref="D58:E58"/>
     <mergeCell ref="I58:J58"/>
     <mergeCell ref="K58:L58"/>
@@ -8326,12 +8342,6 @@
     <mergeCell ref="I54:J54"/>
     <mergeCell ref="K54:L54"/>
     <mergeCell ref="K56:L56"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0.15748031496062992" top="0.35433070866141736" bottom="0.31496062992125984" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="75" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -8363,11 +8373,11 @@
   <sheetData>
     <row r="1" spans="2:6" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="155"/>
-      <c r="C1" s="487" t="s">
+      <c r="C1" s="489" t="s">
         <v>320</v>
       </c>
-      <c r="D1" s="487"/>
-      <c r="E1" s="488"/>
+      <c r="D1" s="489"/>
+      <c r="E1" s="490"/>
       <c r="F1" s="389"/>
     </row>
     <row r="2" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -8385,12 +8395,12 @@
       <c r="F3" s="396"/>
     </row>
     <row r="4" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B4" s="489" t="s">
+      <c r="B4" s="491" t="s">
         <v>316</v>
       </c>
-      <c r="C4" s="490"/>
-      <c r="D4" s="490"/>
-      <c r="E4" s="490"/>
+      <c r="C4" s="492"/>
+      <c r="D4" s="492"/>
+      <c r="E4" s="492"/>
       <c r="F4" s="397">
         <v>499853.16</v>
       </c>
@@ -8405,12 +8415,12 @@
       </c>
     </row>
     <row r="6" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B6" s="491" t="s">
+      <c r="B6" s="493" t="s">
         <v>317</v>
       </c>
-      <c r="C6" s="492"/>
-      <c r="D6" s="492"/>
-      <c r="E6" s="492"/>
+      <c r="C6" s="494"/>
+      <c r="D6" s="494"/>
+      <c r="E6" s="494"/>
       <c r="F6" s="397">
         <v>781251.72</v>
       </c>
@@ -8428,10 +8438,10 @@
       <c r="B8" s="390"/>
       <c r="C8" s="383"/>
       <c r="D8" s="384"/>
-      <c r="E8" s="493" t="s">
+      <c r="E8" s="495" t="s">
         <v>315</v>
       </c>
-      <c r="F8" s="495">
+      <c r="F8" s="497">
         <f>SUM(F4:F7)</f>
         <v>1281104.8799999999</v>
       </c>
@@ -8440,8 +8450,8 @@
       <c r="B9" s="390"/>
       <c r="C9" s="383"/>
       <c r="D9" s="384"/>
-      <c r="E9" s="494"/>
-      <c r="F9" s="496"/>
+      <c r="E9" s="496"/>
+      <c r="F9" s="498"/>
     </row>
     <row r="10" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B10" s="390"/>
@@ -8465,12 +8475,12 @@
       <c r="F12" s="396"/>
     </row>
     <row r="13" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B13" s="497" t="s">
+      <c r="B13" s="499" t="s">
         <v>318</v>
       </c>
-      <c r="C13" s="498"/>
-      <c r="D13" s="498"/>
-      <c r="E13" s="498"/>
+      <c r="C13" s="500"/>
+      <c r="D13" s="500"/>
+      <c r="E13" s="500"/>
       <c r="F13" s="397">
         <v>255460.4</v>
       </c>
@@ -8485,12 +8495,12 @@
       </c>
     </row>
     <row r="15" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B15" s="497" t="s">
+      <c r="B15" s="499" t="s">
         <v>319</v>
       </c>
-      <c r="C15" s="498"/>
-      <c r="D15" s="498"/>
-      <c r="E15" s="498"/>
+      <c r="C15" s="500"/>
+      <c r="D15" s="500"/>
+      <c r="E15" s="500"/>
       <c r="F15" s="397">
         <v>6037.34</v>
       </c>
@@ -8508,10 +8518,10 @@
       <c r="B17" s="390"/>
       <c r="C17" s="383"/>
       <c r="D17" s="384"/>
-      <c r="E17" s="499" t="s">
+      <c r="E17" s="501" t="s">
         <v>315</v>
       </c>
-      <c r="F17" s="501">
+      <c r="F17" s="503">
         <f>SUM(F13:F16)</f>
         <v>261497.74</v>
       </c>
@@ -8520,8 +8530,8 @@
       <c r="B18" s="390"/>
       <c r="C18" s="383"/>
       <c r="D18" s="384"/>
-      <c r="E18" s="500"/>
-      <c r="F18" s="502"/>
+      <c r="E18" s="502"/>
+      <c r="F18" s="504"/>
     </row>
     <row r="19" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B19" s="390"/>
@@ -8545,22 +8555,22 @@
       <c r="F21" s="396"/>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B22" s="481" t="s">
+      <c r="B22" s="483" t="s">
         <v>321</v>
       </c>
-      <c r="C22" s="482"/>
-      <c r="D22" s="482"/>
-      <c r="E22" s="482"/>
-      <c r="F22" s="485">
+      <c r="C22" s="484"/>
+      <c r="D22" s="484"/>
+      <c r="E22" s="484"/>
+      <c r="F22" s="487">
         <v>12020</v>
       </c>
     </row>
     <row r="23" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="483"/>
-      <c r="C23" s="484"/>
-      <c r="D23" s="484"/>
-      <c r="E23" s="484"/>
-      <c r="F23" s="486"/>
+      <c r="B23" s="485"/>
+      <c r="C23" s="486"/>
+      <c r="D23" s="486"/>
+      <c r="E23" s="486"/>
+      <c r="F23" s="488"/>
     </row>
     <row r="24" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B24" s="356"/>
@@ -9920,7 +9930,7 @@
       <c r="A41" s="140">
         <v>44507</v>
       </c>
-      <c r="B41" s="448" t="s">
+      <c r="B41" s="450" t="s">
         <v>92</v>
       </c>
       <c r="C41" s="190">
@@ -9952,7 +9962,7 @@
       <c r="A42" s="140" t="s">
         <v>93</v>
       </c>
-      <c r="B42" s="449"/>
+      <c r="B42" s="451"/>
       <c r="C42" s="143">
         <v>0</v>
       </c>
@@ -11548,23 +11558,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="413"/>
-      <c r="C1" s="415" t="s">
+      <c r="B1" s="439"/>
+      <c r="C1" s="441" t="s">
         <v>208</v>
       </c>
-      <c r="D1" s="416"/>
-      <c r="E1" s="416"/>
-      <c r="F1" s="416"/>
-      <c r="G1" s="416"/>
-      <c r="H1" s="416"/>
-      <c r="I1" s="416"/>
-      <c r="J1" s="416"/>
-      <c r="K1" s="416"/>
-      <c r="L1" s="416"/>
-      <c r="M1" s="416"/>
+      <c r="D1" s="442"/>
+      <c r="E1" s="442"/>
+      <c r="F1" s="442"/>
+      <c r="G1" s="442"/>
+      <c r="H1" s="442"/>
+      <c r="I1" s="442"/>
+      <c r="J1" s="442"/>
+      <c r="K1" s="442"/>
+      <c r="L1" s="442"/>
+      <c r="M1" s="442"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="414"/>
+      <c r="B2" s="440"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -11574,21 +11584,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="417" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="418"/>
+      <c r="B3" s="443" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="444"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="419" t="s">
+      <c r="H3" s="445" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="419"/>
+      <c r="I3" s="445"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="456" t="s">
+      <c r="P3" s="469" t="s">
         <v>6</v>
       </c>
     </row>
@@ -11603,14 +11613,14 @@
       <c r="D4" s="18">
         <v>44507</v>
       </c>
-      <c r="E4" s="420" t="s">
+      <c r="E4" s="446" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="421"/>
-      <c r="H4" s="422" t="s">
+      <c r="F4" s="447"/>
+      <c r="H4" s="448" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="423"/>
+      <c r="I4" s="449"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -11620,14 +11630,14 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="457"/>
+      <c r="P4" s="470"/>
       <c r="Q4" s="286" t="s">
         <v>209</v>
       </c>
-      <c r="W4" s="466" t="s">
+      <c r="W4" s="452" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="466"/>
+      <c r="X4" s="452"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -11678,8 +11688,8 @@
         <f>20000+7936</f>
         <v>27936</v>
       </c>
-      <c r="W5" s="466"/>
-      <c r="X5" s="466"/>
+      <c r="W5" s="452"/>
+      <c r="X5" s="452"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -12450,7 +12460,7 @@
         <v>26370</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="470">
+      <c r="W19" s="456">
         <f t="shared" ref="W19" si="3">SUM(W6:W18)</f>
         <v>935136</v>
       </c>
@@ -12502,7 +12512,7 @@
         <v>16395.830000000002</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="471"/>
+      <c r="W20" s="457"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -12551,8 +12561,8 @@
         <v>19188.82</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="472"/>
-      <c r="X21" s="472"/>
+      <c r="W21" s="458"/>
+      <c r="X21" s="458"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -12653,8 +12663,8 @@
         <v>45217.29</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="473"/>
-      <c r="X23" s="473"/>
+      <c r="W23" s="459"/>
+      <c r="X23" s="459"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -12708,8 +12718,8 @@
         <v>23159.17</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="473"/>
-      <c r="X24" s="473"/>
+      <c r="W24" s="459"/>
+      <c r="X24" s="459"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -12755,8 +12765,8 @@
       <c r="R25" s="285">
         <v>28952</v>
       </c>
-      <c r="W25" s="474"/>
-      <c r="X25" s="474"/>
+      <c r="W25" s="460"/>
+      <c r="X25" s="460"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -12807,8 +12817,8 @@
       <c r="R26" s="285">
         <v>21771.5</v>
       </c>
-      <c r="W26" s="474"/>
-      <c r="X26" s="474"/>
+      <c r="W26" s="460"/>
+      <c r="X26" s="460"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -12856,9 +12866,9 @@
       <c r="R27" s="285">
         <v>14637</v>
       </c>
-      <c r="W27" s="467"/>
-      <c r="X27" s="468"/>
-      <c r="Y27" s="469"/>
+      <c r="W27" s="453"/>
+      <c r="X27" s="454"/>
+      <c r="Y27" s="455"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -12908,9 +12918,9 @@
       <c r="R28" s="285">
         <v>0</v>
       </c>
-      <c r="W28" s="468"/>
-      <c r="X28" s="468"/>
-      <c r="Y28" s="469"/>
+      <c r="W28" s="454"/>
+      <c r="X28" s="454"/>
+      <c r="Y28" s="455"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -13245,11 +13255,11 @@
       <c r="L36" s="44">
         <v>5940</v>
       </c>
-      <c r="M36" s="458">
+      <c r="M36" s="471">
         <f t="shared" ref="M36" si="4">SUM(M5:M35)</f>
         <v>321168.83</v>
       </c>
-      <c r="N36" s="460">
+      <c r="N36" s="473">
         <f t="shared" ref="N36" si="5">SUM(N5:N35)</f>
         <v>467016</v>
       </c>
@@ -13257,7 +13267,7 @@
       <c r="P36" s="277">
         <v>0</v>
       </c>
-      <c r="Q36" s="462">
+      <c r="Q36" s="475">
         <f t="shared" ref="Q36" si="6">SUM(Q5:Q35)</f>
         <v>-637069.14000000013</v>
       </c>
@@ -13292,13 +13302,13 @@
       <c r="L37" s="61">
         <v>7929.62</v>
       </c>
-      <c r="M37" s="459"/>
-      <c r="N37" s="461"/>
+      <c r="M37" s="472"/>
+      <c r="N37" s="474"/>
       <c r="O37" s="276"/>
       <c r="P37" s="277">
         <v>0</v>
       </c>
-      <c r="Q37" s="463"/>
+      <c r="Q37" s="476"/>
     </row>
     <row r="38" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="23"/>
@@ -13588,26 +13598,26 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="435" t="s">
+      <c r="H52" s="426" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="436"/>
+      <c r="I52" s="427"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="437">
+      <c r="K52" s="428">
         <f>I50+L50</f>
         <v>71911.59</v>
       </c>
-      <c r="L52" s="464"/>
+      <c r="L52" s="461"/>
       <c r="M52" s="272"/>
       <c r="N52" s="272"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="13"/>
     </row>
     <row r="53" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D53" s="441" t="s">
+      <c r="D53" s="432" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="441"/>
+      <c r="E53" s="432"/>
       <c r="F53" s="313">
         <f>F50-K52-C50</f>
         <v>-25952.549999999814</v>
@@ -13616,29 +13626,29 @@
       <c r="J53" s="103"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="465" t="s">
+      <c r="D54" s="462" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="465"/>
+      <c r="E54" s="462"/>
       <c r="F54" s="111">
         <v>-706888.38</v>
       </c>
-      <c r="I54" s="442" t="s">
+      <c r="I54" s="433" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="443"/>
-      <c r="K54" s="444">
+      <c r="J54" s="434"/>
+      <c r="K54" s="435">
         <f>F56+F57+F58</f>
         <v>1308778.3500000003</v>
       </c>
-      <c r="L54" s="444"/>
-      <c r="M54" s="450" t="s">
+      <c r="L54" s="435"/>
+      <c r="M54" s="463" t="s">
         <v>211</v>
       </c>
-      <c r="N54" s="451"/>
-      <c r="O54" s="451"/>
-      <c r="P54" s="451"/>
-      <c r="Q54" s="452"/>
+      <c r="N54" s="464"/>
+      <c r="O54" s="464"/>
+      <c r="P54" s="464"/>
+      <c r="Q54" s="465"/>
     </row>
     <row r="55" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D55" s="314" t="s">
@@ -13652,11 +13662,11 @@
       <c r="J55" s="106"/>
       <c r="K55" s="178"/>
       <c r="L55" s="107"/>
-      <c r="M55" s="453"/>
-      <c r="N55" s="454"/>
-      <c r="O55" s="454"/>
-      <c r="P55" s="454"/>
-      <c r="Q55" s="455"/>
+      <c r="M55" s="466"/>
+      <c r="N55" s="467"/>
+      <c r="O55" s="467"/>
+      <c r="P55" s="467"/>
+      <c r="Q55" s="468"/>
     </row>
     <row r="56" spans="1:17" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="C56" s="4" t="s">
@@ -13674,11 +13684,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="446">
+      <c r="K56" s="437">
         <f>-C4</f>
         <v>-567389.35</v>
       </c>
-      <c r="L56" s="447"/>
+      <c r="L56" s="438"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -13695,22 +13705,22 @@
       <c r="C58" s="112">
         <v>44535</v>
       </c>
-      <c r="D58" s="424" t="s">
+      <c r="D58" s="415" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="425"/>
+      <c r="E58" s="416"/>
       <c r="F58" s="113">
         <v>2142307.62</v>
       </c>
-      <c r="I58" s="426" t="s">
+      <c r="I58" s="417" t="s">
         <v>198</v>
       </c>
-      <c r="J58" s="427"/>
-      <c r="K58" s="428">
+      <c r="J58" s="418"/>
+      <c r="K58" s="419">
         <f>K54+K56</f>
         <v>741389.00000000035</v>
       </c>
-      <c r="L58" s="428"/>
+      <c r="L58" s="419"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -13854,14 +13864,17 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="W4:X5"/>
-    <mergeCell ref="W27:X28"/>
-    <mergeCell ref="Y27:Y28"/>
-    <mergeCell ref="W19:W20"/>
-    <mergeCell ref="W21:X21"/>
-    <mergeCell ref="W23:X24"/>
-    <mergeCell ref="W25:X25"/>
-    <mergeCell ref="W26:X26"/>
+    <mergeCell ref="M54:Q55"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="M36:M37"/>
+    <mergeCell ref="N36:N37"/>
+    <mergeCell ref="Q36:Q37"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
     <mergeCell ref="D58:E58"/>
     <mergeCell ref="I58:J58"/>
     <mergeCell ref="K58:L58"/>
@@ -13872,17 +13885,14 @@
     <mergeCell ref="I54:J54"/>
     <mergeCell ref="K54:L54"/>
     <mergeCell ref="K56:L56"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="M54:Q55"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="M36:M37"/>
-    <mergeCell ref="N36:N37"/>
-    <mergeCell ref="Q36:Q37"/>
+    <mergeCell ref="W4:X5"/>
+    <mergeCell ref="W27:X28"/>
+    <mergeCell ref="Y27:Y28"/>
+    <mergeCell ref="W19:W20"/>
+    <mergeCell ref="W21:X21"/>
+    <mergeCell ref="W23:X24"/>
+    <mergeCell ref="W25:X25"/>
+    <mergeCell ref="W26:X26"/>
   </mergeCells>
   <pageMargins left="0.15748031496062992" right="0.15748031496062992" top="0.27559055118110237" bottom="0.27559055118110237" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="68" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -16300,7 +16310,7 @@
       <c r="C87" s="214"/>
       <c r="D87" s="97"/>
       <c r="E87" s="3"/>
-      <c r="F87" s="475" t="s">
+      <c r="F87" s="477" t="s">
         <v>207</v>
       </c>
       <c r="K87" s="1"/>
@@ -16313,7 +16323,7 @@
       <c r="C88" s="1"/>
       <c r="D88" s="97"/>
       <c r="E88" s="3"/>
-      <c r="F88" s="476"/>
+      <c r="F88" s="478"/>
       <c r="K88" s="1"/>
       <c r="L88" s="256"/>
       <c r="M88" s="3"/>
@@ -16595,8 +16605,8 @@
   </sheetPr>
   <dimension ref="A1:Z80"/>
   <sheetViews>
-    <sheetView topLeftCell="H16" workbookViewId="0">
-      <selection activeCell="M30" sqref="M30"/>
+    <sheetView tabSelected="1" topLeftCell="H16" workbookViewId="0">
+      <selection activeCell="O30" sqref="O30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -16625,23 +16635,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="413"/>
-      <c r="C1" s="415" t="s">
+      <c r="B1" s="439"/>
+      <c r="C1" s="441" t="s">
         <v>208</v>
       </c>
-      <c r="D1" s="416"/>
-      <c r="E1" s="416"/>
-      <c r="F1" s="416"/>
-      <c r="G1" s="416"/>
-      <c r="H1" s="416"/>
-      <c r="I1" s="416"/>
-      <c r="J1" s="416"/>
-      <c r="K1" s="416"/>
-      <c r="L1" s="416"/>
-      <c r="M1" s="416"/>
+      <c r="D1" s="442"/>
+      <c r="E1" s="442"/>
+      <c r="F1" s="442"/>
+      <c r="G1" s="442"/>
+      <c r="H1" s="442"/>
+      <c r="I1" s="442"/>
+      <c r="J1" s="442"/>
+      <c r="K1" s="442"/>
+      <c r="L1" s="442"/>
+      <c r="M1" s="442"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="414"/>
+      <c r="B2" s="440"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -16651,24 +16661,24 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="417" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="418"/>
+      <c r="B3" s="443" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="444"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="419" t="s">
+      <c r="H3" s="445" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="419"/>
+      <c r="I3" s="445"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="456" t="s">
+      <c r="P3" s="469" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="477" t="s">
+      <c r="R3" s="479" t="s">
         <v>216</v>
       </c>
     </row>
@@ -16683,14 +16693,14 @@
       <c r="D4" s="18">
         <v>44507</v>
       </c>
-      <c r="E4" s="420" t="s">
+      <c r="E4" s="446" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="421"/>
-      <c r="H4" s="422" t="s">
+      <c r="F4" s="447"/>
+      <c r="H4" s="448" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="423"/>
+      <c r="I4" s="449"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -16700,15 +16710,15 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="457"/>
+      <c r="P4" s="470"/>
       <c r="Q4" s="323" t="s">
         <v>217</v>
       </c>
-      <c r="R4" s="478"/>
-      <c r="W4" s="466" t="s">
+      <c r="R4" s="480"/>
+      <c r="W4" s="452" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="466"/>
+      <c r="X4" s="452"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -16769,8 +16779,8 @@
       <c r="S5" s="325" t="s">
         <v>213</v>
       </c>
-      <c r="W5" s="466"/>
-      <c r="X5" s="466"/>
+      <c r="W5" s="452"/>
+      <c r="X5" s="452"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -17527,7 +17537,7 @@
         <v>0</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="470">
+      <c r="W19" s="456">
         <f t="shared" ref="W19" si="3">SUM(W6:W18)</f>
         <v>0</v>
       </c>
@@ -17579,7 +17589,7 @@
         <v>0</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="471"/>
+      <c r="W20" s="457"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -17628,8 +17638,8 @@
         <v>0</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="472"/>
-      <c r="X21" s="472"/>
+      <c r="W21" s="458"/>
+      <c r="X21" s="458"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -17730,8 +17740,8 @@
         <v>0</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="473"/>
-      <c r="X23" s="473"/>
+      <c r="W23" s="459"/>
+      <c r="X23" s="459"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -17782,8 +17792,8 @@
         <v>0</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="473"/>
-      <c r="X24" s="473"/>
+      <c r="W24" s="459"/>
+      <c r="X24" s="459"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -17829,8 +17839,8 @@
       <c r="R25" s="320">
         <v>0</v>
       </c>
-      <c r="W25" s="474"/>
-      <c r="X25" s="474"/>
+      <c r="W25" s="460"/>
+      <c r="X25" s="460"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -17878,8 +17888,8 @@
       <c r="R26" s="320">
         <v>0</v>
       </c>
-      <c r="W26" s="474"/>
-      <c r="X26" s="474"/>
+      <c r="W26" s="460"/>
+      <c r="X26" s="460"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -17939,9 +17949,9 @@
       <c r="V27" t="s">
         <v>240</v>
       </c>
-      <c r="W27" s="467"/>
-      <c r="X27" s="468"/>
-      <c r="Y27" s="469"/>
+      <c r="W27" s="453"/>
+      <c r="X27" s="454"/>
+      <c r="Y27" s="455"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -17971,7 +17981,7 @@
       <c r="J28" s="56"/>
       <c r="K28" s="57"/>
       <c r="L28" s="54"/>
-      <c r="M28" s="182">
+      <c r="M28" s="32">
         <f>5253+45500</f>
         <v>50753</v>
       </c>
@@ -17995,9 +18005,9 @@
       <c r="V28" t="s">
         <v>240</v>
       </c>
-      <c r="W28" s="468"/>
-      <c r="X28" s="468"/>
-      <c r="Y28" s="469"/>
+      <c r="W28" s="454"/>
+      <c r="X28" s="454"/>
+      <c r="Y28" s="455"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -18096,11 +18106,14 @@
       <c r="N30" s="33">
         <v>44449</v>
       </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
       <c r="P30" s="34">
         <f t="shared" si="0"/>
         <v>139265</v>
       </c>
-      <c r="Q30" s="503">
+      <c r="Q30" s="413">
         <f t="shared" si="1"/>
         <v>-13665</v>
       </c>
@@ -18310,11 +18323,11 @@
       <c r="J36" s="266"/>
       <c r="K36" s="250"/>
       <c r="L36" s="44"/>
-      <c r="M36" s="458">
+      <c r="M36" s="471">
         <f t="shared" ref="M36" si="4">SUM(M5:M35)</f>
         <v>1077791.3</v>
       </c>
-      <c r="N36" s="460">
+      <c r="N36" s="473">
         <f t="shared" ref="N36" si="5">SUM(N5:N35)</f>
         <v>936398</v>
       </c>
@@ -18322,7 +18335,7 @@
       <c r="P36" s="277">
         <v>0</v>
       </c>
-      <c r="Q36" s="462">
+      <c r="Q36" s="475">
         <f t="shared" ref="Q36" si="6">SUM(Q5:Q35)</f>
         <v>-14262.940000000002</v>
       </c>
@@ -18341,13 +18354,13 @@
       <c r="J37" s="60"/>
       <c r="K37" s="41"/>
       <c r="L37" s="61"/>
-      <c r="M37" s="459"/>
-      <c r="N37" s="461"/>
+      <c r="M37" s="472"/>
+      <c r="N37" s="474"/>
       <c r="O37" s="276"/>
       <c r="P37" s="277">
         <v>0</v>
       </c>
-      <c r="Q37" s="463"/>
+      <c r="Q37" s="476"/>
     </row>
     <row r="38" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="23"/>
@@ -18621,26 +18634,26 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="435" t="s">
+      <c r="H52" s="426" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="436"/>
+      <c r="I52" s="427"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="437">
+      <c r="K52" s="428">
         <f>I50+L50</f>
         <v>90750.75</v>
       </c>
-      <c r="L52" s="464"/>
+      <c r="L52" s="461"/>
       <c r="M52" s="272"/>
       <c r="N52" s="272"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="13"/>
     </row>
     <row r="53" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D53" s="441" t="s">
+      <c r="D53" s="432" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="441"/>
+      <c r="E53" s="432"/>
       <c r="F53" s="313">
         <f>F50-K52-C50</f>
         <v>1739855.03</v>
@@ -18649,29 +18662,29 @@
       <c r="J53" s="103"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="465" t="s">
+      <c r="D54" s="462" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="465"/>
+      <c r="E54" s="462"/>
       <c r="F54" s="111">
         <v>-1567070.66</v>
       </c>
-      <c r="I54" s="442" t="s">
+      <c r="I54" s="433" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="443"/>
-      <c r="K54" s="444">
+      <c r="J54" s="434"/>
+      <c r="K54" s="435">
         <f>F56+F57+F58</f>
         <v>703192.8600000001</v>
       </c>
-      <c r="L54" s="444"/>
-      <c r="M54" s="450" t="s">
+      <c r="L54" s="435"/>
+      <c r="M54" s="463" t="s">
         <v>211</v>
       </c>
-      <c r="N54" s="451"/>
-      <c r="O54" s="451"/>
-      <c r="P54" s="451"/>
-      <c r="Q54" s="452"/>
+      <c r="N54" s="464"/>
+      <c r="O54" s="464"/>
+      <c r="P54" s="464"/>
+      <c r="Q54" s="465"/>
     </row>
     <row r="55" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D55" s="314" t="s">
@@ -18685,11 +18698,11 @@
       <c r="J55" s="106"/>
       <c r="K55" s="178"/>
       <c r="L55" s="107"/>
-      <c r="M55" s="453"/>
-      <c r="N55" s="454"/>
-      <c r="O55" s="454"/>
-      <c r="P55" s="454"/>
-      <c r="Q55" s="455"/>
+      <c r="M55" s="466"/>
+      <c r="N55" s="467"/>
+      <c r="O55" s="467"/>
+      <c r="P55" s="467"/>
+      <c r="Q55" s="468"/>
     </row>
     <row r="56" spans="1:17" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="C56" s="4" t="s">
@@ -18707,11 +18720,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="446">
+      <c r="K56" s="437">
         <f>-C4</f>
         <v>-567389.35</v>
       </c>
-      <c r="L56" s="447"/>
+      <c r="L56" s="438"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -18728,22 +18741,22 @@
       <c r="C58" s="112">
         <v>44563</v>
       </c>
-      <c r="D58" s="424" t="s">
+      <c r="D58" s="415" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="425"/>
+      <c r="E58" s="416"/>
       <c r="F58" s="113">
         <v>754143.23</v>
       </c>
-      <c r="I58" s="426" t="s">
+      <c r="I58" s="417" t="s">
         <v>198</v>
       </c>
-      <c r="J58" s="427"/>
-      <c r="K58" s="428">
+      <c r="J58" s="418"/>
+      <c r="K58" s="419">
         <f>K54+K56</f>
         <v>135803.51000000013</v>
       </c>
-      <c r="L58" s="428"/>
+      <c r="L58" s="419"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -18887,20 +18900,13 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="I58:J58"/>
-    <mergeCell ref="K58:L58"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="I54:J54"/>
-    <mergeCell ref="K54:L54"/>
-    <mergeCell ref="M54:Q55"/>
-    <mergeCell ref="K56:L56"/>
-    <mergeCell ref="W27:X28"/>
-    <mergeCell ref="Y27:Y28"/>
-    <mergeCell ref="M36:M37"/>
-    <mergeCell ref="N36:N37"/>
-    <mergeCell ref="Q36:Q37"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
     <mergeCell ref="H52:I52"/>
     <mergeCell ref="K52:L52"/>
     <mergeCell ref="W4:X5"/>
@@ -18910,13 +18916,20 @@
     <mergeCell ref="W25:X25"/>
     <mergeCell ref="W26:X26"/>
     <mergeCell ref="R3:R4"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="M54:Q55"/>
+    <mergeCell ref="K56:L56"/>
+    <mergeCell ref="W27:X28"/>
+    <mergeCell ref="Y27:Y28"/>
+    <mergeCell ref="M36:M37"/>
+    <mergeCell ref="N36:N37"/>
+    <mergeCell ref="Q36:Q37"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="I58:J58"/>
+    <mergeCell ref="K58:L58"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="I54:J54"/>
+    <mergeCell ref="K54:L54"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -21099,7 +21112,7 @@
       <c r="C75" s="214"/>
       <c r="D75" s="256"/>
       <c r="E75" s="3"/>
-      <c r="F75" s="475" t="s">
+      <c r="F75" s="477" t="s">
         <v>207</v>
       </c>
       <c r="K75" s="1"/>
@@ -21112,7 +21125,7 @@
       <c r="C76" s="1"/>
       <c r="D76" s="256"/>
       <c r="E76" s="3"/>
-      <c r="F76" s="476"/>
+      <c r="F76" s="478"/>
       <c r="K76" s="1"/>
       <c r="L76" s="97"/>
       <c r="M76" s="3"/>
@@ -21394,8 +21407,8 @@
   </sheetPr>
   <dimension ref="A1:Z80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H13" workbookViewId="0">
-      <selection activeCell="N19" sqref="N19"/>
+    <sheetView topLeftCell="G4" workbookViewId="0">
+      <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -21424,23 +21437,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="413"/>
-      <c r="C1" s="479" t="s">
+      <c r="B1" s="439"/>
+      <c r="C1" s="481" t="s">
         <v>323</v>
       </c>
-      <c r="D1" s="480"/>
-      <c r="E1" s="480"/>
-      <c r="F1" s="480"/>
-      <c r="G1" s="480"/>
-      <c r="H1" s="480"/>
-      <c r="I1" s="480"/>
-      <c r="J1" s="480"/>
-      <c r="K1" s="480"/>
-      <c r="L1" s="480"/>
-      <c r="M1" s="480"/>
+      <c r="D1" s="482"/>
+      <c r="E1" s="482"/>
+      <c r="F1" s="482"/>
+      <c r="G1" s="482"/>
+      <c r="H1" s="482"/>
+      <c r="I1" s="482"/>
+      <c r="J1" s="482"/>
+      <c r="K1" s="482"/>
+      <c r="L1" s="482"/>
+      <c r="M1" s="482"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="414"/>
+      <c r="B2" s="440"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -21450,24 +21463,24 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="417" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="418"/>
+      <c r="B3" s="443" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="444"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="419" t="s">
+      <c r="H3" s="445" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="419"/>
+      <c r="I3" s="445"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="456" t="s">
+      <c r="P3" s="469" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="477" t="s">
+      <c r="R3" s="479" t="s">
         <v>216</v>
       </c>
     </row>
@@ -21482,14 +21495,14 @@
       <c r="D4" s="18">
         <v>44563</v>
       </c>
-      <c r="E4" s="420" t="s">
+      <c r="E4" s="446" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="421"/>
-      <c r="H4" s="422" t="s">
+      <c r="F4" s="447"/>
+      <c r="H4" s="448" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="423"/>
+      <c r="I4" s="449"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -21499,15 +21512,15 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="457"/>
+      <c r="P4" s="470"/>
       <c r="Q4" s="323" t="s">
         <v>217</v>
       </c>
-      <c r="R4" s="478"/>
-      <c r="W4" s="466" t="s">
+      <c r="R4" s="480"/>
+      <c r="W4" s="452" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="466"/>
+      <c r="X4" s="452"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -21558,8 +21571,8 @@
         <v>0</v>
       </c>
       <c r="S5" s="325"/>
-      <c r="W5" s="466"/>
-      <c r="X5" s="466"/>
+      <c r="W5" s="452"/>
+      <c r="X5" s="452"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -22052,7 +22065,7 @@
         <f t="shared" si="2"/>
         <v>70058</v>
       </c>
-      <c r="Q14" s="504">
+      <c r="Q14" s="414">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -22104,7 +22117,7 @@
         <f t="shared" si="0"/>
         <v>60979</v>
       </c>
-      <c r="Q15" s="504">
+      <c r="Q15" s="414">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -22323,7 +22336,7 @@
         <v>0</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="470">
+      <c r="W19" s="456">
         <f t="shared" ref="W19" si="3">SUM(W6:W18)</f>
         <v>0</v>
       </c>
@@ -22335,81 +22348,98 @@
       <c r="B20" s="24">
         <v>44579</v>
       </c>
-      <c r="C20" s="25"/>
-      <c r="D20" s="35"/>
+      <c r="C20" s="25">
+        <v>9987.68</v>
+      </c>
+      <c r="D20" s="35" t="s">
+        <v>341</v>
+      </c>
       <c r="E20" s="27">
         <v>44579</v>
       </c>
-      <c r="F20" s="28"/>
+      <c r="F20" s="28">
+        <v>80067</v>
+      </c>
       <c r="G20" s="2"/>
       <c r="H20" s="36">
         <v>44579</v>
       </c>
-      <c r="I20" s="30"/>
+      <c r="I20" s="30">
+        <v>2777</v>
+      </c>
       <c r="J20" s="37"/>
       <c r="K20" s="171"/>
       <c r="L20" s="45"/>
       <c r="M20" s="32">
-        <v>0</v>
+        <f>6300+40345</f>
+        <v>46645</v>
       </c>
       <c r="N20" s="33">
-        <v>0</v>
+        <v>20658</v>
       </c>
       <c r="P20" s="39">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>80067.679999999993</v>
       </c>
       <c r="Q20" s="318">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.67999999999301508</v>
       </c>
       <c r="R20" s="320">
         <v>0</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="471"/>
+      <c r="W20" s="457"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
-    <row r="21" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:26" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="23"/>
       <c r="B21" s="24">
         <v>44580</v>
       </c>
-      <c r="C21" s="25"/>
-      <c r="D21" s="35"/>
+      <c r="C21" s="25">
+        <v>19604</v>
+      </c>
+      <c r="D21" s="35" t="s">
+        <v>343</v>
+      </c>
       <c r="E21" s="27">
         <v>44580</v>
       </c>
-      <c r="F21" s="28"/>
+      <c r="F21" s="28">
+        <v>74086</v>
+      </c>
       <c r="G21" s="2"/>
       <c r="H21" s="36">
         <v>44580</v>
       </c>
-      <c r="I21" s="30"/>
+      <c r="I21" s="30">
+        <v>3492</v>
+      </c>
       <c r="J21" s="37"/>
       <c r="K21" s="48"/>
       <c r="L21" s="45"/>
       <c r="M21" s="32">
-        <v>0</v>
+        <f>19176+306848+58407+12019.66+3238.65+2807.56</f>
+        <v>402496.87</v>
       </c>
       <c r="N21" s="33">
-        <v>0</v>
+        <v>25767</v>
       </c>
       <c r="P21" s="39">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q21" s="318">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R21" s="320">
-        <v>0</v>
+        <v>451359.87</v>
+      </c>
+      <c r="Q21" s="505">
+        <v>0</v>
+      </c>
+      <c r="R21" s="330">
+        <v>377273.87</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="472"/>
-      <c r="X21" s="472"/>
+      <c r="W21" s="458"/>
+      <c r="X21" s="458"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -22418,17 +22448,25 @@
       <c r="B22" s="24">
         <v>44581</v>
       </c>
-      <c r="C22" s="25"/>
-      <c r="D22" s="35"/>
+      <c r="C22" s="25">
+        <v>7528</v>
+      </c>
+      <c r="D22" s="35" t="s">
+        <v>342</v>
+      </c>
       <c r="E22" s="27">
         <v>44581</v>
       </c>
-      <c r="F22" s="28"/>
+      <c r="F22" s="28">
+        <v>74975</v>
+      </c>
       <c r="G22" s="2"/>
       <c r="H22" s="36">
         <v>44581</v>
       </c>
-      <c r="I22" s="30"/>
+      <c r="I22" s="30">
+        <v>1194</v>
+      </c>
       <c r="J22" s="37"/>
       <c r="K22" s="31"/>
       <c r="L22" s="49"/>
@@ -22436,15 +22474,15 @@
         <v>0</v>
       </c>
       <c r="N22" s="33">
-        <v>0</v>
+        <v>22649</v>
       </c>
       <c r="P22" s="39">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q22" s="318">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>31371</v>
+      </c>
+      <c r="Q22" s="338">
+        <f t="shared" si="1"/>
+        <v>-43604</v>
       </c>
       <c r="R22" s="320">
         <v>0</v>
@@ -22492,8 +22530,8 @@
         <v>0</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="473"/>
-      <c r="X23" s="473"/>
+      <c r="W23" s="459"/>
+      <c r="X23" s="459"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -22534,8 +22572,8 @@
         <v>0</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="473"/>
-      <c r="X24" s="473"/>
+      <c r="W24" s="459"/>
+      <c r="X24" s="459"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -22575,8 +22613,8 @@
       <c r="R25" s="320">
         <v>0</v>
       </c>
-      <c r="W25" s="474"/>
-      <c r="X25" s="474"/>
+      <c r="W25" s="460"/>
+      <c r="X25" s="460"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -22616,8 +22654,8 @@
       <c r="R26" s="320">
         <v>0</v>
       </c>
-      <c r="W26" s="474"/>
-      <c r="X26" s="474"/>
+      <c r="W26" s="460"/>
+      <c r="X26" s="460"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -22663,9 +22701,9 @@
       <c r="V27" t="s">
         <v>240</v>
       </c>
-      <c r="W27" s="467"/>
-      <c r="X27" s="468"/>
-      <c r="Y27" s="469"/>
+      <c r="W27" s="453"/>
+      <c r="X27" s="454"/>
+      <c r="Y27" s="455"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -22710,9 +22748,9 @@
       <c r="V28" t="s">
         <v>240</v>
       </c>
-      <c r="W28" s="468"/>
-      <c r="X28" s="468"/>
-      <c r="Y28" s="469"/>
+      <c r="W28" s="454"/>
+      <c r="X28" s="454"/>
+      <c r="Y28" s="455"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -22994,21 +23032,21 @@
       <c r="J36" s="266"/>
       <c r="K36" s="250"/>
       <c r="L36" s="44"/>
-      <c r="M36" s="458">
+      <c r="M36" s="471">
         <f t="shared" ref="M36:N36" si="4">SUM(M5:M35)</f>
-        <v>479609</v>
-      </c>
-      <c r="N36" s="460">
+        <v>928750.87</v>
+      </c>
+      <c r="N36" s="473">
         <f t="shared" si="4"/>
-        <v>391879</v>
+        <v>460953</v>
       </c>
       <c r="O36" s="276"/>
       <c r="P36" s="277">
         <v>0</v>
       </c>
-      <c r="Q36" s="462">
+      <c r="Q36" s="475">
         <f t="shared" ref="Q36" si="5">SUM(Q5:Q35)</f>
-        <v>-8.6000000000058208</v>
+        <v>-43611.920000000013</v>
       </c>
       <c r="R36" s="228"/>
     </row>
@@ -23031,13 +23069,13 @@
       <c r="J37" s="60"/>
       <c r="K37" s="41"/>
       <c r="L37" s="61"/>
-      <c r="M37" s="459"/>
-      <c r="N37" s="461"/>
+      <c r="M37" s="472"/>
+      <c r="N37" s="474"/>
       <c r="O37" s="276"/>
       <c r="P37" s="277">
         <v>0</v>
       </c>
-      <c r="Q37" s="463"/>
+      <c r="Q37" s="476"/>
     </row>
     <row r="38" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="23"/>
@@ -23088,7 +23126,7 @@
       <c r="N39" s="278"/>
       <c r="P39" s="34">
         <f>SUM(P5:P38)</f>
-        <v>1097324.73</v>
+        <v>1660123.2799999998</v>
       </c>
       <c r="Q39" s="275"/>
     </row>
@@ -23291,7 +23329,7 @@
       </c>
       <c r="C50" s="87">
         <f>SUM(C5:C49)</f>
-        <v>173701</v>
+        <v>210820.68</v>
       </c>
       <c r="D50" s="88"/>
       <c r="E50" s="89" t="s">
@@ -23299,7 +23337,7 @@
       </c>
       <c r="F50" s="90">
         <f>SUM(F5:F49)</f>
-        <v>1095443</v>
+        <v>1324571</v>
       </c>
       <c r="G50" s="88"/>
       <c r="H50" s="91" t="s">
@@ -23307,7 +23345,7 @@
       </c>
       <c r="I50" s="92">
         <f>SUM(I5:I49)</f>
-        <v>25269.9</v>
+        <v>32732.9</v>
       </c>
       <c r="J50" s="93"/>
       <c r="K50" s="94" t="s">
@@ -23333,57 +23371,57 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="435" t="s">
+      <c r="H52" s="426" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="436"/>
+      <c r="I52" s="427"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="437">
+      <c r="K52" s="428">
         <f>I50+L50</f>
-        <v>65561.899999999994</v>
-      </c>
-      <c r="L52" s="464"/>
+        <v>73024.899999999994</v>
+      </c>
+      <c r="L52" s="461"/>
       <c r="M52" s="272"/>
       <c r="N52" s="272"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="13"/>
     </row>
     <row r="53" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D53" s="441" t="s">
+      <c r="D53" s="432" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="441"/>
+      <c r="E53" s="432"/>
       <c r="F53" s="313">
         <f>F50-K52-C50</f>
-        <v>856180.1</v>
+        <v>1040725.4200000002</v>
       </c>
       <c r="I53" s="102"/>
       <c r="J53" s="103"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="465" t="s">
+      <c r="D54" s="462" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="465"/>
+      <c r="E54" s="462"/>
       <c r="F54" s="111">
         <v>0</v>
       </c>
-      <c r="I54" s="442" t="s">
+      <c r="I54" s="433" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="443"/>
-      <c r="K54" s="444">
+      <c r="J54" s="434"/>
+      <c r="K54" s="435">
         <f>F56+F57+F58</f>
-        <v>856180.1</v>
-      </c>
-      <c r="L54" s="444"/>
-      <c r="M54" s="450" t="s">
+        <v>1040725.4200000002</v>
+      </c>
+      <c r="L54" s="435"/>
+      <c r="M54" s="463" t="s">
         <v>211</v>
       </c>
-      <c r="N54" s="451"/>
-      <c r="O54" s="451"/>
-      <c r="P54" s="451"/>
-      <c r="Q54" s="452"/>
+      <c r="N54" s="464"/>
+      <c r="O54" s="464"/>
+      <c r="P54" s="464"/>
+      <c r="Q54" s="465"/>
     </row>
     <row r="55" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D55" s="314" t="s">
@@ -23397,11 +23435,11 @@
       <c r="J55" s="106"/>
       <c r="K55" s="178"/>
       <c r="L55" s="107"/>
-      <c r="M55" s="453"/>
-      <c r="N55" s="454"/>
-      <c r="O55" s="454"/>
-      <c r="P55" s="454"/>
-      <c r="Q55" s="455"/>
+      <c r="M55" s="466"/>
+      <c r="N55" s="467"/>
+      <c r="O55" s="467"/>
+      <c r="P55" s="467"/>
+      <c r="Q55" s="468"/>
     </row>
     <row r="56" spans="1:17" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="C56" s="4" t="s">
@@ -23412,18 +23450,18 @@
       </c>
       <c r="F56" s="96">
         <f>SUM(F53:F55)</f>
-        <v>856180.1</v>
+        <v>1040725.4200000002</v>
       </c>
       <c r="H56" s="23"/>
       <c r="I56" s="108" t="s">
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="446">
+      <c r="K56" s="437">
         <f>-C4</f>
         <v>-754143.23</v>
       </c>
-      <c r="L56" s="447"/>
+      <c r="L56" s="438"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -23438,22 +23476,22 @@
     </row>
     <row r="58" spans="1:17" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C58" s="112"/>
-      <c r="D58" s="424" t="s">
+      <c r="D58" s="415" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="425"/>
+      <c r="E58" s="416"/>
       <c r="F58" s="113">
         <v>0</v>
       </c>
-      <c r="I58" s="426" t="s">
+      <c r="I58" s="417" t="s">
         <v>198</v>
       </c>
-      <c r="J58" s="427"/>
-      <c r="K58" s="428">
+      <c r="J58" s="418"/>
+      <c r="K58" s="419">
         <f>K54+K56</f>
-        <v>102036.87</v>
-      </c>
-      <c r="L58" s="428"/>
+        <v>286582.19000000018</v>
+      </c>
+      <c r="L58" s="419"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -23597,20 +23635,13 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="I58:J58"/>
-    <mergeCell ref="K58:L58"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="I54:J54"/>
-    <mergeCell ref="K54:L54"/>
-    <mergeCell ref="M54:Q55"/>
-    <mergeCell ref="K56:L56"/>
-    <mergeCell ref="W27:X28"/>
-    <mergeCell ref="Y27:Y28"/>
-    <mergeCell ref="M36:M37"/>
-    <mergeCell ref="N36:N37"/>
-    <mergeCell ref="Q36:Q37"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
     <mergeCell ref="H52:I52"/>
     <mergeCell ref="K52:L52"/>
     <mergeCell ref="W4:X5"/>
@@ -23620,13 +23651,20 @@
     <mergeCell ref="W25:X25"/>
     <mergeCell ref="W26:X26"/>
     <mergeCell ref="R3:R4"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="M54:Q55"/>
+    <mergeCell ref="K56:L56"/>
+    <mergeCell ref="W27:X28"/>
+    <mergeCell ref="Y27:Y28"/>
+    <mergeCell ref="M36:M37"/>
+    <mergeCell ref="N36:N37"/>
+    <mergeCell ref="Q36:Q37"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="I58:J58"/>
+    <mergeCell ref="K58:L58"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="I54:J54"/>
+    <mergeCell ref="K54:L54"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -25179,7 +25217,7 @@
       <c r="C75" s="214"/>
       <c r="D75" s="256"/>
       <c r="E75" s="3"/>
-      <c r="F75" s="475" t="s">
+      <c r="F75" s="477" t="s">
         <v>207</v>
       </c>
       <c r="K75" s="1"/>
@@ -25192,7 +25230,7 @@
       <c r="C76" s="1"/>
       <c r="D76" s="256"/>
       <c r="E76" s="3"/>
-      <c r="F76" s="476"/>
+      <c r="F76" s="478"/>
       <c r="K76" s="1"/>
       <c r="L76" s="97"/>
       <c r="M76" s="3"/>

--- a/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/BALANCE    ZAVALETA   ENERO     2022.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/BALANCE    ZAVALETA   ENERO     2022.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3690" yWindow="0" windowWidth="16605" windowHeight="10920" firstSheet="4" activeTab="4"/>
+    <workbookView xWindow="3690" yWindow="0" windowWidth="16605" windowHeight="10920" firstSheet="5" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="OCTUBRE      2 0 2 1     " sheetId="1" r:id="rId1"/>
@@ -296,7 +296,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="344">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="664" uniqueCount="350">
   <si>
     <t>COMPRAS</t>
   </si>
@@ -1328,6 +1328,24 @@
   </si>
   <si>
     <t>JAMON-QUESO-POLLO-LONGANIZA</t>
+  </si>
+  <si>
+    <t>NOMINA 4</t>
+  </si>
+  <si>
+    <t>QUESOS-CHISTORRA-POLLO-LONGANIZA</t>
+  </si>
+  <si>
+    <t>NOMIN A # 4</t>
+  </si>
+  <si>
+    <t>MANTEQUILLA-POLLO-CREMA</t>
+  </si>
+  <si>
+    <t>POLLO-CHISTORRA-CHORIZO-QUESOS</t>
+  </si>
+  <si>
+    <t>LONGANIZA-POLLO-QUESOS-CHORIZO</t>
   </si>
 </sst>
 </file>
@@ -3982,7 +4000,6 @@
     <xf numFmtId="44" fontId="3" fillId="0" borderId="84" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4000,11 +4017,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="44" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="44" fontId="2" fillId="18" borderId="84" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="44" fontId="46" fillId="6" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="46" fillId="0" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="41" fillId="0" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4275,7 +4290,12 @@
     <xf numFmtId="44" fontId="11" fillId="14" borderId="99" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="41" fillId="0" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="2" fillId="17" borderId="84" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="17" borderId="84" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -6304,23 +6324,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="439"/>
-      <c r="C1" s="441" t="s">
+      <c r="B1" s="438"/>
+      <c r="C1" s="440" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="442"/>
-      <c r="E1" s="442"/>
-      <c r="F1" s="442"/>
-      <c r="G1" s="442"/>
-      <c r="H1" s="442"/>
-      <c r="I1" s="442"/>
-      <c r="J1" s="442"/>
-      <c r="K1" s="442"/>
-      <c r="L1" s="442"/>
-      <c r="M1" s="442"/>
+      <c r="D1" s="441"/>
+      <c r="E1" s="441"/>
+      <c r="F1" s="441"/>
+      <c r="G1" s="441"/>
+      <c r="H1" s="441"/>
+      <c r="I1" s="441"/>
+      <c r="J1" s="441"/>
+      <c r="K1" s="441"/>
+      <c r="L1" s="441"/>
+      <c r="M1" s="441"/>
     </row>
     <row r="2" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="440"/>
+      <c r="B2" s="439"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -6330,17 +6350,17 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:19" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="443" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="444"/>
+      <c r="B3" s="442" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="443"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="445" t="s">
+      <c r="H3" s="444" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="445"/>
+      <c r="I3" s="444"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
@@ -6354,14 +6374,14 @@
         <v>0</v>
       </c>
       <c r="D4" s="18"/>
-      <c r="E4" s="446" t="s">
+      <c r="E4" s="445" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="447"/>
-      <c r="H4" s="448" t="s">
+      <c r="F4" s="446"/>
+      <c r="H4" s="447" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="449"/>
+      <c r="I4" s="448"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -6371,10 +6391,10 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="420" t="s">
+      <c r="P4" s="419" t="s">
         <v>6</v>
       </c>
-      <c r="Q4" s="421"/>
+      <c r="Q4" s="420"/>
     </row>
     <row r="5" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="23" t="s">
@@ -7815,11 +7835,11 @@
       <c r="J39" s="60"/>
       <c r="K39" s="177"/>
       <c r="L39" s="61"/>
-      <c r="M39" s="422">
+      <c r="M39" s="421">
         <f>SUM(M5:M38)</f>
         <v>247061</v>
       </c>
-      <c r="N39" s="424">
+      <c r="N39" s="423">
         <f>SUM(N5:N38)</f>
         <v>172863</v>
       </c>
@@ -7845,8 +7865,8 @@
       <c r="J40" s="60"/>
       <c r="K40" s="41"/>
       <c r="L40" s="61"/>
-      <c r="M40" s="423"/>
-      <c r="N40" s="425"/>
+      <c r="M40" s="422"/>
+      <c r="N40" s="424"/>
       <c r="P40" s="34"/>
       <c r="Q40" s="9"/>
     </row>
@@ -8061,29 +8081,29 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="426" t="s">
+      <c r="H52" s="425" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="427"/>
+      <c r="I52" s="426"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="428">
+      <c r="K52" s="427">
         <f>I50+L50</f>
         <v>53873.49</v>
       </c>
-      <c r="L52" s="429"/>
-      <c r="M52" s="430">
+      <c r="L52" s="428"/>
+      <c r="M52" s="429">
         <f>N39+M39</f>
         <v>419924</v>
       </c>
-      <c r="N52" s="431"/>
+      <c r="N52" s="430"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="9"/>
     </row>
     <row r="53" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D53" s="432" t="s">
+      <c r="D53" s="431" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="432"/>
+      <c r="E53" s="431"/>
       <c r="F53" s="101">
         <f>F50-K52-C50</f>
         <v>471038.61</v>
@@ -8094,22 +8114,22 @@
       <c r="Q53" s="9"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="432" t="s">
+      <c r="D54" s="431" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="432"/>
+      <c r="E54" s="431"/>
       <c r="F54" s="96">
         <v>-549976.4</v>
       </c>
-      <c r="I54" s="433" t="s">
+      <c r="I54" s="432" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="434"/>
-      <c r="K54" s="435">
+      <c r="J54" s="433"/>
+      <c r="K54" s="434">
         <f>F56+F57+F58</f>
         <v>-24577.400000000023</v>
       </c>
-      <c r="L54" s="436"/>
+      <c r="L54" s="435"/>
       <c r="P54" s="34"/>
       <c r="Q54" s="9"/>
     </row>
@@ -8142,11 +8162,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="437">
+      <c r="K56" s="436">
         <f>-C4</f>
         <v>0</v>
       </c>
-      <c r="L56" s="438"/>
+      <c r="L56" s="437"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -8163,22 +8183,22 @@
       <c r="C58" s="112">
         <v>44507</v>
       </c>
-      <c r="D58" s="415" t="s">
+      <c r="D58" s="414" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="416"/>
+      <c r="E58" s="415"/>
       <c r="F58" s="113">
         <v>567389.35</v>
       </c>
-      <c r="I58" s="417" t="s">
+      <c r="I58" s="416" t="s">
         <v>97</v>
       </c>
-      <c r="J58" s="418"/>
-      <c r="K58" s="419">
+      <c r="J58" s="417"/>
+      <c r="K58" s="418">
         <f>K54+K56</f>
         <v>-24577.400000000023</v>
       </c>
-      <c r="L58" s="419"/>
+      <c r="L58" s="418"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -8373,11 +8393,11 @@
   <sheetData>
     <row r="1" spans="2:6" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="155"/>
-      <c r="C1" s="489" t="s">
+      <c r="C1" s="488" t="s">
         <v>320</v>
       </c>
-      <c r="D1" s="489"/>
-      <c r="E1" s="490"/>
+      <c r="D1" s="488"/>
+      <c r="E1" s="489"/>
       <c r="F1" s="389"/>
     </row>
     <row r="2" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -8395,12 +8415,12 @@
       <c r="F3" s="396"/>
     </row>
     <row r="4" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B4" s="491" t="s">
+      <c r="B4" s="490" t="s">
         <v>316</v>
       </c>
-      <c r="C4" s="492"/>
-      <c r="D4" s="492"/>
-      <c r="E4" s="492"/>
+      <c r="C4" s="491"/>
+      <c r="D4" s="491"/>
+      <c r="E4" s="491"/>
       <c r="F4" s="397">
         <v>499853.16</v>
       </c>
@@ -8415,12 +8435,12 @@
       </c>
     </row>
     <row r="6" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B6" s="493" t="s">
+      <c r="B6" s="492" t="s">
         <v>317</v>
       </c>
-      <c r="C6" s="494"/>
-      <c r="D6" s="494"/>
-      <c r="E6" s="494"/>
+      <c r="C6" s="493"/>
+      <c r="D6" s="493"/>
+      <c r="E6" s="493"/>
       <c r="F6" s="397">
         <v>781251.72</v>
       </c>
@@ -8438,10 +8458,10 @@
       <c r="B8" s="390"/>
       <c r="C8" s="383"/>
       <c r="D8" s="384"/>
-      <c r="E8" s="495" t="s">
+      <c r="E8" s="494" t="s">
         <v>315</v>
       </c>
-      <c r="F8" s="497">
+      <c r="F8" s="496">
         <f>SUM(F4:F7)</f>
         <v>1281104.8799999999</v>
       </c>
@@ -8450,8 +8470,8 @@
       <c r="B9" s="390"/>
       <c r="C9" s="383"/>
       <c r="D9" s="384"/>
-      <c r="E9" s="496"/>
-      <c r="F9" s="498"/>
+      <c r="E9" s="495"/>
+      <c r="F9" s="497"/>
     </row>
     <row r="10" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B10" s="390"/>
@@ -8475,12 +8495,12 @@
       <c r="F12" s="396"/>
     </row>
     <row r="13" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B13" s="499" t="s">
+      <c r="B13" s="498" t="s">
         <v>318</v>
       </c>
-      <c r="C13" s="500"/>
-      <c r="D13" s="500"/>
-      <c r="E13" s="500"/>
+      <c r="C13" s="499"/>
+      <c r="D13" s="499"/>
+      <c r="E13" s="499"/>
       <c r="F13" s="397">
         <v>255460.4</v>
       </c>
@@ -8495,12 +8515,12 @@
       </c>
     </row>
     <row r="15" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B15" s="499" t="s">
+      <c r="B15" s="498" t="s">
         <v>319</v>
       </c>
-      <c r="C15" s="500"/>
-      <c r="D15" s="500"/>
-      <c r="E15" s="500"/>
+      <c r="C15" s="499"/>
+      <c r="D15" s="499"/>
+      <c r="E15" s="499"/>
       <c r="F15" s="397">
         <v>6037.34</v>
       </c>
@@ -8518,10 +8538,10 @@
       <c r="B17" s="390"/>
       <c r="C17" s="383"/>
       <c r="D17" s="384"/>
-      <c r="E17" s="501" t="s">
+      <c r="E17" s="500" t="s">
         <v>315</v>
       </c>
-      <c r="F17" s="503">
+      <c r="F17" s="502">
         <f>SUM(F13:F16)</f>
         <v>261497.74</v>
       </c>
@@ -8530,8 +8550,8 @@
       <c r="B18" s="390"/>
       <c r="C18" s="383"/>
       <c r="D18" s="384"/>
-      <c r="E18" s="502"/>
-      <c r="F18" s="504"/>
+      <c r="E18" s="501"/>
+      <c r="F18" s="503"/>
     </row>
     <row r="19" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B19" s="390"/>
@@ -8555,22 +8575,22 @@
       <c r="F21" s="396"/>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B22" s="483" t="s">
+      <c r="B22" s="482" t="s">
         <v>321</v>
       </c>
-      <c r="C22" s="484"/>
-      <c r="D22" s="484"/>
-      <c r="E22" s="484"/>
-      <c r="F22" s="487">
+      <c r="C22" s="483"/>
+      <c r="D22" s="483"/>
+      <c r="E22" s="483"/>
+      <c r="F22" s="486">
         <v>12020</v>
       </c>
     </row>
     <row r="23" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="485"/>
-      <c r="C23" s="486"/>
-      <c r="D23" s="486"/>
-      <c r="E23" s="486"/>
-      <c r="F23" s="488"/>
+      <c r="B23" s="484"/>
+      <c r="C23" s="485"/>
+      <c r="D23" s="485"/>
+      <c r="E23" s="485"/>
+      <c r="F23" s="487"/>
     </row>
     <row r="24" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B24" s="356"/>
@@ -9930,7 +9950,7 @@
       <c r="A41" s="140">
         <v>44507</v>
       </c>
-      <c r="B41" s="450" t="s">
+      <c r="B41" s="449" t="s">
         <v>92</v>
       </c>
       <c r="C41" s="190">
@@ -9962,7 +9982,7 @@
       <c r="A42" s="140" t="s">
         <v>93</v>
       </c>
-      <c r="B42" s="451"/>
+      <c r="B42" s="450"/>
       <c r="C42" s="143">
         <v>0</v>
       </c>
@@ -11558,23 +11578,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="439"/>
-      <c r="C1" s="441" t="s">
+      <c r="B1" s="438"/>
+      <c r="C1" s="440" t="s">
         <v>208</v>
       </c>
-      <c r="D1" s="442"/>
-      <c r="E1" s="442"/>
-      <c r="F1" s="442"/>
-      <c r="G1" s="442"/>
-      <c r="H1" s="442"/>
-      <c r="I1" s="442"/>
-      <c r="J1" s="442"/>
-      <c r="K1" s="442"/>
-      <c r="L1" s="442"/>
-      <c r="M1" s="442"/>
+      <c r="D1" s="441"/>
+      <c r="E1" s="441"/>
+      <c r="F1" s="441"/>
+      <c r="G1" s="441"/>
+      <c r="H1" s="441"/>
+      <c r="I1" s="441"/>
+      <c r="J1" s="441"/>
+      <c r="K1" s="441"/>
+      <c r="L1" s="441"/>
+      <c r="M1" s="441"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="440"/>
+      <c r="B2" s="439"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -11584,21 +11604,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="443" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="444"/>
+      <c r="B3" s="442" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="443"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="445" t="s">
+      <c r="H3" s="444" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="445"/>
+      <c r="I3" s="444"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="469" t="s">
+      <c r="P3" s="468" t="s">
         <v>6</v>
       </c>
     </row>
@@ -11613,14 +11633,14 @@
       <c r="D4" s="18">
         <v>44507</v>
       </c>
-      <c r="E4" s="446" t="s">
+      <c r="E4" s="445" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="447"/>
-      <c r="H4" s="448" t="s">
+      <c r="F4" s="446"/>
+      <c r="H4" s="447" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="449"/>
+      <c r="I4" s="448"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -11630,14 +11650,14 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="470"/>
+      <c r="P4" s="469"/>
       <c r="Q4" s="286" t="s">
         <v>209</v>
       </c>
-      <c r="W4" s="452" t="s">
+      <c r="W4" s="451" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="452"/>
+      <c r="X4" s="451"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -11688,8 +11708,8 @@
         <f>20000+7936</f>
         <v>27936</v>
       </c>
-      <c r="W5" s="452"/>
-      <c r="X5" s="452"/>
+      <c r="W5" s="451"/>
+      <c r="X5" s="451"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -12460,7 +12480,7 @@
         <v>26370</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="456">
+      <c r="W19" s="455">
         <f t="shared" ref="W19" si="3">SUM(W6:W18)</f>
         <v>935136</v>
       </c>
@@ -12512,7 +12532,7 @@
         <v>16395.830000000002</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="457"/>
+      <c r="W20" s="456"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -12561,8 +12581,8 @@
         <v>19188.82</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="458"/>
-      <c r="X21" s="458"/>
+      <c r="W21" s="457"/>
+      <c r="X21" s="457"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -12663,8 +12683,8 @@
         <v>45217.29</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="459"/>
-      <c r="X23" s="459"/>
+      <c r="W23" s="458"/>
+      <c r="X23" s="458"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -12718,8 +12738,8 @@
         <v>23159.17</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="459"/>
-      <c r="X24" s="459"/>
+      <c r="W24" s="458"/>
+      <c r="X24" s="458"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -12765,8 +12785,8 @@
       <c r="R25" s="285">
         <v>28952</v>
       </c>
-      <c r="W25" s="460"/>
-      <c r="X25" s="460"/>
+      <c r="W25" s="459"/>
+      <c r="X25" s="459"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -12817,8 +12837,8 @@
       <c r="R26" s="285">
         <v>21771.5</v>
       </c>
-      <c r="W26" s="460"/>
-      <c r="X26" s="460"/>
+      <c r="W26" s="459"/>
+      <c r="X26" s="459"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -12866,9 +12886,9 @@
       <c r="R27" s="285">
         <v>14637</v>
       </c>
-      <c r="W27" s="453"/>
-      <c r="X27" s="454"/>
-      <c r="Y27" s="455"/>
+      <c r="W27" s="452"/>
+      <c r="X27" s="453"/>
+      <c r="Y27" s="454"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -12918,9 +12938,9 @@
       <c r="R28" s="285">
         <v>0</v>
       </c>
-      <c r="W28" s="454"/>
-      <c r="X28" s="454"/>
-      <c r="Y28" s="455"/>
+      <c r="W28" s="453"/>
+      <c r="X28" s="453"/>
+      <c r="Y28" s="454"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -13255,11 +13275,11 @@
       <c r="L36" s="44">
         <v>5940</v>
       </c>
-      <c r="M36" s="471">
+      <c r="M36" s="470">
         <f t="shared" ref="M36" si="4">SUM(M5:M35)</f>
         <v>321168.83</v>
       </c>
-      <c r="N36" s="473">
+      <c r="N36" s="472">
         <f t="shared" ref="N36" si="5">SUM(N5:N35)</f>
         <v>467016</v>
       </c>
@@ -13267,7 +13287,7 @@
       <c r="P36" s="277">
         <v>0</v>
       </c>
-      <c r="Q36" s="475">
+      <c r="Q36" s="474">
         <f t="shared" ref="Q36" si="6">SUM(Q5:Q35)</f>
         <v>-637069.14000000013</v>
       </c>
@@ -13302,13 +13322,13 @@
       <c r="L37" s="61">
         <v>7929.62</v>
       </c>
-      <c r="M37" s="472"/>
-      <c r="N37" s="474"/>
+      <c r="M37" s="471"/>
+      <c r="N37" s="473"/>
       <c r="O37" s="276"/>
       <c r="P37" s="277">
         <v>0</v>
       </c>
-      <c r="Q37" s="476"/>
+      <c r="Q37" s="475"/>
     </row>
     <row r="38" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="23"/>
@@ -13598,26 +13618,26 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="426" t="s">
+      <c r="H52" s="425" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="427"/>
+      <c r="I52" s="426"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="428">
+      <c r="K52" s="427">
         <f>I50+L50</f>
         <v>71911.59</v>
       </c>
-      <c r="L52" s="461"/>
+      <c r="L52" s="460"/>
       <c r="M52" s="272"/>
       <c r="N52" s="272"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="13"/>
     </row>
     <row r="53" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D53" s="432" t="s">
+      <c r="D53" s="431" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="432"/>
+      <c r="E53" s="431"/>
       <c r="F53" s="313">
         <f>F50-K52-C50</f>
         <v>-25952.549999999814</v>
@@ -13626,29 +13646,29 @@
       <c r="J53" s="103"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="462" t="s">
+      <c r="D54" s="461" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="462"/>
+      <c r="E54" s="461"/>
       <c r="F54" s="111">
         <v>-706888.38</v>
       </c>
-      <c r="I54" s="433" t="s">
+      <c r="I54" s="432" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="434"/>
-      <c r="K54" s="435">
+      <c r="J54" s="433"/>
+      <c r="K54" s="434">
         <f>F56+F57+F58</f>
         <v>1308778.3500000003</v>
       </c>
-      <c r="L54" s="435"/>
-      <c r="M54" s="463" t="s">
+      <c r="L54" s="434"/>
+      <c r="M54" s="462" t="s">
         <v>211</v>
       </c>
-      <c r="N54" s="464"/>
-      <c r="O54" s="464"/>
-      <c r="P54" s="464"/>
-      <c r="Q54" s="465"/>
+      <c r="N54" s="463"/>
+      <c r="O54" s="463"/>
+      <c r="P54" s="463"/>
+      <c r="Q54" s="464"/>
     </row>
     <row r="55" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D55" s="314" t="s">
@@ -13662,11 +13682,11 @@
       <c r="J55" s="106"/>
       <c r="K55" s="178"/>
       <c r="L55" s="107"/>
-      <c r="M55" s="466"/>
-      <c r="N55" s="467"/>
-      <c r="O55" s="467"/>
-      <c r="P55" s="467"/>
-      <c r="Q55" s="468"/>
+      <c r="M55" s="465"/>
+      <c r="N55" s="466"/>
+      <c r="O55" s="466"/>
+      <c r="P55" s="466"/>
+      <c r="Q55" s="467"/>
     </row>
     <row r="56" spans="1:17" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="C56" s="4" t="s">
@@ -13684,11 +13704,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="437">
+      <c r="K56" s="436">
         <f>-C4</f>
         <v>-567389.35</v>
       </c>
-      <c r="L56" s="438"/>
+      <c r="L56" s="437"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -13705,22 +13725,22 @@
       <c r="C58" s="112">
         <v>44535</v>
       </c>
-      <c r="D58" s="415" t="s">
+      <c r="D58" s="414" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="416"/>
+      <c r="E58" s="415"/>
       <c r="F58" s="113">
         <v>2142307.62</v>
       </c>
-      <c r="I58" s="417" t="s">
+      <c r="I58" s="416" t="s">
         <v>198</v>
       </c>
-      <c r="J58" s="418"/>
-      <c r="K58" s="419">
+      <c r="J58" s="417"/>
+      <c r="K58" s="418">
         <f>K54+K56</f>
         <v>741389.00000000035</v>
       </c>
-      <c r="L58" s="419"/>
+      <c r="L58" s="418"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -16310,7 +16330,7 @@
       <c r="C87" s="214"/>
       <c r="D87" s="97"/>
       <c r="E87" s="3"/>
-      <c r="F87" s="477" t="s">
+      <c r="F87" s="476" t="s">
         <v>207</v>
       </c>
       <c r="K87" s="1"/>
@@ -16323,7 +16343,7 @@
       <c r="C88" s="1"/>
       <c r="D88" s="97"/>
       <c r="E88" s="3"/>
-      <c r="F88" s="478"/>
+      <c r="F88" s="477"/>
       <c r="K88" s="1"/>
       <c r="L88" s="256"/>
       <c r="M88" s="3"/>
@@ -16605,7 +16625,7 @@
   </sheetPr>
   <dimension ref="A1:Z80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H16" workbookViewId="0">
+    <sheetView topLeftCell="H16" workbookViewId="0">
       <selection activeCell="O30" sqref="O30"/>
     </sheetView>
   </sheetViews>
@@ -16635,23 +16655,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="439"/>
-      <c r="C1" s="441" t="s">
+      <c r="B1" s="438"/>
+      <c r="C1" s="440" t="s">
         <v>208</v>
       </c>
-      <c r="D1" s="442"/>
-      <c r="E1" s="442"/>
-      <c r="F1" s="442"/>
-      <c r="G1" s="442"/>
-      <c r="H1" s="442"/>
-      <c r="I1" s="442"/>
-      <c r="J1" s="442"/>
-      <c r="K1" s="442"/>
-      <c r="L1" s="442"/>
-      <c r="M1" s="442"/>
+      <c r="D1" s="441"/>
+      <c r="E1" s="441"/>
+      <c r="F1" s="441"/>
+      <c r="G1" s="441"/>
+      <c r="H1" s="441"/>
+      <c r="I1" s="441"/>
+      <c r="J1" s="441"/>
+      <c r="K1" s="441"/>
+      <c r="L1" s="441"/>
+      <c r="M1" s="441"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="440"/>
+      <c r="B2" s="439"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -16661,24 +16681,24 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="443" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="444"/>
+      <c r="B3" s="442" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="443"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="445" t="s">
+      <c r="H3" s="444" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="445"/>
+      <c r="I3" s="444"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="469" t="s">
+      <c r="P3" s="468" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="479" t="s">
+      <c r="R3" s="478" t="s">
         <v>216</v>
       </c>
     </row>
@@ -16693,14 +16713,14 @@
       <c r="D4" s="18">
         <v>44507</v>
       </c>
-      <c r="E4" s="446" t="s">
+      <c r="E4" s="445" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="447"/>
-      <c r="H4" s="448" t="s">
+      <c r="F4" s="446"/>
+      <c r="H4" s="447" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="449"/>
+      <c r="I4" s="448"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -16710,15 +16730,15 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="470"/>
+      <c r="P4" s="469"/>
       <c r="Q4" s="323" t="s">
         <v>217</v>
       </c>
-      <c r="R4" s="480"/>
-      <c r="W4" s="452" t="s">
+      <c r="R4" s="479"/>
+      <c r="W4" s="451" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="452"/>
+      <c r="X4" s="451"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -16779,8 +16799,8 @@
       <c r="S5" s="325" t="s">
         <v>213</v>
       </c>
-      <c r="W5" s="452"/>
-      <c r="X5" s="452"/>
+      <c r="W5" s="451"/>
+      <c r="X5" s="451"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -17537,7 +17557,7 @@
         <v>0</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="456">
+      <c r="W19" s="455">
         <f t="shared" ref="W19" si="3">SUM(W6:W18)</f>
         <v>0</v>
       </c>
@@ -17589,7 +17609,7 @@
         <v>0</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="457"/>
+      <c r="W20" s="456"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -17638,8 +17658,8 @@
         <v>0</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="458"/>
-      <c r="X21" s="458"/>
+      <c r="W21" s="457"/>
+      <c r="X21" s="457"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -17740,8 +17760,8 @@
         <v>0</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="459"/>
-      <c r="X23" s="459"/>
+      <c r="W23" s="458"/>
+      <c r="X23" s="458"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -17792,8 +17812,8 @@
         <v>0</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="459"/>
-      <c r="X24" s="459"/>
+      <c r="W24" s="458"/>
+      <c r="X24" s="458"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -17839,8 +17859,8 @@
       <c r="R25" s="320">
         <v>0</v>
       </c>
-      <c r="W25" s="460"/>
-      <c r="X25" s="460"/>
+      <c r="W25" s="459"/>
+      <c r="X25" s="459"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -17888,8 +17908,8 @@
       <c r="R26" s="320">
         <v>0</v>
       </c>
-      <c r="W26" s="460"/>
-      <c r="X26" s="460"/>
+      <c r="W26" s="459"/>
+      <c r="X26" s="459"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -17949,9 +17969,9 @@
       <c r="V27" t="s">
         <v>240</v>
       </c>
-      <c r="W27" s="453"/>
-      <c r="X27" s="454"/>
-      <c r="Y27" s="455"/>
+      <c r="W27" s="452"/>
+      <c r="X27" s="453"/>
+      <c r="Y27" s="454"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -18005,9 +18025,9 @@
       <c r="V28" t="s">
         <v>240</v>
       </c>
-      <c r="W28" s="454"/>
-      <c r="X28" s="454"/>
-      <c r="Y28" s="455"/>
+      <c r="W28" s="453"/>
+      <c r="X28" s="453"/>
+      <c r="Y28" s="454"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -18113,7 +18133,7 @@
         <f t="shared" si="0"/>
         <v>139265</v>
       </c>
-      <c r="Q30" s="413">
+      <c r="Q30" s="411">
         <f t="shared" si="1"/>
         <v>-13665</v>
       </c>
@@ -18323,11 +18343,11 @@
       <c r="J36" s="266"/>
       <c r="K36" s="250"/>
       <c r="L36" s="44"/>
-      <c r="M36" s="471">
+      <c r="M36" s="470">
         <f t="shared" ref="M36" si="4">SUM(M5:M35)</f>
         <v>1077791.3</v>
       </c>
-      <c r="N36" s="473">
+      <c r="N36" s="472">
         <f t="shared" ref="N36" si="5">SUM(N5:N35)</f>
         <v>936398</v>
       </c>
@@ -18335,7 +18355,7 @@
       <c r="P36" s="277">
         <v>0</v>
       </c>
-      <c r="Q36" s="475">
+      <c r="Q36" s="474">
         <f t="shared" ref="Q36" si="6">SUM(Q5:Q35)</f>
         <v>-14262.940000000002</v>
       </c>
@@ -18354,13 +18374,13 @@
       <c r="J37" s="60"/>
       <c r="K37" s="41"/>
       <c r="L37" s="61"/>
-      <c r="M37" s="472"/>
-      <c r="N37" s="474"/>
+      <c r="M37" s="471"/>
+      <c r="N37" s="473"/>
       <c r="O37" s="276"/>
       <c r="P37" s="277">
         <v>0</v>
       </c>
-      <c r="Q37" s="476"/>
+      <c r="Q37" s="475"/>
     </row>
     <row r="38" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="23"/>
@@ -18634,26 +18654,26 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="426" t="s">
+      <c r="H52" s="425" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="427"/>
+      <c r="I52" s="426"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="428">
+      <c r="K52" s="427">
         <f>I50+L50</f>
         <v>90750.75</v>
       </c>
-      <c r="L52" s="461"/>
+      <c r="L52" s="460"/>
       <c r="M52" s="272"/>
       <c r="N52" s="272"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="13"/>
     </row>
     <row r="53" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D53" s="432" t="s">
+      <c r="D53" s="431" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="432"/>
+      <c r="E53" s="431"/>
       <c r="F53" s="313">
         <f>F50-K52-C50</f>
         <v>1739855.03</v>
@@ -18662,29 +18682,29 @@
       <c r="J53" s="103"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="462" t="s">
+      <c r="D54" s="461" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="462"/>
+      <c r="E54" s="461"/>
       <c r="F54" s="111">
         <v>-1567070.66</v>
       </c>
-      <c r="I54" s="433" t="s">
+      <c r="I54" s="432" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="434"/>
-      <c r="K54" s="435">
+      <c r="J54" s="433"/>
+      <c r="K54" s="434">
         <f>F56+F57+F58</f>
         <v>703192.8600000001</v>
       </c>
-      <c r="L54" s="435"/>
-      <c r="M54" s="463" t="s">
+      <c r="L54" s="434"/>
+      <c r="M54" s="462" t="s">
         <v>211</v>
       </c>
-      <c r="N54" s="464"/>
-      <c r="O54" s="464"/>
-      <c r="P54" s="464"/>
-      <c r="Q54" s="465"/>
+      <c r="N54" s="463"/>
+      <c r="O54" s="463"/>
+      <c r="P54" s="463"/>
+      <c r="Q54" s="464"/>
     </row>
     <row r="55" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D55" s="314" t="s">
@@ -18698,11 +18718,11 @@
       <c r="J55" s="106"/>
       <c r="K55" s="178"/>
       <c r="L55" s="107"/>
-      <c r="M55" s="466"/>
-      <c r="N55" s="467"/>
-      <c r="O55" s="467"/>
-      <c r="P55" s="467"/>
-      <c r="Q55" s="468"/>
+      <c r="M55" s="465"/>
+      <c r="N55" s="466"/>
+      <c r="O55" s="466"/>
+      <c r="P55" s="466"/>
+      <c r="Q55" s="467"/>
     </row>
     <row r="56" spans="1:17" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="C56" s="4" t="s">
@@ -18720,11 +18740,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="437">
+      <c r="K56" s="436">
         <f>-C4</f>
         <v>-567389.35</v>
       </c>
-      <c r="L56" s="438"/>
+      <c r="L56" s="437"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -18741,22 +18761,22 @@
       <c r="C58" s="112">
         <v>44563</v>
       </c>
-      <c r="D58" s="415" t="s">
+      <c r="D58" s="414" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="416"/>
+      <c r="E58" s="415"/>
       <c r="F58" s="113">
         <v>754143.23</v>
       </c>
-      <c r="I58" s="417" t="s">
+      <c r="I58" s="416" t="s">
         <v>198</v>
       </c>
-      <c r="J58" s="418"/>
-      <c r="K58" s="419">
+      <c r="J58" s="417"/>
+      <c r="K58" s="418">
         <f>K54+K56</f>
         <v>135803.51000000013</v>
       </c>
-      <c r="L58" s="419"/>
+      <c r="L58" s="418"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -18945,8 +18965,8 @@
   </sheetPr>
   <dimension ref="A1:N110"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView topLeftCell="E22" workbookViewId="0">
+      <selection activeCell="K77" sqref="K76:K77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21112,7 +21132,7 @@
       <c r="C75" s="214"/>
       <c r="D75" s="256"/>
       <c r="E75" s="3"/>
-      <c r="F75" s="477" t="s">
+      <c r="F75" s="476" t="s">
         <v>207</v>
       </c>
       <c r="K75" s="1"/>
@@ -21125,7 +21145,7 @@
       <c r="C76" s="1"/>
       <c r="D76" s="256"/>
       <c r="E76" s="3"/>
-      <c r="F76" s="478"/>
+      <c r="F76" s="477"/>
       <c r="K76" s="1"/>
       <c r="L76" s="97"/>
       <c r="M76" s="3"/>
@@ -21407,8 +21427,8 @@
   </sheetPr>
   <dimension ref="A1:Z80"/>
   <sheetViews>
-    <sheetView topLeftCell="G4" workbookViewId="0">
-      <selection activeCell="I29" sqref="I29"/>
+    <sheetView tabSelected="1" topLeftCell="I19" workbookViewId="0">
+      <selection activeCell="S28" sqref="S28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -21437,23 +21457,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="439"/>
-      <c r="C1" s="481" t="s">
+      <c r="B1" s="438"/>
+      <c r="C1" s="480" t="s">
         <v>323</v>
       </c>
-      <c r="D1" s="482"/>
-      <c r="E1" s="482"/>
-      <c r="F1" s="482"/>
-      <c r="G1" s="482"/>
-      <c r="H1" s="482"/>
-      <c r="I1" s="482"/>
-      <c r="J1" s="482"/>
-      <c r="K1" s="482"/>
-      <c r="L1" s="482"/>
-      <c r="M1" s="482"/>
+      <c r="D1" s="481"/>
+      <c r="E1" s="481"/>
+      <c r="F1" s="481"/>
+      <c r="G1" s="481"/>
+      <c r="H1" s="481"/>
+      <c r="I1" s="481"/>
+      <c r="J1" s="481"/>
+      <c r="K1" s="481"/>
+      <c r="L1" s="481"/>
+      <c r="M1" s="481"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="440"/>
+      <c r="B2" s="439"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -21463,24 +21483,24 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="443" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="444"/>
+      <c r="B3" s="442" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="443"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="445" t="s">
+      <c r="H3" s="444" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="445"/>
+      <c r="I3" s="444"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="469" t="s">
+      <c r="P3" s="468" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="479" t="s">
+      <c r="R3" s="478" t="s">
         <v>216</v>
       </c>
     </row>
@@ -21495,14 +21515,14 @@
       <c r="D4" s="18">
         <v>44563</v>
       </c>
-      <c r="E4" s="446" t="s">
+      <c r="E4" s="445" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="447"/>
-      <c r="H4" s="448" t="s">
+      <c r="F4" s="446"/>
+      <c r="H4" s="447" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="449"/>
+      <c r="I4" s="448"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -21512,15 +21532,15 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="470"/>
+      <c r="P4" s="469"/>
       <c r="Q4" s="323" t="s">
         <v>217</v>
       </c>
-      <c r="R4" s="480"/>
-      <c r="W4" s="452" t="s">
+      <c r="R4" s="479"/>
+      <c r="W4" s="451" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="452"/>
+      <c r="X4" s="451"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -21571,8 +21591,8 @@
         <v>0</v>
       </c>
       <c r="S5" s="325"/>
-      <c r="W5" s="452"/>
-      <c r="X5" s="452"/>
+      <c r="W5" s="451"/>
+      <c r="X5" s="451"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -21848,7 +21868,7 @@
       <c r="Q10" s="318">
         <v>0</v>
       </c>
-      <c r="R10" s="412">
+      <c r="R10" s="504">
         <v>1891</v>
       </c>
       <c r="S10" s="147"/>
@@ -22065,7 +22085,7 @@
         <f t="shared" si="2"/>
         <v>70058</v>
       </c>
-      <c r="Q14" s="414">
+      <c r="Q14" s="412">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -22117,7 +22137,7 @@
         <f t="shared" si="0"/>
         <v>60979</v>
       </c>
-      <c r="Q15" s="414">
+      <c r="Q15" s="412">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -22336,7 +22356,7 @@
         <v>0</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="456">
+      <c r="W19" s="455">
         <f t="shared" ref="W19" si="3">SUM(W6:W18)</f>
         <v>0</v>
       </c>
@@ -22389,7 +22409,7 @@
         <v>0</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="457"/>
+      <c r="W20" s="456"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -22431,15 +22451,15 @@
         <f t="shared" si="0"/>
         <v>451359.87</v>
       </c>
-      <c r="Q21" s="505">
-        <v>0</v>
-      </c>
-      <c r="R21" s="330">
+      <c r="Q21" s="413">
+        <v>0</v>
+      </c>
+      <c r="R21" s="505">
         <v>377273.87</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="458"/>
-      <c r="X21" s="458"/>
+      <c r="W21" s="457"/>
+      <c r="X21" s="457"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -22471,18 +22491,18 @@
       <c r="K22" s="31"/>
       <c r="L22" s="49"/>
       <c r="M22" s="32">
-        <v>0</v>
+        <v>43604</v>
       </c>
       <c r="N22" s="33">
         <v>22649</v>
       </c>
       <c r="P22" s="39">
         <f t="shared" si="0"/>
-        <v>31371</v>
-      </c>
-      <c r="Q22" s="338">
-        <f t="shared" si="1"/>
-        <v>-43604</v>
+        <v>74975</v>
+      </c>
+      <c r="Q22" s="318">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="R22" s="320">
         <v>0</v>
@@ -22498,29 +22518,38 @@
       <c r="B23" s="24">
         <v>44582</v>
       </c>
-      <c r="C23" s="25"/>
-      <c r="D23" s="35"/>
+      <c r="C23" s="25">
+        <v>5287</v>
+      </c>
+      <c r="D23" s="35" t="s">
+        <v>335</v>
+      </c>
       <c r="E23" s="27">
         <v>44582</v>
       </c>
-      <c r="F23" s="28"/>
+      <c r="F23" s="28">
+        <v>100402</v>
+      </c>
       <c r="G23" s="2"/>
       <c r="H23" s="36">
         <v>44582</v>
       </c>
-      <c r="I23" s="30"/>
+      <c r="I23" s="30">
+        <v>3015</v>
+      </c>
       <c r="J23" s="50"/>
       <c r="K23" s="172"/>
       <c r="L23" s="45"/>
       <c r="M23" s="32">
-        <v>0</v>
+        <f>67068+6145</f>
+        <v>73213</v>
       </c>
       <c r="N23" s="33">
-        <v>0</v>
+        <v>18887</v>
       </c>
       <c r="P23" s="39">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>100402</v>
       </c>
       <c r="Q23" s="318">
         <f t="shared" si="1"/>
@@ -22530,8 +22559,8 @@
         <v>0</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="459"/>
-      <c r="X23" s="459"/>
+      <c r="W23" s="458"/>
+      <c r="X23" s="458"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -22540,40 +22569,54 @@
       <c r="B24" s="24">
         <v>44583</v>
       </c>
-      <c r="C24" s="25"/>
-      <c r="D24" s="404"/>
+      <c r="C24" s="25">
+        <v>14793</v>
+      </c>
+      <c r="D24" s="42" t="s">
+        <v>345</v>
+      </c>
       <c r="E24" s="27">
         <v>44583</v>
       </c>
-      <c r="F24" s="28"/>
+      <c r="F24" s="28">
+        <v>101068</v>
+      </c>
       <c r="G24" s="2"/>
       <c r="H24" s="36">
         <v>44583</v>
       </c>
-      <c r="I24" s="30"/>
-      <c r="J24" s="51"/>
-      <c r="K24" s="173"/>
-      <c r="L24" s="52"/>
+      <c r="I24" s="30">
+        <v>1622</v>
+      </c>
+      <c r="J24" s="51">
+        <v>44583</v>
+      </c>
+      <c r="K24" s="173" t="s">
+        <v>346</v>
+      </c>
+      <c r="L24" s="52">
+        <v>12971.14</v>
+      </c>
       <c r="M24" s="32">
-        <v>0</v>
+        <v>34971</v>
       </c>
       <c r="N24" s="33">
-        <v>0</v>
+        <v>36711</v>
       </c>
       <c r="P24" s="39">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>101068.14</v>
       </c>
       <c r="Q24" s="318">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.13999999999941792</v>
       </c>
       <c r="R24" s="320">
         <v>0</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="459"/>
-      <c r="X24" s="459"/>
+      <c r="W24" s="458"/>
+      <c r="X24" s="458"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -22582,39 +22625,44 @@
       <c r="B25" s="24">
         <v>44584</v>
       </c>
-      <c r="C25" s="25"/>
+      <c r="C25" s="25">
+        <v>0</v>
+      </c>
       <c r="D25" s="35"/>
       <c r="E25" s="27">
         <v>44584</v>
       </c>
-      <c r="F25" s="28"/>
+      <c r="F25" s="28">
+        <v>76044</v>
+      </c>
       <c r="G25" s="2"/>
       <c r="H25" s="36">
         <v>44584</v>
       </c>
-      <c r="I25" s="30"/>
+      <c r="I25" s="30">
+        <v>1589</v>
+      </c>
       <c r="J25" s="50"/>
       <c r="K25" s="38"/>
       <c r="L25" s="54"/>
       <c r="M25" s="32">
-        <v>0</v>
+        <v>47007</v>
       </c>
       <c r="N25" s="33">
-        <v>0</v>
+        <v>27448</v>
       </c>
       <c r="P25" s="283">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q25" s="318">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>76044</v>
+      </c>
+      <c r="Q25" s="318" t="s">
+        <v>7</v>
       </c>
       <c r="R25" s="320">
         <v>0</v>
       </c>
-      <c r="W25" s="460"/>
-      <c r="X25" s="460"/>
+      <c r="W25" s="459"/>
+      <c r="X25" s="459"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -22623,29 +22671,37 @@
       <c r="B26" s="24">
         <v>44585</v>
       </c>
-      <c r="C26" s="25"/>
-      <c r="D26" s="35"/>
+      <c r="C26" s="25">
+        <v>8574</v>
+      </c>
+      <c r="D26" s="35" t="s">
+        <v>347</v>
+      </c>
       <c r="E26" s="27">
         <v>44585</v>
       </c>
-      <c r="F26" s="28"/>
+      <c r="F26" s="28">
+        <v>97059</v>
+      </c>
       <c r="G26" s="2"/>
       <c r="H26" s="36">
         <v>44585</v>
       </c>
-      <c r="I26" s="30"/>
+      <c r="I26" s="30">
+        <v>145</v>
+      </c>
       <c r="J26" s="37"/>
       <c r="K26" s="173"/>
       <c r="L26" s="45"/>
       <c r="M26" s="32">
-        <v>0</v>
+        <v>42595</v>
       </c>
       <c r="N26" s="33">
-        <v>0</v>
+        <v>45745</v>
       </c>
       <c r="P26" s="284">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>97059</v>
       </c>
       <c r="Q26" s="318">
         <f t="shared" si="1"/>
@@ -22654,8 +22710,8 @@
       <c r="R26" s="320">
         <v>0</v>
       </c>
-      <c r="W26" s="460"/>
-      <c r="X26" s="460"/>
+      <c r="W26" s="459"/>
+      <c r="X26" s="459"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -22664,33 +22720,41 @@
       <c r="B27" s="24">
         <v>44586</v>
       </c>
-      <c r="C27" s="25"/>
-      <c r="D27" s="42"/>
+      <c r="C27" s="25">
+        <v>6964.5</v>
+      </c>
+      <c r="D27" s="42" t="s">
+        <v>348</v>
+      </c>
       <c r="E27" s="27">
         <v>44586</v>
       </c>
-      <c r="F27" s="28"/>
+      <c r="F27" s="28">
+        <v>72776</v>
+      </c>
       <c r="G27" s="2"/>
       <c r="H27" s="36">
         <v>44586</v>
       </c>
-      <c r="I27" s="30"/>
+      <c r="I27" s="30">
+        <v>2041</v>
+      </c>
       <c r="J27" s="55"/>
       <c r="K27" s="174"/>
       <c r="L27" s="54"/>
       <c r="M27" s="32">
-        <v>0</v>
+        <v>39912</v>
       </c>
       <c r="N27" s="33">
-        <v>0</v>
+        <v>23859</v>
       </c>
       <c r="P27" s="39">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>72776.5</v>
       </c>
       <c r="Q27" s="318">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R27" s="320">
         <v>0</v>
@@ -22701,9 +22765,9 @@
       <c r="V27" t="s">
         <v>240</v>
       </c>
-      <c r="W27" s="453"/>
-      <c r="X27" s="454"/>
-      <c r="Y27" s="455"/>
+      <c r="W27" s="452"/>
+      <c r="X27" s="453"/>
+      <c r="Y27" s="454"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -22711,29 +22775,38 @@
       <c r="B28" s="24">
         <v>44587</v>
       </c>
-      <c r="C28" s="25"/>
-      <c r="D28" s="42"/>
+      <c r="C28" s="25">
+        <v>24487</v>
+      </c>
+      <c r="D28" s="42" t="s">
+        <v>349</v>
+      </c>
       <c r="E28" s="27">
         <v>44587</v>
       </c>
-      <c r="F28" s="28"/>
+      <c r="F28" s="28">
+        <v>61066</v>
+      </c>
       <c r="G28" s="2"/>
       <c r="H28" s="36">
         <v>44587</v>
       </c>
-      <c r="I28" s="30"/>
+      <c r="I28" s="30">
+        <v>1697</v>
+      </c>
       <c r="J28" s="56"/>
       <c r="K28" s="57"/>
       <c r="L28" s="54"/>
       <c r="M28" s="32">
-        <v>0</v>
+        <f>8682+3282</f>
+        <v>11964</v>
       </c>
       <c r="N28" s="33">
-        <v>0</v>
+        <v>22918</v>
       </c>
       <c r="P28" s="34">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>61066</v>
       </c>
       <c r="Q28" s="318">
         <f t="shared" si="1"/>
@@ -22748,9 +22821,9 @@
       <c r="V28" t="s">
         <v>240</v>
       </c>
-      <c r="W28" s="454"/>
-      <c r="X28" s="454"/>
-      <c r="Y28" s="455"/>
+      <c r="W28" s="453"/>
+      <c r="X28" s="453"/>
+      <c r="Y28" s="454"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -22851,12 +22924,12 @@
       <c r="E31" s="27">
         <v>44590</v>
       </c>
-      <c r="F31" s="405"/>
+      <c r="F31" s="404"/>
       <c r="G31" s="2"/>
       <c r="H31" s="36">
         <v>44590</v>
       </c>
-      <c r="I31" s="406"/>
+      <c r="I31" s="405"/>
       <c r="J31" s="60"/>
       <c r="K31" s="41"/>
       <c r="L31" s="63"/>
@@ -23030,23 +23103,27 @@
       </c>
       <c r="I36" s="30"/>
       <c r="J36" s="266"/>
-      <c r="K36" s="250"/>
-      <c r="L36" s="44"/>
-      <c r="M36" s="471">
+      <c r="K36" s="250" t="s">
+        <v>344</v>
+      </c>
+      <c r="L36" s="44">
+        <v>13275.84</v>
+      </c>
+      <c r="M36" s="470">
         <f t="shared" ref="M36:N36" si="4">SUM(M5:M35)</f>
-        <v>928750.87</v>
-      </c>
-      <c r="N36" s="473">
+        <v>1222016.8700000001</v>
+      </c>
+      <c r="N36" s="472">
         <f t="shared" si="4"/>
-        <v>460953</v>
+        <v>636521</v>
       </c>
       <c r="O36" s="276"/>
       <c r="P36" s="277">
         <v>0</v>
       </c>
-      <c r="Q36" s="475">
+      <c r="Q36" s="474">
         <f t="shared" ref="Q36" si="5">SUM(Q5:Q35)</f>
-        <v>-43611.920000000013</v>
+        <v>-7.2800000000133878</v>
       </c>
       <c r="R36" s="228"/>
     </row>
@@ -23069,13 +23146,13 @@
       <c r="J37" s="60"/>
       <c r="K37" s="41"/>
       <c r="L37" s="61"/>
-      <c r="M37" s="472"/>
-      <c r="N37" s="474"/>
+      <c r="M37" s="471"/>
+      <c r="N37" s="473"/>
       <c r="O37" s="276"/>
       <c r="P37" s="277">
         <v>0</v>
       </c>
-      <c r="Q37" s="476"/>
+      <c r="Q37" s="475"/>
     </row>
     <row r="38" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="23"/>
@@ -23126,7 +23203,7 @@
       <c r="N39" s="278"/>
       <c r="P39" s="34">
         <f>SUM(P5:P38)</f>
-        <v>1660123.2799999998</v>
+        <v>2212142.92</v>
       </c>
       <c r="Q39" s="275"/>
     </row>
@@ -23329,7 +23406,7 @@
       </c>
       <c r="C50" s="87">
         <f>SUM(C5:C49)</f>
-        <v>210820.68</v>
+        <v>270926.18</v>
       </c>
       <c r="D50" s="88"/>
       <c r="E50" s="89" t="s">
@@ -23337,7 +23414,7 @@
       </c>
       <c r="F50" s="90">
         <f>SUM(F5:F49)</f>
-        <v>1324571</v>
+        <v>1832986</v>
       </c>
       <c r="G50" s="88"/>
       <c r="H50" s="91" t="s">
@@ -23345,7 +23422,7 @@
       </c>
       <c r="I50" s="92">
         <f>SUM(I5:I49)</f>
-        <v>32732.9</v>
+        <v>42841.9</v>
       </c>
       <c r="J50" s="93"/>
       <c r="K50" s="94" t="s">
@@ -23353,7 +23430,7 @@
       </c>
       <c r="L50" s="95">
         <f>SUM(L5:L49)</f>
-        <v>40292</v>
+        <v>66538.98</v>
       </c>
       <c r="M50" s="96"/>
       <c r="N50" s="96"/>
@@ -23371,57 +23448,57 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="426" t="s">
+      <c r="H52" s="425" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="427"/>
+      <c r="I52" s="426"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="428">
+      <c r="K52" s="427">
         <f>I50+L50</f>
-        <v>73024.899999999994</v>
-      </c>
-      <c r="L52" s="461"/>
+        <v>109380.88</v>
+      </c>
+      <c r="L52" s="460"/>
       <c r="M52" s="272"/>
       <c r="N52" s="272"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="13"/>
     </row>
     <row r="53" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D53" s="432" t="s">
+      <c r="D53" s="431" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="432"/>
+      <c r="E53" s="431"/>
       <c r="F53" s="313">
         <f>F50-K52-C50</f>
-        <v>1040725.4200000002</v>
+        <v>1452678.9400000002</v>
       </c>
       <c r="I53" s="102"/>
       <c r="J53" s="103"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="462" t="s">
+      <c r="D54" s="461" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="462"/>
+      <c r="E54" s="461"/>
       <c r="F54" s="111">
         <v>0</v>
       </c>
-      <c r="I54" s="433" t="s">
+      <c r="I54" s="432" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="434"/>
-      <c r="K54" s="435">
+      <c r="J54" s="433"/>
+      <c r="K54" s="434">
         <f>F56+F57+F58</f>
-        <v>1040725.4200000002</v>
-      </c>
-      <c r="L54" s="435"/>
-      <c r="M54" s="463" t="s">
+        <v>1452678.9400000002</v>
+      </c>
+      <c r="L54" s="434"/>
+      <c r="M54" s="462" t="s">
         <v>211</v>
       </c>
-      <c r="N54" s="464"/>
-      <c r="O54" s="464"/>
-      <c r="P54" s="464"/>
-      <c r="Q54" s="465"/>
+      <c r="N54" s="463"/>
+      <c r="O54" s="463"/>
+      <c r="P54" s="463"/>
+      <c r="Q54" s="464"/>
     </row>
     <row r="55" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D55" s="314" t="s">
@@ -23435,11 +23512,11 @@
       <c r="J55" s="106"/>
       <c r="K55" s="178"/>
       <c r="L55" s="107"/>
-      <c r="M55" s="466"/>
-      <c r="N55" s="467"/>
-      <c r="O55" s="467"/>
-      <c r="P55" s="467"/>
-      <c r="Q55" s="468"/>
+      <c r="M55" s="465"/>
+      <c r="N55" s="466"/>
+      <c r="O55" s="466"/>
+      <c r="P55" s="466"/>
+      <c r="Q55" s="467"/>
     </row>
     <row r="56" spans="1:17" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="C56" s="4" t="s">
@@ -23450,18 +23527,18 @@
       </c>
       <c r="F56" s="96">
         <f>SUM(F53:F55)</f>
-        <v>1040725.4200000002</v>
+        <v>1452678.9400000002</v>
       </c>
       <c r="H56" s="23"/>
       <c r="I56" s="108" t="s">
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="437">
+      <c r="K56" s="436">
         <f>-C4</f>
         <v>-754143.23</v>
       </c>
-      <c r="L56" s="438"/>
+      <c r="L56" s="437"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -23476,22 +23553,22 @@
     </row>
     <row r="58" spans="1:17" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C58" s="112"/>
-      <c r="D58" s="415" t="s">
+      <c r="D58" s="414" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="416"/>
+      <c r="E58" s="415"/>
       <c r="F58" s="113">
         <v>0</v>
       </c>
-      <c r="I58" s="417" t="s">
+      <c r="I58" s="416" t="s">
         <v>198</v>
       </c>
-      <c r="J58" s="418"/>
-      <c r="K58" s="419">
+      <c r="J58" s="417"/>
+      <c r="K58" s="418">
         <f>K54+K56</f>
-        <v>286582.19000000018</v>
-      </c>
-      <c r="L58" s="419"/>
+        <v>698535.7100000002</v>
+      </c>
+      <c r="L58" s="418"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -23762,10 +23839,10 @@
       </c>
     </row>
     <row r="3" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="407"/>
-      <c r="B3" s="408"/>
+      <c r="A3" s="406"/>
+      <c r="B3" s="407"/>
       <c r="C3" s="13"/>
-      <c r="D3" s="409"/>
+      <c r="D3" s="408"/>
       <c r="E3" s="13"/>
       <c r="F3" s="183">
         <f>C3-E3</f>
@@ -23782,10 +23859,10 @@
       </c>
     </row>
     <row r="4" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="407"/>
-      <c r="B4" s="408"/>
+      <c r="A4" s="406"/>
+      <c r="B4" s="407"/>
       <c r="C4" s="13"/>
-      <c r="D4" s="409"/>
+      <c r="D4" s="408"/>
       <c r="E4" s="13"/>
       <c r="F4" s="137">
         <f>F3+C4-E4</f>
@@ -23803,10 +23880,10 @@
       </c>
     </row>
     <row r="5" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="407"/>
-      <c r="B5" s="408"/>
+      <c r="A5" s="406"/>
+      <c r="B5" s="407"/>
       <c r="C5" s="13"/>
-      <c r="D5" s="409"/>
+      <c r="D5" s="408"/>
       <c r="E5" s="13"/>
       <c r="F5" s="137">
         <f t="shared" ref="F5:F68" si="0">F4+C5-E5</f>
@@ -23823,10 +23900,10 @@
       </c>
     </row>
     <row r="6" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="407"/>
-      <c r="B6" s="408"/>
+      <c r="A6" s="406"/>
+      <c r="B6" s="407"/>
       <c r="C6" s="13"/>
-      <c r="D6" s="409"/>
+      <c r="D6" s="408"/>
       <c r="E6" s="13"/>
       <c r="F6" s="137">
         <f t="shared" si="0"/>
@@ -23843,10 +23920,10 @@
       </c>
     </row>
     <row r="7" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="407"/>
-      <c r="B7" s="408"/>
+      <c r="A7" s="406"/>
+      <c r="B7" s="407"/>
       <c r="C7" s="13"/>
-      <c r="D7" s="409"/>
+      <c r="D7" s="408"/>
       <c r="E7" s="13"/>
       <c r="F7" s="137">
         <f t="shared" si="0"/>
@@ -23863,10 +23940,10 @@
       </c>
     </row>
     <row r="8" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="407"/>
-      <c r="B8" s="408"/>
+      <c r="A8" s="406"/>
+      <c r="B8" s="407"/>
       <c r="C8" s="13"/>
-      <c r="D8" s="409"/>
+      <c r="D8" s="408"/>
       <c r="E8" s="13"/>
       <c r="F8" s="137">
         <f t="shared" si="0"/>
@@ -23883,10 +23960,10 @@
       </c>
     </row>
     <row r="9" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="407"/>
-      <c r="B9" s="408"/>
+      <c r="A9" s="406"/>
+      <c r="B9" s="407"/>
       <c r="C9" s="13"/>
-      <c r="D9" s="409"/>
+      <c r="D9" s="408"/>
       <c r="E9" s="13"/>
       <c r="F9" s="137">
         <f t="shared" si="0"/>
@@ -23903,10 +23980,10 @@
       </c>
     </row>
     <row r="10" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A10" s="407"/>
-      <c r="B10" s="408"/>
+      <c r="A10" s="406"/>
+      <c r="B10" s="407"/>
       <c r="C10" s="13"/>
-      <c r="D10" s="409"/>
+      <c r="D10" s="408"/>
       <c r="E10" s="13"/>
       <c r="F10" s="137">
         <f t="shared" si="0"/>
@@ -23924,10 +24001,10 @@
       </c>
     </row>
     <row r="11" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="407"/>
-      <c r="B11" s="408"/>
+      <c r="A11" s="406"/>
+      <c r="B11" s="407"/>
       <c r="C11" s="13"/>
-      <c r="D11" s="409"/>
+      <c r="D11" s="408"/>
       <c r="E11" s="13"/>
       <c r="F11" s="137">
         <f t="shared" si="0"/>
@@ -23944,10 +24021,10 @@
       </c>
     </row>
     <row r="12" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="407"/>
-      <c r="B12" s="408"/>
+      <c r="A12" s="406"/>
+      <c r="B12" s="407"/>
       <c r="C12" s="13"/>
-      <c r="D12" s="409"/>
+      <c r="D12" s="408"/>
       <c r="E12" s="13"/>
       <c r="F12" s="137">
         <f t="shared" si="0"/>
@@ -23964,10 +24041,10 @@
       </c>
     </row>
     <row r="13" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="407"/>
-      <c r="B13" s="408"/>
+      <c r="A13" s="406"/>
+      <c r="B13" s="407"/>
       <c r="C13" s="13"/>
-      <c r="D13" s="409"/>
+      <c r="D13" s="408"/>
       <c r="E13" s="13"/>
       <c r="F13" s="137">
         <f t="shared" si="0"/>
@@ -23984,10 +24061,10 @@
       </c>
     </row>
     <row r="14" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="407"/>
-      <c r="B14" s="408"/>
+      <c r="A14" s="406"/>
+      <c r="B14" s="407"/>
       <c r="C14" s="13"/>
-      <c r="D14" s="409"/>
+      <c r="D14" s="408"/>
       <c r="E14" s="13"/>
       <c r="F14" s="137">
         <f t="shared" si="0"/>
@@ -24004,10 +24081,10 @@
       </c>
     </row>
     <row r="15" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="407"/>
-      <c r="B15" s="408"/>
+      <c r="A15" s="406"/>
+      <c r="B15" s="407"/>
       <c r="C15" s="13"/>
-      <c r="D15" s="409"/>
+      <c r="D15" s="408"/>
       <c r="E15" s="13"/>
       <c r="F15" s="137">
         <f t="shared" si="0"/>
@@ -24024,10 +24101,10 @@
       </c>
     </row>
     <row r="16" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="407"/>
-      <c r="B16" s="408"/>
+      <c r="A16" s="406"/>
+      <c r="B16" s="407"/>
       <c r="C16" s="13"/>
-      <c r="D16" s="409"/>
+      <c r="D16" s="408"/>
       <c r="E16" s="13"/>
       <c r="F16" s="137">
         <f t="shared" si="0"/>
@@ -24044,10 +24121,10 @@
       </c>
     </row>
     <row r="17" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="407"/>
-      <c r="B17" s="408"/>
+      <c r="A17" s="406"/>
+      <c r="B17" s="407"/>
       <c r="C17" s="13"/>
-      <c r="D17" s="409"/>
+      <c r="D17" s="408"/>
       <c r="E17" s="13"/>
       <c r="F17" s="137">
         <f t="shared" si="0"/>
@@ -24064,10 +24141,10 @@
       </c>
     </row>
     <row r="18" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="407"/>
-      <c r="B18" s="408"/>
+      <c r="A18" s="406"/>
+      <c r="B18" s="407"/>
       <c r="C18" s="13"/>
-      <c r="D18" s="409"/>
+      <c r="D18" s="408"/>
       <c r="E18" s="13"/>
       <c r="F18" s="137">
         <f t="shared" si="0"/>
@@ -24084,10 +24161,10 @@
       </c>
     </row>
     <row r="19" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="407"/>
-      <c r="B19" s="408"/>
+      <c r="A19" s="406"/>
+      <c r="B19" s="407"/>
       <c r="C19" s="13"/>
-      <c r="D19" s="409"/>
+      <c r="D19" s="408"/>
       <c r="E19" s="13"/>
       <c r="F19" s="137">
         <f t="shared" si="0"/>
@@ -24104,10 +24181,10 @@
       </c>
     </row>
     <row r="20" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="407"/>
-      <c r="B20" s="408"/>
+      <c r="A20" s="406"/>
+      <c r="B20" s="407"/>
       <c r="C20" s="13"/>
-      <c r="D20" s="409"/>
+      <c r="D20" s="408"/>
       <c r="E20" s="13"/>
       <c r="F20" s="137">
         <f t="shared" si="0"/>
@@ -24124,10 +24201,10 @@
       </c>
     </row>
     <row r="21" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="407"/>
-      <c r="B21" s="408"/>
+      <c r="A21" s="406"/>
+      <c r="B21" s="407"/>
       <c r="C21" s="13"/>
-      <c r="D21" s="409"/>
+      <c r="D21" s="408"/>
       <c r="E21" s="13"/>
       <c r="F21" s="137">
         <f t="shared" si="0"/>
@@ -24144,10 +24221,10 @@
       </c>
     </row>
     <row r="22" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A22" s="407"/>
-      <c r="B22" s="408"/>
+      <c r="A22" s="406"/>
+      <c r="B22" s="407"/>
       <c r="C22" s="13"/>
-      <c r="D22" s="409"/>
+      <c r="D22" s="408"/>
       <c r="E22" s="13"/>
       <c r="F22" s="137">
         <f t="shared" si="0"/>
@@ -24165,10 +24242,10 @@
       </c>
     </row>
     <row r="23" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="407"/>
-      <c r="B23" s="408"/>
+      <c r="A23" s="406"/>
+      <c r="B23" s="407"/>
       <c r="C23" s="13"/>
-      <c r="D23" s="409"/>
+      <c r="D23" s="408"/>
       <c r="E23" s="13"/>
       <c r="F23" s="137">
         <f t="shared" si="0"/>
@@ -24185,10 +24262,10 @@
       </c>
     </row>
     <row r="24" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="407"/>
-      <c r="B24" s="408"/>
+      <c r="A24" s="406"/>
+      <c r="B24" s="407"/>
       <c r="C24" s="13"/>
-      <c r="D24" s="409"/>
+      <c r="D24" s="408"/>
       <c r="E24" s="13"/>
       <c r="F24" s="137">
         <f t="shared" si="0"/>
@@ -24205,10 +24282,10 @@
       </c>
     </row>
     <row r="25" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="407"/>
-      <c r="B25" s="408"/>
+      <c r="A25" s="406"/>
+      <c r="B25" s="407"/>
       <c r="C25" s="13"/>
-      <c r="D25" s="409"/>
+      <c r="D25" s="408"/>
       <c r="E25" s="13"/>
       <c r="F25" s="137">
         <f t="shared" si="0"/>
@@ -24225,10 +24302,10 @@
       </c>
     </row>
     <row r="26" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="407"/>
-      <c r="B26" s="408"/>
+      <c r="A26" s="406"/>
+      <c r="B26" s="407"/>
       <c r="C26" s="13"/>
-      <c r="D26" s="409"/>
+      <c r="D26" s="408"/>
       <c r="E26" s="13"/>
       <c r="F26" s="137">
         <f t="shared" si="0"/>
@@ -24245,10 +24322,10 @@
       </c>
     </row>
     <row r="27" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="407"/>
-      <c r="B27" s="408"/>
+      <c r="A27" s="406"/>
+      <c r="B27" s="407"/>
       <c r="C27" s="13"/>
-      <c r="D27" s="409"/>
+      <c r="D27" s="408"/>
       <c r="E27" s="13"/>
       <c r="F27" s="137">
         <f t="shared" si="0"/>
@@ -24265,10 +24342,10 @@
       </c>
     </row>
     <row r="28" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="407"/>
-      <c r="B28" s="408"/>
+      <c r="A28" s="406"/>
+      <c r="B28" s="407"/>
       <c r="C28" s="13"/>
-      <c r="D28" s="409"/>
+      <c r="D28" s="408"/>
       <c r="E28" s="13"/>
       <c r="F28" s="137">
         <f t="shared" si="0"/>
@@ -24285,10 +24362,10 @@
       </c>
     </row>
     <row r="29" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="407"/>
-      <c r="B29" s="408"/>
+      <c r="A29" s="406"/>
+      <c r="B29" s="407"/>
       <c r="C29" s="13"/>
-      <c r="D29" s="409"/>
+      <c r="D29" s="408"/>
       <c r="E29" s="13"/>
       <c r="F29" s="137">
         <f t="shared" si="0"/>
@@ -24305,10 +24382,10 @@
       </c>
     </row>
     <row r="30" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A30" s="407"/>
-      <c r="B30" s="408"/>
+      <c r="A30" s="406"/>
+      <c r="B30" s="407"/>
       <c r="C30" s="13"/>
-      <c r="D30" s="409"/>
+      <c r="D30" s="408"/>
       <c r="E30" s="13"/>
       <c r="F30" s="137">
         <f t="shared" si="0"/>
@@ -24326,11 +24403,11 @@
       </c>
     </row>
     <row r="31" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="407"/>
-      <c r="B31" s="408"/>
+      <c r="A31" s="406"/>
+      <c r="B31" s="407"/>
       <c r="C31" s="13"/>
-      <c r="D31" s="410"/>
-      <c r="E31" s="411"/>
+      <c r="D31" s="409"/>
+      <c r="E31" s="410"/>
       <c r="F31" s="137">
         <f>F30+C31-E31</f>
         <v>0</v>
@@ -24346,11 +24423,11 @@
       </c>
     </row>
     <row r="32" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="407"/>
-      <c r="B32" s="408"/>
+      <c r="A32" s="406"/>
+      <c r="B32" s="407"/>
       <c r="C32" s="13"/>
-      <c r="D32" s="410"/>
-      <c r="E32" s="411"/>
+      <c r="D32" s="409"/>
+      <c r="E32" s="410"/>
       <c r="F32" s="137">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -24366,11 +24443,11 @@
       </c>
     </row>
     <row r="33" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="407"/>
-      <c r="B33" s="408"/>
+      <c r="A33" s="406"/>
+      <c r="B33" s="407"/>
       <c r="C33" s="13"/>
-      <c r="D33" s="410"/>
-      <c r="E33" s="411"/>
+      <c r="D33" s="409"/>
+      <c r="E33" s="410"/>
       <c r="F33" s="137">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -24386,11 +24463,11 @@
       </c>
     </row>
     <row r="34" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="407"/>
-      <c r="B34" s="408"/>
+      <c r="A34" s="406"/>
+      <c r="B34" s="407"/>
       <c r="C34" s="13"/>
-      <c r="D34" s="410"/>
-      <c r="E34" s="411"/>
+      <c r="D34" s="409"/>
+      <c r="E34" s="410"/>
       <c r="F34" s="137">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -24406,11 +24483,11 @@
       </c>
     </row>
     <row r="35" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="407"/>
-      <c r="B35" s="408"/>
+      <c r="A35" s="406"/>
+      <c r="B35" s="407"/>
       <c r="C35" s="13"/>
-      <c r="D35" s="410"/>
-      <c r="E35" s="411"/>
+      <c r="D35" s="409"/>
+      <c r="E35" s="410"/>
       <c r="F35" s="137">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -24426,8 +24503,8 @@
       </c>
     </row>
     <row r="36" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="407"/>
-      <c r="B36" s="408"/>
+      <c r="A36" s="406"/>
+      <c r="B36" s="407"/>
       <c r="C36" s="13"/>
       <c r="D36" s="253"/>
       <c r="E36" s="69"/>
@@ -24446,8 +24523,8 @@
       </c>
     </row>
     <row r="37" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="407"/>
-      <c r="B37" s="408"/>
+      <c r="A37" s="406"/>
+      <c r="B37" s="407"/>
       <c r="C37" s="13"/>
       <c r="D37" s="253"/>
       <c r="E37" s="69"/>
@@ -24466,8 +24543,8 @@
       </c>
     </row>
     <row r="38" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="407"/>
-      <c r="B38" s="408"/>
+      <c r="A38" s="406"/>
+      <c r="B38" s="407"/>
       <c r="C38" s="13"/>
       <c r="D38" s="253"/>
       <c r="E38" s="69"/>
@@ -24486,8 +24563,8 @@
       </c>
     </row>
     <row r="39" spans="1:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="407"/>
-      <c r="B39" s="408"/>
+      <c r="A39" s="406"/>
+      <c r="B39" s="407"/>
       <c r="C39" s="13"/>
       <c r="D39" s="253"/>
       <c r="E39" s="69"/>
@@ -24506,8 +24583,8 @@
       </c>
     </row>
     <row r="40" spans="1:14" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="407"/>
-      <c r="B40" s="408"/>
+      <c r="A40" s="406"/>
+      <c r="B40" s="407"/>
       <c r="C40" s="13"/>
       <c r="D40" s="253"/>
       <c r="E40" s="69"/>
@@ -24526,8 +24603,8 @@
       </c>
     </row>
     <row r="41" spans="1:14" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="407"/>
-      <c r="B41" s="408"/>
+      <c r="A41" s="406"/>
+      <c r="B41" s="407"/>
       <c r="C41" s="13"/>
       <c r="D41" s="253"/>
       <c r="E41" s="69"/>
@@ -24546,8 +24623,8 @@
       </c>
     </row>
     <row r="42" spans="1:14" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="407"/>
-      <c r="B42" s="408"/>
+      <c r="A42" s="406"/>
+      <c r="B42" s="407"/>
       <c r="C42" s="13"/>
       <c r="D42" s="253"/>
       <c r="E42" s="69"/>
@@ -24566,8 +24643,8 @@
       </c>
     </row>
     <row r="43" spans="1:14" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="407"/>
-      <c r="B43" s="408"/>
+      <c r="A43" s="406"/>
+      <c r="B43" s="407"/>
       <c r="C43" s="13"/>
       <c r="D43" s="253"/>
       <c r="E43" s="69"/>
@@ -25217,7 +25294,7 @@
       <c r="C75" s="214"/>
       <c r="D75" s="256"/>
       <c r="E75" s="3"/>
-      <c r="F75" s="477" t="s">
+      <c r="F75" s="476" t="s">
         <v>207</v>
       </c>
       <c r="K75" s="1"/>
@@ -25230,7 +25307,7 @@
       <c r="C76" s="1"/>
       <c r="D76" s="256"/>
       <c r="E76" s="3"/>
-      <c r="F76" s="478"/>
+      <c r="F76" s="477"/>
       <c r="K76" s="1"/>
       <c r="L76" s="97"/>
       <c r="M76" s="3"/>

--- a/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/BALANCE    ZAVALETA   ENERO     2022.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/BALANCE    ZAVALETA   ENERO     2022.xlsx
@@ -296,7 +296,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="664" uniqueCount="350">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="673" uniqueCount="355">
   <si>
     <t>COMPRAS</t>
   </si>
@@ -1336,9 +1336,6 @@
     <t>QUESOS-CHISTORRA-POLLO-LONGANIZA</t>
   </si>
   <si>
-    <t>NOMIN A # 4</t>
-  </si>
-  <si>
     <t>MANTEQUILLA-POLLO-CREMA</t>
   </si>
   <si>
@@ -1346,6 +1343,24 @@
   </si>
   <si>
     <t>LONGANIZA-POLLO-QUESOS-CHORIZO</t>
+  </si>
+  <si>
+    <t>QUESO-SALCHICHONERIA</t>
+  </si>
+  <si>
+    <t>CHORIZO-JAMON-QUESOS-POLLO-LONGANIZA-CREMA</t>
+  </si>
+  <si>
+    <t>NOMINA # 4</t>
+  </si>
+  <si>
+    <t>NOMIN A # 3</t>
+  </si>
+  <si>
+    <t>NOMINA 3</t>
+  </si>
+  <si>
+    <t>LONGANIZA</t>
   </si>
 </sst>
 </file>
@@ -4020,6 +4035,12 @@
     <xf numFmtId="44" fontId="46" fillId="6" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="46" fillId="0" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="41" fillId="0" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="2" fillId="17" borderId="84" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="17" borderId="84" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4289,12 +4310,6 @@
     </xf>
     <xf numFmtId="44" fontId="11" fillId="14" borderId="99" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="17" borderId="84" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="17" borderId="84" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -6324,23 +6339,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="438"/>
-      <c r="C1" s="440" t="s">
+      <c r="B1" s="440"/>
+      <c r="C1" s="442" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="441"/>
-      <c r="E1" s="441"/>
-      <c r="F1" s="441"/>
-      <c r="G1" s="441"/>
-      <c r="H1" s="441"/>
-      <c r="I1" s="441"/>
-      <c r="J1" s="441"/>
-      <c r="K1" s="441"/>
-      <c r="L1" s="441"/>
-      <c r="M1" s="441"/>
+      <c r="D1" s="443"/>
+      <c r="E1" s="443"/>
+      <c r="F1" s="443"/>
+      <c r="G1" s="443"/>
+      <c r="H1" s="443"/>
+      <c r="I1" s="443"/>
+      <c r="J1" s="443"/>
+      <c r="K1" s="443"/>
+      <c r="L1" s="443"/>
+      <c r="M1" s="443"/>
     </row>
     <row r="2" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="439"/>
+      <c r="B2" s="441"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -6350,17 +6365,17 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:19" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="442" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="443"/>
+      <c r="B3" s="444" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="445"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="444" t="s">
+      <c r="H3" s="446" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="444"/>
+      <c r="I3" s="446"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
@@ -6374,14 +6389,14 @@
         <v>0</v>
       </c>
       <c r="D4" s="18"/>
-      <c r="E4" s="445" t="s">
+      <c r="E4" s="447" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="446"/>
-      <c r="H4" s="447" t="s">
+      <c r="F4" s="448"/>
+      <c r="H4" s="449" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="448"/>
+      <c r="I4" s="450"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -6391,10 +6406,10 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="419" t="s">
+      <c r="P4" s="421" t="s">
         <v>6</v>
       </c>
-      <c r="Q4" s="420"/>
+      <c r="Q4" s="422"/>
     </row>
     <row r="5" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="23" t="s">
@@ -7835,11 +7850,11 @@
       <c r="J39" s="60"/>
       <c r="K39" s="177"/>
       <c r="L39" s="61"/>
-      <c r="M39" s="421">
+      <c r="M39" s="423">
         <f>SUM(M5:M38)</f>
         <v>247061</v>
       </c>
-      <c r="N39" s="423">
+      <c r="N39" s="425">
         <f>SUM(N5:N38)</f>
         <v>172863</v>
       </c>
@@ -7865,8 +7880,8 @@
       <c r="J40" s="60"/>
       <c r="K40" s="41"/>
       <c r="L40" s="61"/>
-      <c r="M40" s="422"/>
-      <c r="N40" s="424"/>
+      <c r="M40" s="424"/>
+      <c r="N40" s="426"/>
       <c r="P40" s="34"/>
       <c r="Q40" s="9"/>
     </row>
@@ -8081,29 +8096,29 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="425" t="s">
+      <c r="H52" s="427" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="426"/>
+      <c r="I52" s="428"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="427">
+      <c r="K52" s="429">
         <f>I50+L50</f>
         <v>53873.49</v>
       </c>
-      <c r="L52" s="428"/>
-      <c r="M52" s="429">
+      <c r="L52" s="430"/>
+      <c r="M52" s="431">
         <f>N39+M39</f>
         <v>419924</v>
       </c>
-      <c r="N52" s="430"/>
+      <c r="N52" s="432"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="9"/>
     </row>
     <row r="53" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D53" s="431" t="s">
+      <c r="D53" s="433" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="431"/>
+      <c r="E53" s="433"/>
       <c r="F53" s="101">
         <f>F50-K52-C50</f>
         <v>471038.61</v>
@@ -8114,22 +8129,22 @@
       <c r="Q53" s="9"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="431" t="s">
+      <c r="D54" s="433" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="431"/>
+      <c r="E54" s="433"/>
       <c r="F54" s="96">
         <v>-549976.4</v>
       </c>
-      <c r="I54" s="432" t="s">
+      <c r="I54" s="434" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="433"/>
-      <c r="K54" s="434">
+      <c r="J54" s="435"/>
+      <c r="K54" s="436">
         <f>F56+F57+F58</f>
         <v>-24577.400000000023</v>
       </c>
-      <c r="L54" s="435"/>
+      <c r="L54" s="437"/>
       <c r="P54" s="34"/>
       <c r="Q54" s="9"/>
     </row>
@@ -8162,11 +8177,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="436">
+      <c r="K56" s="438">
         <f>-C4</f>
         <v>0</v>
       </c>
-      <c r="L56" s="437"/>
+      <c r="L56" s="439"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -8183,22 +8198,22 @@
       <c r="C58" s="112">
         <v>44507</v>
       </c>
-      <c r="D58" s="414" t="s">
+      <c r="D58" s="416" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="415"/>
+      <c r="E58" s="417"/>
       <c r="F58" s="113">
         <v>567389.35</v>
       </c>
-      <c r="I58" s="416" t="s">
+      <c r="I58" s="418" t="s">
         <v>97</v>
       </c>
-      <c r="J58" s="417"/>
-      <c r="K58" s="418">
+      <c r="J58" s="419"/>
+      <c r="K58" s="420">
         <f>K54+K56</f>
         <v>-24577.400000000023</v>
       </c>
-      <c r="L58" s="418"/>
+      <c r="L58" s="420"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -8393,11 +8408,11 @@
   <sheetData>
     <row r="1" spans="2:6" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="155"/>
-      <c r="C1" s="488" t="s">
+      <c r="C1" s="490" t="s">
         <v>320</v>
       </c>
-      <c r="D1" s="488"/>
-      <c r="E1" s="489"/>
+      <c r="D1" s="490"/>
+      <c r="E1" s="491"/>
       <c r="F1" s="389"/>
     </row>
     <row r="2" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -8415,12 +8430,12 @@
       <c r="F3" s="396"/>
     </row>
     <row r="4" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B4" s="490" t="s">
+      <c r="B4" s="492" t="s">
         <v>316</v>
       </c>
-      <c r="C4" s="491"/>
-      <c r="D4" s="491"/>
-      <c r="E4" s="491"/>
+      <c r="C4" s="493"/>
+      <c r="D4" s="493"/>
+      <c r="E4" s="493"/>
       <c r="F4" s="397">
         <v>499853.16</v>
       </c>
@@ -8435,12 +8450,12 @@
       </c>
     </row>
     <row r="6" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B6" s="492" t="s">
+      <c r="B6" s="494" t="s">
         <v>317</v>
       </c>
-      <c r="C6" s="493"/>
-      <c r="D6" s="493"/>
-      <c r="E6" s="493"/>
+      <c r="C6" s="495"/>
+      <c r="D6" s="495"/>
+      <c r="E6" s="495"/>
       <c r="F6" s="397">
         <v>781251.72</v>
       </c>
@@ -8458,10 +8473,10 @@
       <c r="B8" s="390"/>
       <c r="C8" s="383"/>
       <c r="D8" s="384"/>
-      <c r="E8" s="494" t="s">
+      <c r="E8" s="496" t="s">
         <v>315</v>
       </c>
-      <c r="F8" s="496">
+      <c r="F8" s="498">
         <f>SUM(F4:F7)</f>
         <v>1281104.8799999999</v>
       </c>
@@ -8470,8 +8485,8 @@
       <c r="B9" s="390"/>
       <c r="C9" s="383"/>
       <c r="D9" s="384"/>
-      <c r="E9" s="495"/>
-      <c r="F9" s="497"/>
+      <c r="E9" s="497"/>
+      <c r="F9" s="499"/>
     </row>
     <row r="10" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B10" s="390"/>
@@ -8495,12 +8510,12 @@
       <c r="F12" s="396"/>
     </row>
     <row r="13" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B13" s="498" t="s">
+      <c r="B13" s="500" t="s">
         <v>318</v>
       </c>
-      <c r="C13" s="499"/>
-      <c r="D13" s="499"/>
-      <c r="E13" s="499"/>
+      <c r="C13" s="501"/>
+      <c r="D13" s="501"/>
+      <c r="E13" s="501"/>
       <c r="F13" s="397">
         <v>255460.4</v>
       </c>
@@ -8515,12 +8530,12 @@
       </c>
     </row>
     <row r="15" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B15" s="498" t="s">
+      <c r="B15" s="500" t="s">
         <v>319</v>
       </c>
-      <c r="C15" s="499"/>
-      <c r="D15" s="499"/>
-      <c r="E15" s="499"/>
+      <c r="C15" s="501"/>
+      <c r="D15" s="501"/>
+      <c r="E15" s="501"/>
       <c r="F15" s="397">
         <v>6037.34</v>
       </c>
@@ -8538,10 +8553,10 @@
       <c r="B17" s="390"/>
       <c r="C17" s="383"/>
       <c r="D17" s="384"/>
-      <c r="E17" s="500" t="s">
+      <c r="E17" s="502" t="s">
         <v>315</v>
       </c>
-      <c r="F17" s="502">
+      <c r="F17" s="504">
         <f>SUM(F13:F16)</f>
         <v>261497.74</v>
       </c>
@@ -8550,8 +8565,8 @@
       <c r="B18" s="390"/>
       <c r="C18" s="383"/>
       <c r="D18" s="384"/>
-      <c r="E18" s="501"/>
-      <c r="F18" s="503"/>
+      <c r="E18" s="503"/>
+      <c r="F18" s="505"/>
     </row>
     <row r="19" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B19" s="390"/>
@@ -8575,22 +8590,22 @@
       <c r="F21" s="396"/>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B22" s="482" t="s">
+      <c r="B22" s="484" t="s">
         <v>321</v>
       </c>
-      <c r="C22" s="483"/>
-      <c r="D22" s="483"/>
-      <c r="E22" s="483"/>
-      <c r="F22" s="486">
+      <c r="C22" s="485"/>
+      <c r="D22" s="485"/>
+      <c r="E22" s="485"/>
+      <c r="F22" s="488">
         <v>12020</v>
       </c>
     </row>
     <row r="23" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="484"/>
-      <c r="C23" s="485"/>
-      <c r="D23" s="485"/>
-      <c r="E23" s="485"/>
-      <c r="F23" s="487"/>
+      <c r="B23" s="486"/>
+      <c r="C23" s="487"/>
+      <c r="D23" s="487"/>
+      <c r="E23" s="487"/>
+      <c r="F23" s="489"/>
     </row>
     <row r="24" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B24" s="356"/>
@@ -9950,7 +9965,7 @@
       <c r="A41" s="140">
         <v>44507</v>
       </c>
-      <c r="B41" s="449" t="s">
+      <c r="B41" s="451" t="s">
         <v>92</v>
       </c>
       <c r="C41" s="190">
@@ -9982,7 +9997,7 @@
       <c r="A42" s="140" t="s">
         <v>93</v>
       </c>
-      <c r="B42" s="450"/>
+      <c r="B42" s="452"/>
       <c r="C42" s="143">
         <v>0</v>
       </c>
@@ -11578,23 +11593,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="438"/>
-      <c r="C1" s="440" t="s">
+      <c r="B1" s="440"/>
+      <c r="C1" s="442" t="s">
         <v>208</v>
       </c>
-      <c r="D1" s="441"/>
-      <c r="E1" s="441"/>
-      <c r="F1" s="441"/>
-      <c r="G1" s="441"/>
-      <c r="H1" s="441"/>
-      <c r="I1" s="441"/>
-      <c r="J1" s="441"/>
-      <c r="K1" s="441"/>
-      <c r="L1" s="441"/>
-      <c r="M1" s="441"/>
+      <c r="D1" s="443"/>
+      <c r="E1" s="443"/>
+      <c r="F1" s="443"/>
+      <c r="G1" s="443"/>
+      <c r="H1" s="443"/>
+      <c r="I1" s="443"/>
+      <c r="J1" s="443"/>
+      <c r="K1" s="443"/>
+      <c r="L1" s="443"/>
+      <c r="M1" s="443"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="439"/>
+      <c r="B2" s="441"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -11604,21 +11619,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="442" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="443"/>
+      <c r="B3" s="444" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="445"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="444" t="s">
+      <c r="H3" s="446" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="444"/>
+      <c r="I3" s="446"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="468" t="s">
+      <c r="P3" s="470" t="s">
         <v>6</v>
       </c>
     </row>
@@ -11633,14 +11648,14 @@
       <c r="D4" s="18">
         <v>44507</v>
       </c>
-      <c r="E4" s="445" t="s">
+      <c r="E4" s="447" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="446"/>
-      <c r="H4" s="447" t="s">
+      <c r="F4" s="448"/>
+      <c r="H4" s="449" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="448"/>
+      <c r="I4" s="450"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -11650,14 +11665,14 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="469"/>
+      <c r="P4" s="471"/>
       <c r="Q4" s="286" t="s">
         <v>209</v>
       </c>
-      <c r="W4" s="451" t="s">
+      <c r="W4" s="453" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="451"/>
+      <c r="X4" s="453"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -11708,8 +11723,8 @@
         <f>20000+7936</f>
         <v>27936</v>
       </c>
-      <c r="W5" s="451"/>
-      <c r="X5" s="451"/>
+      <c r="W5" s="453"/>
+      <c r="X5" s="453"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -12480,7 +12495,7 @@
         <v>26370</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="455">
+      <c r="W19" s="457">
         <f t="shared" ref="W19" si="3">SUM(W6:W18)</f>
         <v>935136</v>
       </c>
@@ -12532,7 +12547,7 @@
         <v>16395.830000000002</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="456"/>
+      <c r="W20" s="458"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -12581,8 +12596,8 @@
         <v>19188.82</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="457"/>
-      <c r="X21" s="457"/>
+      <c r="W21" s="459"/>
+      <c r="X21" s="459"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -12683,8 +12698,8 @@
         <v>45217.29</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="458"/>
-      <c r="X23" s="458"/>
+      <c r="W23" s="460"/>
+      <c r="X23" s="460"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -12738,8 +12753,8 @@
         <v>23159.17</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="458"/>
-      <c r="X24" s="458"/>
+      <c r="W24" s="460"/>
+      <c r="X24" s="460"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -12785,8 +12800,8 @@
       <c r="R25" s="285">
         <v>28952</v>
       </c>
-      <c r="W25" s="459"/>
-      <c r="X25" s="459"/>
+      <c r="W25" s="461"/>
+      <c r="X25" s="461"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -12837,8 +12852,8 @@
       <c r="R26" s="285">
         <v>21771.5</v>
       </c>
-      <c r="W26" s="459"/>
-      <c r="X26" s="459"/>
+      <c r="W26" s="461"/>
+      <c r="X26" s="461"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -12886,9 +12901,9 @@
       <c r="R27" s="285">
         <v>14637</v>
       </c>
-      <c r="W27" s="452"/>
-      <c r="X27" s="453"/>
-      <c r="Y27" s="454"/>
+      <c r="W27" s="454"/>
+      <c r="X27" s="455"/>
+      <c r="Y27" s="456"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -12938,9 +12953,9 @@
       <c r="R28" s="285">
         <v>0</v>
       </c>
-      <c r="W28" s="453"/>
-      <c r="X28" s="453"/>
-      <c r="Y28" s="454"/>
+      <c r="W28" s="455"/>
+      <c r="X28" s="455"/>
+      <c r="Y28" s="456"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -13275,11 +13290,11 @@
       <c r="L36" s="44">
         <v>5940</v>
       </c>
-      <c r="M36" s="470">
+      <c r="M36" s="472">
         <f t="shared" ref="M36" si="4">SUM(M5:M35)</f>
         <v>321168.83</v>
       </c>
-      <c r="N36" s="472">
+      <c r="N36" s="474">
         <f t="shared" ref="N36" si="5">SUM(N5:N35)</f>
         <v>467016</v>
       </c>
@@ -13287,7 +13302,7 @@
       <c r="P36" s="277">
         <v>0</v>
       </c>
-      <c r="Q36" s="474">
+      <c r="Q36" s="476">
         <f t="shared" ref="Q36" si="6">SUM(Q5:Q35)</f>
         <v>-637069.14000000013</v>
       </c>
@@ -13322,13 +13337,13 @@
       <c r="L37" s="61">
         <v>7929.62</v>
       </c>
-      <c r="M37" s="471"/>
-      <c r="N37" s="473"/>
+      <c r="M37" s="473"/>
+      <c r="N37" s="475"/>
       <c r="O37" s="276"/>
       <c r="P37" s="277">
         <v>0</v>
       </c>
-      <c r="Q37" s="475"/>
+      <c r="Q37" s="477"/>
     </row>
     <row r="38" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="23"/>
@@ -13618,26 +13633,26 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="425" t="s">
+      <c r="H52" s="427" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="426"/>
+      <c r="I52" s="428"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="427">
+      <c r="K52" s="429">
         <f>I50+L50</f>
         <v>71911.59</v>
       </c>
-      <c r="L52" s="460"/>
+      <c r="L52" s="462"/>
       <c r="M52" s="272"/>
       <c r="N52" s="272"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="13"/>
     </row>
     <row r="53" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D53" s="431" t="s">
+      <c r="D53" s="433" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="431"/>
+      <c r="E53" s="433"/>
       <c r="F53" s="313">
         <f>F50-K52-C50</f>
         <v>-25952.549999999814</v>
@@ -13646,29 +13661,29 @@
       <c r="J53" s="103"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="461" t="s">
+      <c r="D54" s="463" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="461"/>
+      <c r="E54" s="463"/>
       <c r="F54" s="111">
         <v>-706888.38</v>
       </c>
-      <c r="I54" s="432" t="s">
+      <c r="I54" s="434" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="433"/>
-      <c r="K54" s="434">
+      <c r="J54" s="435"/>
+      <c r="K54" s="436">
         <f>F56+F57+F58</f>
         <v>1308778.3500000003</v>
       </c>
-      <c r="L54" s="434"/>
-      <c r="M54" s="462" t="s">
+      <c r="L54" s="436"/>
+      <c r="M54" s="464" t="s">
         <v>211</v>
       </c>
-      <c r="N54" s="463"/>
-      <c r="O54" s="463"/>
-      <c r="P54" s="463"/>
-      <c r="Q54" s="464"/>
+      <c r="N54" s="465"/>
+      <c r="O54" s="465"/>
+      <c r="P54" s="465"/>
+      <c r="Q54" s="466"/>
     </row>
     <row r="55" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D55" s="314" t="s">
@@ -13682,11 +13697,11 @@
       <c r="J55" s="106"/>
       <c r="K55" s="178"/>
       <c r="L55" s="107"/>
-      <c r="M55" s="465"/>
-      <c r="N55" s="466"/>
-      <c r="O55" s="466"/>
-      <c r="P55" s="466"/>
-      <c r="Q55" s="467"/>
+      <c r="M55" s="467"/>
+      <c r="N55" s="468"/>
+      <c r="O55" s="468"/>
+      <c r="P55" s="468"/>
+      <c r="Q55" s="469"/>
     </row>
     <row r="56" spans="1:17" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="C56" s="4" t="s">
@@ -13704,11 +13719,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="436">
+      <c r="K56" s="438">
         <f>-C4</f>
         <v>-567389.35</v>
       </c>
-      <c r="L56" s="437"/>
+      <c r="L56" s="439"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -13725,22 +13740,22 @@
       <c r="C58" s="112">
         <v>44535</v>
       </c>
-      <c r="D58" s="414" t="s">
+      <c r="D58" s="416" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="415"/>
+      <c r="E58" s="417"/>
       <c r="F58" s="113">
         <v>2142307.62</v>
       </c>
-      <c r="I58" s="416" t="s">
+      <c r="I58" s="418" t="s">
         <v>198</v>
       </c>
-      <c r="J58" s="417"/>
-      <c r="K58" s="418">
+      <c r="J58" s="419"/>
+      <c r="K58" s="420">
         <f>K54+K56</f>
         <v>741389.00000000035</v>
       </c>
-      <c r="L58" s="418"/>
+      <c r="L58" s="420"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -16330,7 +16345,7 @@
       <c r="C87" s="214"/>
       <c r="D87" s="97"/>
       <c r="E87" s="3"/>
-      <c r="F87" s="476" t="s">
+      <c r="F87" s="478" t="s">
         <v>207</v>
       </c>
       <c r="K87" s="1"/>
@@ -16343,7 +16358,7 @@
       <c r="C88" s="1"/>
       <c r="D88" s="97"/>
       <c r="E88" s="3"/>
-      <c r="F88" s="477"/>
+      <c r="F88" s="479"/>
       <c r="K88" s="1"/>
       <c r="L88" s="256"/>
       <c r="M88" s="3"/>
@@ -16655,23 +16670,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="438"/>
-      <c r="C1" s="440" t="s">
+      <c r="B1" s="440"/>
+      <c r="C1" s="442" t="s">
         <v>208</v>
       </c>
-      <c r="D1" s="441"/>
-      <c r="E1" s="441"/>
-      <c r="F1" s="441"/>
-      <c r="G1" s="441"/>
-      <c r="H1" s="441"/>
-      <c r="I1" s="441"/>
-      <c r="J1" s="441"/>
-      <c r="K1" s="441"/>
-      <c r="L1" s="441"/>
-      <c r="M1" s="441"/>
+      <c r="D1" s="443"/>
+      <c r="E1" s="443"/>
+      <c r="F1" s="443"/>
+      <c r="G1" s="443"/>
+      <c r="H1" s="443"/>
+      <c r="I1" s="443"/>
+      <c r="J1" s="443"/>
+      <c r="K1" s="443"/>
+      <c r="L1" s="443"/>
+      <c r="M1" s="443"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="439"/>
+      <c r="B2" s="441"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -16681,24 +16696,24 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="442" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="443"/>
+      <c r="B3" s="444" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="445"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="444" t="s">
+      <c r="H3" s="446" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="444"/>
+      <c r="I3" s="446"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="468" t="s">
+      <c r="P3" s="470" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="478" t="s">
+      <c r="R3" s="480" t="s">
         <v>216</v>
       </c>
     </row>
@@ -16713,14 +16728,14 @@
       <c r="D4" s="18">
         <v>44507</v>
       </c>
-      <c r="E4" s="445" t="s">
+      <c r="E4" s="447" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="446"/>
-      <c r="H4" s="447" t="s">
+      <c r="F4" s="448"/>
+      <c r="H4" s="449" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="448"/>
+      <c r="I4" s="450"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -16730,15 +16745,15 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="469"/>
+      <c r="P4" s="471"/>
       <c r="Q4" s="323" t="s">
         <v>217</v>
       </c>
-      <c r="R4" s="479"/>
-      <c r="W4" s="451" t="s">
+      <c r="R4" s="481"/>
+      <c r="W4" s="453" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="451"/>
+      <c r="X4" s="453"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -16799,8 +16814,8 @@
       <c r="S5" s="325" t="s">
         <v>213</v>
       </c>
-      <c r="W5" s="451"/>
-      <c r="X5" s="451"/>
+      <c r="W5" s="453"/>
+      <c r="X5" s="453"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -17557,7 +17572,7 @@
         <v>0</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="455">
+      <c r="W19" s="457">
         <f t="shared" ref="W19" si="3">SUM(W6:W18)</f>
         <v>0</v>
       </c>
@@ -17609,7 +17624,7 @@
         <v>0</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="456"/>
+      <c r="W20" s="458"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -17658,8 +17673,8 @@
         <v>0</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="457"/>
-      <c r="X21" s="457"/>
+      <c r="W21" s="459"/>
+      <c r="X21" s="459"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -17760,8 +17775,8 @@
         <v>0</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="458"/>
-      <c r="X23" s="458"/>
+      <c r="W23" s="460"/>
+      <c r="X23" s="460"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -17812,8 +17827,8 @@
         <v>0</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="458"/>
-      <c r="X24" s="458"/>
+      <c r="W24" s="460"/>
+      <c r="X24" s="460"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -17859,8 +17874,8 @@
       <c r="R25" s="320">
         <v>0</v>
       </c>
-      <c r="W25" s="459"/>
-      <c r="X25" s="459"/>
+      <c r="W25" s="461"/>
+      <c r="X25" s="461"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -17908,8 +17923,8 @@
       <c r="R26" s="320">
         <v>0</v>
       </c>
-      <c r="W26" s="459"/>
-      <c r="X26" s="459"/>
+      <c r="W26" s="461"/>
+      <c r="X26" s="461"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -17969,9 +17984,9 @@
       <c r="V27" t="s">
         <v>240</v>
       </c>
-      <c r="W27" s="452"/>
-      <c r="X27" s="453"/>
-      <c r="Y27" s="454"/>
+      <c r="W27" s="454"/>
+      <c r="X27" s="455"/>
+      <c r="Y27" s="456"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -18025,9 +18040,9 @@
       <c r="V28" t="s">
         <v>240</v>
       </c>
-      <c r="W28" s="453"/>
-      <c r="X28" s="453"/>
-      <c r="Y28" s="454"/>
+      <c r="W28" s="455"/>
+      <c r="X28" s="455"/>
+      <c r="Y28" s="456"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -18343,11 +18358,11 @@
       <c r="J36" s="266"/>
       <c r="K36" s="250"/>
       <c r="L36" s="44"/>
-      <c r="M36" s="470">
+      <c r="M36" s="472">
         <f t="shared" ref="M36" si="4">SUM(M5:M35)</f>
         <v>1077791.3</v>
       </c>
-      <c r="N36" s="472">
+      <c r="N36" s="474">
         <f t="shared" ref="N36" si="5">SUM(N5:N35)</f>
         <v>936398</v>
       </c>
@@ -18355,7 +18370,7 @@
       <c r="P36" s="277">
         <v>0</v>
       </c>
-      <c r="Q36" s="474">
+      <c r="Q36" s="476">
         <f t="shared" ref="Q36" si="6">SUM(Q5:Q35)</f>
         <v>-14262.940000000002</v>
       </c>
@@ -18374,13 +18389,13 @@
       <c r="J37" s="60"/>
       <c r="K37" s="41"/>
       <c r="L37" s="61"/>
-      <c r="M37" s="471"/>
-      <c r="N37" s="473"/>
+      <c r="M37" s="473"/>
+      <c r="N37" s="475"/>
       <c r="O37" s="276"/>
       <c r="P37" s="277">
         <v>0</v>
       </c>
-      <c r="Q37" s="475"/>
+      <c r="Q37" s="477"/>
     </row>
     <row r="38" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="23"/>
@@ -18654,26 +18669,26 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="425" t="s">
+      <c r="H52" s="427" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="426"/>
+      <c r="I52" s="428"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="427">
+      <c r="K52" s="429">
         <f>I50+L50</f>
         <v>90750.75</v>
       </c>
-      <c r="L52" s="460"/>
+      <c r="L52" s="462"/>
       <c r="M52" s="272"/>
       <c r="N52" s="272"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="13"/>
     </row>
     <row r="53" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D53" s="431" t="s">
+      <c r="D53" s="433" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="431"/>
+      <c r="E53" s="433"/>
       <c r="F53" s="313">
         <f>F50-K52-C50</f>
         <v>1739855.03</v>
@@ -18682,29 +18697,29 @@
       <c r="J53" s="103"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="461" t="s">
+      <c r="D54" s="463" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="461"/>
+      <c r="E54" s="463"/>
       <c r="F54" s="111">
         <v>-1567070.66</v>
       </c>
-      <c r="I54" s="432" t="s">
+      <c r="I54" s="434" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="433"/>
-      <c r="K54" s="434">
+      <c r="J54" s="435"/>
+      <c r="K54" s="436">
         <f>F56+F57+F58</f>
         <v>703192.8600000001</v>
       </c>
-      <c r="L54" s="434"/>
-      <c r="M54" s="462" t="s">
+      <c r="L54" s="436"/>
+      <c r="M54" s="464" t="s">
         <v>211</v>
       </c>
-      <c r="N54" s="463"/>
-      <c r="O54" s="463"/>
-      <c r="P54" s="463"/>
-      <c r="Q54" s="464"/>
+      <c r="N54" s="465"/>
+      <c r="O54" s="465"/>
+      <c r="P54" s="465"/>
+      <c r="Q54" s="466"/>
     </row>
     <row r="55" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D55" s="314" t="s">
@@ -18718,11 +18733,11 @@
       <c r="J55" s="106"/>
       <c r="K55" s="178"/>
       <c r="L55" s="107"/>
-      <c r="M55" s="465"/>
-      <c r="N55" s="466"/>
-      <c r="O55" s="466"/>
-      <c r="P55" s="466"/>
-      <c r="Q55" s="467"/>
+      <c r="M55" s="467"/>
+      <c r="N55" s="468"/>
+      <c r="O55" s="468"/>
+      <c r="P55" s="468"/>
+      <c r="Q55" s="469"/>
     </row>
     <row r="56" spans="1:17" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="C56" s="4" t="s">
@@ -18740,11 +18755,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="436">
+      <c r="K56" s="438">
         <f>-C4</f>
         <v>-567389.35</v>
       </c>
-      <c r="L56" s="437"/>
+      <c r="L56" s="439"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -18761,22 +18776,22 @@
       <c r="C58" s="112">
         <v>44563</v>
       </c>
-      <c r="D58" s="414" t="s">
+      <c r="D58" s="416" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="415"/>
+      <c r="E58" s="417"/>
       <c r="F58" s="113">
         <v>754143.23</v>
       </c>
-      <c r="I58" s="416" t="s">
+      <c r="I58" s="418" t="s">
         <v>198</v>
       </c>
-      <c r="J58" s="417"/>
-      <c r="K58" s="418">
+      <c r="J58" s="419"/>
+      <c r="K58" s="420">
         <f>K54+K56</f>
         <v>135803.51000000013</v>
       </c>
-      <c r="L58" s="418"/>
+      <c r="L58" s="420"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -21132,7 +21147,7 @@
       <c r="C75" s="214"/>
       <c r="D75" s="256"/>
       <c r="E75" s="3"/>
-      <c r="F75" s="476" t="s">
+      <c r="F75" s="478" t="s">
         <v>207</v>
       </c>
       <c r="K75" s="1"/>
@@ -21145,7 +21160,7 @@
       <c r="C76" s="1"/>
       <c r="D76" s="256"/>
       <c r="E76" s="3"/>
-      <c r="F76" s="477"/>
+      <c r="F76" s="479"/>
       <c r="K76" s="1"/>
       <c r="L76" s="97"/>
       <c r="M76" s="3"/>
@@ -21427,8 +21442,8 @@
   </sheetPr>
   <dimension ref="A1:Z80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I19" workbookViewId="0">
-      <selection activeCell="S28" sqref="S28"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -21457,23 +21472,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="438"/>
-      <c r="C1" s="480" t="s">
+      <c r="B1" s="440"/>
+      <c r="C1" s="482" t="s">
         <v>323</v>
       </c>
-      <c r="D1" s="481"/>
-      <c r="E1" s="481"/>
-      <c r="F1" s="481"/>
-      <c r="G1" s="481"/>
-      <c r="H1" s="481"/>
-      <c r="I1" s="481"/>
-      <c r="J1" s="481"/>
-      <c r="K1" s="481"/>
-      <c r="L1" s="481"/>
-      <c r="M1" s="481"/>
+      <c r="D1" s="483"/>
+      <c r="E1" s="483"/>
+      <c r="F1" s="483"/>
+      <c r="G1" s="483"/>
+      <c r="H1" s="483"/>
+      <c r="I1" s="483"/>
+      <c r="J1" s="483"/>
+      <c r="K1" s="483"/>
+      <c r="L1" s="483"/>
+      <c r="M1" s="483"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="439"/>
+      <c r="B2" s="441"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -21483,24 +21498,24 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="442" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="443"/>
+      <c r="B3" s="444" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="445"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="444" t="s">
+      <c r="H3" s="446" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="444"/>
+      <c r="I3" s="446"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="468" t="s">
+      <c r="P3" s="470" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="478" t="s">
+      <c r="R3" s="480" t="s">
         <v>216</v>
       </c>
     </row>
@@ -21515,14 +21530,14 @@
       <c r="D4" s="18">
         <v>44563</v>
       </c>
-      <c r="E4" s="445" t="s">
+      <c r="E4" s="447" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="446"/>
-      <c r="H4" s="447" t="s">
+      <c r="F4" s="448"/>
+      <c r="H4" s="449" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="448"/>
+      <c r="I4" s="450"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -21532,15 +21547,15 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="469"/>
+      <c r="P4" s="471"/>
       <c r="Q4" s="323" t="s">
         <v>217</v>
       </c>
-      <c r="R4" s="479"/>
-      <c r="W4" s="451" t="s">
+      <c r="R4" s="481"/>
+      <c r="W4" s="453" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="451"/>
+      <c r="X4" s="453"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -21591,8 +21606,8 @@
         <v>0</v>
       </c>
       <c r="S5" s="325"/>
-      <c r="W5" s="451"/>
-      <c r="X5" s="451"/>
+      <c r="W5" s="453"/>
+      <c r="X5" s="453"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -21848,7 +21863,7 @@
         <v>44569</v>
       </c>
       <c r="K10" s="167" t="s">
-        <v>332</v>
+        <v>245</v>
       </c>
       <c r="L10" s="45">
         <v>12544.83</v>
@@ -21868,7 +21883,7 @@
       <c r="Q10" s="318">
         <v>0</v>
       </c>
-      <c r="R10" s="504">
+      <c r="R10" s="414">
         <v>1891</v>
       </c>
       <c r="S10" s="147"/>
@@ -22231,7 +22246,7 @@
         <v>44576</v>
       </c>
       <c r="K17" s="38" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="L17" s="45">
         <f>12714+1607</f>
@@ -22356,7 +22371,7 @@
         <v>0</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="455">
+      <c r="W19" s="457">
         <f t="shared" ref="W19" si="3">SUM(W6:W18)</f>
         <v>0</v>
       </c>
@@ -22409,7 +22424,7 @@
         <v>0</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="456"/>
+      <c r="W20" s="458"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -22454,12 +22469,12 @@
       <c r="Q21" s="413">
         <v>0</v>
       </c>
-      <c r="R21" s="505">
+      <c r="R21" s="415">
         <v>377273.87</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="457"/>
-      <c r="X21" s="457"/>
+      <c r="W21" s="459"/>
+      <c r="X21" s="459"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -22559,8 +22574,8 @@
         <v>0</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="458"/>
-      <c r="X23" s="458"/>
+      <c r="W23" s="460"/>
+      <c r="X23" s="460"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -22592,7 +22607,7 @@
         <v>44583</v>
       </c>
       <c r="K24" s="173" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="L24" s="52">
         <v>12971.14</v>
@@ -22615,8 +22630,8 @@
         <v>0</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="458"/>
-      <c r="X24" s="458"/>
+      <c r="W24" s="460"/>
+      <c r="X24" s="460"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -22661,8 +22676,8 @@
       <c r="R25" s="320">
         <v>0</v>
       </c>
-      <c r="W25" s="459"/>
-      <c r="X25" s="459"/>
+      <c r="W25" s="461"/>
+      <c r="X25" s="461"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -22675,7 +22690,7 @@
         <v>8574</v>
       </c>
       <c r="D26" s="35" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E26" s="27">
         <v>44585</v>
@@ -22710,8 +22725,8 @@
       <c r="R26" s="320">
         <v>0</v>
       </c>
-      <c r="W26" s="459"/>
-      <c r="X26" s="459"/>
+      <c r="W26" s="461"/>
+      <c r="X26" s="461"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -22724,7 +22739,7 @@
         <v>6964.5</v>
       </c>
       <c r="D27" s="42" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E27" s="27">
         <v>44586</v>
@@ -22765,9 +22780,9 @@
       <c r="V27" t="s">
         <v>240</v>
       </c>
-      <c r="W27" s="452"/>
-      <c r="X27" s="453"/>
-      <c r="Y27" s="454"/>
+      <c r="W27" s="454"/>
+      <c r="X27" s="455"/>
+      <c r="Y27" s="456"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -22779,7 +22794,7 @@
         <v>24487</v>
       </c>
       <c r="D28" s="42" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E28" s="27">
         <v>44587</v>
@@ -22821,9 +22836,9 @@
       <c r="V28" t="s">
         <v>240</v>
       </c>
-      <c r="W28" s="453"/>
-      <c r="X28" s="453"/>
-      <c r="Y28" s="454"/>
+      <c r="W28" s="455"/>
+      <c r="X28" s="455"/>
+      <c r="Y28" s="456"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -22831,36 +22846,44 @@
       <c r="B29" s="24">
         <v>44588</v>
       </c>
-      <c r="C29" s="25"/>
-      <c r="D29" s="58"/>
+      <c r="C29" s="25">
+        <v>1751</v>
+      </c>
+      <c r="D29" s="58" t="s">
+        <v>349</v>
+      </c>
       <c r="E29" s="27">
         <v>44588</v>
       </c>
-      <c r="F29" s="28"/>
+      <c r="F29" s="28">
+        <v>487994</v>
+      </c>
       <c r="G29" s="2"/>
       <c r="H29" s="36">
         <v>44588</v>
       </c>
-      <c r="I29" s="30"/>
+      <c r="I29" s="30">
+        <v>1541</v>
+      </c>
       <c r="J29" s="59"/>
       <c r="K29" s="175"/>
       <c r="L29" s="54"/>
       <c r="M29" s="32">
-        <v>0</v>
+        <f>62811+1115+395460.57+7891.79</f>
+        <v>467278.36</v>
       </c>
       <c r="N29" s="33">
-        <v>0</v>
+        <v>18538</v>
       </c>
       <c r="P29" s="34">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>489108.36</v>
       </c>
       <c r="Q29" s="318">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R29" s="320">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="R29" s="414">
+        <v>1115</v>
       </c>
       <c r="U29" s="337">
         <v>3499</v>
@@ -22878,29 +22901,37 @@
       <c r="B30" s="24">
         <v>44589</v>
       </c>
-      <c r="C30" s="25"/>
-      <c r="D30" s="58"/>
+      <c r="C30" s="25">
+        <v>26995.5</v>
+      </c>
+      <c r="D30" s="58" t="s">
+        <v>350</v>
+      </c>
       <c r="E30" s="27">
         <v>44589</v>
       </c>
-      <c r="F30" s="28"/>
+      <c r="F30" s="28">
+        <v>93818</v>
+      </c>
       <c r="G30" s="2"/>
       <c r="H30" s="36">
         <v>44589</v>
       </c>
-      <c r="I30" s="30"/>
+      <c r="I30" s="30">
+        <v>2252.5</v>
+      </c>
       <c r="J30" s="60"/>
       <c r="K30" s="41"/>
       <c r="L30" s="61"/>
       <c r="M30" s="32">
-        <v>0</v>
+        <v>40300</v>
       </c>
       <c r="N30" s="33">
-        <v>0</v>
+        <v>24270</v>
       </c>
       <c r="P30" s="34">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>93818</v>
       </c>
       <c r="Q30" s="318">
         <f t="shared" si="1"/>
@@ -22919,29 +22950,43 @@
       <c r="B31" s="24">
         <v>44590</v>
       </c>
-      <c r="C31" s="25"/>
-      <c r="D31" s="62"/>
+      <c r="C31" s="25">
+        <v>5625</v>
+      </c>
+      <c r="D31" s="65" t="s">
+        <v>335</v>
+      </c>
       <c r="E31" s="27">
         <v>44590</v>
       </c>
-      <c r="F31" s="404"/>
+      <c r="F31" s="404">
+        <v>93087</v>
+      </c>
       <c r="G31" s="2"/>
       <c r="H31" s="36">
         <v>44590</v>
       </c>
-      <c r="I31" s="405"/>
-      <c r="J31" s="60"/>
-      <c r="K31" s="41"/>
-      <c r="L31" s="63"/>
+      <c r="I31" s="405">
+        <v>3104.5</v>
+      </c>
+      <c r="J31" s="60">
+        <v>44590</v>
+      </c>
+      <c r="K31" s="41" t="s">
+        <v>351</v>
+      </c>
+      <c r="L31" s="63">
+        <v>12295</v>
+      </c>
       <c r="M31" s="32">
-        <v>0</v>
+        <v>40509.5</v>
       </c>
       <c r="N31" s="33">
-        <v>0</v>
+        <v>31553</v>
       </c>
       <c r="P31" s="34">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>93087</v>
       </c>
       <c r="Q31" s="287">
         <f t="shared" si="1"/>
@@ -22954,51 +22999,56 @@
       <c r="B32" s="24">
         <v>44591</v>
       </c>
-      <c r="C32" s="25"/>
-      <c r="D32" s="64"/>
+      <c r="C32" s="25">
+        <v>7440</v>
+      </c>
+      <c r="D32" s="64" t="s">
+        <v>354</v>
+      </c>
       <c r="E32" s="27">
         <v>44591</v>
       </c>
-      <c r="F32" s="28"/>
+      <c r="F32" s="28">
+        <v>85273</v>
+      </c>
       <c r="G32" s="2"/>
       <c r="H32" s="36">
         <v>44591</v>
       </c>
-      <c r="I32" s="30"/>
+      <c r="I32" s="30">
+        <v>1360</v>
+      </c>
       <c r="J32" s="60"/>
       <c r="K32" s="41"/>
       <c r="L32" s="61"/>
       <c r="M32" s="32">
-        <v>0</v>
+        <f>41306+7035</f>
+        <v>48341</v>
       </c>
       <c r="N32" s="33">
-        <v>0</v>
+        <v>28132</v>
       </c>
       <c r="P32" s="34">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>85273</v>
       </c>
       <c r="Q32" s="287">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="R32" s="228"/>
+      <c r="R32" s="228">
+        <v>2</v>
+      </c>
     </row>
     <row r="33" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="23"/>
-      <c r="B33" s="24">
-        <v>44592</v>
-      </c>
+      <c r="B33" s="24"/>
       <c r="C33" s="25"/>
       <c r="D33" s="65"/>
-      <c r="E33" s="27">
-        <v>44592</v>
-      </c>
+      <c r="E33" s="27"/>
       <c r="F33" s="28"/>
       <c r="G33" s="2"/>
-      <c r="H33" s="36">
-        <v>44592</v>
-      </c>
+      <c r="H33" s="36"/>
       <c r="I33" s="30"/>
       <c r="J33" s="60"/>
       <c r="K33" s="247"/>
@@ -23020,19 +23070,13 @@
     </row>
     <row r="34" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="23"/>
-      <c r="B34" s="24">
-        <v>44593</v>
-      </c>
+      <c r="B34" s="24"/>
       <c r="C34" s="25"/>
       <c r="D34" s="64"/>
-      <c r="E34" s="27">
-        <v>44593</v>
-      </c>
+      <c r="E34" s="27"/>
       <c r="F34" s="28"/>
       <c r="G34" s="2"/>
-      <c r="H34" s="36">
-        <v>44593</v>
-      </c>
+      <c r="H34" s="36"/>
       <c r="I34" s="30"/>
       <c r="J34" s="266"/>
       <c r="K34" s="248"/>
@@ -23054,19 +23098,13 @@
     </row>
     <row r="35" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="23"/>
-      <c r="B35" s="24">
-        <v>44594</v>
-      </c>
+      <c r="B35" s="24"/>
       <c r="C35" s="25"/>
       <c r="D35" s="65"/>
-      <c r="E35" s="27">
-        <v>44594</v>
-      </c>
+      <c r="E35" s="27"/>
       <c r="F35" s="28"/>
       <c r="G35" s="2"/>
-      <c r="H35" s="36">
-        <v>44594</v>
-      </c>
+      <c r="H35" s="36"/>
       <c r="I35" s="30"/>
       <c r="J35" s="266"/>
       <c r="K35" s="249"/>
@@ -23088,40 +23126,36 @@
     </row>
     <row r="36" spans="1:18" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="23"/>
-      <c r="B36" s="24">
-        <v>44595</v>
-      </c>
+      <c r="B36" s="24"/>
       <c r="C36" s="25"/>
       <c r="D36" s="62"/>
-      <c r="E36" s="27">
-        <v>44595</v>
-      </c>
+      <c r="E36" s="27"/>
       <c r="F36" s="28"/>
       <c r="G36" s="2"/>
-      <c r="H36" s="36">
-        <v>44595</v>
-      </c>
+      <c r="H36" s="36"/>
       <c r="I36" s="30"/>
-      <c r="J36" s="266"/>
+      <c r="J36" s="266" t="s">
+        <v>119</v>
+      </c>
       <c r="K36" s="250" t="s">
-        <v>344</v>
+        <v>353</v>
       </c>
       <c r="L36" s="44">
         <v>13275.84</v>
       </c>
-      <c r="M36" s="470">
+      <c r="M36" s="472">
         <f t="shared" ref="M36:N36" si="4">SUM(M5:M35)</f>
-        <v>1222016.8700000001</v>
-      </c>
-      <c r="N36" s="472">
+        <v>1818445.73</v>
+      </c>
+      <c r="N36" s="474">
         <f t="shared" si="4"/>
-        <v>636521</v>
+        <v>739014</v>
       </c>
       <c r="O36" s="276"/>
       <c r="P36" s="277">
         <v>0</v>
       </c>
-      <c r="Q36" s="474">
+      <c r="Q36" s="476">
         <f t="shared" ref="Q36" si="5">SUM(Q5:Q35)</f>
         <v>-7.2800000000133878</v>
       </c>
@@ -23129,46 +23163,43 @@
     </row>
     <row r="37" spans="1:18" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="23"/>
-      <c r="B37" s="24">
-        <v>44596</v>
-      </c>
+      <c r="B37" s="24"/>
       <c r="C37" s="25"/>
       <c r="D37" s="65"/>
-      <c r="E37" s="27">
-        <v>44596</v>
-      </c>
+      <c r="E37" s="27"/>
       <c r="F37" s="28"/>
       <c r="G37" s="2"/>
-      <c r="H37" s="36">
-        <v>44596</v>
-      </c>
+      <c r="H37" s="36"/>
       <c r="I37" s="30"/>
-      <c r="J37" s="60"/>
-      <c r="K37" s="41"/>
-      <c r="L37" s="61"/>
-      <c r="M37" s="471"/>
-      <c r="N37" s="473"/>
+      <c r="J37" s="60" t="s">
+        <v>119</v>
+      </c>
+      <c r="K37" s="41" t="s">
+        <v>344</v>
+      </c>
+      <c r="L37" s="61">
+        <v>15060.32</v>
+      </c>
+      <c r="M37" s="473"/>
+      <c r="N37" s="475"/>
       <c r="O37" s="276"/>
       <c r="P37" s="277">
         <v>0</v>
       </c>
-      <c r="Q37" s="475"/>
+      <c r="Q37" s="477"/>
+      <c r="R37" s="227" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="38" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="23"/>
-      <c r="B38" s="24">
-        <v>44597</v>
-      </c>
+      <c r="B38" s="24"/>
       <c r="C38" s="25"/>
       <c r="D38" s="65"/>
-      <c r="E38" s="27">
-        <v>44597</v>
-      </c>
+      <c r="E38" s="27"/>
       <c r="F38" s="28"/>
       <c r="G38" s="2"/>
-      <c r="H38" s="36">
-        <v>44597</v>
-      </c>
+      <c r="H38" s="36"/>
       <c r="I38" s="30"/>
       <c r="J38" s="60"/>
       <c r="K38" s="177"/>
@@ -23182,19 +23213,13 @@
     </row>
     <row r="39" spans="1:18" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="23"/>
-      <c r="B39" s="24">
-        <v>44598</v>
-      </c>
+      <c r="B39" s="24"/>
       <c r="C39" s="69"/>
       <c r="D39" s="62"/>
-      <c r="E39" s="27">
-        <v>44598</v>
-      </c>
+      <c r="E39" s="27"/>
       <c r="F39" s="70"/>
       <c r="G39" s="2"/>
-      <c r="H39" s="36">
-        <v>44598</v>
-      </c>
+      <c r="H39" s="36"/>
       <c r="I39" s="71"/>
       <c r="J39" s="60"/>
       <c r="K39" s="177"/>
@@ -23203,7 +23228,7 @@
       <c r="N39" s="278"/>
       <c r="P39" s="34">
         <f>SUM(P5:P38)</f>
-        <v>2212142.92</v>
+        <v>2973429.28</v>
       </c>
       <c r="Q39" s="275"/>
     </row>
@@ -23406,7 +23431,7 @@
       </c>
       <c r="C50" s="87">
         <f>SUM(C5:C49)</f>
-        <v>270926.18</v>
+        <v>312737.68</v>
       </c>
       <c r="D50" s="88"/>
       <c r="E50" s="89" t="s">
@@ -23414,7 +23439,7 @@
       </c>
       <c r="F50" s="90">
         <f>SUM(F5:F49)</f>
-        <v>1832986</v>
+        <v>2593158</v>
       </c>
       <c r="G50" s="88"/>
       <c r="H50" s="91" t="s">
@@ -23422,7 +23447,7 @@
       </c>
       <c r="I50" s="92">
         <f>SUM(I5:I49)</f>
-        <v>42841.9</v>
+        <v>51099.9</v>
       </c>
       <c r="J50" s="93"/>
       <c r="K50" s="94" t="s">
@@ -23430,7 +23455,7 @@
       </c>
       <c r="L50" s="95">
         <f>SUM(L5:L49)</f>
-        <v>66538.98</v>
+        <v>93894.3</v>
       </c>
       <c r="M50" s="96"/>
       <c r="N50" s="96"/>
@@ -23448,57 +23473,57 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="425" t="s">
+      <c r="H52" s="427" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="426"/>
+      <c r="I52" s="428"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="427">
+      <c r="K52" s="429">
         <f>I50+L50</f>
-        <v>109380.88</v>
-      </c>
-      <c r="L52" s="460"/>
+        <v>144994.20000000001</v>
+      </c>
+      <c r="L52" s="462"/>
       <c r="M52" s="272"/>
       <c r="N52" s="272"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="13"/>
     </row>
     <row r="53" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D53" s="431" t="s">
+      <c r="D53" s="433" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="431"/>
+      <c r="E53" s="433"/>
       <c r="F53" s="313">
         <f>F50-K52-C50</f>
-        <v>1452678.9400000002</v>
+        <v>2135426.1199999996</v>
       </c>
       <c r="I53" s="102"/>
       <c r="J53" s="103"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="461" t="s">
+      <c r="D54" s="463" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="461"/>
+      <c r="E54" s="463"/>
       <c r="F54" s="111">
         <v>0</v>
       </c>
-      <c r="I54" s="432" t="s">
+      <c r="I54" s="434" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="433"/>
-      <c r="K54" s="434">
+      <c r="J54" s="435"/>
+      <c r="K54" s="436">
         <f>F56+F57+F58</f>
-        <v>1452678.9400000002</v>
-      </c>
-      <c r="L54" s="434"/>
-      <c r="M54" s="462" t="s">
+        <v>3440318.5299999993</v>
+      </c>
+      <c r="L54" s="436"/>
+      <c r="M54" s="464" t="s">
         <v>211</v>
       </c>
-      <c r="N54" s="463"/>
-      <c r="O54" s="463"/>
-      <c r="P54" s="463"/>
-      <c r="Q54" s="464"/>
+      <c r="N54" s="465"/>
+      <c r="O54" s="465"/>
+      <c r="P54" s="465"/>
+      <c r="Q54" s="466"/>
     </row>
     <row r="55" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D55" s="314" t="s">
@@ -23512,11 +23537,11 @@
       <c r="J55" s="106"/>
       <c r="K55" s="178"/>
       <c r="L55" s="107"/>
-      <c r="M55" s="465"/>
-      <c r="N55" s="466"/>
-      <c r="O55" s="466"/>
-      <c r="P55" s="466"/>
-      <c r="Q55" s="467"/>
+      <c r="M55" s="467"/>
+      <c r="N55" s="468"/>
+      <c r="O55" s="468"/>
+      <c r="P55" s="468"/>
+      <c r="Q55" s="469"/>
     </row>
     <row r="56" spans="1:17" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="C56" s="4" t="s">
@@ -23527,18 +23552,18 @@
       </c>
       <c r="F56" s="96">
         <f>SUM(F53:F55)</f>
-        <v>1452678.9400000002</v>
+        <v>2135426.1199999996</v>
       </c>
       <c r="H56" s="23"/>
       <c r="I56" s="108" t="s">
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="436">
+      <c r="K56" s="438">
         <f>-C4</f>
         <v>-754143.23</v>
       </c>
-      <c r="L56" s="437"/>
+      <c r="L56" s="439"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -23548,27 +23573,29 @@
         <v>17</v>
       </c>
       <c r="F57" s="111">
-        <v>0</v>
+        <v>155152</v>
       </c>
     </row>
     <row r="58" spans="1:17" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C58" s="112"/>
-      <c r="D58" s="414" t="s">
+      <c r="C58" s="112">
+        <v>44591</v>
+      </c>
+      <c r="D58" s="416" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="415"/>
+      <c r="E58" s="417"/>
       <c r="F58" s="113">
-        <v>0</v>
-      </c>
-      <c r="I58" s="416" t="s">
+        <v>1149740.4099999999</v>
+      </c>
+      <c r="I58" s="418" t="s">
         <v>198</v>
       </c>
-      <c r="J58" s="417"/>
-      <c r="K58" s="418">
+      <c r="J58" s="419"/>
+      <c r="K58" s="420">
         <f>K54+K56</f>
-        <v>698535.7100000002</v>
-      </c>
-      <c r="L58" s="418"/>
+        <v>2686175.2999999993</v>
+      </c>
+      <c r="L58" s="420"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -25294,7 +25321,7 @@
       <c r="C75" s="214"/>
       <c r="D75" s="256"/>
       <c r="E75" s="3"/>
-      <c r="F75" s="476" t="s">
+      <c r="F75" s="478" t="s">
         <v>207</v>
       </c>
       <c r="K75" s="1"/>
@@ -25307,7 +25334,7 @@
       <c r="C76" s="1"/>
       <c r="D76" s="256"/>
       <c r="E76" s="3"/>
-      <c r="F76" s="477"/>
+      <c r="F76" s="479"/>
       <c r="K76" s="1"/>
       <c r="L76" s="97"/>
       <c r="M76" s="3"/>

--- a/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/BALANCE    ZAVALETA   ENERO     2022.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/BALANCE    ZAVALETA   ENERO     2022.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3690" yWindow="0" windowWidth="16605" windowHeight="10920" firstSheet="5" activeTab="6"/>
+    <workbookView xWindow="3690" yWindow="0" windowWidth="16605" windowHeight="10920" firstSheet="6" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="OCTUBRE      2 0 2 1     " sheetId="1" r:id="rId1"/>
@@ -296,7 +296,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="673" uniqueCount="355">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="842" uniqueCount="420">
   <si>
     <t>COMPRAS</t>
   </si>
@@ -1361,6 +1361,201 @@
   </si>
   <si>
     <t>LONGANIZA</t>
+  </si>
+  <si>
+    <t>03/01/2022</t>
+  </si>
+  <si>
+    <t>01/02/2022</t>
+  </si>
+  <si>
+    <t>04/01/2022</t>
+  </si>
+  <si>
+    <t>05/01/2022</t>
+  </si>
+  <si>
+    <t>06/01/2022</t>
+  </si>
+  <si>
+    <t>07/01/2022</t>
+  </si>
+  <si>
+    <t>08/01/2022</t>
+  </si>
+  <si>
+    <t>10/01/2022</t>
+  </si>
+  <si>
+    <t>11/01/2022</t>
+  </si>
+  <si>
+    <t>12/01/2022</t>
+  </si>
+  <si>
+    <t>13/01/2022</t>
+  </si>
+  <si>
+    <t>14/01/2022</t>
+  </si>
+  <si>
+    <t>15/01/2022</t>
+  </si>
+  <si>
+    <t>17/01/2022</t>
+  </si>
+  <si>
+    <t>18/01/2022</t>
+  </si>
+  <si>
+    <t>19/01/2022</t>
+  </si>
+  <si>
+    <t>20/01/2022</t>
+  </si>
+  <si>
+    <t>21/01/2022</t>
+  </si>
+  <si>
+    <t>22/01/2022</t>
+  </si>
+  <si>
+    <t>24/01/2022</t>
+  </si>
+  <si>
+    <t>25/01/2022</t>
+  </si>
+  <si>
+    <t>26/01/2022</t>
+  </si>
+  <si>
+    <t>27/01/2022</t>
+  </si>
+  <si>
+    <t>28/01/2022</t>
+  </si>
+  <si>
+    <t>29/01/2022</t>
+  </si>
+  <si>
+    <t>31/01/2022</t>
+  </si>
+  <si>
+    <t>C-7437</t>
+  </si>
+  <si>
+    <t>C-7449</t>
+  </si>
+  <si>
+    <t>C-7575</t>
+  </si>
+  <si>
+    <t>C-7754</t>
+  </si>
+  <si>
+    <t>C-7770</t>
+  </si>
+  <si>
+    <t>C-7812</t>
+  </si>
+  <si>
+    <t>C-7842</t>
+  </si>
+  <si>
+    <t>C-7952</t>
+  </si>
+  <si>
+    <t>C-7963</t>
+  </si>
+  <si>
+    <t>C-8055</t>
+  </si>
+  <si>
+    <t>C-8058</t>
+  </si>
+  <si>
+    <t>C-8065</t>
+  </si>
+  <si>
+    <t>C-8132</t>
+  </si>
+  <si>
+    <t>C-8266</t>
+  </si>
+  <si>
+    <t>C-8360</t>
+  </si>
+  <si>
+    <t>C-8363</t>
+  </si>
+  <si>
+    <t>C-8451</t>
+  </si>
+  <si>
+    <t>C-8536</t>
+  </si>
+  <si>
+    <t>C-8565</t>
+  </si>
+  <si>
+    <t>C-8667</t>
+  </si>
+  <si>
+    <t>C-8689</t>
+  </si>
+  <si>
+    <t>C-8856</t>
+  </si>
+  <si>
+    <t>C-9054</t>
+  </si>
+  <si>
+    <t>C-9103</t>
+  </si>
+  <si>
+    <t>C-9211</t>
+  </si>
+  <si>
+    <t>C-9218</t>
+  </si>
+  <si>
+    <t>C-9338</t>
+  </si>
+  <si>
+    <t>C-9468</t>
+  </si>
+  <si>
+    <t>C-9622</t>
+  </si>
+  <si>
+    <t>C-9653</t>
+  </si>
+  <si>
+    <t>C-9768</t>
+  </si>
+  <si>
+    <t>C-9879</t>
+  </si>
+  <si>
+    <t>C-9884</t>
+  </si>
+  <si>
+    <t>C-9926</t>
+  </si>
+  <si>
+    <t>C-9982</t>
+  </si>
+  <si>
+    <t>C-10113</t>
+  </si>
+  <si>
+    <t>C-10222</t>
+  </si>
+  <si>
+    <t>C-10364</t>
+  </si>
+  <si>
+    <t>CANCELADA</t>
   </si>
 </sst>
 </file>
@@ -1920,7 +2115,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="102">
+  <borders count="103">
     <border>
       <left/>
       <right/>
@@ -3183,12 +3378,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="506">
+  <cellXfs count="517">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -3911,9 +4119,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="88" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="44" fontId="38" fillId="0" borderId="87" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -3932,7 +4137,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="89" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="38" fillId="0" borderId="90" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4021,17 +4225,6 @@
     <xf numFmtId="44" fontId="2" fillId="0" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="44" fontId="46" fillId="6" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="46" fillId="0" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="41" fillId="0" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -4041,6 +4234,27 @@
     <xf numFmtId="44" fontId="3" fillId="17" borderId="84" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="86" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="86" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="102" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="86" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="3" fillId="6" borderId="58" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="18" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="18" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="3" fillId="18" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="2" fillId="18" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="18" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="2" fillId="18" borderId="86" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="2" fillId="18" borderId="89" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="2" fillId="18" borderId="88" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4311,6 +4525,9 @@
     <xf numFmtId="44" fontId="11" fillId="14" borderId="99" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="86" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="47" fillId="0" borderId="86" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="13" fillId="6" borderId="58" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -6339,23 +6556,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="440"/>
-      <c r="C1" s="442" t="s">
+      <c r="B1" s="448"/>
+      <c r="C1" s="450" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="443"/>
-      <c r="E1" s="443"/>
-      <c r="F1" s="443"/>
-      <c r="G1" s="443"/>
-      <c r="H1" s="443"/>
-      <c r="I1" s="443"/>
-      <c r="J1" s="443"/>
-      <c r="K1" s="443"/>
-      <c r="L1" s="443"/>
-      <c r="M1" s="443"/>
+      <c r="D1" s="451"/>
+      <c r="E1" s="451"/>
+      <c r="F1" s="451"/>
+      <c r="G1" s="451"/>
+      <c r="H1" s="451"/>
+      <c r="I1" s="451"/>
+      <c r="J1" s="451"/>
+      <c r="K1" s="451"/>
+      <c r="L1" s="451"/>
+      <c r="M1" s="451"/>
     </row>
     <row r="2" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="441"/>
+      <c r="B2" s="449"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -6365,17 +6582,17 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:19" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="444" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="445"/>
+      <c r="B3" s="452" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="453"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="446" t="s">
+      <c r="H3" s="454" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="446"/>
+      <c r="I3" s="454"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
@@ -6389,14 +6606,14 @@
         <v>0</v>
       </c>
       <c r="D4" s="18"/>
-      <c r="E4" s="447" t="s">
+      <c r="E4" s="455" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="448"/>
-      <c r="H4" s="449" t="s">
+      <c r="F4" s="456"/>
+      <c r="H4" s="457" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="450"/>
+      <c r="I4" s="458"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -6406,10 +6623,10 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="421" t="s">
+      <c r="P4" s="429" t="s">
         <v>6</v>
       </c>
-      <c r="Q4" s="422"/>
+      <c r="Q4" s="430"/>
     </row>
     <row r="5" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="23" t="s">
@@ -7850,11 +8067,11 @@
       <c r="J39" s="60"/>
       <c r="K39" s="177"/>
       <c r="L39" s="61"/>
-      <c r="M39" s="423">
+      <c r="M39" s="431">
         <f>SUM(M5:M38)</f>
         <v>247061</v>
       </c>
-      <c r="N39" s="425">
+      <c r="N39" s="433">
         <f>SUM(N5:N38)</f>
         <v>172863</v>
       </c>
@@ -7880,8 +8097,8 @@
       <c r="J40" s="60"/>
       <c r="K40" s="41"/>
       <c r="L40" s="61"/>
-      <c r="M40" s="424"/>
-      <c r="N40" s="426"/>
+      <c r="M40" s="432"/>
+      <c r="N40" s="434"/>
       <c r="P40" s="34"/>
       <c r="Q40" s="9"/>
     </row>
@@ -8096,29 +8313,29 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="427" t="s">
+      <c r="H52" s="435" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="428"/>
+      <c r="I52" s="436"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="429">
+      <c r="K52" s="437">
         <f>I50+L50</f>
         <v>53873.49</v>
       </c>
-      <c r="L52" s="430"/>
-      <c r="M52" s="431">
+      <c r="L52" s="438"/>
+      <c r="M52" s="439">
         <f>N39+M39</f>
         <v>419924</v>
       </c>
-      <c r="N52" s="432"/>
+      <c r="N52" s="440"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="9"/>
     </row>
     <row r="53" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D53" s="433" t="s">
+      <c r="D53" s="441" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="433"/>
+      <c r="E53" s="441"/>
       <c r="F53" s="101">
         <f>F50-K52-C50</f>
         <v>471038.61</v>
@@ -8129,22 +8346,22 @@
       <c r="Q53" s="9"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="433" t="s">
+      <c r="D54" s="441" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="433"/>
+      <c r="E54" s="441"/>
       <c r="F54" s="96">
         <v>-549976.4</v>
       </c>
-      <c r="I54" s="434" t="s">
+      <c r="I54" s="442" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="435"/>
-      <c r="K54" s="436">
+      <c r="J54" s="443"/>
+      <c r="K54" s="444">
         <f>F56+F57+F58</f>
         <v>-24577.400000000023</v>
       </c>
-      <c r="L54" s="437"/>
+      <c r="L54" s="445"/>
       <c r="P54" s="34"/>
       <c r="Q54" s="9"/>
     </row>
@@ -8177,11 +8394,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="438">
+      <c r="K56" s="446">
         <f>-C4</f>
         <v>0</v>
       </c>
-      <c r="L56" s="439"/>
+      <c r="L56" s="447"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -8198,22 +8415,22 @@
       <c r="C58" s="112">
         <v>44507</v>
       </c>
-      <c r="D58" s="416" t="s">
+      <c r="D58" s="424" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="417"/>
+      <c r="E58" s="425"/>
       <c r="F58" s="113">
         <v>567389.35</v>
       </c>
-      <c r="I58" s="418" t="s">
+      <c r="I58" s="426" t="s">
         <v>97</v>
       </c>
-      <c r="J58" s="419"/>
-      <c r="K58" s="420">
+      <c r="J58" s="427"/>
+      <c r="K58" s="428">
         <f>K54+K56</f>
         <v>-24577.400000000023</v>
       </c>
-      <c r="L58" s="420"/>
+      <c r="L58" s="428"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -8408,211 +8625,211 @@
   <sheetData>
     <row r="1" spans="2:6" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="155"/>
-      <c r="C1" s="490" t="s">
+      <c r="C1" s="498" t="s">
         <v>320</v>
       </c>
-      <c r="D1" s="490"/>
-      <c r="E1" s="491"/>
-      <c r="F1" s="389"/>
+      <c r="D1" s="498"/>
+      <c r="E1" s="499"/>
+      <c r="F1" s="387"/>
     </row>
     <row r="2" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B2" s="385"/>
-      <c r="C2" s="386"/>
-      <c r="D2" s="387"/>
-      <c r="E2" s="388"/>
-      <c r="F2" s="395"/>
+      <c r="B2" s="383"/>
+      <c r="C2" s="384"/>
+      <c r="D2" s="385"/>
+      <c r="E2" s="386"/>
+      <c r="F2" s="393"/>
     </row>
     <row r="3" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="390"/>
-      <c r="C3" s="383"/>
-      <c r="D3" s="384"/>
+      <c r="B3" s="388"/>
+      <c r="C3" s="381"/>
+      <c r="D3" s="382"/>
       <c r="E3" s="252"/>
-      <c r="F3" s="396"/>
+      <c r="F3" s="394"/>
     </row>
     <row r="4" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B4" s="492" t="s">
+      <c r="B4" s="500" t="s">
         <v>316</v>
       </c>
-      <c r="C4" s="493"/>
-      <c r="D4" s="493"/>
-      <c r="E4" s="493"/>
-      <c r="F4" s="397">
+      <c r="C4" s="501"/>
+      <c r="D4" s="501"/>
+      <c r="E4" s="501"/>
+      <c r="F4" s="395">
         <v>499853.16</v>
       </c>
     </row>
     <row r="5" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B5" s="390"/>
-      <c r="C5" s="383"/>
-      <c r="D5" s="384"/>
+      <c r="B5" s="388"/>
+      <c r="C5" s="381"/>
+      <c r="D5" s="382"/>
       <c r="E5" s="252"/>
-      <c r="F5" s="398">
+      <c r="F5" s="396">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B6" s="494" t="s">
+      <c r="B6" s="502" t="s">
         <v>317</v>
       </c>
-      <c r="C6" s="495"/>
-      <c r="D6" s="495"/>
-      <c r="E6" s="495"/>
-      <c r="F6" s="397">
+      <c r="C6" s="503"/>
+      <c r="D6" s="503"/>
+      <c r="E6" s="503"/>
+      <c r="F6" s="395">
         <v>781251.72</v>
       </c>
     </row>
     <row r="7" spans="2:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="390"/>
-      <c r="C7" s="383"/>
-      <c r="D7" s="384"/>
+      <c r="B7" s="388"/>
+      <c r="C7" s="381"/>
+      <c r="D7" s="382"/>
       <c r="E7" s="252"/>
-      <c r="F7" s="399">
+      <c r="F7" s="397">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B8" s="390"/>
-      <c r="C8" s="383"/>
-      <c r="D8" s="384"/>
-      <c r="E8" s="496" t="s">
+      <c r="B8" s="388"/>
+      <c r="C8" s="381"/>
+      <c r="D8" s="382"/>
+      <c r="E8" s="504" t="s">
         <v>315</v>
       </c>
-      <c r="F8" s="498">
+      <c r="F8" s="506">
         <f>SUM(F4:F7)</f>
         <v>1281104.8799999999</v>
       </c>
     </row>
     <row r="9" spans="2:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="390"/>
-      <c r="C9" s="383"/>
-      <c r="D9" s="384"/>
-      <c r="E9" s="497"/>
-      <c r="F9" s="499"/>
+      <c r="B9" s="388"/>
+      <c r="C9" s="381"/>
+      <c r="D9" s="382"/>
+      <c r="E9" s="505"/>
+      <c r="F9" s="507"/>
     </row>
     <row r="10" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B10" s="390"/>
-      <c r="C10" s="383"/>
-      <c r="D10" s="384"/>
+      <c r="B10" s="388"/>
+      <c r="C10" s="381"/>
+      <c r="D10" s="382"/>
       <c r="E10" s="252"/>
-      <c r="F10" s="396"/>
+      <c r="F10" s="394"/>
     </row>
     <row r="11" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B11" s="390"/>
-      <c r="C11" s="383"/>
-      <c r="D11" s="384"/>
+      <c r="B11" s="388"/>
+      <c r="C11" s="381"/>
+      <c r="D11" s="382"/>
       <c r="E11" s="252"/>
-      <c r="F11" s="396"/>
+      <c r="F11" s="394"/>
     </row>
     <row r="12" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B12" s="390"/>
-      <c r="C12" s="383"/>
-      <c r="D12" s="384"/>
+      <c r="B12" s="388"/>
+      <c r="C12" s="381"/>
+      <c r="D12" s="382"/>
       <c r="E12" s="252"/>
-      <c r="F12" s="396"/>
+      <c r="F12" s="394"/>
     </row>
     <row r="13" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B13" s="500" t="s">
+      <c r="B13" s="508" t="s">
         <v>318</v>
       </c>
-      <c r="C13" s="501"/>
-      <c r="D13" s="501"/>
-      <c r="E13" s="501"/>
-      <c r="F13" s="397">
+      <c r="C13" s="509"/>
+      <c r="D13" s="509"/>
+      <c r="E13" s="509"/>
+      <c r="F13" s="395">
         <v>255460.4</v>
       </c>
     </row>
     <row r="14" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B14" s="390"/>
-      <c r="C14" s="383"/>
-      <c r="D14" s="384"/>
+      <c r="B14" s="388"/>
+      <c r="C14" s="381"/>
+      <c r="D14" s="382"/>
       <c r="E14" s="252"/>
-      <c r="F14" s="398">
+      <c r="F14" s="396">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B15" s="500" t="s">
+      <c r="B15" s="508" t="s">
         <v>319</v>
       </c>
-      <c r="C15" s="501"/>
-      <c r="D15" s="501"/>
-      <c r="E15" s="501"/>
-      <c r="F15" s="397">
+      <c r="C15" s="509"/>
+      <c r="D15" s="509"/>
+      <c r="E15" s="509"/>
+      <c r="F15" s="395">
         <v>6037.34</v>
       </c>
     </row>
     <row r="16" spans="2:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="390"/>
-      <c r="C16" s="383"/>
-      <c r="D16" s="384"/>
+      <c r="B16" s="388"/>
+      <c r="C16" s="381"/>
+      <c r="D16" s="382"/>
       <c r="E16" s="252"/>
-      <c r="F16" s="399">
+      <c r="F16" s="397">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="390"/>
-      <c r="C17" s="383"/>
-      <c r="D17" s="384"/>
-      <c r="E17" s="502" t="s">
+      <c r="B17" s="388"/>
+      <c r="C17" s="381"/>
+      <c r="D17" s="382"/>
+      <c r="E17" s="510" t="s">
         <v>315</v>
       </c>
-      <c r="F17" s="504">
+      <c r="F17" s="512">
         <f>SUM(F13:F16)</f>
         <v>261497.74</v>
       </c>
     </row>
     <row r="18" spans="2:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="390"/>
-      <c r="C18" s="383"/>
-      <c r="D18" s="384"/>
-      <c r="E18" s="503"/>
-      <c r="F18" s="505"/>
+      <c r="B18" s="388"/>
+      <c r="C18" s="381"/>
+      <c r="D18" s="382"/>
+      <c r="E18" s="511"/>
+      <c r="F18" s="513"/>
     </row>
     <row r="19" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B19" s="390"/>
-      <c r="C19" s="383"/>
-      <c r="D19" s="384"/>
+      <c r="B19" s="388"/>
+      <c r="C19" s="381"/>
+      <c r="D19" s="382"/>
       <c r="E19" s="252"/>
-      <c r="F19" s="396"/>
+      <c r="F19" s="394"/>
     </row>
     <row r="20" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B20" s="390"/>
-      <c r="C20" s="383"/>
-      <c r="D20" s="384"/>
+      <c r="B20" s="388"/>
+      <c r="C20" s="381"/>
+      <c r="D20" s="382"/>
       <c r="E20" s="252"/>
-      <c r="F20" s="396"/>
+      <c r="F20" s="394"/>
     </row>
     <row r="21" spans="2:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="391"/>
-      <c r="C21" s="392"/>
-      <c r="D21" s="393"/>
-      <c r="E21" s="394"/>
-      <c r="F21" s="396"/>
+      <c r="B21" s="389"/>
+      <c r="C21" s="390"/>
+      <c r="D21" s="391"/>
+      <c r="E21" s="392"/>
+      <c r="F21" s="394"/>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B22" s="484" t="s">
+      <c r="B22" s="492" t="s">
         <v>321</v>
       </c>
-      <c r="C22" s="485"/>
-      <c r="D22" s="485"/>
-      <c r="E22" s="485"/>
-      <c r="F22" s="488">
+      <c r="C22" s="493"/>
+      <c r="D22" s="493"/>
+      <c r="E22" s="493"/>
+      <c r="F22" s="496">
         <v>12020</v>
       </c>
     </row>
     <row r="23" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="486"/>
-      <c r="C23" s="487"/>
-      <c r="D23" s="487"/>
-      <c r="E23" s="487"/>
-      <c r="F23" s="489"/>
+      <c r="B23" s="494"/>
+      <c r="C23" s="495"/>
+      <c r="D23" s="495"/>
+      <c r="E23" s="495"/>
+      <c r="F23" s="497"/>
     </row>
     <row r="24" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B24" s="356"/>
-      <c r="C24" s="357"/>
+      <c r="B24" s="355"/>
+      <c r="C24" s="356"/>
       <c r="D24" s="96"/>
-      <c r="E24" s="376"/>
-      <c r="F24" s="396"/>
+      <c r="E24" s="374"/>
+      <c r="F24" s="394"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -8819,7 +9036,7 @@
       <c r="K5" s="196">
         <v>10208</v>
       </c>
-      <c r="L5" s="370" t="s">
+      <c r="L5" s="368" t="s">
         <v>311</v>
       </c>
       <c r="M5" s="69">
@@ -9155,7 +9372,7 @@
       <c r="A16" s="140">
         <v>44489</v>
       </c>
-      <c r="B16" s="369" t="s">
+      <c r="B16" s="367" t="s">
         <v>65</v>
       </c>
       <c r="C16" s="69">
@@ -9965,7 +10182,7 @@
       <c r="A41" s="140">
         <v>44507</v>
       </c>
-      <c r="B41" s="451" t="s">
+      <c r="B41" s="459" t="s">
         <v>92</v>
       </c>
       <c r="C41" s="190">
@@ -9997,7 +10214,7 @@
       <c r="A42" s="140" t="s">
         <v>93</v>
       </c>
-      <c r="B42" s="452"/>
+      <c r="B42" s="460"/>
       <c r="C42" s="143">
         <v>0</v>
       </c>
@@ -11593,23 +11810,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="440"/>
-      <c r="C1" s="442" t="s">
+      <c r="B1" s="448"/>
+      <c r="C1" s="450" t="s">
         <v>208</v>
       </c>
-      <c r="D1" s="443"/>
-      <c r="E1" s="443"/>
-      <c r="F1" s="443"/>
-      <c r="G1" s="443"/>
-      <c r="H1" s="443"/>
-      <c r="I1" s="443"/>
-      <c r="J1" s="443"/>
-      <c r="K1" s="443"/>
-      <c r="L1" s="443"/>
-      <c r="M1" s="443"/>
+      <c r="D1" s="451"/>
+      <c r="E1" s="451"/>
+      <c r="F1" s="451"/>
+      <c r="G1" s="451"/>
+      <c r="H1" s="451"/>
+      <c r="I1" s="451"/>
+      <c r="J1" s="451"/>
+      <c r="K1" s="451"/>
+      <c r="L1" s="451"/>
+      <c r="M1" s="451"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="441"/>
+      <c r="B2" s="449"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -11619,21 +11836,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="444" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="445"/>
+      <c r="B3" s="452" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="453"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="446" t="s">
+      <c r="H3" s="454" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="446"/>
+      <c r="I3" s="454"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="470" t="s">
+      <c r="P3" s="478" t="s">
         <v>6</v>
       </c>
     </row>
@@ -11648,14 +11865,14 @@
       <c r="D4" s="18">
         <v>44507</v>
       </c>
-      <c r="E4" s="447" t="s">
+      <c r="E4" s="455" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="448"/>
-      <c r="H4" s="449" t="s">
+      <c r="F4" s="456"/>
+      <c r="H4" s="457" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="450"/>
+      <c r="I4" s="458"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -11665,14 +11882,14 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="471"/>
+      <c r="P4" s="479"/>
       <c r="Q4" s="286" t="s">
         <v>209</v>
       </c>
-      <c r="W4" s="453" t="s">
+      <c r="W4" s="461" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="453"/>
+      <c r="X4" s="461"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -11723,8 +11940,8 @@
         <f>20000+7936</f>
         <v>27936</v>
       </c>
-      <c r="W5" s="453"/>
-      <c r="X5" s="453"/>
+      <c r="W5" s="461"/>
+      <c r="X5" s="461"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -12495,7 +12712,7 @@
         <v>26370</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="457">
+      <c r="W19" s="465">
         <f t="shared" ref="W19" si="3">SUM(W6:W18)</f>
         <v>935136</v>
       </c>
@@ -12547,7 +12764,7 @@
         <v>16395.830000000002</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="458"/>
+      <c r="W20" s="466"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -12596,8 +12813,8 @@
         <v>19188.82</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="459"/>
-      <c r="X21" s="459"/>
+      <c r="W21" s="467"/>
+      <c r="X21" s="467"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -12698,8 +12915,8 @@
         <v>45217.29</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="460"/>
-      <c r="X23" s="460"/>
+      <c r="W23" s="468"/>
+      <c r="X23" s="468"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -12753,8 +12970,8 @@
         <v>23159.17</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="460"/>
-      <c r="X24" s="460"/>
+      <c r="W24" s="468"/>
+      <c r="X24" s="468"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -12800,8 +13017,8 @@
       <c r="R25" s="285">
         <v>28952</v>
       </c>
-      <c r="W25" s="461"/>
-      <c r="X25" s="461"/>
+      <c r="W25" s="469"/>
+      <c r="X25" s="469"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -12852,8 +13069,8 @@
       <c r="R26" s="285">
         <v>21771.5</v>
       </c>
-      <c r="W26" s="461"/>
-      <c r="X26" s="461"/>
+      <c r="W26" s="469"/>
+      <c r="X26" s="469"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -12901,9 +13118,9 @@
       <c r="R27" s="285">
         <v>14637</v>
       </c>
-      <c r="W27" s="454"/>
-      <c r="X27" s="455"/>
-      <c r="Y27" s="456"/>
+      <c r="W27" s="462"/>
+      <c r="X27" s="463"/>
+      <c r="Y27" s="464"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -12953,9 +13170,9 @@
       <c r="R28" s="285">
         <v>0</v>
       </c>
-      <c r="W28" s="455"/>
-      <c r="X28" s="455"/>
-      <c r="Y28" s="456"/>
+      <c r="W28" s="463"/>
+      <c r="X28" s="463"/>
+      <c r="Y28" s="464"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -13290,11 +13507,11 @@
       <c r="L36" s="44">
         <v>5940</v>
       </c>
-      <c r="M36" s="472">
+      <c r="M36" s="480">
         <f t="shared" ref="M36" si="4">SUM(M5:M35)</f>
         <v>321168.83</v>
       </c>
-      <c r="N36" s="474">
+      <c r="N36" s="482">
         <f t="shared" ref="N36" si="5">SUM(N5:N35)</f>
         <v>467016</v>
       </c>
@@ -13302,7 +13519,7 @@
       <c r="P36" s="277">
         <v>0</v>
       </c>
-      <c r="Q36" s="476">
+      <c r="Q36" s="484">
         <f t="shared" ref="Q36" si="6">SUM(Q5:Q35)</f>
         <v>-637069.14000000013</v>
       </c>
@@ -13337,13 +13554,13 @@
       <c r="L37" s="61">
         <v>7929.62</v>
       </c>
-      <c r="M37" s="473"/>
-      <c r="N37" s="475"/>
+      <c r="M37" s="481"/>
+      <c r="N37" s="483"/>
       <c r="O37" s="276"/>
       <c r="P37" s="277">
         <v>0</v>
       </c>
-      <c r="Q37" s="477"/>
+      <c r="Q37" s="485"/>
     </row>
     <row r="38" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="23"/>
@@ -13633,26 +13850,26 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="427" t="s">
+      <c r="H52" s="435" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="428"/>
+      <c r="I52" s="436"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="429">
+      <c r="K52" s="437">
         <f>I50+L50</f>
         <v>71911.59</v>
       </c>
-      <c r="L52" s="462"/>
+      <c r="L52" s="470"/>
       <c r="M52" s="272"/>
       <c r="N52" s="272"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="13"/>
     </row>
     <row r="53" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D53" s="433" t="s">
+      <c r="D53" s="441" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="433"/>
+      <c r="E53" s="441"/>
       <c r="F53" s="313">
         <f>F50-K52-C50</f>
         <v>-25952.549999999814</v>
@@ -13661,29 +13878,29 @@
       <c r="J53" s="103"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="463" t="s">
+      <c r="D54" s="471" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="463"/>
+      <c r="E54" s="471"/>
       <c r="F54" s="111">
         <v>-706888.38</v>
       </c>
-      <c r="I54" s="434" t="s">
+      <c r="I54" s="442" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="435"/>
-      <c r="K54" s="436">
+      <c r="J54" s="443"/>
+      <c r="K54" s="444">
         <f>F56+F57+F58</f>
         <v>1308778.3500000003</v>
       </c>
-      <c r="L54" s="436"/>
-      <c r="M54" s="464" t="s">
+      <c r="L54" s="444"/>
+      <c r="M54" s="472" t="s">
         <v>211</v>
       </c>
-      <c r="N54" s="465"/>
-      <c r="O54" s="465"/>
-      <c r="P54" s="465"/>
-      <c r="Q54" s="466"/>
+      <c r="N54" s="473"/>
+      <c r="O54" s="473"/>
+      <c r="P54" s="473"/>
+      <c r="Q54" s="474"/>
     </row>
     <row r="55" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D55" s="314" t="s">
@@ -13697,11 +13914,11 @@
       <c r="J55" s="106"/>
       <c r="K55" s="178"/>
       <c r="L55" s="107"/>
-      <c r="M55" s="467"/>
-      <c r="N55" s="468"/>
-      <c r="O55" s="468"/>
-      <c r="P55" s="468"/>
-      <c r="Q55" s="469"/>
+      <c r="M55" s="475"/>
+      <c r="N55" s="476"/>
+      <c r="O55" s="476"/>
+      <c r="P55" s="476"/>
+      <c r="Q55" s="477"/>
     </row>
     <row r="56" spans="1:17" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="C56" s="4" t="s">
@@ -13719,11 +13936,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="438">
+      <c r="K56" s="446">
         <f>-C4</f>
         <v>-567389.35</v>
       </c>
-      <c r="L56" s="439"/>
+      <c r="L56" s="447"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -13740,22 +13957,22 @@
       <c r="C58" s="112">
         <v>44535</v>
       </c>
-      <c r="D58" s="416" t="s">
+      <c r="D58" s="424" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="417"/>
+      <c r="E58" s="425"/>
       <c r="F58" s="113">
         <v>2142307.62</v>
       </c>
-      <c r="I58" s="418" t="s">
+      <c r="I58" s="426" t="s">
         <v>198</v>
       </c>
-      <c r="J58" s="419"/>
-      <c r="K58" s="420">
+      <c r="J58" s="427"/>
+      <c r="K58" s="428">
         <f>K54+K56</f>
         <v>741389.00000000035</v>
       </c>
-      <c r="L58" s="420"/>
+      <c r="L58" s="428"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -13981,7 +14198,7 @@
       </c>
       <c r="J1" s="302"/>
       <c r="K1" s="303"/>
-      <c r="L1" s="371"/>
+      <c r="L1" s="369"/>
       <c r="M1" s="303"/>
       <c r="N1" s="305" t="s">
         <v>27</v>
@@ -14015,7 +14232,7 @@
       <c r="K2" s="299" t="s">
         <v>21</v>
       </c>
-      <c r="L2" s="372" t="s">
+      <c r="L2" s="370" t="s">
         <v>22</v>
       </c>
       <c r="M2" s="299" t="s">
@@ -14044,7 +14261,7 @@
       <c r="I3" s="306"/>
       <c r="J3" s="307"/>
       <c r="K3" s="308"/>
-      <c r="L3" s="373"/>
+      <c r="L3" s="371"/>
       <c r="M3" s="215"/>
       <c r="N3" s="183">
         <f>K3-M3</f>
@@ -14077,7 +14294,7 @@
       <c r="K4" s="111">
         <v>5707.22</v>
       </c>
-      <c r="L4" s="374">
+      <c r="L4" s="372">
         <v>44536</v>
       </c>
       <c r="M4" s="69"/>
@@ -14111,7 +14328,7 @@
       <c r="K5" s="111">
         <v>30</v>
       </c>
-      <c r="L5" s="374">
+      <c r="L5" s="372">
         <v>44536</v>
       </c>
       <c r="M5" s="69"/>
@@ -14145,7 +14362,7 @@
       <c r="K6" s="111">
         <v>3667.5</v>
       </c>
-      <c r="L6" s="374">
+      <c r="L6" s="372">
         <v>44536</v>
       </c>
       <c r="M6" s="69"/>
@@ -14181,7 +14398,7 @@
       <c r="K7" s="111">
         <v>120</v>
       </c>
-      <c r="L7" s="374">
+      <c r="L7" s="372">
         <v>44536</v>
       </c>
       <c r="M7" s="69"/>
@@ -14215,7 +14432,7 @@
       <c r="K8" s="111">
         <v>436.5</v>
       </c>
-      <c r="L8" s="374">
+      <c r="L8" s="372">
         <v>44536</v>
       </c>
       <c r="M8" s="69"/>
@@ -14249,7 +14466,7 @@
       <c r="K9" s="111">
         <v>9412.4500000000007</v>
       </c>
-      <c r="L9" s="374">
+      <c r="L9" s="372">
         <v>44536</v>
       </c>
       <c r="M9" s="69"/>
@@ -14284,7 +14501,7 @@
       <c r="K10" s="111">
         <v>10285</v>
       </c>
-      <c r="L10" s="374">
+      <c r="L10" s="372">
         <v>44536</v>
       </c>
       <c r="M10" s="69"/>
@@ -14318,7 +14535,7 @@
       <c r="K11" s="111">
         <v>2504.94</v>
       </c>
-      <c r="L11" s="374">
+      <c r="L11" s="372">
         <v>44536</v>
       </c>
       <c r="M11" s="69"/>
@@ -14352,7 +14569,7 @@
       <c r="K12" s="111">
         <v>800</v>
       </c>
-      <c r="L12" s="374">
+      <c r="L12" s="372">
         <v>44512</v>
       </c>
       <c r="M12" s="69">
@@ -14388,7 +14605,7 @@
       <c r="K13" s="111">
         <v>733.6</v>
       </c>
-      <c r="L13" s="374">
+      <c r="L13" s="372">
         <v>44536</v>
       </c>
       <c r="M13" s="69"/>
@@ -14422,7 +14639,7 @@
       <c r="K14" s="111">
         <v>675</v>
       </c>
-      <c r="L14" s="374">
+      <c r="L14" s="372">
         <v>44536</v>
       </c>
       <c r="M14" s="69"/>
@@ -14456,7 +14673,7 @@
       <c r="K15" s="111">
         <v>5566.27</v>
       </c>
-      <c r="L15" s="374">
+      <c r="L15" s="372">
         <v>44536</v>
       </c>
       <c r="M15" s="69"/>
@@ -14490,7 +14707,7 @@
       <c r="K16" s="111">
         <v>60</v>
       </c>
-      <c r="L16" s="374">
+      <c r="L16" s="372">
         <v>44536</v>
       </c>
       <c r="M16" s="69"/>
@@ -14524,7 +14741,7 @@
       <c r="K17" s="111">
         <v>4155</v>
       </c>
-      <c r="L17" s="374">
+      <c r="L17" s="372">
         <v>44536</v>
       </c>
       <c r="M17" s="69"/>
@@ -14558,7 +14775,7 @@
       <c r="K18" s="111">
         <v>1620.32</v>
       </c>
-      <c r="L18" s="374">
+      <c r="L18" s="372">
         <v>44536</v>
       </c>
       <c r="M18" s="69"/>
@@ -14592,7 +14809,7 @@
       <c r="K19" s="111">
         <v>2386.12</v>
       </c>
-      <c r="L19" s="374">
+      <c r="L19" s="372">
         <v>44536</v>
       </c>
       <c r="M19" s="69"/>
@@ -14626,7 +14843,7 @@
       <c r="K20" s="111">
         <v>2376.56</v>
       </c>
-      <c r="L20" s="374">
+      <c r="L20" s="372">
         <v>44536</v>
       </c>
       <c r="M20" s="69"/>
@@ -14660,7 +14877,7 @@
       <c r="K21" s="111">
         <v>3020.38</v>
       </c>
-      <c r="L21" s="374">
+      <c r="L21" s="372">
         <v>44536</v>
       </c>
       <c r="M21" s="69"/>
@@ -14695,7 +14912,7 @@
       <c r="K22" s="111">
         <v>2524.2399999999998</v>
       </c>
-      <c r="L22" s="374">
+      <c r="L22" s="372">
         <v>44536</v>
       </c>
       <c r="M22" s="69"/>
@@ -14729,7 +14946,7 @@
       <c r="K23" s="111">
         <v>1789.6</v>
       </c>
-      <c r="L23" s="374">
+      <c r="L23" s="372">
         <v>44536</v>
       </c>
       <c r="M23" s="69"/>
@@ -14763,7 +14980,7 @@
       <c r="K24" s="111">
         <v>2590.2199999999998</v>
       </c>
-      <c r="L24" s="374">
+      <c r="L24" s="372">
         <v>44536</v>
       </c>
       <c r="M24" s="69"/>
@@ -14797,7 +15014,7 @@
       <c r="K25" s="111">
         <v>5268.02</v>
       </c>
-      <c r="L25" s="374">
+      <c r="L25" s="372">
         <v>44536</v>
       </c>
       <c r="M25" s="69"/>
@@ -14831,7 +15048,7 @@
       <c r="K26" s="111">
         <v>1272.24</v>
       </c>
-      <c r="L26" s="374">
+      <c r="L26" s="372">
         <v>44536</v>
       </c>
       <c r="M26" s="69"/>
@@ -14865,7 +15082,7 @@
       <c r="K27" s="111">
         <v>2132.7199999999998</v>
       </c>
-      <c r="L27" s="374">
+      <c r="L27" s="372">
         <v>44536</v>
       </c>
       <c r="M27" s="69"/>
@@ -14899,7 +15116,7 @@
       <c r="K28" s="111">
         <v>5711.74</v>
       </c>
-      <c r="L28" s="374">
+      <c r="L28" s="372">
         <v>44536</v>
       </c>
       <c r="M28" s="69"/>
@@ -14933,7 +15150,7 @@
       <c r="K29" s="111">
         <v>1624.34</v>
       </c>
-      <c r="L29" s="374">
+      <c r="L29" s="372">
         <v>44536</v>
       </c>
       <c r="M29" s="69"/>
@@ -14968,7 +15185,7 @@
       <c r="K30" s="111">
         <v>1017</v>
       </c>
-      <c r="L30" s="374">
+      <c r="L30" s="372">
         <v>44536</v>
       </c>
       <c r="M30" s="69"/>
@@ -15002,7 +15219,7 @@
       <c r="K31" s="111">
         <v>2570.5</v>
       </c>
-      <c r="L31" s="374">
+      <c r="L31" s="372">
         <v>44536</v>
       </c>
       <c r="M31" s="69"/>
@@ -15036,7 +15253,7 @@
       <c r="K32" s="111">
         <v>220</v>
       </c>
-      <c r="L32" s="374">
+      <c r="L32" s="372">
         <v>44536</v>
       </c>
       <c r="M32" s="69"/>
@@ -15070,7 +15287,7 @@
       <c r="K33" s="111">
         <v>1057.4000000000001</v>
       </c>
-      <c r="L33" s="374">
+      <c r="L33" s="372">
         <v>44536</v>
       </c>
       <c r="M33" s="69"/>
@@ -15104,7 +15321,7 @@
       <c r="K34" s="111">
         <v>2185.46</v>
       </c>
-      <c r="L34" s="374">
+      <c r="L34" s="372">
         <v>44536</v>
       </c>
       <c r="M34" s="69"/>
@@ -15138,7 +15355,7 @@
       <c r="K35" s="111">
         <v>7065.94</v>
       </c>
-      <c r="L35" s="374">
+      <c r="L35" s="372">
         <v>44536</v>
       </c>
       <c r="M35" s="69"/>
@@ -15157,13 +15374,13 @@
       <c r="C36" s="111">
         <v>19002.599999999999</v>
       </c>
-      <c r="D36" s="379">
+      <c r="D36" s="377">
         <v>44536</v>
       </c>
       <c r="E36" s="263">
         <v>440783.04</v>
       </c>
-      <c r="F36" s="368">
+      <c r="F36" s="366">
         <f t="shared" si="0"/>
         <v>3350.5900000000838</v>
       </c>
@@ -15176,7 +15393,7 @@
       <c r="K36" s="111">
         <v>2509.7199999999998</v>
       </c>
-      <c r="L36" s="374">
+      <c r="L36" s="372">
         <v>44536</v>
       </c>
       <c r="M36" s="69"/>
@@ -15210,7 +15427,7 @@
       <c r="K37" s="111">
         <v>6480.14</v>
       </c>
-      <c r="L37" s="374">
+      <c r="L37" s="372">
         <v>44536</v>
       </c>
       <c r="M37" s="69"/>
@@ -15244,7 +15461,7 @@
       <c r="K38" s="111">
         <v>14917</v>
       </c>
-      <c r="L38" s="374">
+      <c r="L38" s="372">
         <v>44536</v>
       </c>
       <c r="M38" s="69"/>
@@ -15278,7 +15495,7 @@
       <c r="K39" s="111">
         <v>23258.400000000001</v>
       </c>
-      <c r="L39" s="374">
+      <c r="L39" s="372">
         <v>44536</v>
       </c>
       <c r="M39" s="69"/>
@@ -15312,7 +15529,7 @@
       <c r="K40" s="111">
         <v>4062.48</v>
       </c>
-      <c r="L40" s="374">
+      <c r="L40" s="372">
         <v>44536</v>
       </c>
       <c r="M40" s="69"/>
@@ -15346,7 +15563,7 @@
       <c r="K41" s="111">
         <v>2667.28</v>
       </c>
-      <c r="L41" s="374">
+      <c r="L41" s="372">
         <v>44536</v>
       </c>
       <c r="M41" s="69"/>
@@ -15380,7 +15597,7 @@
       <c r="K42" s="111">
         <v>19440.8</v>
       </c>
-      <c r="L42" s="374">
+      <c r="L42" s="372">
         <v>44536</v>
       </c>
       <c r="M42" s="69"/>
@@ -15414,7 +15631,7 @@
       <c r="K43" s="111">
         <v>803.24</v>
       </c>
-      <c r="L43" s="374">
+      <c r="L43" s="372">
         <v>44536</v>
       </c>
       <c r="M43" s="69"/>
@@ -16345,7 +16562,7 @@
       <c r="C87" s="214"/>
       <c r="D87" s="97"/>
       <c r="E87" s="3"/>
-      <c r="F87" s="478" t="s">
+      <c r="F87" s="486" t="s">
         <v>207</v>
       </c>
       <c r="K87" s="1"/>
@@ -16358,7 +16575,7 @@
       <c r="C88" s="1"/>
       <c r="D88" s="97"/>
       <c r="E88" s="3"/>
-      <c r="F88" s="479"/>
+      <c r="F88" s="487"/>
       <c r="K88" s="1"/>
       <c r="L88" s="256"/>
       <c r="M88" s="3"/>
@@ -16640,8 +16857,8 @@
   </sheetPr>
   <dimension ref="A1:Z80"/>
   <sheetViews>
-    <sheetView topLeftCell="H16" workbookViewId="0">
-      <selection activeCell="O30" sqref="O30"/>
+    <sheetView topLeftCell="J7" workbookViewId="0">
+      <selection activeCell="U23" sqref="U23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -16670,23 +16887,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="440"/>
-      <c r="C1" s="442" t="s">
+      <c r="B1" s="448"/>
+      <c r="C1" s="450" t="s">
         <v>208</v>
       </c>
-      <c r="D1" s="443"/>
-      <c r="E1" s="443"/>
-      <c r="F1" s="443"/>
-      <c r="G1" s="443"/>
-      <c r="H1" s="443"/>
-      <c r="I1" s="443"/>
-      <c r="J1" s="443"/>
-      <c r="K1" s="443"/>
-      <c r="L1" s="443"/>
-      <c r="M1" s="443"/>
+      <c r="D1" s="451"/>
+      <c r="E1" s="451"/>
+      <c r="F1" s="451"/>
+      <c r="G1" s="451"/>
+      <c r="H1" s="451"/>
+      <c r="I1" s="451"/>
+      <c r="J1" s="451"/>
+      <c r="K1" s="451"/>
+      <c r="L1" s="451"/>
+      <c r="M1" s="451"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="441"/>
+      <c r="B2" s="449"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -16696,24 +16913,24 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="444" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="445"/>
+      <c r="B3" s="452" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="453"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="446" t="s">
+      <c r="H3" s="454" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="446"/>
+      <c r="I3" s="454"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="470" t="s">
+      <c r="P3" s="478" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="480" t="s">
+      <c r="R3" s="488" t="s">
         <v>216</v>
       </c>
     </row>
@@ -16728,14 +16945,14 @@
       <c r="D4" s="18">
         <v>44507</v>
       </c>
-      <c r="E4" s="447" t="s">
+      <c r="E4" s="455" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="448"/>
-      <c r="H4" s="449" t="s">
+      <c r="F4" s="456"/>
+      <c r="H4" s="457" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="450"/>
+      <c r="I4" s="458"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -16745,15 +16962,15 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="471"/>
+      <c r="P4" s="479"/>
       <c r="Q4" s="323" t="s">
         <v>217</v>
       </c>
-      <c r="R4" s="481"/>
-      <c r="W4" s="453" t="s">
+      <c r="R4" s="489"/>
+      <c r="W4" s="461" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="453"/>
+      <c r="X4" s="461"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -16814,8 +17031,8 @@
       <c r="S5" s="325" t="s">
         <v>213</v>
       </c>
-      <c r="W5" s="453"/>
-      <c r="X5" s="453"/>
+      <c r="W5" s="461"/>
+      <c r="X5" s="461"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -17572,7 +17789,7 @@
         <v>0</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="457">
+      <c r="W19" s="465">
         <f t="shared" ref="W19" si="3">SUM(W6:W18)</f>
         <v>0</v>
       </c>
@@ -17624,7 +17841,7 @@
         <v>0</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="458"/>
+      <c r="W20" s="466"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -17673,8 +17890,8 @@
         <v>0</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="459"/>
-      <c r="X21" s="459"/>
+      <c r="W21" s="467"/>
+      <c r="X21" s="467"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -17775,8 +17992,8 @@
         <v>0</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="460"/>
-      <c r="X23" s="460"/>
+      <c r="W23" s="468"/>
+      <c r="X23" s="468"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -17827,8 +18044,8 @@
         <v>0</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="460"/>
-      <c r="X24" s="460"/>
+      <c r="W24" s="468"/>
+      <c r="X24" s="468"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -17874,8 +18091,8 @@
       <c r="R25" s="320">
         <v>0</v>
       </c>
-      <c r="W25" s="461"/>
-      <c r="X25" s="461"/>
+      <c r="W25" s="469"/>
+      <c r="X25" s="469"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -17923,8 +18140,8 @@
       <c r="R26" s="320">
         <v>0</v>
       </c>
-      <c r="W26" s="461"/>
-      <c r="X26" s="461"/>
+      <c r="W26" s="469"/>
+      <c r="X26" s="469"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -17984,9 +18201,9 @@
       <c r="V27" t="s">
         <v>240</v>
       </c>
-      <c r="W27" s="454"/>
-      <c r="X27" s="455"/>
-      <c r="Y27" s="456"/>
+      <c r="W27" s="462"/>
+      <c r="X27" s="463"/>
+      <c r="Y27" s="464"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -18040,9 +18257,9 @@
       <c r="V28" t="s">
         <v>240</v>
       </c>
-      <c r="W28" s="455"/>
-      <c r="X28" s="455"/>
-      <c r="Y28" s="456"/>
+      <c r="W28" s="463"/>
+      <c r="X28" s="463"/>
+      <c r="Y28" s="464"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -18148,7 +18365,7 @@
         <f t="shared" si="0"/>
         <v>139265</v>
       </c>
-      <c r="Q30" s="411">
+      <c r="Q30" s="404">
         <f t="shared" si="1"/>
         <v>-13665</v>
       </c>
@@ -18358,11 +18575,11 @@
       <c r="J36" s="266"/>
       <c r="K36" s="250"/>
       <c r="L36" s="44"/>
-      <c r="M36" s="472">
+      <c r="M36" s="480">
         <f t="shared" ref="M36" si="4">SUM(M5:M35)</f>
         <v>1077791.3</v>
       </c>
-      <c r="N36" s="474">
+      <c r="N36" s="482">
         <f t="shared" ref="N36" si="5">SUM(N5:N35)</f>
         <v>936398</v>
       </c>
@@ -18370,7 +18587,7 @@
       <c r="P36" s="277">
         <v>0</v>
       </c>
-      <c r="Q36" s="476">
+      <c r="Q36" s="484">
         <f t="shared" ref="Q36" si="6">SUM(Q5:Q35)</f>
         <v>-14262.940000000002</v>
       </c>
@@ -18389,13 +18606,13 @@
       <c r="J37" s="60"/>
       <c r="K37" s="41"/>
       <c r="L37" s="61"/>
-      <c r="M37" s="473"/>
-      <c r="N37" s="475"/>
+      <c r="M37" s="481"/>
+      <c r="N37" s="483"/>
       <c r="O37" s="276"/>
       <c r="P37" s="277">
         <v>0</v>
       </c>
-      <c r="Q37" s="477"/>
+      <c r="Q37" s="485"/>
     </row>
     <row r="38" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="23"/>
@@ -18669,26 +18886,26 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="427" t="s">
+      <c r="H52" s="435" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="428"/>
+      <c r="I52" s="436"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="429">
+      <c r="K52" s="437">
         <f>I50+L50</f>
         <v>90750.75</v>
       </c>
-      <c r="L52" s="462"/>
+      <c r="L52" s="470"/>
       <c r="M52" s="272"/>
       <c r="N52" s="272"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="13"/>
     </row>
     <row r="53" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D53" s="433" t="s">
+      <c r="D53" s="441" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="433"/>
+      <c r="E53" s="441"/>
       <c r="F53" s="313">
         <f>F50-K52-C50</f>
         <v>1739855.03</v>
@@ -18697,29 +18914,29 @@
       <c r="J53" s="103"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="463" t="s">
+      <c r="D54" s="471" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="463"/>
+      <c r="E54" s="471"/>
       <c r="F54" s="111">
         <v>-1567070.66</v>
       </c>
-      <c r="I54" s="434" t="s">
+      <c r="I54" s="442" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="435"/>
-      <c r="K54" s="436">
+      <c r="J54" s="443"/>
+      <c r="K54" s="444">
         <f>F56+F57+F58</f>
         <v>703192.8600000001</v>
       </c>
-      <c r="L54" s="436"/>
-      <c r="M54" s="464" t="s">
+      <c r="L54" s="444"/>
+      <c r="M54" s="472" t="s">
         <v>211</v>
       </c>
-      <c r="N54" s="465"/>
-      <c r="O54" s="465"/>
-      <c r="P54" s="465"/>
-      <c r="Q54" s="466"/>
+      <c r="N54" s="473"/>
+      <c r="O54" s="473"/>
+      <c r="P54" s="473"/>
+      <c r="Q54" s="474"/>
     </row>
     <row r="55" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D55" s="314" t="s">
@@ -18733,11 +18950,11 @@
       <c r="J55" s="106"/>
       <c r="K55" s="178"/>
       <c r="L55" s="107"/>
-      <c r="M55" s="467"/>
-      <c r="N55" s="468"/>
-      <c r="O55" s="468"/>
-      <c r="P55" s="468"/>
-      <c r="Q55" s="469"/>
+      <c r="M55" s="475"/>
+      <c r="N55" s="476"/>
+      <c r="O55" s="476"/>
+      <c r="P55" s="476"/>
+      <c r="Q55" s="477"/>
     </row>
     <row r="56" spans="1:17" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="C56" s="4" t="s">
@@ -18755,11 +18972,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="438">
+      <c r="K56" s="446">
         <f>-C4</f>
         <v>-567389.35</v>
       </c>
-      <c r="L56" s="439"/>
+      <c r="L56" s="447"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -18776,22 +18993,22 @@
       <c r="C58" s="112">
         <v>44563</v>
       </c>
-      <c r="D58" s="416" t="s">
+      <c r="D58" s="424" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="417"/>
+      <c r="E58" s="425"/>
       <c r="F58" s="113">
         <v>754143.23</v>
       </c>
-      <c r="I58" s="418" t="s">
+      <c r="I58" s="426" t="s">
         <v>198</v>
       </c>
-      <c r="J58" s="419"/>
-      <c r="K58" s="420">
+      <c r="J58" s="427"/>
+      <c r="K58" s="428">
         <f>K54+K56</f>
         <v>135803.51000000013</v>
       </c>
-      <c r="L58" s="420"/>
+      <c r="L58" s="428"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -18980,8 +19197,8 @@
   </sheetPr>
   <dimension ref="A1:N110"/>
   <sheetViews>
-    <sheetView topLeftCell="E22" workbookViewId="0">
-      <selection activeCell="K77" sqref="K76:K77"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="L77" sqref="L77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18996,7 +19213,7 @@
     <col min="9" max="9" width="13.42578125" style="98" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14.7109375" style="116" customWidth="1"/>
     <col min="11" max="11" width="16.85546875" style="4" customWidth="1"/>
-    <col min="12" max="12" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.42578125" style="257" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="15.140625" style="4" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="19.5703125" style="3" bestFit="1" customWidth="1"/>
   </cols>
@@ -19007,9 +19224,9 @@
       </c>
       <c r="B1" s="291"/>
       <c r="C1" s="292"/>
-      <c r="D1" s="375"/>
+      <c r="D1" s="373"/>
       <c r="E1" s="292"/>
-      <c r="F1" s="382" t="s">
+      <c r="F1" s="380" t="s">
         <v>314</v>
       </c>
       <c r="I1" s="301" t="s">
@@ -19017,9 +19234,9 @@
       </c>
       <c r="J1" s="302"/>
       <c r="K1" s="303"/>
-      <c r="L1" s="304"/>
+      <c r="L1" s="369"/>
       <c r="M1" s="303"/>
-      <c r="N1" s="381" t="s">
+      <c r="N1" s="379" t="s">
         <v>314</v>
       </c>
     </row>
@@ -19033,7 +19250,7 @@
       <c r="C2" s="299" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="372" t="s">
+      <c r="D2" s="370" t="s">
         <v>22</v>
       </c>
       <c r="E2" s="300" t="s">
@@ -19051,7 +19268,7 @@
       <c r="K2" s="299" t="s">
         <v>21</v>
       </c>
-      <c r="L2" s="298" t="s">
+      <c r="L2" s="370" t="s">
         <v>22</v>
       </c>
       <c r="M2" s="299" t="s">
@@ -19062,16 +19279,16 @@
       </c>
     </row>
     <row r="3" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="356" t="s">
+      <c r="A3" s="355" t="s">
         <v>195</v>
       </c>
-      <c r="B3" s="357" t="s">
+      <c r="B3" s="356" t="s">
         <v>266</v>
       </c>
       <c r="C3" s="96">
         <v>7068.6</v>
       </c>
-      <c r="D3" s="376">
+      <c r="D3" s="374">
         <v>44560</v>
       </c>
       <c r="E3" s="96">
@@ -19090,24 +19307,28 @@
       <c r="K3" s="350">
         <v>563.79999999999995</v>
       </c>
-      <c r="L3" s="306"/>
-      <c r="M3" s="215"/>
+      <c r="L3" s="418">
+        <v>44580</v>
+      </c>
+      <c r="M3" s="420">
+        <v>563.79999999999995</v>
+      </c>
       <c r="N3" s="183">
         <f>K3-M3</f>
-        <v>563.79999999999995</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="356" t="s">
+      <c r="A4" s="355" t="s">
         <v>195</v>
       </c>
-      <c r="B4" s="357" t="s">
+      <c r="B4" s="356" t="s">
         <v>267</v>
       </c>
       <c r="C4" s="96">
         <v>11495.4</v>
       </c>
-      <c r="D4" s="376">
+      <c r="D4" s="374">
         <v>44560</v>
       </c>
       <c r="E4" s="96">
@@ -19127,24 +19348,28 @@
       <c r="K4" s="350">
         <v>2032.08</v>
       </c>
-      <c r="L4" s="288"/>
-      <c r="M4" s="69"/>
+      <c r="L4" s="419">
+        <v>44580</v>
+      </c>
+      <c r="M4" s="420">
+        <v>2032.08</v>
+      </c>
       <c r="N4" s="137">
         <f>N3+K4-M4</f>
-        <v>2595.88</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="356" t="s">
+      <c r="A5" s="355" t="s">
         <v>247</v>
       </c>
-      <c r="B5" s="357" t="s">
+      <c r="B5" s="356" t="s">
         <v>268</v>
       </c>
       <c r="C5" s="96">
         <v>276755.14</v>
       </c>
-      <c r="D5" s="376">
+      <c r="D5" s="374">
         <v>44560</v>
       </c>
       <c r="E5" s="96">
@@ -19163,24 +19388,28 @@
       <c r="K5" s="350">
         <v>1756.48</v>
       </c>
-      <c r="L5" s="288"/>
-      <c r="M5" s="69"/>
+      <c r="L5" s="419">
+        <v>44580</v>
+      </c>
+      <c r="M5" s="420">
+        <v>1756.48</v>
+      </c>
       <c r="N5" s="137">
         <f t="shared" ref="N5:N56" si="1">N4+K5-M5</f>
-        <v>4352.3600000000006</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="356" t="s">
+      <c r="A6" s="355" t="s">
         <v>247</v>
       </c>
-      <c r="B6" s="357" t="s">
+      <c r="B6" s="356" t="s">
         <v>269</v>
       </c>
       <c r="C6" s="96">
         <v>62881.4</v>
       </c>
-      <c r="D6" s="376">
+      <c r="D6" s="374">
         <v>44560</v>
       </c>
       <c r="E6" s="96">
@@ -19199,24 +19428,28 @@
       <c r="K6" s="350">
         <v>7340.96</v>
       </c>
-      <c r="L6" s="288"/>
-      <c r="M6" s="69"/>
+      <c r="L6" s="419">
+        <v>44580</v>
+      </c>
+      <c r="M6" s="420">
+        <v>7340.96</v>
+      </c>
       <c r="N6" s="137">
         <f t="shared" si="1"/>
-        <v>11693.32</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="356" t="s">
+      <c r="A7" s="355" t="s">
         <v>248</v>
       </c>
-      <c r="B7" s="357" t="s">
+      <c r="B7" s="356" t="s">
         <v>270</v>
       </c>
       <c r="C7" s="96">
         <v>7868.1</v>
       </c>
-      <c r="D7" s="376">
+      <c r="D7" s="374">
         <v>44560</v>
       </c>
       <c r="E7" s="96">
@@ -19235,24 +19468,28 @@
       <c r="K7" s="350">
         <v>1744.64</v>
       </c>
-      <c r="L7" s="288"/>
-      <c r="M7" s="69"/>
+      <c r="L7" s="419">
+        <v>44580</v>
+      </c>
+      <c r="M7" s="420">
+        <v>1744.64</v>
+      </c>
       <c r="N7" s="137">
         <f t="shared" si="1"/>
-        <v>13437.96</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="356" t="s">
+      <c r="A8" s="355" t="s">
         <v>249</v>
       </c>
-      <c r="B8" s="357" t="s">
+      <c r="B8" s="356" t="s">
         <v>271</v>
       </c>
       <c r="C8" s="96">
         <v>22425</v>
       </c>
-      <c r="D8" s="376">
+      <c r="D8" s="374">
         <v>44560</v>
       </c>
       <c r="E8" s="96">
@@ -19271,24 +19508,28 @@
       <c r="K8" s="350">
         <v>6212.5</v>
       </c>
-      <c r="L8" s="288"/>
-      <c r="M8" s="69"/>
+      <c r="L8" s="419">
+        <v>44580</v>
+      </c>
+      <c r="M8" s="420">
+        <v>6212.5</v>
+      </c>
       <c r="N8" s="137">
         <f t="shared" si="1"/>
-        <v>19650.46</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="356" t="s">
+      <c r="A9" s="355" t="s">
         <v>250</v>
       </c>
-      <c r="B9" s="357" t="s">
+      <c r="B9" s="356" t="s">
         <v>272</v>
       </c>
       <c r="C9" s="96">
         <v>46727.4</v>
       </c>
-      <c r="D9" s="376">
+      <c r="D9" s="374">
         <v>44560</v>
       </c>
       <c r="E9" s="96">
@@ -19307,24 +19548,28 @@
       <c r="K9" s="350">
         <v>11903.89</v>
       </c>
-      <c r="L9" s="288"/>
-      <c r="M9" s="69"/>
+      <c r="L9" s="419">
+        <v>44580</v>
+      </c>
+      <c r="M9" s="420">
+        <v>11903.89</v>
+      </c>
       <c r="N9" s="137">
         <f t="shared" si="1"/>
-        <v>31554.35</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A10" s="356" t="s">
+      <c r="A10" s="355" t="s">
         <v>250</v>
       </c>
-      <c r="B10" s="357" t="s">
+      <c r="B10" s="356" t="s">
         <v>273</v>
       </c>
       <c r="C10" s="96">
         <v>8457.5</v>
       </c>
-      <c r="D10" s="376">
+      <c r="D10" s="374">
         <v>44560</v>
       </c>
       <c r="E10" s="96">
@@ -19344,24 +19589,28 @@
       <c r="K10" s="350">
         <v>36560.6</v>
       </c>
-      <c r="L10" s="288"/>
-      <c r="M10" s="69"/>
+      <c r="L10" s="419">
+        <v>44580</v>
+      </c>
+      <c r="M10" s="420">
+        <v>36560.6</v>
+      </c>
       <c r="N10" s="137">
         <f t="shared" si="1"/>
-        <v>68114.95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="356" t="s">
+      <c r="A11" s="355" t="s">
         <v>251</v>
       </c>
-      <c r="B11" s="357" t="s">
+      <c r="B11" s="356" t="s">
         <v>274</v>
       </c>
       <c r="C11" s="96">
         <v>112011.05</v>
       </c>
-      <c r="D11" s="376">
+      <c r="D11" s="374">
         <v>44560</v>
       </c>
       <c r="E11" s="96">
@@ -19380,24 +19629,28 @@
       <c r="K11" s="350">
         <v>3349.24</v>
       </c>
-      <c r="L11" s="288"/>
-      <c r="M11" s="69"/>
+      <c r="L11" s="419">
+        <v>44580</v>
+      </c>
+      <c r="M11" s="420">
+        <v>3349.24</v>
+      </c>
       <c r="N11" s="137">
         <f t="shared" si="1"/>
-        <v>71464.19</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="356" t="s">
+      <c r="A12" s="355" t="s">
         <v>275</v>
       </c>
-      <c r="B12" s="357" t="s">
+      <c r="B12" s="356" t="s">
         <v>276</v>
       </c>
       <c r="C12" s="96">
         <v>5206.45</v>
       </c>
-      <c r="D12" s="376">
+      <c r="D12" s="374">
         <v>44560</v>
       </c>
       <c r="E12" s="96">
@@ -19416,24 +19669,28 @@
       <c r="K12" s="350">
         <v>2755.76</v>
       </c>
-      <c r="L12" s="288"/>
-      <c r="M12" s="69"/>
+      <c r="L12" s="419">
+        <v>44580</v>
+      </c>
+      <c r="M12" s="420">
+        <v>2755.76</v>
+      </c>
       <c r="N12" s="137">
         <f t="shared" si="1"/>
-        <v>74219.95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="356" t="s">
+      <c r="A13" s="355" t="s">
         <v>252</v>
       </c>
-      <c r="B13" s="357" t="s">
+      <c r="B13" s="356" t="s">
         <v>277</v>
       </c>
       <c r="C13" s="96">
         <v>38821.5</v>
       </c>
-      <c r="D13" s="376">
+      <c r="D13" s="374">
         <v>44560</v>
       </c>
       <c r="E13" s="96">
@@ -19452,24 +19709,28 @@
       <c r="K13" s="350">
         <v>19135.14</v>
       </c>
-      <c r="L13" s="288"/>
-      <c r="M13" s="69"/>
+      <c r="L13" s="419">
+        <v>44580</v>
+      </c>
+      <c r="M13" s="420">
+        <v>19135.14</v>
+      </c>
       <c r="N13" s="137">
         <f t="shared" si="1"/>
-        <v>93355.09</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="356" t="s">
+      <c r="A14" s="355" t="s">
         <v>252</v>
       </c>
-      <c r="B14" s="357" t="s">
+      <c r="B14" s="356" t="s">
         <v>278</v>
       </c>
       <c r="C14" s="96">
         <v>14425.6</v>
       </c>
-      <c r="D14" s="376">
+      <c r="D14" s="374">
         <v>44560</v>
       </c>
       <c r="E14" s="96">
@@ -19488,24 +19749,28 @@
       <c r="K14" s="350">
         <v>4500.16</v>
       </c>
-      <c r="L14" s="288"/>
-      <c r="M14" s="69"/>
+      <c r="L14" s="419">
+        <v>44580</v>
+      </c>
+      <c r="M14" s="420">
+        <v>4500.16</v>
+      </c>
       <c r="N14" s="137">
         <f t="shared" si="1"/>
-        <v>97855.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="356" t="s">
+      <c r="A15" s="355" t="s">
         <v>252</v>
       </c>
-      <c r="B15" s="357" t="s">
+      <c r="B15" s="356" t="s">
         <v>279</v>
       </c>
       <c r="C15" s="96">
         <v>9421.7000000000007</v>
       </c>
-      <c r="D15" s="376">
+      <c r="D15" s="374">
         <v>44560</v>
       </c>
       <c r="E15" s="96">
@@ -19524,24 +19789,28 @@
       <c r="K15" s="350">
         <v>7744</v>
       </c>
-      <c r="L15" s="288"/>
-      <c r="M15" s="69"/>
+      <c r="L15" s="419">
+        <v>44580</v>
+      </c>
+      <c r="M15" s="420">
+        <v>7744</v>
+      </c>
       <c r="N15" s="137">
         <f t="shared" si="1"/>
-        <v>105599.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="356" t="s">
+      <c r="A16" s="355" t="s">
         <v>252</v>
       </c>
-      <c r="B16" s="357" t="s">
+      <c r="B16" s="356" t="s">
         <v>280</v>
       </c>
       <c r="C16" s="96">
         <v>9069.5</v>
       </c>
-      <c r="D16" s="376">
+      <c r="D16" s="374">
         <v>44560</v>
       </c>
       <c r="E16" s="96">
@@ -19560,24 +19829,28 @@
       <c r="K16" s="350">
         <v>933.1</v>
       </c>
-      <c r="L16" s="288"/>
-      <c r="M16" s="69"/>
+      <c r="L16" s="419">
+        <v>44580</v>
+      </c>
+      <c r="M16" s="420">
+        <v>933.1</v>
+      </c>
       <c r="N16" s="137">
         <f t="shared" si="1"/>
-        <v>106532.35</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="356" t="s">
+      <c r="A17" s="355" t="s">
         <v>252</v>
       </c>
-      <c r="B17" s="357" t="s">
+      <c r="B17" s="356" t="s">
         <v>281</v>
       </c>
       <c r="C17" s="96">
         <v>60</v>
       </c>
-      <c r="D17" s="376">
+      <c r="D17" s="374">
         <v>44560</v>
       </c>
       <c r="E17" s="96">
@@ -19596,24 +19869,28 @@
       <c r="K17" s="350">
         <v>2610</v>
       </c>
-      <c r="L17" s="288"/>
-      <c r="M17" s="69"/>
+      <c r="L17" s="419">
+        <v>44580</v>
+      </c>
+      <c r="M17" s="420">
+        <v>2610</v>
+      </c>
       <c r="N17" s="137">
         <f t="shared" si="1"/>
-        <v>109142.35</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="356" t="s">
+      <c r="A18" s="355" t="s">
         <v>252</v>
       </c>
-      <c r="B18" s="357" t="s">
+      <c r="B18" s="356" t="s">
         <v>282</v>
       </c>
       <c r="C18" s="96">
         <v>16107.5</v>
       </c>
-      <c r="D18" s="376">
+      <c r="D18" s="374">
         <v>44560</v>
       </c>
       <c r="E18" s="96">
@@ -19632,24 +19909,28 @@
       <c r="K18" s="350">
         <v>3554.2</v>
       </c>
-      <c r="L18" s="288"/>
-      <c r="M18" s="69"/>
+      <c r="L18" s="419">
+        <v>44580</v>
+      </c>
+      <c r="M18" s="420">
+        <v>3554.2</v>
+      </c>
       <c r="N18" s="137">
         <f t="shared" si="1"/>
-        <v>112696.55</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="356" t="s">
+      <c r="A19" s="355" t="s">
         <v>253</v>
       </c>
-      <c r="B19" s="357" t="s">
+      <c r="B19" s="356" t="s">
         <v>283</v>
       </c>
       <c r="C19" s="96">
         <v>45709</v>
       </c>
-      <c r="D19" s="376">
+      <c r="D19" s="374">
         <v>44560</v>
       </c>
       <c r="E19" s="96">
@@ -19668,24 +19949,28 @@
       <c r="K19" s="350">
         <v>92636.2</v>
       </c>
-      <c r="L19" s="288"/>
-      <c r="M19" s="69"/>
+      <c r="L19" s="419">
+        <v>44580</v>
+      </c>
+      <c r="M19" s="420">
+        <v>92636.2</v>
+      </c>
       <c r="N19" s="137">
         <f t="shared" si="1"/>
-        <v>205332.75</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="356" t="s">
+      <c r="A20" s="355" t="s">
         <v>254</v>
       </c>
-      <c r="B20" s="357" t="s">
+      <c r="B20" s="356" t="s">
         <v>284</v>
       </c>
       <c r="C20" s="96">
         <v>0</v>
       </c>
-      <c r="D20" s="376" t="s">
+      <c r="D20" s="374" t="s">
         <v>310</v>
       </c>
       <c r="E20" s="96">
@@ -19704,24 +19989,28 @@
       <c r="K20" s="350">
         <v>9327.4</v>
       </c>
-      <c r="L20" s="288"/>
-      <c r="M20" s="69"/>
+      <c r="L20" s="419">
+        <v>44580</v>
+      </c>
+      <c r="M20" s="420">
+        <v>9327.4</v>
+      </c>
       <c r="N20" s="137">
         <f t="shared" si="1"/>
-        <v>214660.15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="356" t="s">
+      <c r="A21" s="355" t="s">
         <v>254</v>
       </c>
-      <c r="B21" s="357" t="s">
+      <c r="B21" s="356" t="s">
         <v>285</v>
       </c>
       <c r="C21" s="96">
         <v>58310.5</v>
       </c>
-      <c r="D21" s="376">
+      <c r="D21" s="374">
         <v>44560</v>
       </c>
       <c r="E21" s="96">
@@ -19740,24 +20029,28 @@
       <c r="K21" s="350">
         <v>428.16</v>
       </c>
-      <c r="L21" s="288"/>
-      <c r="M21" s="69"/>
+      <c r="L21" s="419">
+        <v>44580</v>
+      </c>
+      <c r="M21" s="420">
+        <v>428.16</v>
+      </c>
       <c r="N21" s="137">
         <f t="shared" si="1"/>
-        <v>215088.31</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A22" s="356" t="s">
+      <c r="A22" s="355" t="s">
         <v>254</v>
       </c>
-      <c r="B22" s="357" t="s">
+      <c r="B22" s="356" t="s">
         <v>286</v>
       </c>
       <c r="C22" s="96">
         <v>2844.3</v>
       </c>
-      <c r="D22" s="376">
+      <c r="D22" s="374">
         <v>44560</v>
       </c>
       <c r="E22" s="96">
@@ -19777,24 +20070,28 @@
       <c r="K22" s="350">
         <v>2709.6</v>
       </c>
-      <c r="L22" s="288"/>
-      <c r="M22" s="69"/>
+      <c r="L22" s="419">
+        <v>44580</v>
+      </c>
+      <c r="M22" s="420">
+        <v>2709.6</v>
+      </c>
       <c r="N22" s="137">
         <f t="shared" si="1"/>
-        <v>217797.91</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="356" t="s">
+      <c r="A23" s="355" t="s">
         <v>255</v>
       </c>
-      <c r="B23" s="357" t="s">
+      <c r="B23" s="356" t="s">
         <v>287</v>
       </c>
       <c r="C23" s="96">
         <v>60433.2</v>
       </c>
-      <c r="D23" s="376">
+      <c r="D23" s="374">
         <v>44560</v>
       </c>
       <c r="E23" s="96">
@@ -19813,24 +20110,28 @@
       <c r="K23" s="350">
         <v>1768.48</v>
       </c>
-      <c r="L23" s="288"/>
-      <c r="M23" s="69"/>
+      <c r="L23" s="419">
+        <v>44580</v>
+      </c>
+      <c r="M23" s="420">
+        <v>1768.48</v>
+      </c>
       <c r="N23" s="137">
         <f t="shared" si="1"/>
-        <v>219566.39</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="356" t="s">
+      <c r="A24" s="355" t="s">
         <v>256</v>
       </c>
-      <c r="B24" s="357" t="s">
+      <c r="B24" s="356" t="s">
         <v>288</v>
       </c>
       <c r="C24" s="96">
         <v>78786.3</v>
       </c>
-      <c r="D24" s="376">
+      <c r="D24" s="374">
         <v>44560</v>
       </c>
       <c r="E24" s="96">
@@ -19849,24 +20150,28 @@
       <c r="K24" s="350">
         <v>45385.8</v>
       </c>
-      <c r="L24" s="288"/>
-      <c r="M24" s="69"/>
+      <c r="L24" s="419">
+        <v>44580</v>
+      </c>
+      <c r="M24" s="420">
+        <v>45385.8</v>
+      </c>
       <c r="N24" s="137">
         <f t="shared" si="1"/>
-        <v>264952.19</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="356" t="s">
+      <c r="A25" s="355" t="s">
         <v>257</v>
       </c>
-      <c r="B25" s="357" t="s">
+      <c r="B25" s="356" t="s">
         <v>289</v>
       </c>
       <c r="C25" s="96">
         <v>36160.1</v>
       </c>
-      <c r="D25" s="376">
+      <c r="D25" s="374">
         <v>44560</v>
       </c>
       <c r="E25" s="96">
@@ -19885,24 +20190,28 @@
       <c r="K25" s="350">
         <v>6545.88</v>
       </c>
-      <c r="L25" s="288"/>
-      <c r="M25" s="69"/>
+      <c r="L25" s="419">
+        <v>44580</v>
+      </c>
+      <c r="M25" s="420">
+        <v>6545.88</v>
+      </c>
       <c r="N25" s="137">
         <f t="shared" si="1"/>
-        <v>271498.07</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="356" t="s">
+      <c r="A26" s="355" t="s">
         <v>257</v>
       </c>
-      <c r="B26" s="357" t="s">
+      <c r="B26" s="356" t="s">
         <v>290</v>
       </c>
       <c r="C26" s="96">
         <v>2104.4</v>
       </c>
-      <c r="D26" s="376">
+      <c r="D26" s="374">
         <v>44560</v>
       </c>
       <c r="E26" s="96">
@@ -19921,24 +20230,28 @@
       <c r="K26" s="350">
         <v>7998.1</v>
       </c>
-      <c r="L26" s="288"/>
-      <c r="M26" s="69"/>
+      <c r="L26" s="419">
+        <v>44580</v>
+      </c>
+      <c r="M26" s="420">
+        <v>7998.1</v>
+      </c>
       <c r="N26" s="137">
         <f t="shared" si="1"/>
-        <v>279496.17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="356" t="s">
+      <c r="A27" s="355" t="s">
         <v>258</v>
       </c>
-      <c r="B27" s="357" t="s">
+      <c r="B27" s="356" t="s">
         <v>291</v>
       </c>
       <c r="C27" s="96">
         <v>634.5</v>
       </c>
-      <c r="D27" s="380">
+      <c r="D27" s="378">
         <v>44550</v>
       </c>
       <c r="E27" s="96">
@@ -19957,24 +20270,28 @@
       <c r="K27" s="350">
         <v>887.52</v>
       </c>
-      <c r="L27" s="288"/>
-      <c r="M27" s="69"/>
+      <c r="L27" s="419">
+        <v>44580</v>
+      </c>
+      <c r="M27" s="420">
+        <v>887.52</v>
+      </c>
       <c r="N27" s="137">
         <f t="shared" si="1"/>
-        <v>280383.69</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="356" t="s">
+      <c r="A28" s="355" t="s">
         <v>258</v>
       </c>
-      <c r="B28" s="357" t="s">
+      <c r="B28" s="356" t="s">
         <v>292</v>
       </c>
       <c r="C28" s="96">
         <v>47894.06</v>
       </c>
-      <c r="D28" s="376">
+      <c r="D28" s="374">
         <v>44560</v>
       </c>
       <c r="E28" s="96">
@@ -19993,24 +20310,28 @@
       <c r="K28" s="350">
         <v>571.6</v>
       </c>
-      <c r="L28" s="288"/>
-      <c r="M28" s="69"/>
+      <c r="L28" s="419">
+        <v>44580</v>
+      </c>
+      <c r="M28" s="420">
+        <v>571.6</v>
+      </c>
       <c r="N28" s="137">
         <f t="shared" si="1"/>
-        <v>280955.28999999998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="356" t="s">
+      <c r="A29" s="355" t="s">
         <v>259</v>
       </c>
-      <c r="B29" s="357" t="s">
+      <c r="B29" s="356" t="s">
         <v>293</v>
       </c>
       <c r="C29" s="96">
         <v>48036.26</v>
       </c>
-      <c r="D29" s="376">
+      <c r="D29" s="374">
         <v>44560</v>
       </c>
       <c r="E29" s="96">
@@ -20029,24 +20350,28 @@
       <c r="K29" s="350">
         <v>23079</v>
       </c>
-      <c r="L29" s="288"/>
-      <c r="M29" s="69"/>
+      <c r="L29" s="419">
+        <v>44580</v>
+      </c>
+      <c r="M29" s="420">
+        <v>23079</v>
+      </c>
       <c r="N29" s="137">
         <f t="shared" si="1"/>
-        <v>304034.28999999998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A30" s="356" t="s">
+      <c r="A30" s="355" t="s">
         <v>260</v>
       </c>
-      <c r="B30" s="357" t="s">
+      <c r="B30" s="356" t="s">
         <v>294</v>
       </c>
       <c r="C30" s="96">
         <v>61444</v>
       </c>
-      <c r="D30" s="376">
+      <c r="D30" s="374">
         <v>44560</v>
       </c>
       <c r="E30" s="96">
@@ -20066,27 +20391,31 @@
       <c r="K30" s="350">
         <v>0</v>
       </c>
-      <c r="L30" s="288"/>
-      <c r="M30" s="69"/>
+      <c r="L30" s="419">
+        <v>44580</v>
+      </c>
+      <c r="M30" s="420">
+        <v>0</v>
+      </c>
       <c r="N30" s="137">
         <f t="shared" si="1"/>
-        <v>304034.28999999998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="356" t="s">
+      <c r="A31" s="355" t="s">
         <v>260</v>
       </c>
-      <c r="B31" s="357" t="s">
+      <c r="B31" s="356" t="s">
         <v>295</v>
       </c>
       <c r="C31" s="96">
         <v>134636</v>
       </c>
-      <c r="D31" s="377">
+      <c r="D31" s="375">
         <v>44564</v>
       </c>
-      <c r="E31" s="378">
+      <c r="E31" s="376">
         <v>134636</v>
       </c>
       <c r="F31" s="137">
@@ -20102,27 +20431,31 @@
       <c r="K31" s="350">
         <v>288</v>
       </c>
-      <c r="L31" s="288"/>
-      <c r="M31" s="69"/>
+      <c r="L31" s="419">
+        <v>44580</v>
+      </c>
+      <c r="M31" s="420">
+        <v>288</v>
+      </c>
       <c r="N31" s="137">
         <f>N30+K31-M31</f>
-        <v>304322.28999999998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="356" t="s">
+      <c r="A32" s="355" t="s">
         <v>260</v>
       </c>
-      <c r="B32" s="357" t="s">
+      <c r="B32" s="356" t="s">
         <v>296</v>
       </c>
       <c r="C32" s="96">
         <v>2496</v>
       </c>
-      <c r="D32" s="377">
+      <c r="D32" s="375">
         <v>44564</v>
       </c>
-      <c r="E32" s="378">
+      <c r="E32" s="376">
         <v>2496</v>
       </c>
       <c r="F32" s="137">
@@ -20138,27 +20471,31 @@
       <c r="K32" s="350">
         <v>0</v>
       </c>
-      <c r="L32" s="288"/>
-      <c r="M32" s="69"/>
+      <c r="L32" s="419">
+        <v>44580</v>
+      </c>
+      <c r="M32" s="420">
+        <v>0</v>
+      </c>
       <c r="N32" s="137">
         <f t="shared" si="1"/>
-        <v>304322.28999999998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="356" t="s">
+      <c r="A33" s="355" t="s">
         <v>260</v>
       </c>
-      <c r="B33" s="357" t="s">
+      <c r="B33" s="356" t="s">
         <v>297</v>
       </c>
       <c r="C33" s="96">
         <v>1835.32</v>
       </c>
-      <c r="D33" s="377">
+      <c r="D33" s="375">
         <v>44564</v>
       </c>
-      <c r="E33" s="378">
+      <c r="E33" s="376">
         <v>1835.32</v>
       </c>
       <c r="F33" s="137">
@@ -20174,27 +20511,31 @@
       <c r="K33" s="350">
         <v>16973.12</v>
       </c>
-      <c r="L33" s="288"/>
-      <c r="M33" s="69"/>
+      <c r="L33" s="419">
+        <v>44580</v>
+      </c>
+      <c r="M33" s="420">
+        <v>16973.12</v>
+      </c>
       <c r="N33" s="137">
         <f t="shared" si="1"/>
-        <v>321295.40999999997</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="356" t="s">
+      <c r="A34" s="355" t="s">
         <v>261</v>
       </c>
-      <c r="B34" s="357" t="s">
+      <c r="B34" s="356" t="s">
         <v>298</v>
       </c>
       <c r="C34" s="96">
         <v>37820</v>
       </c>
-      <c r="D34" s="377">
+      <c r="D34" s="375">
         <v>44564</v>
       </c>
-      <c r="E34" s="378">
+      <c r="E34" s="376">
         <v>37820</v>
       </c>
       <c r="F34" s="137">
@@ -20210,27 +20551,31 @@
       <c r="K34" s="350">
         <v>614.24</v>
       </c>
-      <c r="L34" s="288"/>
-      <c r="M34" s="69"/>
+      <c r="L34" s="419">
+        <v>44580</v>
+      </c>
+      <c r="M34" s="420">
+        <v>614.24</v>
+      </c>
       <c r="N34" s="137">
         <f t="shared" si="1"/>
-        <v>321909.64999999997</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="356" t="s">
+      <c r="A35" s="355" t="s">
         <v>261</v>
       </c>
-      <c r="B35" s="357" t="s">
+      <c r="B35" s="356" t="s">
         <v>299</v>
       </c>
       <c r="C35" s="96">
         <v>20355.400000000001</v>
       </c>
-      <c r="D35" s="377">
+      <c r="D35" s="375">
         <v>44564</v>
       </c>
-      <c r="E35" s="378">
+      <c r="E35" s="376">
         <v>20355.400000000001</v>
       </c>
       <c r="F35" s="137">
@@ -20246,28 +20591,36 @@
       <c r="K35" s="350">
         <v>216</v>
       </c>
-      <c r="L35" s="288"/>
-      <c r="M35" s="69"/>
+      <c r="L35" s="419">
+        <v>44580</v>
+      </c>
+      <c r="M35" s="420">
+        <v>216</v>
+      </c>
       <c r="N35" s="137">
         <f t="shared" si="1"/>
-        <v>322125.64999999997</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="356" t="s">
+      <c r="A36" s="355" t="s">
         <v>300</v>
       </c>
-      <c r="B36" s="357" t="s">
+      <c r="B36" s="356" t="s">
         <v>301</v>
       </c>
       <c r="C36" s="96">
         <v>37968.800000000003</v>
       </c>
-      <c r="D36" s="253"/>
-      <c r="E36" s="69"/>
+      <c r="D36" s="415">
+        <v>44580</v>
+      </c>
+      <c r="E36" s="417">
+        <v>37968.800000000003</v>
+      </c>
       <c r="F36" s="137">
         <f t="shared" si="0"/>
-        <v>37968.800000000003</v>
+        <v>0</v>
       </c>
       <c r="I36" s="349" t="s">
         <v>261</v>
@@ -20278,62 +20631,78 @@
       <c r="K36" s="350">
         <v>0</v>
       </c>
-      <c r="L36" s="288"/>
-      <c r="M36" s="69"/>
+      <c r="L36" s="419">
+        <v>44580</v>
+      </c>
+      <c r="M36" s="420">
+        <v>0</v>
+      </c>
       <c r="N36" s="137">
         <f t="shared" si="1"/>
-        <v>322125.64999999997</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="356" t="s">
+      <c r="A37" s="355" t="s">
         <v>262</v>
       </c>
-      <c r="B37" s="357" t="s">
+      <c r="B37" s="356" t="s">
         <v>302</v>
       </c>
       <c r="C37" s="96">
         <v>38370.6</v>
       </c>
-      <c r="D37" s="253"/>
-      <c r="E37" s="69"/>
+      <c r="D37" s="415">
+        <v>44580</v>
+      </c>
+      <c r="E37" s="417">
+        <v>38370.6</v>
+      </c>
       <c r="F37" s="137">
         <f t="shared" si="0"/>
-        <v>76339.399999999994</v>
-      </c>
-      <c r="I37" s="360" t="s">
+        <v>0</v>
+      </c>
+      <c r="I37" s="359" t="s">
         <v>261</v>
       </c>
-      <c r="J37" s="361">
+      <c r="J37" s="360">
         <v>8114</v>
       </c>
-      <c r="K37" s="362">
+      <c r="K37" s="361">
         <v>78024.399999999994</v>
       </c>
-      <c r="L37" s="363"/>
-      <c r="M37" s="364"/>
-      <c r="N37" s="365">
-        <f t="shared" si="1"/>
-        <v>400150.04999999993</v>
+      <c r="L37" s="419">
+        <v>44580</v>
+      </c>
+      <c r="M37" s="421">
+        <v>78024.399999999994</v>
+      </c>
+      <c r="N37" s="363">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="356" t="s">
+      <c r="A38" s="355" t="s">
         <v>262</v>
       </c>
-      <c r="B38" s="357" t="s">
+      <c r="B38" s="356" t="s">
         <v>303</v>
       </c>
       <c r="C38" s="96">
         <v>2250</v>
       </c>
-      <c r="D38" s="253"/>
-      <c r="E38" s="69"/>
+      <c r="D38" s="415">
+        <v>44580</v>
+      </c>
+      <c r="E38" s="417">
+        <v>2250</v>
+      </c>
       <c r="F38" s="137">
         <f t="shared" si="0"/>
-        <v>78589.399999999994</v>
-      </c>
-      <c r="I38" s="366" t="s">
+        <v>0</v>
+      </c>
+      <c r="I38" s="364" t="s">
         <v>262</v>
       </c>
       <c r="J38" s="38">
@@ -20342,28 +20711,36 @@
       <c r="K38" s="69">
         <v>7344.28</v>
       </c>
-      <c r="L38" s="288"/>
-      <c r="M38" s="69"/>
-      <c r="N38" s="367">
-        <f t="shared" si="1"/>
-        <v>407494.32999999996</v>
+      <c r="L38" s="419">
+        <v>44580</v>
+      </c>
+      <c r="M38" s="416">
+        <v>7344.28</v>
+      </c>
+      <c r="N38" s="365">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="356" t="s">
+      <c r="A39" s="355" t="s">
         <v>263</v>
       </c>
-      <c r="B39" s="357" t="s">
+      <c r="B39" s="356" t="s">
         <v>304</v>
       </c>
       <c r="C39" s="96">
         <v>36332.379999999997</v>
       </c>
-      <c r="D39" s="253"/>
-      <c r="E39" s="69"/>
+      <c r="D39" s="415">
+        <v>44580</v>
+      </c>
+      <c r="E39" s="417">
+        <v>36332.379999999997</v>
+      </c>
       <c r="F39" s="137">
         <f t="shared" si="0"/>
-        <v>114921.78</v>
+        <v>0</v>
       </c>
       <c r="I39" s="351" t="s">
         <v>263</v>
@@ -20374,28 +20751,36 @@
       <c r="K39" s="353">
         <v>0</v>
       </c>
-      <c r="L39" s="354"/>
-      <c r="M39" s="215"/>
-      <c r="N39" s="355">
-        <f t="shared" si="1"/>
-        <v>407494.32999999996</v>
+      <c r="L39" s="419">
+        <v>44580</v>
+      </c>
+      <c r="M39" s="422">
+        <v>0</v>
+      </c>
+      <c r="N39" s="354">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:14" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="356" t="s">
+      <c r="A40" s="355" t="s">
         <v>263</v>
       </c>
-      <c r="B40" s="357" t="s">
+      <c r="B40" s="356" t="s">
         <v>305</v>
       </c>
       <c r="C40" s="96">
         <v>31011.599999999999</v>
       </c>
-      <c r="D40" s="253"/>
-      <c r="E40" s="69"/>
+      <c r="D40" s="415">
+        <v>44580</v>
+      </c>
+      <c r="E40" s="417">
+        <v>31011.599999999999</v>
+      </c>
       <c r="F40" s="137">
         <f t="shared" si="0"/>
-        <v>145933.38</v>
+        <v>0</v>
       </c>
       <c r="I40" s="349" t="s">
         <v>263</v>
@@ -20406,28 +20791,36 @@
       <c r="K40" s="350">
         <v>2592.81</v>
       </c>
-      <c r="L40" s="140"/>
-      <c r="M40" s="69"/>
-      <c r="N40" s="355">
-        <f t="shared" si="1"/>
-        <v>410087.13999999996</v>
+      <c r="L40" s="419">
+        <v>44580</v>
+      </c>
+      <c r="M40" s="420">
+        <v>2592.81</v>
+      </c>
+      <c r="N40" s="354">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:14" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="356" t="s">
+      <c r="A41" s="355" t="s">
         <v>306</v>
       </c>
-      <c r="B41" s="357" t="s">
+      <c r="B41" s="356" t="s">
         <v>307</v>
       </c>
       <c r="C41" s="96">
         <v>95276.3</v>
       </c>
-      <c r="D41" s="253"/>
-      <c r="E41" s="69"/>
+      <c r="D41" s="415">
+        <v>44580</v>
+      </c>
+      <c r="E41" s="417">
+        <v>95276.3</v>
+      </c>
       <c r="F41" s="137">
         <f t="shared" si="0"/>
-        <v>241209.68</v>
+        <v>0</v>
       </c>
       <c r="I41" s="349" t="s">
         <v>263</v>
@@ -20438,28 +20831,36 @@
       <c r="K41" s="350">
         <v>89838.6</v>
       </c>
-      <c r="L41" s="140"/>
-      <c r="M41" s="69"/>
-      <c r="N41" s="355">
-        <f t="shared" si="1"/>
-        <v>499925.74</v>
+      <c r="L41" s="419">
+        <v>44580</v>
+      </c>
+      <c r="M41" s="420">
+        <v>89838.6</v>
+      </c>
+      <c r="N41" s="354">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:14" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="356" t="s">
+      <c r="A42" s="355" t="s">
         <v>306</v>
       </c>
-      <c r="B42" s="357" t="s">
+      <c r="B42" s="356" t="s">
         <v>308</v>
       </c>
       <c r="C42" s="96">
         <v>4262.3999999999996</v>
       </c>
-      <c r="D42" s="253"/>
-      <c r="E42" s="69"/>
+      <c r="D42" s="415">
+        <v>44580</v>
+      </c>
+      <c r="E42" s="417">
+        <v>4262.3999999999996</v>
+      </c>
       <c r="F42" s="137">
         <f t="shared" si="0"/>
-        <v>245472.08</v>
+        <v>0</v>
       </c>
       <c r="I42" s="349" t="s">
         <v>264</v>
@@ -20470,28 +20871,36 @@
       <c r="K42" s="350">
         <v>10475.799999999999</v>
       </c>
-      <c r="L42" s="140"/>
-      <c r="M42" s="69"/>
-      <c r="N42" s="355">
-        <f t="shared" si="1"/>
-        <v>510401.54</v>
+      <c r="L42" s="419">
+        <v>44580</v>
+      </c>
+      <c r="M42" s="420">
+        <v>10475.799999999999</v>
+      </c>
+      <c r="N42" s="354">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:14" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="356" t="s">
+      <c r="A43" s="355" t="s">
         <v>264</v>
       </c>
-      <c r="B43" s="357" t="s">
+      <c r="B43" s="356" t="s">
         <v>309</v>
       </c>
       <c r="C43" s="96">
         <v>33297.4</v>
       </c>
-      <c r="D43" s="253"/>
-      <c r="E43" s="69"/>
+      <c r="D43" s="415">
+        <v>44580</v>
+      </c>
+      <c r="E43" s="417">
+        <v>33297.4</v>
+      </c>
       <c r="F43" s="137">
         <f t="shared" si="0"/>
-        <v>278769.48</v>
+        <v>0</v>
       </c>
       <c r="I43" s="349" t="s">
         <v>264</v>
@@ -20502,11 +20911,15 @@
       <c r="K43" s="350">
         <v>21719.4</v>
       </c>
-      <c r="L43" s="140"/>
-      <c r="M43" s="69"/>
-      <c r="N43" s="355">
-        <f t="shared" si="1"/>
-        <v>532120.93999999994</v>
+      <c r="L43" s="419">
+        <v>44580</v>
+      </c>
+      <c r="M43" s="420">
+        <v>21719.4</v>
+      </c>
+      <c r="N43" s="354">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:14" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -20517,7 +20930,7 @@
       <c r="E44" s="69"/>
       <c r="F44" s="137">
         <f t="shared" si="0"/>
-        <v>278769.48</v>
+        <v>0</v>
       </c>
       <c r="I44" s="349" t="s">
         <v>264</v>
@@ -20528,11 +20941,15 @@
       <c r="K44" s="350">
         <v>57983.8</v>
       </c>
-      <c r="L44" s="140"/>
-      <c r="M44" s="69"/>
-      <c r="N44" s="355">
-        <f t="shared" si="1"/>
-        <v>590104.74</v>
+      <c r="L44" s="419">
+        <v>44580</v>
+      </c>
+      <c r="M44" s="420">
+        <v>57983.8</v>
+      </c>
+      <c r="N44" s="354">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:14" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
@@ -20543,16 +20960,18 @@
       <c r="E45" s="69"/>
       <c r="F45" s="137">
         <f t="shared" si="0"/>
-        <v>278769.48</v>
+        <v>0</v>
       </c>
       <c r="I45" s="134"/>
       <c r="J45" s="139"/>
       <c r="K45" s="69"/>
-      <c r="L45" s="140"/>
-      <c r="M45" s="69"/>
+      <c r="L45" s="253"/>
+      <c r="M45" s="69">
+        <v>0</v>
+      </c>
       <c r="N45" s="137">
         <f t="shared" si="1"/>
-        <v>590104.74</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -20563,16 +20982,16 @@
       <c r="E46" s="69"/>
       <c r="F46" s="137">
         <f t="shared" si="0"/>
-        <v>278769.48</v>
+        <v>0</v>
       </c>
       <c r="I46" s="134"/>
       <c r="J46" s="139"/>
       <c r="K46" s="69"/>
-      <c r="L46" s="140"/>
+      <c r="L46" s="253"/>
       <c r="M46" s="69"/>
       <c r="N46" s="137">
         <f t="shared" si="1"/>
-        <v>590104.74</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -20583,16 +21002,16 @@
       <c r="E47" s="69"/>
       <c r="F47" s="137">
         <f t="shared" si="0"/>
-        <v>278769.48</v>
+        <v>0</v>
       </c>
       <c r="I47" s="134"/>
       <c r="J47" s="139"/>
       <c r="K47" s="69"/>
-      <c r="L47" s="140"/>
+      <c r="L47" s="253"/>
       <c r="M47" s="69"/>
       <c r="N47" s="137">
         <f t="shared" si="1"/>
-        <v>590104.74</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -20603,16 +21022,16 @@
       <c r="E48" s="69"/>
       <c r="F48" s="137">
         <f t="shared" si="0"/>
-        <v>278769.48</v>
+        <v>0</v>
       </c>
       <c r="I48" s="134"/>
       <c r="J48" s="139"/>
       <c r="K48" s="69"/>
-      <c r="L48" s="140"/>
+      <c r="L48" s="253"/>
       <c r="M48" s="69"/>
       <c r="N48" s="137">
         <f t="shared" si="1"/>
-        <v>590104.74</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -20623,16 +21042,16 @@
       <c r="E49" s="69"/>
       <c r="F49" s="137">
         <f t="shared" si="0"/>
-        <v>278769.48</v>
+        <v>0</v>
       </c>
       <c r="I49" s="134"/>
       <c r="J49" s="139"/>
       <c r="K49" s="69"/>
-      <c r="L49" s="140"/>
+      <c r="L49" s="253"/>
       <c r="M49" s="69"/>
       <c r="N49" s="137">
         <f t="shared" si="1"/>
-        <v>590104.74</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -20643,16 +21062,16 @@
       <c r="E50" s="69"/>
       <c r="F50" s="137">
         <f t="shared" si="0"/>
-        <v>278769.48</v>
+        <v>0</v>
       </c>
       <c r="I50" s="134"/>
       <c r="J50" s="139"/>
       <c r="K50" s="69"/>
-      <c r="L50" s="140"/>
+      <c r="L50" s="253"/>
       <c r="M50" s="69"/>
       <c r="N50" s="137">
         <f t="shared" si="1"/>
-        <v>590104.74</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -20663,16 +21082,16 @@
       <c r="E51" s="69"/>
       <c r="F51" s="137">
         <f t="shared" si="0"/>
-        <v>278769.48</v>
+        <v>0</v>
       </c>
       <c r="I51" s="134"/>
       <c r="J51" s="139"/>
       <c r="K51" s="69"/>
-      <c r="L51" s="140"/>
+      <c r="L51" s="253"/>
       <c r="M51" s="69"/>
       <c r="N51" s="137">
         <f t="shared" si="1"/>
-        <v>590104.74</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -20683,16 +21102,16 @@
       <c r="E52" s="69"/>
       <c r="F52" s="137">
         <f t="shared" si="0"/>
-        <v>278769.48</v>
+        <v>0</v>
       </c>
       <c r="I52" s="134"/>
       <c r="J52" s="139"/>
       <c r="K52" s="69"/>
-      <c r="L52" s="140"/>
+      <c r="L52" s="253"/>
       <c r="M52" s="69"/>
       <c r="N52" s="137">
         <f t="shared" si="1"/>
-        <v>590104.74</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -20703,16 +21122,16 @@
       <c r="E53" s="69"/>
       <c r="F53" s="137">
         <f t="shared" si="0"/>
-        <v>278769.48</v>
+        <v>0</v>
       </c>
       <c r="I53" s="134"/>
       <c r="J53" s="139"/>
       <c r="K53" s="69"/>
-      <c r="L53" s="140"/>
+      <c r="L53" s="253"/>
       <c r="M53" s="69"/>
       <c r="N53" s="137">
         <f t="shared" si="1"/>
-        <v>590104.74</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -20723,16 +21142,16 @@
       <c r="E54" s="69"/>
       <c r="F54" s="137">
         <f t="shared" si="0"/>
-        <v>278769.48</v>
+        <v>0</v>
       </c>
       <c r="I54" s="134"/>
       <c r="J54" s="139"/>
       <c r="K54" s="69"/>
-      <c r="L54" s="140"/>
+      <c r="L54" s="253"/>
       <c r="M54" s="69"/>
       <c r="N54" s="137">
         <f t="shared" si="1"/>
-        <v>590104.74</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -20743,16 +21162,16 @@
       <c r="E55" s="69"/>
       <c r="F55" s="137">
         <f t="shared" si="0"/>
-        <v>278769.48</v>
+        <v>0</v>
       </c>
       <c r="I55" s="134"/>
       <c r="J55" s="139"/>
       <c r="K55" s="69"/>
-      <c r="L55" s="140"/>
+      <c r="L55" s="253"/>
       <c r="M55" s="69"/>
       <c r="N55" s="137">
         <f t="shared" si="1"/>
-        <v>590104.74</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -20763,16 +21182,16 @@
       <c r="E56" s="69"/>
       <c r="F56" s="137">
         <f t="shared" si="0"/>
-        <v>278769.48</v>
+        <v>0</v>
       </c>
       <c r="I56" s="134"/>
       <c r="J56" s="139"/>
       <c r="K56" s="69"/>
-      <c r="L56" s="140"/>
+      <c r="L56" s="253"/>
       <c r="M56" s="69"/>
       <c r="N56" s="137">
         <f t="shared" si="1"/>
-        <v>590104.74</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -20783,16 +21202,16 @@
       <c r="E57" s="69"/>
       <c r="F57" s="137">
         <f t="shared" si="0"/>
-        <v>278769.48</v>
-      </c>
-      <c r="I57" s="358"/>
-      <c r="J57" s="359"/>
+        <v>0</v>
+      </c>
+      <c r="I57" s="357"/>
+      <c r="J57" s="358"/>
       <c r="K57" s="34"/>
-      <c r="L57" s="147"/>
+      <c r="L57" s="118"/>
       <c r="M57" s="34"/>
       <c r="N57" s="137">
         <f t="shared" ref="N57:N73" si="2">N56+K57-M57</f>
-        <v>590104.74</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -20803,16 +21222,16 @@
       <c r="E58" s="69"/>
       <c r="F58" s="137">
         <f t="shared" si="0"/>
-        <v>278769.48</v>
-      </c>
-      <c r="I58" s="358"/>
-      <c r="J58" s="359"/>
+        <v>0</v>
+      </c>
+      <c r="I58" s="357"/>
+      <c r="J58" s="358"/>
       <c r="K58" s="34"/>
-      <c r="L58" s="147"/>
+      <c r="L58" s="118"/>
       <c r="M58" s="34"/>
       <c r="N58" s="137">
         <f t="shared" si="2"/>
-        <v>590104.74</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -20823,16 +21242,16 @@
       <c r="E59" s="69"/>
       <c r="F59" s="137">
         <f t="shared" si="0"/>
-        <v>278769.48</v>
-      </c>
-      <c r="I59" s="358"/>
-      <c r="J59" s="359"/>
+        <v>0</v>
+      </c>
+      <c r="I59" s="357"/>
+      <c r="J59" s="358"/>
       <c r="K59" s="34"/>
-      <c r="L59" s="147"/>
+      <c r="L59" s="118"/>
       <c r="M59" s="34"/>
       <c r="N59" s="137">
         <f t="shared" si="2"/>
-        <v>590104.74</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -20843,16 +21262,16 @@
       <c r="E60" s="69"/>
       <c r="F60" s="137">
         <f t="shared" si="0"/>
-        <v>278769.48</v>
-      </c>
-      <c r="I60" s="358"/>
-      <c r="J60" s="359"/>
+        <v>0</v>
+      </c>
+      <c r="I60" s="357"/>
+      <c r="J60" s="358"/>
       <c r="K60" s="34"/>
-      <c r="L60" s="147"/>
+      <c r="L60" s="118"/>
       <c r="M60" s="34"/>
       <c r="N60" s="137">
         <f t="shared" si="2"/>
-        <v>590104.74</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -20863,36 +21282,36 @@
       <c r="E61" s="69"/>
       <c r="F61" s="137">
         <f t="shared" si="0"/>
-        <v>278769.48</v>
-      </c>
-      <c r="I61" s="358"/>
-      <c r="J61" s="359"/>
+        <v>0</v>
+      </c>
+      <c r="I61" s="357"/>
+      <c r="J61" s="358"/>
       <c r="K61" s="34"/>
-      <c r="L61" s="147"/>
+      <c r="L61" s="118"/>
       <c r="M61" s="34"/>
       <c r="N61" s="137">
         <f t="shared" si="2"/>
-        <v>590104.74</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="358"/>
-      <c r="B62" s="359"/>
+      <c r="A62" s="357"/>
+      <c r="B62" s="358"/>
       <c r="C62" s="34"/>
       <c r="D62" s="118"/>
       <c r="E62" s="34"/>
       <c r="F62" s="137">
         <f t="shared" si="0"/>
-        <v>278769.48</v>
-      </c>
-      <c r="I62" s="358"/>
-      <c r="J62" s="359"/>
+        <v>0</v>
+      </c>
+      <c r="I62" s="357"/>
+      <c r="J62" s="358"/>
       <c r="K62" s="34"/>
-      <c r="L62" s="147"/>
+      <c r="L62" s="118"/>
       <c r="M62" s="34"/>
       <c r="N62" s="137">
         <f t="shared" si="2"/>
-        <v>590104.74</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -20903,16 +21322,16 @@
       <c r="E63" s="69"/>
       <c r="F63" s="137">
         <f t="shared" si="0"/>
-        <v>278769.48</v>
+        <v>0</v>
       </c>
       <c r="I63" s="134"/>
       <c r="J63" s="139"/>
       <c r="K63" s="69"/>
-      <c r="L63" s="148"/>
+      <c r="L63" s="254"/>
       <c r="M63" s="69"/>
       <c r="N63" s="137">
         <f t="shared" si="2"/>
-        <v>590104.74</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -20923,16 +21342,16 @@
       <c r="E64" s="69"/>
       <c r="F64" s="137">
         <f t="shared" si="0"/>
-        <v>278769.48</v>
+        <v>0</v>
       </c>
       <c r="I64" s="134"/>
       <c r="J64" s="139"/>
       <c r="K64" s="69"/>
-      <c r="L64" s="148"/>
+      <c r="L64" s="254"/>
       <c r="M64" s="69"/>
       <c r="N64" s="137">
         <f t="shared" si="2"/>
-        <v>590104.74</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -20943,16 +21362,16 @@
       <c r="E65" s="69"/>
       <c r="F65" s="137">
         <f t="shared" si="0"/>
-        <v>278769.48</v>
+        <v>0</v>
       </c>
       <c r="I65" s="134"/>
       <c r="J65" s="139"/>
       <c r="K65" s="69"/>
-      <c r="L65" s="148"/>
+      <c r="L65" s="254"/>
       <c r="M65" s="69"/>
       <c r="N65" s="137">
         <f t="shared" si="2"/>
-        <v>590104.74</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -20963,16 +21382,16 @@
       <c r="E66" s="69"/>
       <c r="F66" s="137">
         <f t="shared" si="0"/>
-        <v>278769.48</v>
+        <v>0</v>
       </c>
       <c r="I66" s="134"/>
       <c r="J66" s="139"/>
       <c r="K66" s="69"/>
-      <c r="L66" s="148"/>
+      <c r="L66" s="254"/>
       <c r="M66" s="69"/>
       <c r="N66" s="137">
         <f t="shared" si="2"/>
-        <v>590104.74</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -20983,16 +21402,16 @@
       <c r="E67" s="69"/>
       <c r="F67" s="137">
         <f t="shared" si="0"/>
-        <v>278769.48</v>
+        <v>0</v>
       </c>
       <c r="I67" s="134"/>
       <c r="J67" s="139"/>
       <c r="K67" s="69"/>
-      <c r="L67" s="148"/>
+      <c r="L67" s="254"/>
       <c r="M67" s="69"/>
       <c r="N67" s="137">
         <f t="shared" si="2"/>
-        <v>590104.74</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -21003,16 +21422,16 @@
       <c r="E68" s="69"/>
       <c r="F68" s="137">
         <f t="shared" si="0"/>
-        <v>278769.48</v>
+        <v>0</v>
       </c>
       <c r="I68" s="134"/>
       <c r="J68" s="139"/>
       <c r="K68" s="69"/>
-      <c r="L68" s="148"/>
+      <c r="L68" s="254"/>
       <c r="M68" s="69"/>
       <c r="N68" s="137">
         <f t="shared" si="2"/>
-        <v>590104.74</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -21023,16 +21442,16 @@
       <c r="E69" s="69"/>
       <c r="F69" s="137">
         <f t="shared" ref="F69:F71" si="3">F68+C69-E69</f>
-        <v>278769.48</v>
+        <v>0</v>
       </c>
       <c r="I69" s="134"/>
       <c r="J69" s="139"/>
       <c r="K69" s="69"/>
-      <c r="L69" s="148"/>
+      <c r="L69" s="254"/>
       <c r="M69" s="69"/>
       <c r="N69" s="137">
         <f t="shared" si="2"/>
-        <v>590104.74</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -21043,16 +21462,16 @@
       <c r="E70" s="69"/>
       <c r="F70" s="137">
         <f t="shared" si="3"/>
-        <v>278769.48</v>
+        <v>0</v>
       </c>
       <c r="I70" s="134"/>
       <c r="J70" s="139"/>
       <c r="K70" s="69"/>
-      <c r="L70" s="148"/>
+      <c r="L70" s="254"/>
       <c r="M70" s="69"/>
       <c r="N70" s="137">
         <f t="shared" si="2"/>
-        <v>590104.74</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -21063,16 +21482,16 @@
       <c r="E71" s="69"/>
       <c r="F71" s="137">
         <f t="shared" si="3"/>
-        <v>278769.48</v>
+        <v>0</v>
       </c>
       <c r="I71" s="134"/>
       <c r="J71" s="139"/>
       <c r="K71" s="69"/>
-      <c r="L71" s="148"/>
+      <c r="L71" s="254"/>
       <c r="M71" s="69"/>
       <c r="N71" s="137">
         <f t="shared" si="2"/>
-        <v>590104.74</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -21083,16 +21502,16 @@
       <c r="E72" s="69"/>
       <c r="F72" s="137">
         <f t="shared" ref="F72:F73" si="4">F71+C72-E72</f>
-        <v>278769.48</v>
+        <v>0</v>
       </c>
       <c r="I72" s="134"/>
       <c r="J72" s="139"/>
       <c r="K72" s="69"/>
-      <c r="L72" s="148"/>
+      <c r="L72" s="254"/>
       <c r="M72" s="69"/>
       <c r="N72" s="137">
         <f t="shared" si="2"/>
-        <v>590104.74</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -21105,18 +21524,20 @@
       <c r="E73" s="151"/>
       <c r="F73" s="137">
         <f t="shared" si="4"/>
-        <v>278769.48</v>
+        <v>0</v>
       </c>
       <c r="I73" s="149"/>
       <c r="J73" s="150"/>
       <c r="K73" s="151">
         <v>0</v>
       </c>
-      <c r="L73" s="152"/>
-      <c r="M73" s="151"/>
+      <c r="L73" s="255"/>
+      <c r="M73" s="151">
+        <v>0</v>
+      </c>
       <c r="N73" s="137">
         <f t="shared" si="2"/>
-        <v>590104.74</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:14" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
@@ -21129,17 +21550,20 @@
       <c r="E74" s="1"/>
       <c r="F74" s="153">
         <f>F73</f>
-        <v>278769.48</v>
+        <v>0</v>
       </c>
       <c r="K74" s="209">
         <f>SUM(K3:K73)</f>
         <v>590104.74</v>
       </c>
-      <c r="L74" s="97"/>
-      <c r="M74" s="1"/>
+      <c r="L74" s="256"/>
+      <c r="M74" s="1">
+        <f>SUM(M3:M73)</f>
+        <v>590104.74</v>
+      </c>
       <c r="N74" s="153">
-        <f>SUM(K74:M74)</f>
-        <v>590104.74</v>
+        <f>K74-M74</f>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -21147,11 +21571,11 @@
       <c r="C75" s="214"/>
       <c r="D75" s="256"/>
       <c r="E75" s="3"/>
-      <c r="F75" s="478" t="s">
+      <c r="F75" s="486" t="s">
         <v>207</v>
       </c>
       <c r="K75" s="1"/>
-      <c r="L75" s="97"/>
+      <c r="L75" s="256"/>
       <c r="M75" s="3"/>
       <c r="N75" s="1"/>
     </row>
@@ -21160,9 +21584,9 @@
       <c r="C76" s="1"/>
       <c r="D76" s="256"/>
       <c r="E76" s="3"/>
-      <c r="F76" s="479"/>
+      <c r="F76" s="487"/>
       <c r="K76" s="1"/>
-      <c r="L76" s="97"/>
+      <c r="L76" s="256"/>
       <c r="M76" s="3"/>
       <c r="N76" s="1"/>
     </row>
@@ -21171,21 +21595,18 @@
       <c r="B77" s="23"/>
       <c r="I77"/>
       <c r="J77" s="194"/>
-      <c r="L77" s="23"/>
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A78"/>
       <c r="B78" s="23"/>
       <c r="I78"/>
       <c r="J78" s="194"/>
-      <c r="L78" s="23"/>
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A79"/>
       <c r="B79" s="23"/>
       <c r="I79"/>
       <c r="J79" s="194"/>
-      <c r="L79" s="23"/>
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A80"/>
@@ -21193,7 +21614,6 @@
       <c r="F80"/>
       <c r="I80"/>
       <c r="J80" s="194"/>
-      <c r="L80" s="23"/>
       <c r="N80"/>
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.25">
@@ -21202,7 +21622,6 @@
       <c r="F81"/>
       <c r="I81"/>
       <c r="J81" s="194"/>
-      <c r="L81" s="23"/>
       <c r="N81"/>
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.25">
@@ -21211,7 +21630,6 @@
       <c r="F82"/>
       <c r="I82"/>
       <c r="J82" s="194"/>
-      <c r="L82" s="23"/>
       <c r="N82"/>
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.25">
@@ -21220,7 +21638,6 @@
       <c r="F83"/>
       <c r="I83"/>
       <c r="J83" s="194"/>
-      <c r="L83" s="23"/>
       <c r="N83"/>
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.25">
@@ -21229,7 +21646,6 @@
       <c r="F84"/>
       <c r="I84"/>
       <c r="J84" s="194"/>
-      <c r="L84" s="23"/>
       <c r="N84"/>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.25">
@@ -21238,7 +21654,6 @@
       <c r="F85"/>
       <c r="I85"/>
       <c r="J85" s="194"/>
-      <c r="L85" s="23"/>
       <c r="N85"/>
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.25">
@@ -21247,7 +21662,6 @@
       <c r="F86"/>
       <c r="I86"/>
       <c r="J86" s="194"/>
-      <c r="L86" s="23"/>
       <c r="N86"/>
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.25">
@@ -21256,7 +21670,6 @@
       <c r="F87"/>
       <c r="I87"/>
       <c r="J87" s="194"/>
-      <c r="L87" s="23"/>
       <c r="N87"/>
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.25">
@@ -21265,7 +21678,6 @@
       <c r="F88"/>
       <c r="I88"/>
       <c r="J88" s="194"/>
-      <c r="L88" s="23"/>
       <c r="N88"/>
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.25">
@@ -21275,7 +21687,6 @@
       <c r="F89"/>
       <c r="I89"/>
       <c r="J89" s="194"/>
-      <c r="L89" s="23"/>
       <c r="M89"/>
       <c r="N89"/>
     </row>
@@ -21286,7 +21697,6 @@
       <c r="F90"/>
       <c r="I90"/>
       <c r="J90" s="194"/>
-      <c r="L90" s="23"/>
       <c r="M90"/>
       <c r="N90"/>
     </row>
@@ -21297,7 +21707,6 @@
       <c r="F91"/>
       <c r="I91"/>
       <c r="J91" s="194"/>
-      <c r="L91" s="23"/>
       <c r="M91"/>
       <c r="N91"/>
     </row>
@@ -21308,7 +21717,6 @@
       <c r="F92"/>
       <c r="I92"/>
       <c r="J92" s="194"/>
-      <c r="L92" s="23"/>
       <c r="M92"/>
       <c r="N92"/>
     </row>
@@ -21319,7 +21727,6 @@
       <c r="F93"/>
       <c r="I93"/>
       <c r="J93" s="194"/>
-      <c r="L93" s="23"/>
       <c r="M93"/>
       <c r="N93"/>
     </row>
@@ -21330,7 +21737,6 @@
       <c r="F94"/>
       <c r="I94"/>
       <c r="J94" s="194"/>
-      <c r="L94" s="23"/>
       <c r="M94"/>
       <c r="N94"/>
     </row>
@@ -21338,63 +21744,54 @@
       <c r="B95" s="23"/>
       <c r="E95"/>
       <c r="J95" s="194"/>
-      <c r="L95" s="23"/>
       <c r="M95"/>
     </row>
     <row r="96" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B96" s="23"/>
       <c r="E96"/>
       <c r="J96" s="194"/>
-      <c r="L96" s="23"/>
       <c r="M96"/>
     </row>
     <row r="97" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B97" s="23"/>
       <c r="E97"/>
       <c r="J97" s="194"/>
-      <c r="L97" s="23"/>
       <c r="M97"/>
     </row>
     <row r="98" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B98" s="23"/>
       <c r="E98"/>
       <c r="J98" s="194"/>
-      <c r="L98" s="23"/>
       <c r="M98"/>
     </row>
     <row r="99" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B99" s="23"/>
       <c r="E99"/>
       <c r="J99" s="194"/>
-      <c r="L99" s="23"/>
       <c r="M99"/>
     </row>
     <row r="100" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B100" s="23"/>
       <c r="E100"/>
       <c r="J100" s="194"/>
-      <c r="L100" s="23"/>
       <c r="M100"/>
     </row>
     <row r="101" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B101" s="23"/>
       <c r="E101"/>
       <c r="J101" s="194"/>
-      <c r="L101" s="23"/>
       <c r="M101"/>
     </row>
     <row r="102" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B102" s="23"/>
       <c r="E102"/>
       <c r="J102" s="194"/>
-      <c r="L102" s="23"/>
       <c r="M102"/>
     </row>
     <row r="103" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B103" s="23"/>
       <c r="E103"/>
       <c r="J103" s="194"/>
-      <c r="L103" s="23"/>
       <c r="M103"/>
     </row>
     <row r="104" spans="2:13" x14ac:dyDescent="0.25">
@@ -21408,7 +21805,6 @@
     <row r="106" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B106" s="23"/>
       <c r="J106" s="194"/>
-      <c r="L106" s="23"/>
     </row>
     <row r="107" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B107" s="23"/>
@@ -21442,8 +21838,8 @@
   </sheetPr>
   <dimension ref="A1:Z80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="H63" sqref="H63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -21472,23 +21868,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="440"/>
-      <c r="C1" s="482" t="s">
+      <c r="B1" s="448"/>
+      <c r="C1" s="490" t="s">
         <v>323</v>
       </c>
-      <c r="D1" s="483"/>
-      <c r="E1" s="483"/>
-      <c r="F1" s="483"/>
-      <c r="G1" s="483"/>
-      <c r="H1" s="483"/>
-      <c r="I1" s="483"/>
-      <c r="J1" s="483"/>
-      <c r="K1" s="483"/>
-      <c r="L1" s="483"/>
-      <c r="M1" s="483"/>
+      <c r="D1" s="491"/>
+      <c r="E1" s="491"/>
+      <c r="F1" s="491"/>
+      <c r="G1" s="491"/>
+      <c r="H1" s="491"/>
+      <c r="I1" s="491"/>
+      <c r="J1" s="491"/>
+      <c r="K1" s="491"/>
+      <c r="L1" s="491"/>
+      <c r="M1" s="491"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="441"/>
+      <c r="B2" s="449"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -21498,24 +21894,24 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="444" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="445"/>
+      <c r="B3" s="452" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="453"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="446" t="s">
+      <c r="H3" s="454" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="446"/>
+      <c r="I3" s="454"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="470" t="s">
+      <c r="P3" s="478" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="480" t="s">
+      <c r="R3" s="488" t="s">
         <v>216</v>
       </c>
     </row>
@@ -21530,14 +21926,14 @@
       <c r="D4" s="18">
         <v>44563</v>
       </c>
-      <c r="E4" s="447" t="s">
+      <c r="E4" s="455" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="448"/>
-      <c r="H4" s="449" t="s">
+      <c r="F4" s="456"/>
+      <c r="H4" s="457" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="450"/>
+      <c r="I4" s="458"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -21547,15 +21943,15 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="471"/>
+      <c r="P4" s="479"/>
       <c r="Q4" s="323" t="s">
         <v>217</v>
       </c>
-      <c r="R4" s="481"/>
-      <c r="W4" s="453" t="s">
+      <c r="R4" s="489"/>
+      <c r="W4" s="461" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="453"/>
+      <c r="X4" s="461"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -21602,12 +21998,12 @@
         <f>P5-F5</f>
         <v>0</v>
       </c>
-      <c r="R5" s="400">
+      <c r="R5" s="398">
         <v>0</v>
       </c>
       <c r="S5" s="325"/>
-      <c r="W5" s="453"/>
-      <c r="X5" s="453"/>
+      <c r="W5" s="461"/>
+      <c r="X5" s="461"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -21657,7 +22053,7 @@
       </c>
       <c r="S6" s="147"/>
       <c r="T6" s="128"/>
-      <c r="U6" s="401"/>
+      <c r="U6" s="399"/>
       <c r="W6" s="234">
         <v>0</v>
       </c>
@@ -21883,7 +22279,7 @@
       <c r="Q10" s="318">
         <v>0</v>
       </c>
-      <c r="R10" s="414">
+      <c r="R10" s="407">
         <v>1891</v>
       </c>
       <c r="S10" s="147"/>
@@ -22053,7 +22449,7 @@
       <c r="R13" s="320">
         <v>0</v>
       </c>
-      <c r="S13" s="402"/>
+      <c r="S13" s="400"/>
       <c r="T13" s="128"/>
       <c r="U13" s="34"/>
       <c r="W13" s="234">
@@ -22100,7 +22496,7 @@
         <f t="shared" si="2"/>
         <v>70058</v>
       </c>
-      <c r="Q14" s="412">
+      <c r="Q14" s="405">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -22152,7 +22548,7 @@
         <f t="shared" si="0"/>
         <v>60979</v>
       </c>
-      <c r="Q15" s="412">
+      <c r="Q15" s="405">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -22208,7 +22604,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="R16" s="403">
+      <c r="R16" s="401">
         <v>0</v>
       </c>
       <c r="S16" s="332"/>
@@ -22371,7 +22767,7 @@
         <v>0</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="457">
+      <c r="W19" s="465">
         <f t="shared" ref="W19" si="3">SUM(W6:W18)</f>
         <v>0</v>
       </c>
@@ -22424,7 +22820,7 @@
         <v>0</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="458"/>
+      <c r="W20" s="466"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -22466,15 +22862,15 @@
         <f t="shared" si="0"/>
         <v>451359.87</v>
       </c>
-      <c r="Q21" s="413">
-        <v>0</v>
-      </c>
-      <c r="R21" s="415">
+      <c r="Q21" s="406">
+        <v>0</v>
+      </c>
+      <c r="R21" s="408">
         <v>377273.87</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="459"/>
-      <c r="X21" s="459"/>
+      <c r="W21" s="467"/>
+      <c r="X21" s="467"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -22574,8 +22970,8 @@
         <v>0</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="460"/>
-      <c r="X23" s="460"/>
+      <c r="W23" s="468"/>
+      <c r="X23" s="468"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -22630,8 +23026,8 @@
         <v>0</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="460"/>
-      <c r="X24" s="460"/>
+      <c r="W24" s="468"/>
+      <c r="X24" s="468"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -22676,8 +23072,8 @@
       <c r="R25" s="320">
         <v>0</v>
       </c>
-      <c r="W25" s="461"/>
-      <c r="X25" s="461"/>
+      <c r="W25" s="469"/>
+      <c r="X25" s="469"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -22725,8 +23121,8 @@
       <c r="R26" s="320">
         <v>0</v>
       </c>
-      <c r="W26" s="461"/>
-      <c r="X26" s="461"/>
+      <c r="W26" s="469"/>
+      <c r="X26" s="469"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -22780,9 +23176,9 @@
       <c r="V27" t="s">
         <v>240</v>
       </c>
-      <c r="W27" s="454"/>
-      <c r="X27" s="455"/>
-      <c r="Y27" s="456"/>
+      <c r="W27" s="462"/>
+      <c r="X27" s="463"/>
+      <c r="Y27" s="464"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -22836,9 +23232,9 @@
       <c r="V28" t="s">
         <v>240</v>
       </c>
-      <c r="W28" s="455"/>
-      <c r="X28" s="455"/>
-      <c r="Y28" s="456"/>
+      <c r="W28" s="463"/>
+      <c r="X28" s="463"/>
+      <c r="Y28" s="464"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -22882,7 +23278,7 @@
       <c r="Q29" s="318">
         <v>0</v>
       </c>
-      <c r="R29" s="414">
+      <c r="R29" s="407">
         <v>1115</v>
       </c>
       <c r="U29" s="337">
@@ -22959,14 +23355,14 @@
       <c r="E31" s="27">
         <v>44590</v>
       </c>
-      <c r="F31" s="404">
+      <c r="F31" s="402">
         <v>93087</v>
       </c>
       <c r="G31" s="2"/>
       <c r="H31" s="36">
         <v>44590</v>
       </c>
-      <c r="I31" s="405">
+      <c r="I31" s="403">
         <v>3104.5</v>
       </c>
       <c r="J31" s="60">
@@ -23143,11 +23539,11 @@
       <c r="L36" s="44">
         <v>13275.84</v>
       </c>
-      <c r="M36" s="472">
+      <c r="M36" s="480">
         <f t="shared" ref="M36:N36" si="4">SUM(M5:M35)</f>
         <v>1818445.73</v>
       </c>
-      <c r="N36" s="474">
+      <c r="N36" s="482">
         <f t="shared" si="4"/>
         <v>739014</v>
       </c>
@@ -23155,7 +23551,7 @@
       <c r="P36" s="277">
         <v>0</v>
       </c>
-      <c r="Q36" s="476">
+      <c r="Q36" s="484">
         <f t="shared" ref="Q36" si="5">SUM(Q5:Q35)</f>
         <v>-7.2800000000133878</v>
       </c>
@@ -23180,13 +23576,13 @@
       <c r="L37" s="61">
         <v>15060.32</v>
       </c>
-      <c r="M37" s="473"/>
-      <c r="N37" s="475"/>
+      <c r="M37" s="481"/>
+      <c r="N37" s="483"/>
       <c r="O37" s="276"/>
       <c r="P37" s="277">
         <v>0</v>
       </c>
-      <c r="Q37" s="477"/>
+      <c r="Q37" s="485"/>
       <c r="R37" s="227" t="s">
         <v>7</v>
       </c>
@@ -23473,26 +23869,26 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="427" t="s">
+      <c r="H52" s="435" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="428"/>
+      <c r="I52" s="436"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="429">
+      <c r="K52" s="437">
         <f>I50+L50</f>
         <v>144994.20000000001</v>
       </c>
-      <c r="L52" s="462"/>
+      <c r="L52" s="470"/>
       <c r="M52" s="272"/>
       <c r="N52" s="272"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="13"/>
     </row>
-    <row r="53" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D53" s="433" t="s">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="D53" s="441" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="433"/>
+      <c r="E53" s="441"/>
       <c r="F53" s="313">
         <f>F50-K52-C50</f>
         <v>2135426.1199999996</v>
@@ -23501,29 +23897,27 @@
       <c r="J53" s="103"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="463" t="s">
+      <c r="D54" s="471" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="463"/>
+      <c r="E54" s="471"/>
       <c r="F54" s="111">
-        <v>0</v>
-      </c>
-      <c r="I54" s="434" t="s">
+        <v>-1448401.2</v>
+      </c>
+      <c r="I54" s="442" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="435"/>
-      <c r="K54" s="436">
+      <c r="J54" s="443"/>
+      <c r="K54" s="444">
         <f>F56+F57+F58</f>
-        <v>3440318.5299999993</v>
-      </c>
-      <c r="L54" s="436"/>
-      <c r="M54" s="464" t="s">
-        <v>211</v>
-      </c>
-      <c r="N54" s="465"/>
-      <c r="O54" s="465"/>
-      <c r="P54" s="465"/>
-      <c r="Q54" s="466"/>
+        <v>1082916.0699999996</v>
+      </c>
+      <c r="L54" s="444"/>
+      <c r="M54" s="423"/>
+      <c r="N54" s="423"/>
+      <c r="O54" s="423"/>
+      <c r="P54" s="423"/>
+      <c r="Q54" s="423"/>
     </row>
     <row r="55" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D55" s="314" t="s">
@@ -23531,17 +23925,17 @@
       </c>
       <c r="E55" s="315"/>
       <c r="F55" s="316">
-        <v>0</v>
+        <v>-909001.26</v>
       </c>
       <c r="I55" s="105"/>
       <c r="J55" s="106"/>
       <c r="K55" s="178"/>
       <c r="L55" s="107"/>
-      <c r="M55" s="467"/>
-      <c r="N55" s="468"/>
-      <c r="O55" s="468"/>
-      <c r="P55" s="468"/>
-      <c r="Q55" s="469"/>
+      <c r="M55" s="423"/>
+      <c r="N55" s="423"/>
+      <c r="O55" s="423"/>
+      <c r="P55" s="423"/>
+      <c r="Q55" s="423"/>
     </row>
     <row r="56" spans="1:17" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="C56" s="4" t="s">
@@ -23552,18 +23946,18 @@
       </c>
       <c r="F56" s="96">
         <f>SUM(F53:F55)</f>
-        <v>2135426.1199999996</v>
+        <v>-221976.34000000032</v>
       </c>
       <c r="H56" s="23"/>
       <c r="I56" s="108" t="s">
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="438">
+      <c r="K56" s="446">
         <f>-C4</f>
         <v>-754143.23</v>
       </c>
-      <c r="L56" s="439"/>
+      <c r="L56" s="447"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -23580,22 +23974,22 @@
       <c r="C58" s="112">
         <v>44591</v>
       </c>
-      <c r="D58" s="416" t="s">
+      <c r="D58" s="424" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="417"/>
+      <c r="E58" s="425"/>
       <c r="F58" s="113">
         <v>1149740.4099999999</v>
       </c>
-      <c r="I58" s="418" t="s">
+      <c r="I58" s="426" t="s">
         <v>198</v>
       </c>
-      <c r="J58" s="419"/>
-      <c r="K58" s="420">
+      <c r="J58" s="427"/>
+      <c r="K58" s="428">
         <f>K54+K56</f>
-        <v>2686175.2999999993</v>
-      </c>
-      <c r="L58" s="420"/>
+        <v>328772.83999999962</v>
+      </c>
+      <c r="L58" s="428"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -23738,7 +24132,7 @@
       <c r="F80" s="129"/>
     </row>
   </sheetData>
-  <mergeCells count="30">
+  <mergeCells count="29">
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:M1"/>
     <mergeCell ref="B3:C3"/>
@@ -23755,8 +24149,6 @@
     <mergeCell ref="W25:X25"/>
     <mergeCell ref="W26:X26"/>
     <mergeCell ref="R3:R4"/>
-    <mergeCell ref="M54:Q55"/>
-    <mergeCell ref="K56:L56"/>
     <mergeCell ref="W27:X28"/>
     <mergeCell ref="Y27:Y28"/>
     <mergeCell ref="M36:M37"/>
@@ -23769,6 +24161,7 @@
     <mergeCell ref="D54:E54"/>
     <mergeCell ref="I54:J54"/>
     <mergeCell ref="K54:L54"/>
+    <mergeCell ref="K56:L56"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -23782,10 +24175,10 @@
   <sheetPr>
     <tabColor rgb="FFC00000"/>
   </sheetPr>
-  <dimension ref="A1:N110"/>
+  <dimension ref="A1:N115"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28:F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23794,7 +24187,7 @@
     <col min="2" max="2" width="14.7109375" customWidth="1"/>
     <col min="3" max="3" width="17.5703125" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.42578125" style="257" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19.5703125" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="4" customWidth="1"/>
     <col min="9" max="9" width="13.42578125" style="98" bestFit="1" customWidth="1"/>
@@ -23811,9 +24204,9 @@
       </c>
       <c r="B1" s="291"/>
       <c r="C1" s="292"/>
-      <c r="D1" s="375"/>
+      <c r="D1" s="373"/>
       <c r="E1" s="292"/>
-      <c r="F1" s="382" t="s">
+      <c r="F1" s="380" t="s">
         <v>314</v>
       </c>
       <c r="I1" s="301" t="s">
@@ -23823,7 +24216,7 @@
       <c r="K1" s="303"/>
       <c r="L1" s="304"/>
       <c r="M1" s="303"/>
-      <c r="N1" s="381" t="s">
+      <c r="N1" s="379" t="s">
         <v>314</v>
       </c>
     </row>
@@ -23837,7 +24230,7 @@
       <c r="C2" s="299" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="372" t="s">
+      <c r="D2" s="370" t="s">
         <v>22</v>
       </c>
       <c r="E2" s="300" t="s">
@@ -23866,967 +24259,1765 @@
       </c>
     </row>
     <row r="3" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="406"/>
-      <c r="B3" s="407"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="408"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="183">
+      <c r="A3" s="412" t="s">
+        <v>355</v>
+      </c>
+      <c r="B3" s="413" t="s">
+        <v>381</v>
+      </c>
+      <c r="C3" s="411">
+        <v>52139.3</v>
+      </c>
+      <c r="D3" s="514">
+        <v>44589</v>
+      </c>
+      <c r="E3" s="411">
+        <v>52139.3</v>
+      </c>
+      <c r="F3" s="411">
         <f>C3-E3</f>
         <v>0</v>
       </c>
-      <c r="I3" s="349"/>
-      <c r="J3" s="348"/>
-      <c r="K3" s="350"/>
-      <c r="L3" s="306"/>
-      <c r="M3" s="215"/>
+      <c r="I3" s="409" t="s">
+        <v>355</v>
+      </c>
+      <c r="J3" s="410">
+        <v>8177</v>
+      </c>
+      <c r="K3" s="411">
+        <v>594.17999999999995</v>
+      </c>
+      <c r="L3" s="409" t="s">
+        <v>356</v>
+      </c>
+      <c r="M3" s="411">
+        <v>594.17999999999995</v>
+      </c>
       <c r="N3" s="183">
         <f>K3-M3</f>
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="406"/>
-      <c r="B4" s="407"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="408"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="137">
-        <f>F3+C4-E4</f>
+      <c r="A4" s="412" t="s">
+        <v>355</v>
+      </c>
+      <c r="B4" s="413" t="s">
+        <v>382</v>
+      </c>
+      <c r="C4" s="411">
+        <v>22993.599999999999</v>
+      </c>
+      <c r="D4" s="514">
+        <v>44589</v>
+      </c>
+      <c r="E4" s="411">
+        <v>22993.599999999999</v>
+      </c>
+      <c r="F4" s="411">
+        <f t="shared" ref="F4:F46" si="0">C4-E4</f>
         <v>0</v>
       </c>
       <c r="G4" s="138"/>
-      <c r="I4" s="349"/>
-      <c r="J4" s="348"/>
-      <c r="K4" s="350"/>
-      <c r="L4" s="288"/>
-      <c r="M4" s="69"/>
+      <c r="I4" s="409" t="s">
+        <v>355</v>
+      </c>
+      <c r="J4" s="410">
+        <v>8176</v>
+      </c>
+      <c r="K4" s="411">
+        <v>388.8</v>
+      </c>
+      <c r="L4" s="409" t="s">
+        <v>356</v>
+      </c>
+      <c r="M4" s="411">
+        <v>388.8</v>
+      </c>
       <c r="N4" s="137">
         <f>N3+K4-M4</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="406"/>
-      <c r="B5" s="407"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="408"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="137">
-        <f t="shared" ref="F5:F68" si="0">F4+C5-E5</f>
-        <v>0</v>
-      </c>
-      <c r="I5" s="349"/>
-      <c r="J5" s="348"/>
-      <c r="K5" s="350"/>
-      <c r="L5" s="288"/>
-      <c r="M5" s="69"/>
+      <c r="A5" s="412" t="s">
+        <v>357</v>
+      </c>
+      <c r="B5" s="413" t="s">
+        <v>383</v>
+      </c>
+      <c r="C5" s="411">
+        <v>12157.4</v>
+      </c>
+      <c r="D5" s="514">
+        <v>44589</v>
+      </c>
+      <c r="E5" s="411">
+        <v>12157.4</v>
+      </c>
+      <c r="F5" s="411">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I5" s="409" t="s">
+        <v>355</v>
+      </c>
+      <c r="J5" s="410">
+        <v>8179</v>
+      </c>
+      <c r="K5" s="411">
+        <v>19510.8</v>
+      </c>
+      <c r="L5" s="409" t="s">
+        <v>356</v>
+      </c>
+      <c r="M5" s="411">
+        <v>19510.8</v>
+      </c>
       <c r="N5" s="137">
-        <f t="shared" ref="N5:N68" si="1">N4+K5-M5</f>
+        <f t="shared" ref="N5:N73" si="1">N4+K5-M5</f>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="406"/>
-      <c r="B6" s="407"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="408"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="137">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I6" s="349"/>
-      <c r="J6" s="348"/>
-      <c r="K6" s="350"/>
-      <c r="L6" s="288"/>
-      <c r="M6" s="69"/>
+      <c r="A6" s="412" t="s">
+        <v>358</v>
+      </c>
+      <c r="B6" s="413" t="s">
+        <v>384</v>
+      </c>
+      <c r="C6" s="411">
+        <v>39663.4</v>
+      </c>
+      <c r="D6" s="514">
+        <v>44589</v>
+      </c>
+      <c r="E6" s="411">
+        <v>39663.4</v>
+      </c>
+      <c r="F6" s="411">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I6" s="409" t="s">
+        <v>357</v>
+      </c>
+      <c r="J6" s="410">
+        <v>8193</v>
+      </c>
+      <c r="K6" s="411">
+        <v>1380.6</v>
+      </c>
+      <c r="L6" s="409" t="s">
+        <v>356</v>
+      </c>
+      <c r="M6" s="411">
+        <v>1380.6</v>
+      </c>
       <c r="N6" s="137">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="406"/>
-      <c r="B7" s="407"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="408"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="137">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I7" s="349"/>
-      <c r="J7" s="348"/>
-      <c r="K7" s="350"/>
-      <c r="L7" s="288"/>
-      <c r="M7" s="69"/>
+      <c r="A7" s="412" t="s">
+        <v>358</v>
+      </c>
+      <c r="B7" s="413" t="s">
+        <v>385</v>
+      </c>
+      <c r="C7" s="411">
+        <v>16690</v>
+      </c>
+      <c r="D7" s="514">
+        <v>44589</v>
+      </c>
+      <c r="E7" s="411">
+        <v>16690</v>
+      </c>
+      <c r="F7" s="411">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I7" s="409" t="s">
+        <v>357</v>
+      </c>
+      <c r="J7" s="410">
+        <v>8194</v>
+      </c>
+      <c r="K7" s="411">
+        <v>247.32</v>
+      </c>
+      <c r="L7" s="409" t="s">
+        <v>356</v>
+      </c>
+      <c r="M7" s="411">
+        <v>247.32</v>
+      </c>
       <c r="N7" s="137">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="406"/>
-      <c r="B8" s="407"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="408"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="137">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I8" s="349"/>
-      <c r="J8" s="348"/>
-      <c r="K8" s="350"/>
-      <c r="L8" s="288"/>
-      <c r="M8" s="69"/>
+      <c r="A8" s="412" t="s">
+        <v>359</v>
+      </c>
+      <c r="B8" s="413" t="s">
+        <v>386</v>
+      </c>
+      <c r="C8" s="411">
+        <v>16161</v>
+      </c>
+      <c r="D8" s="514">
+        <v>44589</v>
+      </c>
+      <c r="E8" s="411">
+        <v>16161</v>
+      </c>
+      <c r="F8" s="411">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I8" s="409" t="s">
+        <v>357</v>
+      </c>
+      <c r="J8" s="410">
+        <v>8196</v>
+      </c>
+      <c r="K8" s="411">
+        <v>80126.8</v>
+      </c>
+      <c r="L8" s="409" t="s">
+        <v>356</v>
+      </c>
+      <c r="M8" s="411">
+        <v>80126.8</v>
+      </c>
       <c r="N8" s="137">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="406"/>
-      <c r="B9" s="407"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="408"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="137">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I9" s="349"/>
-      <c r="J9" s="348"/>
-      <c r="K9" s="350"/>
-      <c r="L9" s="288"/>
-      <c r="M9" s="69"/>
+      <c r="A9" s="412" t="s">
+        <v>359</v>
+      </c>
+      <c r="B9" s="413" t="s">
+        <v>387</v>
+      </c>
+      <c r="C9" s="411">
+        <v>4375</v>
+      </c>
+      <c r="D9" s="514">
+        <v>44589</v>
+      </c>
+      <c r="E9" s="411">
+        <v>4375</v>
+      </c>
+      <c r="F9" s="411">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I9" s="409" t="s">
+        <v>358</v>
+      </c>
+      <c r="J9" s="410">
+        <v>8200</v>
+      </c>
+      <c r="K9" s="411">
+        <v>5165.9799999999996</v>
+      </c>
+      <c r="L9" s="409" t="s">
+        <v>356</v>
+      </c>
+      <c r="M9" s="411">
+        <v>5165.9799999999996</v>
+      </c>
       <c r="N9" s="137">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A10" s="406"/>
-      <c r="B10" s="407"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="408"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="137">
+      <c r="A10" s="412" t="s">
+        <v>360</v>
+      </c>
+      <c r="B10" s="413" t="s">
+        <v>388</v>
+      </c>
+      <c r="C10" s="411">
+        <v>88022.6</v>
+      </c>
+      <c r="D10" s="514">
+        <v>44589</v>
+      </c>
+      <c r="E10" s="411">
+        <v>88022.6</v>
+      </c>
+      <c r="F10" s="411">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G10" s="138"/>
-      <c r="I10" s="349"/>
-      <c r="J10" s="348"/>
-      <c r="K10" s="350"/>
-      <c r="L10" s="288"/>
-      <c r="M10" s="69"/>
+      <c r="I10" s="409" t="s">
+        <v>358</v>
+      </c>
+      <c r="J10" s="410">
+        <v>8204</v>
+      </c>
+      <c r="K10" s="411">
+        <v>3258.1</v>
+      </c>
+      <c r="L10" s="409" t="s">
+        <v>356</v>
+      </c>
+      <c r="M10" s="411">
+        <v>3258.1</v>
+      </c>
       <c r="N10" s="137">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="406"/>
-      <c r="B11" s="407"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="408"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="137">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I11" s="349"/>
-      <c r="J11" s="348"/>
-      <c r="K11" s="350"/>
-      <c r="L11" s="288"/>
-      <c r="M11" s="69"/>
+      <c r="A11" s="412" t="s">
+        <v>360</v>
+      </c>
+      <c r="B11" s="413" t="s">
+        <v>389</v>
+      </c>
+      <c r="C11" s="411">
+        <v>6223.4</v>
+      </c>
+      <c r="D11" s="514">
+        <v>44589</v>
+      </c>
+      <c r="E11" s="411">
+        <v>6223.4</v>
+      </c>
+      <c r="F11" s="411">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I11" s="409" t="s">
+        <v>358</v>
+      </c>
+      <c r="J11" s="410">
+        <v>8205</v>
+      </c>
+      <c r="K11" s="411">
+        <v>472</v>
+      </c>
+      <c r="L11" s="409" t="s">
+        <v>356</v>
+      </c>
+      <c r="M11" s="411">
+        <v>472</v>
+      </c>
       <c r="N11" s="137">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="406"/>
-      <c r="B12" s="407"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="408"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="137">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I12" s="349"/>
-      <c r="J12" s="348"/>
-      <c r="K12" s="350"/>
-      <c r="L12" s="288"/>
-      <c r="M12" s="69"/>
+      <c r="A12" s="412" t="s">
+        <v>361</v>
+      </c>
+      <c r="B12" s="413" t="s">
+        <v>390</v>
+      </c>
+      <c r="C12" s="411">
+        <v>1350</v>
+      </c>
+      <c r="D12" s="514">
+        <v>44589</v>
+      </c>
+      <c r="E12" s="411">
+        <v>1350</v>
+      </c>
+      <c r="F12" s="411">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I12" s="409" t="s">
+        <v>359</v>
+      </c>
+      <c r="J12" s="410">
+        <v>8208</v>
+      </c>
+      <c r="K12" s="411">
+        <v>2558.1799999999998</v>
+      </c>
+      <c r="L12" s="409" t="s">
+        <v>356</v>
+      </c>
+      <c r="M12" s="411">
+        <v>2558.1799999999998</v>
+      </c>
       <c r="N12" s="137">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="406"/>
-      <c r="B13" s="407"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="408"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="137">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I13" s="349"/>
-      <c r="J13" s="348"/>
-      <c r="K13" s="350"/>
-      <c r="L13" s="288"/>
-      <c r="M13" s="69"/>
+      <c r="A13" s="412" t="s">
+        <v>361</v>
+      </c>
+      <c r="B13" s="413" t="s">
+        <v>391</v>
+      </c>
+      <c r="C13" s="411">
+        <v>54930.2</v>
+      </c>
+      <c r="D13" s="514">
+        <v>44589</v>
+      </c>
+      <c r="E13" s="411">
+        <v>54930.2</v>
+      </c>
+      <c r="F13" s="411">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I13" s="409" t="s">
+        <v>360</v>
+      </c>
+      <c r="J13" s="410">
+        <v>8216</v>
+      </c>
+      <c r="K13" s="411">
+        <v>11429.6</v>
+      </c>
+      <c r="L13" s="409" t="s">
+        <v>356</v>
+      </c>
+      <c r="M13" s="411">
+        <v>11429.6</v>
+      </c>
       <c r="N13" s="137">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="406"/>
-      <c r="B14" s="407"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="408"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="137">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I14" s="349"/>
-      <c r="J14" s="348"/>
-      <c r="K14" s="350"/>
-      <c r="L14" s="288"/>
-      <c r="M14" s="69"/>
+      <c r="A14" s="412" t="s">
+        <v>361</v>
+      </c>
+      <c r="B14" s="413" t="s">
+        <v>392</v>
+      </c>
+      <c r="C14" s="411">
+        <v>381</v>
+      </c>
+      <c r="D14" s="514">
+        <v>44589</v>
+      </c>
+      <c r="E14" s="411">
+        <v>381</v>
+      </c>
+      <c r="F14" s="411">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I14" s="409" t="s">
+        <v>361</v>
+      </c>
+      <c r="J14" s="410">
+        <v>8228</v>
+      </c>
+      <c r="K14" s="411">
+        <v>1470</v>
+      </c>
+      <c r="L14" s="409" t="s">
+        <v>356</v>
+      </c>
+      <c r="M14" s="411">
+        <v>1470</v>
+      </c>
       <c r="N14" s="137">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="406"/>
-      <c r="B15" s="407"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="408"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="137">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I15" s="349"/>
-      <c r="J15" s="348"/>
-      <c r="K15" s="350"/>
-      <c r="L15" s="288"/>
-      <c r="M15" s="69"/>
+      <c r="A15" s="412" t="s">
+        <v>361</v>
+      </c>
+      <c r="B15" s="413" t="s">
+        <v>393</v>
+      </c>
+      <c r="C15" s="411">
+        <v>32571.32</v>
+      </c>
+      <c r="D15" s="514">
+        <v>44589</v>
+      </c>
+      <c r="E15" s="411">
+        <v>32571.32</v>
+      </c>
+      <c r="F15" s="411">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I15" s="409" t="s">
+        <v>362</v>
+      </c>
+      <c r="J15" s="410">
+        <v>8240</v>
+      </c>
+      <c r="K15" s="411">
+        <v>1407</v>
+      </c>
+      <c r="L15" s="409" t="s">
+        <v>356</v>
+      </c>
+      <c r="M15" s="411">
+        <v>1407</v>
+      </c>
       <c r="N15" s="137">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="406"/>
-      <c r="B16" s="407"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="408"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="137">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I16" s="349"/>
-      <c r="J16" s="348"/>
-      <c r="K16" s="350"/>
-      <c r="L16" s="288"/>
-      <c r="M16" s="69"/>
+      <c r="A16" s="412" t="s">
+        <v>362</v>
+      </c>
+      <c r="B16" s="413" t="s">
+        <v>394</v>
+      </c>
+      <c r="C16" s="411">
+        <v>40306.14</v>
+      </c>
+      <c r="D16" s="514">
+        <v>44589</v>
+      </c>
+      <c r="E16" s="411">
+        <v>40306.14</v>
+      </c>
+      <c r="F16" s="411">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I16" s="409" t="s">
+        <v>362</v>
+      </c>
+      <c r="J16" s="410">
+        <v>8245</v>
+      </c>
+      <c r="K16" s="411">
+        <v>120922.4</v>
+      </c>
+      <c r="L16" s="409" t="s">
+        <v>356</v>
+      </c>
+      <c r="M16" s="411">
+        <v>120922.4</v>
+      </c>
       <c r="N16" s="137">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="406"/>
-      <c r="B17" s="407"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="408"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="137">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I17" s="349"/>
-      <c r="J17" s="348"/>
-      <c r="K17" s="350"/>
-      <c r="L17" s="288"/>
-      <c r="M17" s="69"/>
+      <c r="A17" s="412" t="s">
+        <v>363</v>
+      </c>
+      <c r="B17" s="413" t="s">
+        <v>395</v>
+      </c>
+      <c r="C17" s="411">
+        <v>0</v>
+      </c>
+      <c r="D17" s="515" t="s">
+        <v>419</v>
+      </c>
+      <c r="E17" s="411">
+        <v>0</v>
+      </c>
+      <c r="F17" s="411">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I17" s="409" t="s">
+        <v>362</v>
+      </c>
+      <c r="J17" s="410">
+        <v>8247</v>
+      </c>
+      <c r="K17" s="411">
+        <v>4686.3999999999996</v>
+      </c>
+      <c r="L17" s="409" t="s">
+        <v>356</v>
+      </c>
+      <c r="M17" s="411">
+        <v>4686.3999999999996</v>
+      </c>
       <c r="N17" s="137">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="406"/>
-      <c r="B18" s="407"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="408"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="137">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I18" s="349"/>
-      <c r="J18" s="348"/>
-      <c r="K18" s="350"/>
-      <c r="L18" s="288"/>
-      <c r="M18" s="69"/>
+      <c r="A18" s="412" t="s">
+        <v>363</v>
+      </c>
+      <c r="B18" s="413" t="s">
+        <v>396</v>
+      </c>
+      <c r="C18" s="411">
+        <v>87756.3</v>
+      </c>
+      <c r="D18" s="514">
+        <v>44589</v>
+      </c>
+      <c r="E18" s="411">
+        <v>87756.3</v>
+      </c>
+      <c r="F18" s="411">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I18" s="409" t="s">
+        <v>363</v>
+      </c>
+      <c r="J18" s="410">
+        <v>8249</v>
+      </c>
+      <c r="K18" s="411">
+        <v>5822.6</v>
+      </c>
+      <c r="L18" s="409" t="s">
+        <v>356</v>
+      </c>
+      <c r="M18" s="411">
+        <v>5822.6</v>
+      </c>
       <c r="N18" s="137">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="406"/>
-      <c r="B19" s="407"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="408"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="137">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I19" s="349"/>
-      <c r="J19" s="348"/>
-      <c r="K19" s="350"/>
-      <c r="L19" s="288"/>
-      <c r="M19" s="69"/>
+      <c r="A19" s="412" t="s">
+        <v>364</v>
+      </c>
+      <c r="B19" s="413" t="s">
+        <v>397</v>
+      </c>
+      <c r="C19" s="411">
+        <v>92082.85</v>
+      </c>
+      <c r="D19" s="514">
+        <v>44589</v>
+      </c>
+      <c r="E19" s="411">
+        <v>92082.85</v>
+      </c>
+      <c r="F19" s="411">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I19" s="409" t="s">
+        <v>363</v>
+      </c>
+      <c r="J19" s="410">
+        <v>8251</v>
+      </c>
+      <c r="K19" s="411">
+        <v>1530.8</v>
+      </c>
+      <c r="L19" s="409" t="s">
+        <v>356</v>
+      </c>
+      <c r="M19" s="411">
+        <v>1530.8</v>
+      </c>
       <c r="N19" s="137">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="406"/>
-      <c r="B20" s="407"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="408"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="137">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I20" s="349"/>
-      <c r="J20" s="348"/>
-      <c r="K20" s="350"/>
-      <c r="L20" s="288"/>
-      <c r="M20" s="69"/>
+      <c r="A20" s="412" t="s">
+        <v>365</v>
+      </c>
+      <c r="B20" s="413" t="s">
+        <v>398</v>
+      </c>
+      <c r="C20" s="411">
+        <v>28628.81</v>
+      </c>
+      <c r="D20" s="514">
+        <v>44589</v>
+      </c>
+      <c r="E20" s="411">
+        <v>28628.81</v>
+      </c>
+      <c r="F20" s="411">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I20" s="409" t="s">
+        <v>364</v>
+      </c>
+      <c r="J20" s="410">
+        <v>8256</v>
+      </c>
+      <c r="K20" s="411">
+        <v>10637</v>
+      </c>
+      <c r="L20" s="409" t="s">
+        <v>356</v>
+      </c>
+      <c r="M20" s="411">
+        <v>10637</v>
+      </c>
       <c r="N20" s="137">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="406"/>
-      <c r="B21" s="407"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="408"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="137">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I21" s="349"/>
-      <c r="J21" s="348"/>
-      <c r="K21" s="350"/>
-      <c r="L21" s="288"/>
-      <c r="M21" s="69"/>
+      <c r="A21" s="412" t="s">
+        <v>365</v>
+      </c>
+      <c r="B21" s="413" t="s">
+        <v>399</v>
+      </c>
+      <c r="C21" s="411">
+        <v>214.8</v>
+      </c>
+      <c r="D21" s="514">
+        <v>44589</v>
+      </c>
+      <c r="E21" s="411">
+        <v>214.8</v>
+      </c>
+      <c r="F21" s="411">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I21" s="409" t="s">
+        <v>365</v>
+      </c>
+      <c r="J21" s="410">
+        <v>8270</v>
+      </c>
+      <c r="K21" s="411">
+        <v>1146.2</v>
+      </c>
+      <c r="L21" s="409" t="s">
+        <v>356</v>
+      </c>
+      <c r="M21" s="411">
+        <v>1146.2</v>
+      </c>
       <c r="N21" s="137">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A22" s="406"/>
-      <c r="B22" s="407"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="408"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="137">
+      <c r="A22" s="412" t="s">
+        <v>366</v>
+      </c>
+      <c r="B22" s="413" t="s">
+        <v>400</v>
+      </c>
+      <c r="C22" s="411">
+        <v>53381.2</v>
+      </c>
+      <c r="D22" s="514">
+        <v>44589</v>
+      </c>
+      <c r="E22" s="411">
+        <v>53381.2</v>
+      </c>
+      <c r="F22" s="411">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G22" s="138"/>
-      <c r="I22" s="349"/>
-      <c r="J22" s="348"/>
-      <c r="K22" s="350"/>
-      <c r="L22" s="288"/>
-      <c r="M22" s="69"/>
+      <c r="I22" s="409" t="s">
+        <v>365</v>
+      </c>
+      <c r="J22" s="410">
+        <v>8273</v>
+      </c>
+      <c r="K22" s="411">
+        <v>141067.6</v>
+      </c>
+      <c r="L22" s="409" t="s">
+        <v>356</v>
+      </c>
+      <c r="M22" s="411">
+        <v>141067.6</v>
+      </c>
       <c r="N22" s="137">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="406"/>
-      <c r="B23" s="407"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="408"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="137">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I23" s="349"/>
-      <c r="J23" s="348"/>
-      <c r="K23" s="350"/>
-      <c r="L23" s="288"/>
-      <c r="M23" s="69"/>
+      <c r="A23" s="412" t="s">
+        <v>366</v>
+      </c>
+      <c r="B23" s="413" t="s">
+        <v>401</v>
+      </c>
+      <c r="C23" s="411">
+        <v>558</v>
+      </c>
+      <c r="D23" s="514">
+        <v>44589</v>
+      </c>
+      <c r="E23" s="411">
+        <v>558</v>
+      </c>
+      <c r="F23" s="411">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I23" s="409" t="s">
+        <v>365</v>
+      </c>
+      <c r="J23" s="410">
+        <v>8274</v>
+      </c>
+      <c r="K23" s="411">
+        <v>5205.2</v>
+      </c>
+      <c r="L23" s="409" t="s">
+        <v>356</v>
+      </c>
+      <c r="M23" s="411">
+        <v>5205.2</v>
+      </c>
       <c r="N23" s="137">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="406"/>
-      <c r="B24" s="407"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="408"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="137">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I24" s="349"/>
-      <c r="J24" s="348"/>
-      <c r="K24" s="350"/>
-      <c r="L24" s="288"/>
-      <c r="M24" s="69"/>
+      <c r="A24" s="412" t="s">
+        <v>367</v>
+      </c>
+      <c r="B24" s="413" t="s">
+        <v>402</v>
+      </c>
+      <c r="C24" s="411">
+        <v>81629.2</v>
+      </c>
+      <c r="D24" s="514">
+        <v>44589</v>
+      </c>
+      <c r="E24" s="411">
+        <v>81629.2</v>
+      </c>
+      <c r="F24" s="411">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I24" s="409" t="s">
+        <v>366</v>
+      </c>
+      <c r="J24" s="410">
+        <v>8279</v>
+      </c>
+      <c r="K24" s="411">
+        <v>1487</v>
+      </c>
+      <c r="L24" s="409" t="s">
+        <v>356</v>
+      </c>
+      <c r="M24" s="411">
+        <v>1487</v>
+      </c>
       <c r="N24" s="137">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="406"/>
-      <c r="B25" s="407"/>
-      <c r="C25" s="13"/>
-      <c r="D25" s="408"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="137">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I25" s="349"/>
-      <c r="J25" s="348"/>
-      <c r="K25" s="350"/>
-      <c r="L25" s="288"/>
-      <c r="M25" s="69"/>
+      <c r="A25" s="412" t="s">
+        <v>368</v>
+      </c>
+      <c r="B25" s="413" t="s">
+        <v>403</v>
+      </c>
+      <c r="C25" s="411">
+        <v>6085</v>
+      </c>
+      <c r="D25" s="514">
+        <v>44589</v>
+      </c>
+      <c r="E25" s="411">
+        <v>6085</v>
+      </c>
+      <c r="F25" s="411">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I25" s="409" t="s">
+        <v>366</v>
+      </c>
+      <c r="J25" s="410">
+        <v>8283</v>
+      </c>
+      <c r="K25" s="411">
+        <v>71469.2</v>
+      </c>
+      <c r="L25" s="409" t="s">
+        <v>356</v>
+      </c>
+      <c r="M25" s="411">
+        <v>71469.2</v>
+      </c>
       <c r="N25" s="137">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="406"/>
-      <c r="B26" s="407"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="408"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="137">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I26" s="349"/>
-      <c r="J26" s="348"/>
-      <c r="K26" s="350"/>
-      <c r="L26" s="288"/>
-      <c r="M26" s="69"/>
+      <c r="A26" s="412" t="s">
+        <v>369</v>
+      </c>
+      <c r="B26" s="413" t="s">
+        <v>404</v>
+      </c>
+      <c r="C26" s="411">
+        <v>42951.199999999997</v>
+      </c>
+      <c r="D26" s="514">
+        <v>44589</v>
+      </c>
+      <c r="E26" s="411">
+        <v>42951.199999999997</v>
+      </c>
+      <c r="F26" s="411">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I26" s="409" t="s">
+        <v>367</v>
+      </c>
+      <c r="J26" s="410">
+        <v>8284</v>
+      </c>
+      <c r="K26" s="411">
+        <v>2041.4</v>
+      </c>
+      <c r="L26" s="409" t="s">
+        <v>356</v>
+      </c>
+      <c r="M26" s="411">
+        <v>2041.4</v>
+      </c>
       <c r="N26" s="137">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="406"/>
-      <c r="B27" s="407"/>
-      <c r="C27" s="13"/>
-      <c r="D27" s="408"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="137">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I27" s="349"/>
-      <c r="J27" s="348"/>
-      <c r="K27" s="350"/>
-      <c r="L27" s="288"/>
-      <c r="M27" s="69"/>
+      <c r="A27" s="412" t="s">
+        <v>370</v>
+      </c>
+      <c r="B27" s="413" t="s">
+        <v>405</v>
+      </c>
+      <c r="C27" s="411">
+        <v>0</v>
+      </c>
+      <c r="D27" s="515" t="s">
+        <v>419</v>
+      </c>
+      <c r="E27" s="411">
+        <v>0</v>
+      </c>
+      <c r="F27" s="411">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I27" s="409" t="s">
+        <v>368</v>
+      </c>
+      <c r="J27" s="410">
+        <v>8300</v>
+      </c>
+      <c r="K27" s="411">
+        <v>5828</v>
+      </c>
+      <c r="L27" s="409" t="s">
+        <v>356</v>
+      </c>
+      <c r="M27" s="411">
+        <v>5828</v>
+      </c>
       <c r="N27" s="137">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="406"/>
-      <c r="B28" s="407"/>
-      <c r="C28" s="13"/>
-      <c r="D28" s="408"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="137">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I28" s="349"/>
-      <c r="J28" s="348"/>
-      <c r="K28" s="350"/>
-      <c r="L28" s="288"/>
-      <c r="M28" s="69"/>
+      <c r="A28" s="412" t="s">
+        <v>370</v>
+      </c>
+      <c r="B28" s="413" t="s">
+        <v>406</v>
+      </c>
+      <c r="C28" s="411">
+        <v>40814.9</v>
+      </c>
+      <c r="D28" s="514">
+        <v>44589</v>
+      </c>
+      <c r="E28" s="411">
+        <v>40814.9</v>
+      </c>
+      <c r="F28" s="411">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I28" s="409" t="s">
+        <v>369</v>
+      </c>
+      <c r="J28" s="410">
+        <v>8312</v>
+      </c>
+      <c r="K28" s="411">
+        <v>2464</v>
+      </c>
+      <c r="L28" s="409" t="s">
+        <v>356</v>
+      </c>
+      <c r="M28" s="411">
+        <v>2464</v>
+      </c>
       <c r="N28" s="137">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="406"/>
-      <c r="B29" s="407"/>
-      <c r="C29" s="13"/>
-      <c r="D29" s="408"/>
-      <c r="E29" s="13"/>
-      <c r="F29" s="137">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I29" s="349"/>
-      <c r="J29" s="348"/>
-      <c r="K29" s="350"/>
-      <c r="L29" s="288"/>
-      <c r="M29" s="69"/>
+      <c r="A29" s="412" t="s">
+        <v>371</v>
+      </c>
+      <c r="B29" s="413" t="s">
+        <v>407</v>
+      </c>
+      <c r="C29" s="411">
+        <v>84819.68</v>
+      </c>
+      <c r="D29" s="514">
+        <v>44589</v>
+      </c>
+      <c r="E29" s="411">
+        <v>84819.68</v>
+      </c>
+      <c r="F29" s="411">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I29" s="409" t="s">
+        <v>370</v>
+      </c>
+      <c r="J29" s="410">
+        <v>8338</v>
+      </c>
+      <c r="K29" s="411">
+        <v>2056.8000000000002</v>
+      </c>
+      <c r="L29" s="409" t="s">
+        <v>356</v>
+      </c>
+      <c r="M29" s="411">
+        <v>2056.8000000000002</v>
+      </c>
       <c r="N29" s="137">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A30" s="406"/>
-      <c r="B30" s="407"/>
-      <c r="C30" s="13"/>
-      <c r="D30" s="408"/>
-      <c r="E30" s="13"/>
-      <c r="F30" s="137">
+      <c r="A30" s="412" t="s">
+        <v>372</v>
+      </c>
+      <c r="B30" s="413" t="s">
+        <v>408</v>
+      </c>
+      <c r="C30" s="411">
+        <v>74257.8</v>
+      </c>
+      <c r="D30" s="514">
+        <v>44589</v>
+      </c>
+      <c r="E30" s="411">
+        <v>74257.8</v>
+      </c>
+      <c r="F30" s="411">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G30" s="138"/>
-      <c r="I30" s="349"/>
-      <c r="J30" s="348"/>
-      <c r="K30" s="350"/>
-      <c r="L30" s="288"/>
+      <c r="I30" s="409" t="s">
+        <v>370</v>
+      </c>
+      <c r="J30" s="410">
+        <v>8340</v>
+      </c>
+      <c r="K30" s="411">
+        <v>219199.6</v>
+      </c>
+      <c r="L30" s="409" t="s">
+        <v>310</v>
+      </c>
       <c r="M30" s="69"/>
       <c r="N30" s="137">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>219199.6</v>
       </c>
     </row>
     <row r="31" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="406"/>
-      <c r="B31" s="407"/>
-      <c r="C31" s="13"/>
-      <c r="D31" s="409"/>
-      <c r="E31" s="410"/>
-      <c r="F31" s="137">
-        <f>F30+C31-E31</f>
-        <v>0</v>
-      </c>
-      <c r="I31" s="349"/>
-      <c r="J31" s="348"/>
-      <c r="K31" s="350"/>
-      <c r="L31" s="288"/>
+      <c r="A31" s="412" t="s">
+        <v>373</v>
+      </c>
+      <c r="B31" s="413" t="s">
+        <v>409</v>
+      </c>
+      <c r="C31" s="411">
+        <v>115953.8</v>
+      </c>
+      <c r="D31" s="514">
+        <v>44589</v>
+      </c>
+      <c r="E31" s="411">
+        <v>115953.8</v>
+      </c>
+      <c r="F31" s="411">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I31" s="409" t="s">
+        <v>371</v>
+      </c>
+      <c r="J31" s="410">
+        <v>8342</v>
+      </c>
+      <c r="K31" s="411">
+        <v>1605</v>
+      </c>
+      <c r="L31" s="409" t="s">
+        <v>310</v>
+      </c>
       <c r="M31" s="69"/>
       <c r="N31" s="137">
-        <f>N30+K31-M31</f>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>220804.6</v>
       </c>
     </row>
     <row r="32" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="406"/>
-      <c r="B32" s="407"/>
-      <c r="C32" s="13"/>
-      <c r="D32" s="409"/>
-      <c r="E32" s="410"/>
-      <c r="F32" s="137">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I32" s="349"/>
-      <c r="J32" s="348"/>
-      <c r="K32" s="350"/>
-      <c r="L32" s="288"/>
+      <c r="A32" s="412" t="s">
+        <v>373</v>
+      </c>
+      <c r="B32" s="413" t="s">
+        <v>410</v>
+      </c>
+      <c r="C32" s="411">
+        <v>420</v>
+      </c>
+      <c r="D32" s="514">
+        <v>44589</v>
+      </c>
+      <c r="E32" s="411">
+        <v>420</v>
+      </c>
+      <c r="F32" s="411">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I32" s="409" t="s">
+        <v>372</v>
+      </c>
+      <c r="J32" s="410">
+        <v>8359</v>
+      </c>
+      <c r="K32" s="411">
+        <v>16970.400000000001</v>
+      </c>
+      <c r="L32" s="409" t="s">
+        <v>310</v>
+      </c>
       <c r="M32" s="69"/>
       <c r="N32" s="137">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>237775</v>
       </c>
     </row>
     <row r="33" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="406"/>
-      <c r="B33" s="407"/>
-      <c r="C33" s="13"/>
-      <c r="D33" s="409"/>
-      <c r="E33" s="410"/>
-      <c r="F33" s="137">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I33" s="349"/>
-      <c r="J33" s="348"/>
-      <c r="K33" s="350"/>
-      <c r="L33" s="288"/>
+      <c r="A33" s="412" t="s">
+        <v>374</v>
+      </c>
+      <c r="B33" s="413" t="s">
+        <v>411</v>
+      </c>
+      <c r="C33" s="411">
+        <v>12359.2</v>
+      </c>
+      <c r="D33" s="514">
+        <v>44589</v>
+      </c>
+      <c r="E33" s="411">
+        <v>12359.2</v>
+      </c>
+      <c r="F33" s="411">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I33" s="409" t="s">
+        <v>373</v>
+      </c>
+      <c r="J33" s="410">
+        <v>8363</v>
+      </c>
+      <c r="K33" s="411">
+        <v>1544.6</v>
+      </c>
+      <c r="L33" s="409" t="s">
+        <v>310</v>
+      </c>
       <c r="M33" s="69"/>
       <c r="N33" s="137">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>239319.6</v>
       </c>
     </row>
     <row r="34" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="406"/>
-      <c r="B34" s="407"/>
-      <c r="C34" s="13"/>
-      <c r="D34" s="409"/>
-      <c r="E34" s="410"/>
-      <c r="F34" s="137">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I34" s="349"/>
-      <c r="J34" s="348"/>
-      <c r="K34" s="350"/>
-      <c r="L34" s="288"/>
+      <c r="A34" s="412" t="s">
+        <v>375</v>
+      </c>
+      <c r="B34" s="413" t="s">
+        <v>412</v>
+      </c>
+      <c r="C34" s="411">
+        <v>66416.800000000003</v>
+      </c>
+      <c r="D34" s="514">
+        <v>44589</v>
+      </c>
+      <c r="E34" s="411">
+        <v>66416.800000000003</v>
+      </c>
+      <c r="F34" s="411">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I34" s="409" t="s">
+        <v>373</v>
+      </c>
+      <c r="J34" s="410">
+        <v>8365</v>
+      </c>
+      <c r="K34" s="411">
+        <v>1161</v>
+      </c>
+      <c r="L34" s="409" t="s">
+        <v>310</v>
+      </c>
       <c r="M34" s="69"/>
       <c r="N34" s="137">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>240480.6</v>
       </c>
     </row>
     <row r="35" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="406"/>
-      <c r="B35" s="407"/>
-      <c r="C35" s="13"/>
-      <c r="D35" s="409"/>
-      <c r="E35" s="410"/>
-      <c r="F35" s="137">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I35" s="349"/>
-      <c r="J35" s="348"/>
-      <c r="K35" s="350"/>
-      <c r="L35" s="288"/>
+      <c r="A35" s="412" t="s">
+        <v>375</v>
+      </c>
+      <c r="B35" s="413" t="s">
+        <v>413</v>
+      </c>
+      <c r="C35" s="411">
+        <v>10750</v>
+      </c>
+      <c r="D35" s="514">
+        <v>44589</v>
+      </c>
+      <c r="E35" s="411">
+        <v>10750</v>
+      </c>
+      <c r="F35" s="411">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I35" s="409" t="s">
+        <v>374</v>
+      </c>
+      <c r="J35" s="410">
+        <v>8375</v>
+      </c>
+      <c r="K35" s="411">
+        <v>3838.8</v>
+      </c>
+      <c r="L35" s="409" t="s">
+        <v>310</v>
+      </c>
       <c r="M35" s="69"/>
       <c r="N35" s="137">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>244319.4</v>
       </c>
     </row>
     <row r="36" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="406"/>
-      <c r="B36" s="407"/>
-      <c r="C36" s="13"/>
-      <c r="D36" s="253"/>
-      <c r="E36" s="69"/>
-      <c r="F36" s="137">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I36" s="349"/>
-      <c r="J36" s="348"/>
-      <c r="K36" s="350"/>
-      <c r="L36" s="288"/>
+      <c r="A36" s="412" t="s">
+        <v>375</v>
+      </c>
+      <c r="B36" s="413" t="s">
+        <v>414</v>
+      </c>
+      <c r="C36" s="411">
+        <v>28322</v>
+      </c>
+      <c r="D36" s="514">
+        <v>44589</v>
+      </c>
+      <c r="E36" s="411">
+        <v>28322</v>
+      </c>
+      <c r="F36" s="411">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I36" s="409" t="s">
+        <v>374</v>
+      </c>
+      <c r="J36" s="410">
+        <v>8379</v>
+      </c>
+      <c r="K36" s="411">
+        <v>1696</v>
+      </c>
+      <c r="L36" s="409" t="s">
+        <v>310</v>
+      </c>
       <c r="M36" s="69"/>
       <c r="N36" s="137">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>246015.4</v>
       </c>
     </row>
     <row r="37" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="406"/>
-      <c r="B37" s="407"/>
-      <c r="C37" s="13"/>
-      <c r="D37" s="253"/>
-      <c r="E37" s="69"/>
-      <c r="F37" s="137">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I37" s="360"/>
-      <c r="J37" s="361"/>
-      <c r="K37" s="362"/>
-      <c r="L37" s="363"/>
-      <c r="M37" s="364"/>
-      <c r="N37" s="365">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="A37" s="412" t="s">
+        <v>376</v>
+      </c>
+      <c r="B37" s="413" t="s">
+        <v>415</v>
+      </c>
+      <c r="C37" s="411">
+        <v>61861.4</v>
+      </c>
+      <c r="D37" s="514">
+        <v>44589</v>
+      </c>
+      <c r="E37" s="411">
+        <v>61861.4</v>
+      </c>
+      <c r="F37" s="411">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I37" s="409" t="s">
+        <v>375</v>
+      </c>
+      <c r="J37" s="410">
+        <v>8386</v>
+      </c>
+      <c r="K37" s="411">
+        <v>953.6</v>
+      </c>
+      <c r="L37" s="409" t="s">
+        <v>310</v>
+      </c>
+      <c r="M37" s="69"/>
+      <c r="N37" s="137">
+        <f t="shared" si="1"/>
+        <v>246969</v>
       </c>
     </row>
     <row r="38" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="406"/>
-      <c r="B38" s="407"/>
-      <c r="C38" s="13"/>
-      <c r="D38" s="253"/>
-      <c r="E38" s="69"/>
-      <c r="F38" s="137">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I38" s="366"/>
-      <c r="J38" s="38"/>
-      <c r="K38" s="69"/>
-      <c r="L38" s="288"/>
+      <c r="A38" s="412" t="s">
+        <v>377</v>
+      </c>
+      <c r="B38" s="413" t="s">
+        <v>416</v>
+      </c>
+      <c r="C38" s="411">
+        <v>78773.820000000007</v>
+      </c>
+      <c r="D38" s="514" t="s">
+        <v>310</v>
+      </c>
+      <c r="E38" s="411">
+        <v>0</v>
+      </c>
+      <c r="F38" s="411">
+        <f t="shared" si="0"/>
+        <v>78773.820000000007</v>
+      </c>
+      <c r="I38" s="409" t="s">
+        <v>376</v>
+      </c>
+      <c r="J38" s="410">
+        <v>8393</v>
+      </c>
+      <c r="K38" s="411">
+        <v>5587.4</v>
+      </c>
+      <c r="L38" s="409" t="s">
+        <v>310</v>
+      </c>
       <c r="M38" s="69"/>
-      <c r="N38" s="367">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="406"/>
-      <c r="B39" s="407"/>
-      <c r="C39" s="13"/>
-      <c r="D39" s="253"/>
-      <c r="E39" s="69"/>
-      <c r="F39" s="137">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I39" s="351"/>
-      <c r="J39" s="352"/>
-      <c r="K39" s="353"/>
-      <c r="L39" s="354"/>
-      <c r="M39" s="215"/>
-      <c r="N39" s="355">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="406"/>
-      <c r="B40" s="407"/>
-      <c r="C40" s="13"/>
-      <c r="D40" s="253"/>
-      <c r="E40" s="69"/>
-      <c r="F40" s="137">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I40" s="349"/>
-      <c r="J40" s="348"/>
-      <c r="K40" s="350"/>
-      <c r="L40" s="140"/>
+      <c r="N38" s="137">
+        <f t="shared" si="1"/>
+        <v>252556.4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A39" s="412" t="s">
+        <v>378</v>
+      </c>
+      <c r="B39" s="413" t="s">
+        <v>417</v>
+      </c>
+      <c r="C39" s="411">
+        <v>38574.800000000003</v>
+      </c>
+      <c r="D39" s="514" t="s">
+        <v>310</v>
+      </c>
+      <c r="E39" s="411">
+        <v>0</v>
+      </c>
+      <c r="F39" s="411">
+        <f t="shared" si="0"/>
+        <v>38574.800000000003</v>
+      </c>
+      <c r="I39" s="409" t="s">
+        <v>377</v>
+      </c>
+      <c r="J39" s="410">
+        <v>8403</v>
+      </c>
+      <c r="K39" s="411">
+        <v>2021.2</v>
+      </c>
+      <c r="L39" s="409" t="s">
+        <v>310</v>
+      </c>
+      <c r="M39" s="69"/>
+      <c r="N39" s="137">
+        <f t="shared" si="1"/>
+        <v>254577.6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A40" s="412" t="s">
+        <v>379</v>
+      </c>
+      <c r="B40" s="413" t="s">
+        <v>418</v>
+      </c>
+      <c r="C40" s="411">
+        <v>53825.279999999999</v>
+      </c>
+      <c r="D40" s="514" t="s">
+        <v>310</v>
+      </c>
+      <c r="E40" s="411">
+        <v>0</v>
+      </c>
+      <c r="F40" s="411">
+        <f t="shared" si="0"/>
+        <v>53825.279999999999</v>
+      </c>
+      <c r="I40" s="409" t="s">
+        <v>377</v>
+      </c>
+      <c r="J40" s="410">
+        <v>8404</v>
+      </c>
+      <c r="K40" s="411">
+        <v>175</v>
+      </c>
+      <c r="L40" s="409" t="s">
+        <v>310</v>
+      </c>
       <c r="M40" s="69"/>
-      <c r="N40" s="355">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:14" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="406"/>
-      <c r="B41" s="407"/>
-      <c r="C41" s="13"/>
-      <c r="D41" s="253"/>
-      <c r="E41" s="69"/>
-      <c r="F41" s="137">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I41" s="349"/>
-      <c r="J41" s="348"/>
-      <c r="K41" s="350"/>
-      <c r="L41" s="140"/>
+      <c r="N40" s="137">
+        <f t="shared" si="1"/>
+        <v>254752.6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A41" s="412"/>
+      <c r="B41" s="413"/>
+      <c r="C41" s="411"/>
+      <c r="D41" s="514" t="s">
+        <v>310</v>
+      </c>
+      <c r="E41" s="411">
+        <v>0</v>
+      </c>
+      <c r="F41" s="411">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I41" s="409" t="s">
+        <v>377</v>
+      </c>
+      <c r="J41" s="410">
+        <v>8405</v>
+      </c>
+      <c r="K41" s="411">
+        <v>118474.8</v>
+      </c>
+      <c r="L41" s="409" t="s">
+        <v>310</v>
+      </c>
       <c r="M41" s="69"/>
-      <c r="N41" s="355">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:14" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="406"/>
-      <c r="B42" s="407"/>
-      <c r="C42" s="13"/>
+      <c r="N41" s="137">
+        <f t="shared" si="1"/>
+        <v>373227.4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A42" s="245"/>
+      <c r="B42" s="246"/>
+      <c r="C42" s="111"/>
       <c r="D42" s="253"/>
       <c r="E42" s="69"/>
-      <c r="F42" s="137">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I42" s="349"/>
-      <c r="J42" s="348"/>
-      <c r="K42" s="350"/>
-      <c r="L42" s="140"/>
-      <c r="M42" s="69"/>
-      <c r="N42" s="355">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:14" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="406"/>
-      <c r="B43" s="407"/>
-      <c r="C43" s="13"/>
+      <c r="F42" s="411">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I42" s="409" t="s">
+        <v>378</v>
+      </c>
+      <c r="J42" s="410">
+        <v>8422</v>
+      </c>
+      <c r="K42" s="411">
+        <v>27106.9</v>
+      </c>
+      <c r="L42" s="409" t="s">
+        <v>310</v>
+      </c>
+      <c r="M42" s="362"/>
+      <c r="N42" s="137">
+        <f t="shared" si="1"/>
+        <v>400334.30000000005</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A43" s="245"/>
+      <c r="B43" s="246"/>
+      <c r="C43" s="111"/>
       <c r="D43" s="253"/>
       <c r="E43" s="69"/>
-      <c r="F43" s="137">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I43" s="349"/>
-      <c r="J43" s="348"/>
-      <c r="K43" s="350"/>
-      <c r="L43" s="140"/>
+      <c r="F43" s="411">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I43" s="409" t="s">
+        <v>378</v>
+      </c>
+      <c r="J43" s="410">
+        <v>8423</v>
+      </c>
+      <c r="K43" s="411">
+        <v>1096.2</v>
+      </c>
+      <c r="L43" s="409" t="s">
+        <v>310</v>
+      </c>
       <c r="M43" s="69"/>
-      <c r="N43" s="355">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:14" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="134"/>
-      <c r="B44" s="139"/>
-      <c r="C44" s="69"/>
+      <c r="N43" s="137">
+        <f t="shared" si="1"/>
+        <v>401430.50000000006</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="245"/>
+      <c r="B44" s="246"/>
+      <c r="C44" s="111"/>
       <c r="D44" s="253"/>
       <c r="E44" s="69"/>
-      <c r="F44" s="137">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I44" s="349"/>
-      <c r="J44" s="348"/>
-      <c r="K44" s="350"/>
-      <c r="L44" s="140"/>
-      <c r="M44" s="69"/>
-      <c r="N44" s="355">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:14" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="134"/>
-      <c r="B45" s="139"/>
-      <c r="C45" s="69"/>
+      <c r="F44" s="411">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I44" s="409" t="s">
+        <v>379</v>
+      </c>
+      <c r="J44" s="410">
+        <v>8434</v>
+      </c>
+      <c r="K44" s="411">
+        <v>1609</v>
+      </c>
+      <c r="L44" s="409" t="s">
+        <v>310</v>
+      </c>
+      <c r="M44" s="215"/>
+      <c r="N44" s="137">
+        <f t="shared" si="1"/>
+        <v>403039.50000000006</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A45" s="245"/>
+      <c r="B45" s="246"/>
+      <c r="C45" s="111"/>
       <c r="D45" s="253"/>
       <c r="E45" s="69"/>
-      <c r="F45" s="137">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I45" s="134"/>
-      <c r="J45" s="139"/>
-      <c r="K45" s="69"/>
-      <c r="L45" s="140"/>
+      <c r="F45" s="411">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I45" s="409" t="s">
+        <v>380</v>
+      </c>
+      <c r="J45" s="410">
+        <v>8445</v>
+      </c>
+      <c r="K45" s="411">
+        <v>1315</v>
+      </c>
+      <c r="L45" s="409" t="s">
+        <v>310</v>
+      </c>
       <c r="M45" s="69"/>
       <c r="N45" s="137">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="134"/>
-      <c r="B46" s="139"/>
-      <c r="C46" s="69"/>
+        <v>404354.50000000006</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A46" s="245"/>
+      <c r="B46" s="246"/>
+      <c r="C46" s="111"/>
       <c r="D46" s="253"/>
       <c r="E46" s="69"/>
-      <c r="F46" s="137">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I46" s="134"/>
-      <c r="J46" s="139"/>
-      <c r="K46" s="69"/>
-      <c r="L46" s="140"/>
+      <c r="F46" s="411">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I46" s="409" t="s">
+        <v>380</v>
+      </c>
+      <c r="J46" s="410">
+        <v>8449</v>
+      </c>
+      <c r="K46" s="411">
+        <v>272.8</v>
+      </c>
+      <c r="L46" s="409" t="s">
+        <v>310</v>
+      </c>
       <c r="M46" s="69"/>
       <c r="N46" s="137">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="134"/>
-      <c r="B47" s="139"/>
-      <c r="C47" s="69"/>
+        <v>404627.30000000005</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A47" s="245"/>
+      <c r="B47" s="246"/>
+      <c r="C47" s="111"/>
       <c r="D47" s="253"/>
       <c r="E47" s="69"/>
       <c r="F47" s="137">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I47" s="134"/>
-      <c r="J47" s="139"/>
-      <c r="K47" s="69"/>
+        <f t="shared" ref="F47:F73" si="2">F46+C47-E47</f>
+        <v>0</v>
+      </c>
+      <c r="I47" s="349"/>
+      <c r="J47" s="348"/>
+      <c r="K47" s="350">
+        <v>0</v>
+      </c>
       <c r="L47" s="140"/>
       <c r="M47" s="69"/>
       <c r="N47" s="137">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="134"/>
-      <c r="B48" s="139"/>
-      <c r="C48" s="69"/>
+        <v>404627.30000000005</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A48" s="245"/>
+      <c r="B48" s="246"/>
+      <c r="C48" s="111"/>
       <c r="D48" s="253"/>
       <c r="E48" s="69"/>
       <c r="F48" s="137">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I48" s="134"/>
-      <c r="J48" s="139"/>
-      <c r="K48" s="69"/>
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I48" s="349"/>
+      <c r="J48" s="348"/>
+      <c r="K48" s="350">
+        <v>0</v>
+      </c>
       <c r="L48" s="140"/>
       <c r="M48" s="69"/>
       <c r="N48" s="137">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+        <v>404627.30000000005</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" s="134"/>
       <c r="B49" s="139"/>
       <c r="C49" s="69"/>
       <c r="D49" s="253"/>
       <c r="E49" s="69"/>
       <c r="F49" s="137">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I49" s="134"/>
-      <c r="J49" s="139"/>
-      <c r="K49" s="69"/>
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I49" s="349"/>
+      <c r="J49" s="348"/>
+      <c r="K49" s="350">
+        <v>0</v>
+      </c>
       <c r="L49" s="140"/>
       <c r="M49" s="69"/>
       <c r="N49" s="137">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+        <v>404627.30000000005</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50" s="134"/>
       <c r="B50" s="139"/>
       <c r="C50" s="69"/>
       <c r="D50" s="253"/>
       <c r="E50" s="69"/>
       <c r="F50" s="137">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I50" s="134"/>
       <c r="J50" s="139"/>
-      <c r="K50" s="69"/>
+      <c r="K50" s="69">
+        <v>0</v>
+      </c>
       <c r="L50" s="140"/>
       <c r="M50" s="69"/>
       <c r="N50" s="137">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>404627.30000000005</v>
       </c>
     </row>
     <row r="51" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -24836,7 +26027,7 @@
       <c r="D51" s="253"/>
       <c r="E51" s="69"/>
       <c r="F51" s="137">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I51" s="134"/>
@@ -24846,7 +26037,7 @@
       <c r="M51" s="69"/>
       <c r="N51" s="137">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>404627.30000000005</v>
       </c>
     </row>
     <row r="52" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -24856,7 +26047,7 @@
       <c r="D52" s="253"/>
       <c r="E52" s="69"/>
       <c r="F52" s="137">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I52" s="134"/>
@@ -24866,7 +26057,7 @@
       <c r="M52" s="69"/>
       <c r="N52" s="137">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>404627.30000000005</v>
       </c>
     </row>
     <row r="53" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -24876,7 +26067,7 @@
       <c r="D53" s="253"/>
       <c r="E53" s="69"/>
       <c r="F53" s="137">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I53" s="134"/>
@@ -24886,7 +26077,7 @@
       <c r="M53" s="69"/>
       <c r="N53" s="137">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>404627.30000000005</v>
       </c>
     </row>
     <row r="54" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -24896,7 +26087,7 @@
       <c r="D54" s="253"/>
       <c r="E54" s="69"/>
       <c r="F54" s="137">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I54" s="134"/>
@@ -24906,7 +26097,7 @@
       <c r="M54" s="69"/>
       <c r="N54" s="137">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>404627.30000000005</v>
       </c>
     </row>
     <row r="55" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -24916,7 +26107,7 @@
       <c r="D55" s="253"/>
       <c r="E55" s="69"/>
       <c r="F55" s="137">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I55" s="134"/>
@@ -24926,7 +26117,7 @@
       <c r="M55" s="69"/>
       <c r="N55" s="137">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>404627.30000000005</v>
       </c>
     </row>
     <row r="56" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -24936,7 +26127,7 @@
       <c r="D56" s="253"/>
       <c r="E56" s="69"/>
       <c r="F56" s="137">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I56" s="134"/>
@@ -24946,127 +26137,127 @@
       <c r="M56" s="69"/>
       <c r="N56" s="137">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>404627.30000000005</v>
       </c>
     </row>
     <row r="57" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="134"/>
       <c r="B57" s="139"/>
       <c r="C57" s="69"/>
-      <c r="D57" s="254"/>
+      <c r="D57" s="253"/>
       <c r="E57" s="69"/>
       <c r="F57" s="137">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I57" s="358"/>
-      <c r="J57" s="359"/>
-      <c r="K57" s="34"/>
-      <c r="L57" s="147"/>
-      <c r="M57" s="34"/>
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I57" s="134"/>
+      <c r="J57" s="139"/>
+      <c r="K57" s="69"/>
+      <c r="L57" s="140"/>
+      <c r="M57" s="69"/>
       <c r="N57" s="137">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>404627.30000000005</v>
       </c>
     </row>
     <row r="58" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="134"/>
       <c r="B58" s="139"/>
       <c r="C58" s="69"/>
-      <c r="D58" s="254"/>
+      <c r="D58" s="253"/>
       <c r="E58" s="69"/>
       <c r="F58" s="137">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I58" s="358"/>
-      <c r="J58" s="359"/>
-      <c r="K58" s="34"/>
-      <c r="L58" s="147"/>
-      <c r="M58" s="34"/>
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I58" s="134"/>
+      <c r="J58" s="139"/>
+      <c r="K58" s="69"/>
+      <c r="L58" s="140"/>
+      <c r="M58" s="69"/>
       <c r="N58" s="137">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>404627.30000000005</v>
       </c>
     </row>
     <row r="59" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="134"/>
       <c r="B59" s="139"/>
       <c r="C59" s="69"/>
-      <c r="D59" s="254"/>
+      <c r="D59" s="253"/>
       <c r="E59" s="69"/>
       <c r="F59" s="137">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I59" s="358"/>
-      <c r="J59" s="359"/>
-      <c r="K59" s="34"/>
-      <c r="L59" s="147"/>
-      <c r="M59" s="34"/>
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I59" s="134"/>
+      <c r="J59" s="139"/>
+      <c r="K59" s="69"/>
+      <c r="L59" s="140"/>
+      <c r="M59" s="69"/>
       <c r="N59" s="137">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>404627.30000000005</v>
       </c>
     </row>
     <row r="60" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="134"/>
       <c r="B60" s="139"/>
       <c r="C60" s="69"/>
-      <c r="D60" s="254"/>
+      <c r="D60" s="253"/>
       <c r="E60" s="69"/>
       <c r="F60" s="137">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I60" s="358"/>
-      <c r="J60" s="359"/>
-      <c r="K60" s="34"/>
-      <c r="L60" s="147"/>
-      <c r="M60" s="34"/>
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I60" s="134"/>
+      <c r="J60" s="139"/>
+      <c r="K60" s="69"/>
+      <c r="L60" s="140"/>
+      <c r="M60" s="69"/>
       <c r="N60" s="137">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>404627.30000000005</v>
       </c>
     </row>
     <row r="61" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="134"/>
       <c r="B61" s="139"/>
       <c r="C61" s="69"/>
-      <c r="D61" s="254"/>
+      <c r="D61" s="253"/>
       <c r="E61" s="69"/>
       <c r="F61" s="137">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I61" s="358"/>
-      <c r="J61" s="359"/>
-      <c r="K61" s="34"/>
-      <c r="L61" s="147"/>
-      <c r="M61" s="34"/>
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I61" s="134"/>
+      <c r="J61" s="139"/>
+      <c r="K61" s="69"/>
+      <c r="L61" s="140"/>
+      <c r="M61" s="69"/>
       <c r="N61" s="137">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>404627.30000000005</v>
       </c>
     </row>
     <row r="62" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="358"/>
-      <c r="B62" s="359"/>
-      <c r="C62" s="34"/>
-      <c r="D62" s="118"/>
-      <c r="E62" s="34"/>
+      <c r="A62" s="134"/>
+      <c r="B62" s="139"/>
+      <c r="C62" s="69"/>
+      <c r="D62" s="254"/>
+      <c r="E62" s="69"/>
       <c r="F62" s="137">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I62" s="358"/>
-      <c r="J62" s="359"/>
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I62" s="357"/>
+      <c r="J62" s="358"/>
       <c r="K62" s="34"/>
       <c r="L62" s="147"/>
       <c r="M62" s="34"/>
       <c r="N62" s="137">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>404627.30000000005</v>
       </c>
     </row>
     <row r="63" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -25076,17 +26267,17 @@
       <c r="D63" s="254"/>
       <c r="E63" s="69"/>
       <c r="F63" s="137">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I63" s="134"/>
-      <c r="J63" s="139"/>
-      <c r="K63" s="69"/>
-      <c r="L63" s="148"/>
-      <c r="M63" s="69"/>
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I63" s="357"/>
+      <c r="J63" s="358"/>
+      <c r="K63" s="34"/>
+      <c r="L63" s="147"/>
+      <c r="M63" s="34"/>
       <c r="N63" s="137">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>404627.30000000005</v>
       </c>
     </row>
     <row r="64" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -25096,17 +26287,17 @@
       <c r="D64" s="254"/>
       <c r="E64" s="69"/>
       <c r="F64" s="137">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I64" s="134"/>
-      <c r="J64" s="139"/>
-      <c r="K64" s="69"/>
-      <c r="L64" s="148"/>
-      <c r="M64" s="69"/>
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I64" s="357"/>
+      <c r="J64" s="358"/>
+      <c r="K64" s="34"/>
+      <c r="L64" s="147"/>
+      <c r="M64" s="34"/>
       <c r="N64" s="137">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>404627.30000000005</v>
       </c>
     </row>
     <row r="65" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -25116,17 +26307,17 @@
       <c r="D65" s="254"/>
       <c r="E65" s="69"/>
       <c r="F65" s="137">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I65" s="134"/>
-      <c r="J65" s="139"/>
-      <c r="K65" s="69"/>
-      <c r="L65" s="148"/>
-      <c r="M65" s="69"/>
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I65" s="357"/>
+      <c r="J65" s="358"/>
+      <c r="K65" s="34"/>
+      <c r="L65" s="147"/>
+      <c r="M65" s="34"/>
       <c r="N65" s="137">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>404627.30000000005</v>
       </c>
     </row>
     <row r="66" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -25136,37 +26327,37 @@
       <c r="D66" s="254"/>
       <c r="E66" s="69"/>
       <c r="F66" s="137">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I66" s="134"/>
-      <c r="J66" s="139"/>
-      <c r="K66" s="69"/>
-      <c r="L66" s="148"/>
-      <c r="M66" s="69"/>
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I66" s="357"/>
+      <c r="J66" s="358"/>
+      <c r="K66" s="34"/>
+      <c r="L66" s="147"/>
+      <c r="M66" s="34"/>
       <c r="N66" s="137">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>404627.30000000005</v>
       </c>
     </row>
     <row r="67" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="134"/>
-      <c r="B67" s="139"/>
-      <c r="C67" s="69"/>
-      <c r="D67" s="254"/>
-      <c r="E67" s="69"/>
+      <c r="A67" s="357"/>
+      <c r="B67" s="358"/>
+      <c r="C67" s="34"/>
+      <c r="D67" s="118"/>
+      <c r="E67" s="34"/>
       <c r="F67" s="137">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I67" s="134"/>
-      <c r="J67" s="139"/>
-      <c r="K67" s="69"/>
-      <c r="L67" s="148"/>
-      <c r="M67" s="69"/>
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I67" s="357"/>
+      <c r="J67" s="358"/>
+      <c r="K67" s="34"/>
+      <c r="L67" s="147"/>
+      <c r="M67" s="34"/>
       <c r="N67" s="137">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>404627.30000000005</v>
       </c>
     </row>
     <row r="68" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -25176,7 +26367,7 @@
       <c r="D68" s="254"/>
       <c r="E68" s="69"/>
       <c r="F68" s="137">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I68" s="134"/>
@@ -25186,7 +26377,7 @@
       <c r="M68" s="69"/>
       <c r="N68" s="137">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>404627.30000000005</v>
       </c>
     </row>
     <row r="69" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -25196,7 +26387,7 @@
       <c r="D69" s="254"/>
       <c r="E69" s="69"/>
       <c r="F69" s="137">
-        <f t="shared" ref="F69:F73" si="2">F68+C69-E69</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I69" s="134"/>
@@ -25205,8 +26396,8 @@
       <c r="L69" s="148"/>
       <c r="M69" s="69"/>
       <c r="N69" s="137">
-        <f t="shared" ref="N69:N73" si="3">N68+K69-M69</f>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>404627.30000000005</v>
       </c>
     </row>
     <row r="70" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -25225,8 +26416,8 @@
       <c r="L70" s="148"/>
       <c r="M70" s="69"/>
       <c r="N70" s="137">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>404627.30000000005</v>
       </c>
     </row>
     <row r="71" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -25245,8 +26436,8 @@
       <c r="L71" s="148"/>
       <c r="M71" s="69"/>
       <c r="N71" s="137">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>404627.30000000005</v>
       </c>
     </row>
     <row r="72" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -25265,146 +26456,207 @@
       <c r="L72" s="148"/>
       <c r="M72" s="69"/>
       <c r="N72" s="137">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="149"/>
-      <c r="B73" s="210"/>
-      <c r="C73" s="34">
-        <v>0</v>
-      </c>
-      <c r="D73" s="255"/>
-      <c r="E73" s="151"/>
+        <f t="shared" si="1"/>
+        <v>404627.30000000005</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="134"/>
+      <c r="B73" s="139"/>
+      <c r="C73" s="69"/>
+      <c r="D73" s="254"/>
+      <c r="E73" s="69"/>
       <c r="F73" s="137">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I73" s="149"/>
-      <c r="J73" s="150"/>
-      <c r="K73" s="151">
-        <v>0</v>
-      </c>
-      <c r="L73" s="152"/>
-      <c r="M73" s="151"/>
+      <c r="I73" s="134"/>
+      <c r="J73" s="139"/>
+      <c r="K73" s="69"/>
+      <c r="L73" s="148"/>
+      <c r="M73" s="69"/>
       <c r="N73" s="137">
+        <f t="shared" si="1"/>
+        <v>404627.30000000005</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="134"/>
+      <c r="B74" s="139"/>
+      <c r="C74" s="69"/>
+      <c r="D74" s="254"/>
+      <c r="E74" s="69"/>
+      <c r="F74" s="137">
+        <f t="shared" ref="F74:F78" si="3">F73+C74-E74</f>
+        <v>0</v>
+      </c>
+      <c r="I74" s="134"/>
+      <c r="J74" s="139"/>
+      <c r="K74" s="69"/>
+      <c r="L74" s="148"/>
+      <c r="M74" s="69"/>
+      <c r="N74" s="137">
+        <f t="shared" ref="N74:N78" si="4">N73+K74-M74</f>
+        <v>404627.30000000005</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="134"/>
+      <c r="B75" s="139"/>
+      <c r="C75" s="69"/>
+      <c r="D75" s="254"/>
+      <c r="E75" s="69"/>
+      <c r="F75" s="137">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="1:14" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B74" s="211"/>
-      <c r="C74" s="212">
-        <f>SUM(C3:C73)</f>
-        <v>0</v>
-      </c>
-      <c r="D74" s="256"/>
-      <c r="E74" s="1"/>
-      <c r="F74" s="153">
-        <f>F73</f>
-        <v>0</v>
-      </c>
-      <c r="K74" s="209">
-        <f>SUM(K3:K73)</f>
-        <v>0</v>
-      </c>
-      <c r="L74" s="97"/>
-      <c r="M74" s="1"/>
-      <c r="N74" s="153">
-        <f>SUM(K74:M74)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B75" s="213"/>
-      <c r="C75" s="214"/>
-      <c r="D75" s="256"/>
-      <c r="E75" s="3"/>
-      <c r="F75" s="478" t="s">
+      <c r="I75" s="134"/>
+      <c r="J75" s="139"/>
+      <c r="K75" s="69"/>
+      <c r="L75" s="148"/>
+      <c r="M75" s="69"/>
+      <c r="N75" s="137">
+        <f t="shared" si="4"/>
+        <v>404627.30000000005</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="134"/>
+      <c r="B76" s="139"/>
+      <c r="C76" s="69"/>
+      <c r="D76" s="254"/>
+      <c r="E76" s="69"/>
+      <c r="F76" s="137">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I76" s="134"/>
+      <c r="J76" s="139"/>
+      <c r="K76" s="69"/>
+      <c r="L76" s="148"/>
+      <c r="M76" s="69"/>
+      <c r="N76" s="137">
+        <f t="shared" si="4"/>
+        <v>404627.30000000005</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="134"/>
+      <c r="B77" s="139"/>
+      <c r="C77" s="69"/>
+      <c r="D77" s="254"/>
+      <c r="E77" s="69"/>
+      <c r="F77" s="137">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I77" s="134"/>
+      <c r="J77" s="139"/>
+      <c r="K77" s="69"/>
+      <c r="L77" s="148"/>
+      <c r="M77" s="69"/>
+      <c r="N77" s="137">
+        <f t="shared" si="4"/>
+        <v>404627.30000000005</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="149"/>
+      <c r="B78" s="210"/>
+      <c r="C78" s="34">
+        <v>0</v>
+      </c>
+      <c r="D78" s="255"/>
+      <c r="E78" s="151"/>
+      <c r="F78" s="137">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I78" s="149"/>
+      <c r="J78" s="150"/>
+      <c r="K78" s="151">
+        <v>0</v>
+      </c>
+      <c r="L78" s="152"/>
+      <c r="M78" s="151"/>
+      <c r="N78" s="137">
+        <f t="shared" si="4"/>
+        <v>404627.30000000005</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B79" s="211"/>
+      <c r="C79" s="212">
+        <f>SUM(C3:C78)</f>
+        <v>1448401.2000000002</v>
+      </c>
+      <c r="D79" s="516"/>
+      <c r="E79" s="414">
+        <f t="shared" ref="E79" si="5">SUM(E3:E78)</f>
+        <v>1277227.3</v>
+      </c>
+      <c r="F79" s="153">
+        <f>SUM(F3:F78)</f>
+        <v>171173.90000000002</v>
+      </c>
+      <c r="K79" s="209">
+        <f>SUM(K3:K78)</f>
+        <v>909001.26000000013</v>
+      </c>
+      <c r="L79" s="209"/>
+      <c r="M79" s="209">
+        <f t="shared" ref="M79" si="6">SUM(M3:M78)</f>
+        <v>504373.96</v>
+      </c>
+      <c r="N79" s="153">
+        <f>N78</f>
+        <v>404627.30000000005</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B80" s="213"/>
+      <c r="C80" s="214"/>
+      <c r="D80" s="256"/>
+      <c r="E80" s="3"/>
+      <c r="F80" s="486" t="s">
         <v>207</v>
       </c>
-      <c r="K75" s="1"/>
-      <c r="L75" s="97"/>
-      <c r="M75" s="3"/>
-      <c r="N75" s="1"/>
-    </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B76" s="98"/>
-      <c r="C76" s="1"/>
-      <c r="D76" s="256"/>
-      <c r="E76" s="3"/>
-      <c r="F76" s="479"/>
-      <c r="K76" s="1"/>
-      <c r="L76" s="97"/>
-      <c r="M76" s="3"/>
-      <c r="N76" s="1"/>
-    </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A77"/>
-      <c r="B77" s="23"/>
-      <c r="I77"/>
-      <c r="J77" s="194"/>
-      <c r="L77" s="23"/>
-    </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A78"/>
-      <c r="B78" s="23"/>
-      <c r="I78"/>
-      <c r="J78" s="194"/>
-      <c r="L78" s="23"/>
-    </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A79"/>
-      <c r="B79" s="23"/>
-      <c r="I79"/>
-      <c r="J79" s="194"/>
-      <c r="L79" s="23"/>
-    </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A80"/>
-      <c r="B80" s="23"/>
-      <c r="F80"/>
-      <c r="I80"/>
-      <c r="J80" s="194"/>
-      <c r="L80" s="23"/>
-      <c r="N80"/>
+      <c r="K80" s="1"/>
+      <c r="L80" s="97"/>
+      <c r="M80" s="3"/>
+      <c r="N80" s="1"/>
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A81"/>
-      <c r="B81" s="23"/>
-      <c r="F81"/>
-      <c r="I81"/>
-      <c r="J81" s="194"/>
-      <c r="L81" s="23"/>
-      <c r="N81"/>
+      <c r="B81" s="98"/>
+      <c r="C81" s="1"/>
+      <c r="D81" s="256"/>
+      <c r="E81" s="3"/>
+      <c r="F81" s="487"/>
+      <c r="K81" s="1"/>
+      <c r="L81" s="97"/>
+      <c r="M81" s="3"/>
+      <c r="N81" s="1"/>
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A82"/>
       <c r="B82" s="23"/>
-      <c r="F82"/>
       <c r="I82"/>
       <c r="J82" s="194"/>
       <c r="L82" s="23"/>
-      <c r="N82"/>
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A83"/>
       <c r="B83" s="23"/>
-      <c r="F83"/>
       <c r="I83"/>
       <c r="J83" s="194"/>
       <c r="L83" s="23"/>
-      <c r="N83"/>
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A84"/>
       <c r="B84" s="23"/>
-      <c r="F84"/>
       <c r="I84"/>
       <c r="J84" s="194"/>
       <c r="L84" s="23"/>
-      <c r="N84"/>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A85"/>
@@ -25445,56 +26697,46 @@
     <row r="89" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A89"/>
       <c r="B89" s="23"/>
-      <c r="E89"/>
       <c r="F89"/>
       <c r="I89"/>
       <c r="J89" s="194"/>
       <c r="L89" s="23"/>
-      <c r="M89"/>
       <c r="N89"/>
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A90"/>
       <c r="B90" s="23"/>
-      <c r="E90"/>
       <c r="F90"/>
       <c r="I90"/>
       <c r="J90" s="194"/>
       <c r="L90" s="23"/>
-      <c r="M90"/>
       <c r="N90"/>
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A91"/>
       <c r="B91" s="23"/>
-      <c r="E91"/>
       <c r="F91"/>
       <c r="I91"/>
       <c r="J91" s="194"/>
       <c r="L91" s="23"/>
-      <c r="M91"/>
       <c r="N91"/>
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A92"/>
       <c r="B92" s="23"/>
-      <c r="E92"/>
       <c r="F92"/>
       <c r="I92"/>
       <c r="J92" s="194"/>
       <c r="L92" s="23"/>
-      <c r="M92"/>
       <c r="N92"/>
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A93"/>
       <c r="B93" s="23"/>
-      <c r="E93"/>
       <c r="F93"/>
       <c r="I93"/>
       <c r="J93" s="194"/>
       <c r="L93" s="23"/>
-      <c r="M93"/>
       <c r="N93"/>
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.25">
@@ -25509,102 +26751,158 @@
       <c r="N94"/>
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A95"/>
       <c r="B95" s="23"/>
       <c r="E95"/>
+      <c r="F95"/>
+      <c r="I95"/>
       <c r="J95" s="194"/>
       <c r="L95" s="23"/>
       <c r="M95"/>
+      <c r="N95"/>
     </row>
     <row r="96" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A96"/>
       <c r="B96" s="23"/>
       <c r="E96"/>
+      <c r="F96"/>
+      <c r="I96"/>
       <c r="J96" s="194"/>
       <c r="L96" s="23"/>
       <c r="M96"/>
-    </row>
-    <row r="97" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="N96"/>
+    </row>
+    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A97"/>
       <c r="B97" s="23"/>
       <c r="E97"/>
+      <c r="F97"/>
+      <c r="I97"/>
       <c r="J97" s="194"/>
       <c r="L97" s="23"/>
       <c r="M97"/>
-    </row>
-    <row r="98" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="N97"/>
+    </row>
+    <row r="98" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A98"/>
       <c r="B98" s="23"/>
       <c r="E98"/>
+      <c r="F98"/>
+      <c r="I98"/>
       <c r="J98" s="194"/>
       <c r="L98" s="23"/>
       <c r="M98"/>
-    </row>
-    <row r="99" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="N98"/>
+    </row>
+    <row r="99" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A99"/>
       <c r="B99" s="23"/>
       <c r="E99"/>
+      <c r="F99"/>
+      <c r="I99"/>
       <c r="J99" s="194"/>
       <c r="L99" s="23"/>
       <c r="M99"/>
-    </row>
-    <row r="100" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="N99"/>
+    </row>
+    <row r="100" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B100" s="23"/>
       <c r="E100"/>
       <c r="J100" s="194"/>
       <c r="L100" s="23"/>
       <c r="M100"/>
     </row>
-    <row r="101" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B101" s="23"/>
       <c r="E101"/>
       <c r="J101" s="194"/>
       <c r="L101" s="23"/>
       <c r="M101"/>
     </row>
-    <row r="102" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B102" s="23"/>
       <c r="E102"/>
       <c r="J102" s="194"/>
       <c r="L102" s="23"/>
       <c r="M102"/>
     </row>
-    <row r="103" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B103" s="23"/>
       <c r="E103"/>
       <c r="J103" s="194"/>
       <c r="L103" s="23"/>
       <c r="M103"/>
     </row>
-    <row r="104" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B104" s="23"/>
+      <c r="E104"/>
       <c r="J104" s="194"/>
-    </row>
-    <row r="105" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="L104" s="23"/>
+      <c r="M104"/>
+    </row>
+    <row r="105" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B105" s="23"/>
+      <c r="E105"/>
       <c r="J105" s="194"/>
-    </row>
-    <row r="106" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="L105" s="23"/>
+      <c r="M105"/>
+    </row>
+    <row r="106" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B106" s="23"/>
+      <c r="E106"/>
       <c r="J106" s="194"/>
       <c r="L106" s="23"/>
-    </row>
-    <row r="107" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="M106"/>
+    </row>
+    <row r="107" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B107" s="23"/>
+      <c r="E107"/>
       <c r="J107" s="194"/>
-    </row>
-    <row r="108" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="L107" s="23"/>
+      <c r="M107"/>
+    </row>
+    <row r="108" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B108" s="23"/>
+      <c r="E108"/>
       <c r="J108" s="194"/>
-    </row>
-    <row r="109" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="L108" s="23"/>
+      <c r="M108"/>
+    </row>
+    <row r="109" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B109" s="23"/>
       <c r="J109" s="194"/>
     </row>
-    <row r="110" spans="2:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C110" s="154"/>
-      <c r="K110" s="154"/>
+    <row r="110" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B110" s="23"/>
+      <c r="J110" s="194"/>
+    </row>
+    <row r="111" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B111" s="23"/>
+      <c r="J111" s="194"/>
+      <c r="L111" s="23"/>
+    </row>
+    <row r="112" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B112" s="23"/>
+      <c r="J112" s="194"/>
+    </row>
+    <row r="113" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B113" s="23"/>
+      <c r="J113" s="194"/>
+    </row>
+    <row r="114" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B114" s="23"/>
+      <c r="J114" s="194"/>
+    </row>
+    <row r="115" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C115" s="154"/>
+      <c r="K115" s="154"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="F75:F76"/>
+    <mergeCell ref="F80:F81"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/BALANCE    ZAVALETA   ENERO     2022.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/BALANCE    ZAVALETA   ENERO     2022.xlsx
@@ -296,7 +296,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="842" uniqueCount="420">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="844" uniqueCount="422">
   <si>
     <t>COMPRAS</t>
   </si>
@@ -1556,6 +1556,12 @@
   </si>
   <si>
     <t>CANCELADA</t>
+  </si>
+  <si>
+    <t>todos los pagos del 28 de enero ya se entregan originales a MARIEL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">todas las orignales   pagadas el 1 de Feb-22     se entregan a MARIEL </t>
   </si>
 </sst>
 </file>
@@ -1999,7 +2005,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="20">
+  <fills count="21">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2114,8 +2120,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="103">
+  <borders count="104">
     <border>
       <left/>
       <right/>
@@ -3391,12 +3403,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="517">
+  <cellXfs count="535">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -4255,279 +4278,333 @@
     <xf numFmtId="44" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="6" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="6" borderId="51" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="11" fillId="6" borderId="51" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="11" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="11" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="10" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="10" fillId="0" borderId="49" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="0" borderId="49" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="0" borderId="50" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="12" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="12" fillId="0" borderId="49" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="43" fillId="6" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="43" fillId="6" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="7" fontId="33" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="33" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="14" borderId="65" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="14" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="33" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="7" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="57" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="77" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="58" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="33" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="59" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="16" fillId="3" borderId="69" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="16" fillId="3" borderId="71" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="3" borderId="70" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="3" borderId="72" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="41" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="41" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="3" borderId="74" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="17" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="17" borderId="82" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="9" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="9" borderId="77" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="9" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="19" borderId="100" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="19" borderId="101" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="33" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="33" fillId="7" borderId="93" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="51" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="51" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="3" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="3" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="3" borderId="95" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="3" borderId="99" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="11" fillId="14" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="11" fillId="14" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="14" borderId="95" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="14" borderId="99" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="165" fontId="3" fillId="0" borderId="86" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="47" fillId="0" borderId="86" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="13" fillId="6" borderId="58" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="6" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="6" borderId="51" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="11" fillId="6" borderId="51" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="11" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="11" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="49" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="49" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="50" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="12" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="12" fillId="0" borderId="49" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="43" fillId="6" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="43" fillId="6" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="57" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="77" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="58" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="33" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="59" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="16" fillId="3" borderId="69" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="16" fillId="3" borderId="71" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="3" borderId="70" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="3" borderId="72" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="41" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="41" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="33" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="33" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="14" borderId="65" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="14" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="33" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="3" borderId="74" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="17" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="17" borderId="82" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="9" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="9" borderId="77" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="9" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="19" borderId="100" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="19" borderId="101" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="33" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="33" fillId="7" borderId="93" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="51" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="51" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="3" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="3" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="3" borderId="95" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="3" borderId="99" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="11" fillId="14" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="11" fillId="14" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="14" borderId="95" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="14" borderId="99" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="17" borderId="103" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="17" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="17" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="17" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="17" borderId="90" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="17" borderId="76" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="17" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="17" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="39" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -4537,11 +4614,11 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF0000FF"/>
       <color rgb="FFCCFF66"/>
       <color rgb="FF99CCFF"/>
       <color rgb="FF66FFFF"/>
       <color rgb="FF800000"/>
-      <color rgb="FF0000FF"/>
       <color rgb="FF6600FF"/>
       <color rgb="FF00FF00"/>
       <color rgb="FF00FF99"/>
@@ -6262,6 +6339,121 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Cerrar llave 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4286250" y="847725"/>
+          <a:ext cx="2028825" cy="7172325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightBrace">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 8333"/>
+            <a:gd name="adj2" fmla="val 49867"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="es-MX" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>523874</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>28574</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>85724</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Cerrar llave 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11601449" y="847725"/>
+          <a:ext cx="1819275" cy="5581649"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightBrace">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 8333"/>
+            <a:gd name="adj2" fmla="val 49662"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="es-MX" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
@@ -6556,23 +6748,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="448"/>
-      <c r="C1" s="450" t="s">
+      <c r="B1" s="427"/>
+      <c r="C1" s="429" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="451"/>
-      <c r="E1" s="451"/>
-      <c r="F1" s="451"/>
-      <c r="G1" s="451"/>
-      <c r="H1" s="451"/>
-      <c r="I1" s="451"/>
-      <c r="J1" s="451"/>
-      <c r="K1" s="451"/>
-      <c r="L1" s="451"/>
-      <c r="M1" s="451"/>
+      <c r="D1" s="430"/>
+      <c r="E1" s="430"/>
+      <c r="F1" s="430"/>
+      <c r="G1" s="430"/>
+      <c r="H1" s="430"/>
+      <c r="I1" s="430"/>
+      <c r="J1" s="430"/>
+      <c r="K1" s="430"/>
+      <c r="L1" s="430"/>
+      <c r="M1" s="430"/>
     </row>
     <row r="2" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="449"/>
+      <c r="B2" s="428"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -6582,17 +6774,17 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:19" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="452" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="453"/>
+      <c r="B3" s="431" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="432"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="454" t="s">
+      <c r="H3" s="433" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="454"/>
+      <c r="I3" s="433"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
@@ -6606,14 +6798,14 @@
         <v>0</v>
       </c>
       <c r="D4" s="18"/>
-      <c r="E4" s="455" t="s">
+      <c r="E4" s="434" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="456"/>
-      <c r="H4" s="457" t="s">
+      <c r="F4" s="435"/>
+      <c r="H4" s="436" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="458"/>
+      <c r="I4" s="437"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -6623,10 +6815,10 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="429" t="s">
+      <c r="P4" s="443" t="s">
         <v>6</v>
       </c>
-      <c r="Q4" s="430"/>
+      <c r="Q4" s="444"/>
     </row>
     <row r="5" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="23" t="s">
@@ -8067,11 +8259,11 @@
       <c r="J39" s="60"/>
       <c r="K39" s="177"/>
       <c r="L39" s="61"/>
-      <c r="M39" s="431">
+      <c r="M39" s="445">
         <f>SUM(M5:M38)</f>
         <v>247061</v>
       </c>
-      <c r="N39" s="433">
+      <c r="N39" s="447">
         <f>SUM(N5:N38)</f>
         <v>172863</v>
       </c>
@@ -8097,8 +8289,8 @@
       <c r="J40" s="60"/>
       <c r="K40" s="41"/>
       <c r="L40" s="61"/>
-      <c r="M40" s="432"/>
-      <c r="N40" s="434"/>
+      <c r="M40" s="446"/>
+      <c r="N40" s="448"/>
       <c r="P40" s="34"/>
       <c r="Q40" s="9"/>
     </row>
@@ -8313,29 +8505,29 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="435" t="s">
+      <c r="H52" s="449" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="436"/>
+      <c r="I52" s="450"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="437">
+      <c r="K52" s="451">
         <f>I50+L50</f>
         <v>53873.49</v>
       </c>
-      <c r="L52" s="438"/>
-      <c r="M52" s="439">
+      <c r="L52" s="452"/>
+      <c r="M52" s="453">
         <f>N39+M39</f>
         <v>419924</v>
       </c>
-      <c r="N52" s="440"/>
+      <c r="N52" s="454"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="9"/>
     </row>
     <row r="53" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D53" s="441" t="s">
+      <c r="D53" s="455" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="441"/>
+      <c r="E53" s="455"/>
       <c r="F53" s="101">
         <f>F50-K52-C50</f>
         <v>471038.61</v>
@@ -8346,22 +8538,22 @@
       <c r="Q53" s="9"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="441" t="s">
+      <c r="D54" s="455" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="441"/>
+      <c r="E54" s="455"/>
       <c r="F54" s="96">
         <v>-549976.4</v>
       </c>
-      <c r="I54" s="442" t="s">
+      <c r="I54" s="456" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="443"/>
-      <c r="K54" s="444">
+      <c r="J54" s="457"/>
+      <c r="K54" s="458">
         <f>F56+F57+F58</f>
         <v>-24577.400000000023</v>
       </c>
-      <c r="L54" s="445"/>
+      <c r="L54" s="459"/>
       <c r="P54" s="34"/>
       <c r="Q54" s="9"/>
     </row>
@@ -8394,11 +8586,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="446">
+      <c r="K56" s="460">
         <f>-C4</f>
         <v>0</v>
       </c>
-      <c r="L56" s="447"/>
+      <c r="L56" s="461"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -8415,22 +8607,22 @@
       <c r="C58" s="112">
         <v>44507</v>
       </c>
-      <c r="D58" s="424" t="s">
+      <c r="D58" s="438" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="425"/>
+      <c r="E58" s="439"/>
       <c r="F58" s="113">
         <v>567389.35</v>
       </c>
-      <c r="I58" s="426" t="s">
+      <c r="I58" s="440" t="s">
         <v>97</v>
       </c>
-      <c r="J58" s="427"/>
-      <c r="K58" s="428">
+      <c r="J58" s="441"/>
+      <c r="K58" s="442">
         <f>K54+K56</f>
         <v>-24577.400000000023</v>
       </c>
-      <c r="L58" s="428"/>
+      <c r="L58" s="442"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -8574,12 +8766,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
     <mergeCell ref="D58:E58"/>
     <mergeCell ref="I58:J58"/>
     <mergeCell ref="K58:L58"/>
@@ -8594,6 +8780,12 @@
     <mergeCell ref="I54:J54"/>
     <mergeCell ref="K54:L54"/>
     <mergeCell ref="K56:L56"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0.15748031496062992" top="0.35433070866141736" bottom="0.31496062992125984" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="75" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -8625,11 +8817,11 @@
   <sheetData>
     <row r="1" spans="2:6" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="155"/>
-      <c r="C1" s="498" t="s">
+      <c r="C1" s="501" t="s">
         <v>320</v>
       </c>
-      <c r="D1" s="498"/>
-      <c r="E1" s="499"/>
+      <c r="D1" s="501"/>
+      <c r="E1" s="502"/>
       <c r="F1" s="387"/>
     </row>
     <row r="2" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -8647,12 +8839,12 @@
       <c r="F3" s="394"/>
     </row>
     <row r="4" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B4" s="500" t="s">
+      <c r="B4" s="503" t="s">
         <v>316</v>
       </c>
-      <c r="C4" s="501"/>
-      <c r="D4" s="501"/>
-      <c r="E4" s="501"/>
+      <c r="C4" s="504"/>
+      <c r="D4" s="504"/>
+      <c r="E4" s="504"/>
       <c r="F4" s="395">
         <v>499853.16</v>
       </c>
@@ -8667,12 +8859,12 @@
       </c>
     </row>
     <row r="6" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B6" s="502" t="s">
+      <c r="B6" s="505" t="s">
         <v>317</v>
       </c>
-      <c r="C6" s="503"/>
-      <c r="D6" s="503"/>
-      <c r="E6" s="503"/>
+      <c r="C6" s="506"/>
+      <c r="D6" s="506"/>
+      <c r="E6" s="506"/>
       <c r="F6" s="395">
         <v>781251.72</v>
       </c>
@@ -8690,10 +8882,10 @@
       <c r="B8" s="388"/>
       <c r="C8" s="381"/>
       <c r="D8" s="382"/>
-      <c r="E8" s="504" t="s">
+      <c r="E8" s="507" t="s">
         <v>315</v>
       </c>
-      <c r="F8" s="506">
+      <c r="F8" s="509">
         <f>SUM(F4:F7)</f>
         <v>1281104.8799999999</v>
       </c>
@@ -8702,8 +8894,8 @@
       <c r="B9" s="388"/>
       <c r="C9" s="381"/>
       <c r="D9" s="382"/>
-      <c r="E9" s="505"/>
-      <c r="F9" s="507"/>
+      <c r="E9" s="508"/>
+      <c r="F9" s="510"/>
     </row>
     <row r="10" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B10" s="388"/>
@@ -8727,12 +8919,12 @@
       <c r="F12" s="394"/>
     </row>
     <row r="13" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B13" s="508" t="s">
+      <c r="B13" s="511" t="s">
         <v>318</v>
       </c>
-      <c r="C13" s="509"/>
-      <c r="D13" s="509"/>
-      <c r="E13" s="509"/>
+      <c r="C13" s="512"/>
+      <c r="D13" s="512"/>
+      <c r="E13" s="512"/>
       <c r="F13" s="395">
         <v>255460.4</v>
       </c>
@@ -8747,12 +8939,12 @@
       </c>
     </row>
     <row r="15" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B15" s="508" t="s">
+      <c r="B15" s="511" t="s">
         <v>319</v>
       </c>
-      <c r="C15" s="509"/>
-      <c r="D15" s="509"/>
-      <c r="E15" s="509"/>
+      <c r="C15" s="512"/>
+      <c r="D15" s="512"/>
+      <c r="E15" s="512"/>
       <c r="F15" s="395">
         <v>6037.34</v>
       </c>
@@ -8770,10 +8962,10 @@
       <c r="B17" s="388"/>
       <c r="C17" s="381"/>
       <c r="D17" s="382"/>
-      <c r="E17" s="510" t="s">
+      <c r="E17" s="513" t="s">
         <v>315</v>
       </c>
-      <c r="F17" s="512">
+      <c r="F17" s="515">
         <f>SUM(F13:F16)</f>
         <v>261497.74</v>
       </c>
@@ -8782,8 +8974,8 @@
       <c r="B18" s="388"/>
       <c r="C18" s="381"/>
       <c r="D18" s="382"/>
-      <c r="E18" s="511"/>
-      <c r="F18" s="513"/>
+      <c r="E18" s="514"/>
+      <c r="F18" s="516"/>
     </row>
     <row r="19" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B19" s="388"/>
@@ -8807,22 +8999,22 @@
       <c r="F21" s="394"/>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B22" s="492" t="s">
+      <c r="B22" s="495" t="s">
         <v>321</v>
       </c>
-      <c r="C22" s="493"/>
-      <c r="D22" s="493"/>
-      <c r="E22" s="493"/>
-      <c r="F22" s="496">
+      <c r="C22" s="496"/>
+      <c r="D22" s="496"/>
+      <c r="E22" s="496"/>
+      <c r="F22" s="499">
         <v>12020</v>
       </c>
     </row>
     <row r="23" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="494"/>
-      <c r="C23" s="495"/>
-      <c r="D23" s="495"/>
-      <c r="E23" s="495"/>
-      <c r="F23" s="497"/>
+      <c r="B23" s="497"/>
+      <c r="C23" s="498"/>
+      <c r="D23" s="498"/>
+      <c r="E23" s="498"/>
+      <c r="F23" s="500"/>
     </row>
     <row r="24" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B24" s="355"/>
@@ -10182,7 +10374,7 @@
       <c r="A41" s="140">
         <v>44507</v>
       </c>
-      <c r="B41" s="459" t="s">
+      <c r="B41" s="462" t="s">
         <v>92</v>
       </c>
       <c r="C41" s="190">
@@ -10214,7 +10406,7 @@
       <c r="A42" s="140" t="s">
         <v>93</v>
       </c>
-      <c r="B42" s="460"/>
+      <c r="B42" s="463"/>
       <c r="C42" s="143">
         <v>0</v>
       </c>
@@ -11810,23 +12002,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="448"/>
-      <c r="C1" s="450" t="s">
+      <c r="B1" s="427"/>
+      <c r="C1" s="429" t="s">
         <v>208</v>
       </c>
-      <c r="D1" s="451"/>
-      <c r="E1" s="451"/>
-      <c r="F1" s="451"/>
-      <c r="G1" s="451"/>
-      <c r="H1" s="451"/>
-      <c r="I1" s="451"/>
-      <c r="J1" s="451"/>
-      <c r="K1" s="451"/>
-      <c r="L1" s="451"/>
-      <c r="M1" s="451"/>
+      <c r="D1" s="430"/>
+      <c r="E1" s="430"/>
+      <c r="F1" s="430"/>
+      <c r="G1" s="430"/>
+      <c r="H1" s="430"/>
+      <c r="I1" s="430"/>
+      <c r="J1" s="430"/>
+      <c r="K1" s="430"/>
+      <c r="L1" s="430"/>
+      <c r="M1" s="430"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="449"/>
+      <c r="B2" s="428"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -11836,21 +12028,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="452" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="453"/>
+      <c r="B3" s="431" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="432"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="454" t="s">
+      <c r="H3" s="433" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="454"/>
+      <c r="I3" s="433"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="478" t="s">
+      <c r="P3" s="470" t="s">
         <v>6</v>
       </c>
     </row>
@@ -11865,14 +12057,14 @@
       <c r="D4" s="18">
         <v>44507</v>
       </c>
-      <c r="E4" s="455" t="s">
+      <c r="E4" s="434" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="456"/>
-      <c r="H4" s="457" t="s">
+      <c r="F4" s="435"/>
+      <c r="H4" s="436" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="458"/>
+      <c r="I4" s="437"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -11882,14 +12074,14 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="479"/>
+      <c r="P4" s="471"/>
       <c r="Q4" s="286" t="s">
         <v>209</v>
       </c>
-      <c r="W4" s="461" t="s">
+      <c r="W4" s="480" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="461"/>
+      <c r="X4" s="480"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -11940,8 +12132,8 @@
         <f>20000+7936</f>
         <v>27936</v>
       </c>
-      <c r="W5" s="461"/>
-      <c r="X5" s="461"/>
+      <c r="W5" s="480"/>
+      <c r="X5" s="480"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -12712,7 +12904,7 @@
         <v>26370</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="465">
+      <c r="W19" s="484">
         <f t="shared" ref="W19" si="3">SUM(W6:W18)</f>
         <v>935136</v>
       </c>
@@ -12764,7 +12956,7 @@
         <v>16395.830000000002</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="466"/>
+      <c r="W20" s="485"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -12813,8 +13005,8 @@
         <v>19188.82</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="467"/>
-      <c r="X21" s="467"/>
+      <c r="W21" s="486"/>
+      <c r="X21" s="486"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -12915,8 +13107,8 @@
         <v>45217.29</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="468"/>
-      <c r="X23" s="468"/>
+      <c r="W23" s="487"/>
+      <c r="X23" s="487"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -12970,8 +13162,8 @@
         <v>23159.17</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="468"/>
-      <c r="X24" s="468"/>
+      <c r="W24" s="487"/>
+      <c r="X24" s="487"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -13017,8 +13209,8 @@
       <c r="R25" s="285">
         <v>28952</v>
       </c>
-      <c r="W25" s="469"/>
-      <c r="X25" s="469"/>
+      <c r="W25" s="488"/>
+      <c r="X25" s="488"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -13069,8 +13261,8 @@
       <c r="R26" s="285">
         <v>21771.5</v>
       </c>
-      <c r="W26" s="469"/>
-      <c r="X26" s="469"/>
+      <c r="W26" s="488"/>
+      <c r="X26" s="488"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -13118,9 +13310,9 @@
       <c r="R27" s="285">
         <v>14637</v>
       </c>
-      <c r="W27" s="462"/>
-      <c r="X27" s="463"/>
-      <c r="Y27" s="464"/>
+      <c r="W27" s="481"/>
+      <c r="X27" s="482"/>
+      <c r="Y27" s="483"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -13170,9 +13362,9 @@
       <c r="R28" s="285">
         <v>0</v>
       </c>
-      <c r="W28" s="463"/>
-      <c r="X28" s="463"/>
-      <c r="Y28" s="464"/>
+      <c r="W28" s="482"/>
+      <c r="X28" s="482"/>
+      <c r="Y28" s="483"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -13507,11 +13699,11 @@
       <c r="L36" s="44">
         <v>5940</v>
       </c>
-      <c r="M36" s="480">
+      <c r="M36" s="472">
         <f t="shared" ref="M36" si="4">SUM(M5:M35)</f>
         <v>321168.83</v>
       </c>
-      <c r="N36" s="482">
+      <c r="N36" s="474">
         <f t="shared" ref="N36" si="5">SUM(N5:N35)</f>
         <v>467016</v>
       </c>
@@ -13519,7 +13711,7 @@
       <c r="P36" s="277">
         <v>0</v>
       </c>
-      <c r="Q36" s="484">
+      <c r="Q36" s="476">
         <f t="shared" ref="Q36" si="6">SUM(Q5:Q35)</f>
         <v>-637069.14000000013</v>
       </c>
@@ -13554,13 +13746,13 @@
       <c r="L37" s="61">
         <v>7929.62</v>
       </c>
-      <c r="M37" s="481"/>
-      <c r="N37" s="483"/>
+      <c r="M37" s="473"/>
+      <c r="N37" s="475"/>
       <c r="O37" s="276"/>
       <c r="P37" s="277">
         <v>0</v>
       </c>
-      <c r="Q37" s="485"/>
+      <c r="Q37" s="477"/>
     </row>
     <row r="38" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="23"/>
@@ -13850,26 +14042,26 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="435" t="s">
+      <c r="H52" s="449" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="436"/>
+      <c r="I52" s="450"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="437">
+      <c r="K52" s="451">
         <f>I50+L50</f>
         <v>71911.59</v>
       </c>
-      <c r="L52" s="470"/>
+      <c r="L52" s="478"/>
       <c r="M52" s="272"/>
       <c r="N52" s="272"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="13"/>
     </row>
     <row r="53" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D53" s="441" t="s">
+      <c r="D53" s="455" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="441"/>
+      <c r="E53" s="455"/>
       <c r="F53" s="313">
         <f>F50-K52-C50</f>
         <v>-25952.549999999814</v>
@@ -13878,29 +14070,29 @@
       <c r="J53" s="103"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="471" t="s">
+      <c r="D54" s="479" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="471"/>
+      <c r="E54" s="479"/>
       <c r="F54" s="111">
         <v>-706888.38</v>
       </c>
-      <c r="I54" s="442" t="s">
+      <c r="I54" s="456" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="443"/>
-      <c r="K54" s="444">
+      <c r="J54" s="457"/>
+      <c r="K54" s="458">
         <f>F56+F57+F58</f>
         <v>1308778.3500000003</v>
       </c>
-      <c r="L54" s="444"/>
-      <c r="M54" s="472" t="s">
+      <c r="L54" s="458"/>
+      <c r="M54" s="464" t="s">
         <v>211</v>
       </c>
-      <c r="N54" s="473"/>
-      <c r="O54" s="473"/>
-      <c r="P54" s="473"/>
-      <c r="Q54" s="474"/>
+      <c r="N54" s="465"/>
+      <c r="O54" s="465"/>
+      <c r="P54" s="465"/>
+      <c r="Q54" s="466"/>
     </row>
     <row r="55" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D55" s="314" t="s">
@@ -13914,11 +14106,11 @@
       <c r="J55" s="106"/>
       <c r="K55" s="178"/>
       <c r="L55" s="107"/>
-      <c r="M55" s="475"/>
-      <c r="N55" s="476"/>
-      <c r="O55" s="476"/>
-      <c r="P55" s="476"/>
-      <c r="Q55" s="477"/>
+      <c r="M55" s="467"/>
+      <c r="N55" s="468"/>
+      <c r="O55" s="468"/>
+      <c r="P55" s="468"/>
+      <c r="Q55" s="469"/>
     </row>
     <row r="56" spans="1:17" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="C56" s="4" t="s">
@@ -13936,11 +14128,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="446">
+      <c r="K56" s="460">
         <f>-C4</f>
         <v>-567389.35</v>
       </c>
-      <c r="L56" s="447"/>
+      <c r="L56" s="461"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -13957,22 +14149,22 @@
       <c r="C58" s="112">
         <v>44535</v>
       </c>
-      <c r="D58" s="424" t="s">
+      <c r="D58" s="438" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="425"/>
+      <c r="E58" s="439"/>
       <c r="F58" s="113">
         <v>2142307.62</v>
       </c>
-      <c r="I58" s="426" t="s">
+      <c r="I58" s="440" t="s">
         <v>198</v>
       </c>
-      <c r="J58" s="427"/>
-      <c r="K58" s="428">
+      <c r="J58" s="441"/>
+      <c r="K58" s="442">
         <f>K54+K56</f>
         <v>741389.00000000035</v>
       </c>
-      <c r="L58" s="428"/>
+      <c r="L58" s="442"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -14116,17 +14308,14 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="M54:Q55"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="M36:M37"/>
-    <mergeCell ref="N36:N37"/>
-    <mergeCell ref="Q36:Q37"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="W4:X5"/>
+    <mergeCell ref="W27:X28"/>
+    <mergeCell ref="Y27:Y28"/>
+    <mergeCell ref="W19:W20"/>
+    <mergeCell ref="W21:X21"/>
+    <mergeCell ref="W23:X24"/>
+    <mergeCell ref="W25:X25"/>
+    <mergeCell ref="W26:X26"/>
     <mergeCell ref="D58:E58"/>
     <mergeCell ref="I58:J58"/>
     <mergeCell ref="K58:L58"/>
@@ -14137,14 +14326,17 @@
     <mergeCell ref="I54:J54"/>
     <mergeCell ref="K54:L54"/>
     <mergeCell ref="K56:L56"/>
-    <mergeCell ref="W4:X5"/>
-    <mergeCell ref="W27:X28"/>
-    <mergeCell ref="Y27:Y28"/>
-    <mergeCell ref="W19:W20"/>
-    <mergeCell ref="W21:X21"/>
-    <mergeCell ref="W23:X24"/>
-    <mergeCell ref="W25:X25"/>
-    <mergeCell ref="W26:X26"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="M54:Q55"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="M36:M37"/>
+    <mergeCell ref="N36:N37"/>
+    <mergeCell ref="Q36:Q37"/>
   </mergeCells>
   <pageMargins left="0.15748031496062992" right="0.15748031496062992" top="0.27559055118110237" bottom="0.27559055118110237" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="68" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -16562,7 +16754,7 @@
       <c r="C87" s="214"/>
       <c r="D87" s="97"/>
       <c r="E87" s="3"/>
-      <c r="F87" s="486" t="s">
+      <c r="F87" s="489" t="s">
         <v>207</v>
       </c>
       <c r="K87" s="1"/>
@@ -16575,7 +16767,7 @@
       <c r="C88" s="1"/>
       <c r="D88" s="97"/>
       <c r="E88" s="3"/>
-      <c r="F88" s="487"/>
+      <c r="F88" s="490"/>
       <c r="K88" s="1"/>
       <c r="L88" s="256"/>
       <c r="M88" s="3"/>
@@ -16887,23 +17079,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="448"/>
-      <c r="C1" s="450" t="s">
+      <c r="B1" s="427"/>
+      <c r="C1" s="429" t="s">
         <v>208</v>
       </c>
-      <c r="D1" s="451"/>
-      <c r="E1" s="451"/>
-      <c r="F1" s="451"/>
-      <c r="G1" s="451"/>
-      <c r="H1" s="451"/>
-      <c r="I1" s="451"/>
-      <c r="J1" s="451"/>
-      <c r="K1" s="451"/>
-      <c r="L1" s="451"/>
-      <c r="M1" s="451"/>
+      <c r="D1" s="430"/>
+      <c r="E1" s="430"/>
+      <c r="F1" s="430"/>
+      <c r="G1" s="430"/>
+      <c r="H1" s="430"/>
+      <c r="I1" s="430"/>
+      <c r="J1" s="430"/>
+      <c r="K1" s="430"/>
+      <c r="L1" s="430"/>
+      <c r="M1" s="430"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="449"/>
+      <c r="B2" s="428"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -16913,24 +17105,24 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="452" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="453"/>
+      <c r="B3" s="431" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="432"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="454" t="s">
+      <c r="H3" s="433" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="454"/>
+      <c r="I3" s="433"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="478" t="s">
+      <c r="P3" s="470" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="488" t="s">
+      <c r="R3" s="491" t="s">
         <v>216</v>
       </c>
     </row>
@@ -16945,14 +17137,14 @@
       <c r="D4" s="18">
         <v>44507</v>
       </c>
-      <c r="E4" s="455" t="s">
+      <c r="E4" s="434" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="456"/>
-      <c r="H4" s="457" t="s">
+      <c r="F4" s="435"/>
+      <c r="H4" s="436" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="458"/>
+      <c r="I4" s="437"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -16962,15 +17154,15 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="479"/>
+      <c r="P4" s="471"/>
       <c r="Q4" s="323" t="s">
         <v>217</v>
       </c>
-      <c r="R4" s="489"/>
-      <c r="W4" s="461" t="s">
+      <c r="R4" s="492"/>
+      <c r="W4" s="480" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="461"/>
+      <c r="X4" s="480"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -17031,8 +17223,8 @@
       <c r="S5" s="325" t="s">
         <v>213</v>
       </c>
-      <c r="W5" s="461"/>
-      <c r="X5" s="461"/>
+      <c r="W5" s="480"/>
+      <c r="X5" s="480"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -17789,7 +17981,7 @@
         <v>0</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="465">
+      <c r="W19" s="484">
         <f t="shared" ref="W19" si="3">SUM(W6:W18)</f>
         <v>0</v>
       </c>
@@ -17841,7 +18033,7 @@
         <v>0</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="466"/>
+      <c r="W20" s="485"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -17890,8 +18082,8 @@
         <v>0</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="467"/>
-      <c r="X21" s="467"/>
+      <c r="W21" s="486"/>
+      <c r="X21" s="486"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -17992,8 +18184,8 @@
         <v>0</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="468"/>
-      <c r="X23" s="468"/>
+      <c r="W23" s="487"/>
+      <c r="X23" s="487"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -18044,8 +18236,8 @@
         <v>0</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="468"/>
-      <c r="X24" s="468"/>
+      <c r="W24" s="487"/>
+      <c r="X24" s="487"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -18091,8 +18283,8 @@
       <c r="R25" s="320">
         <v>0</v>
       </c>
-      <c r="W25" s="469"/>
-      <c r="X25" s="469"/>
+      <c r="W25" s="488"/>
+      <c r="X25" s="488"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -18140,8 +18332,8 @@
       <c r="R26" s="320">
         <v>0</v>
       </c>
-      <c r="W26" s="469"/>
-      <c r="X26" s="469"/>
+      <c r="W26" s="488"/>
+      <c r="X26" s="488"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -18201,9 +18393,9 @@
       <c r="V27" t="s">
         <v>240</v>
       </c>
-      <c r="W27" s="462"/>
-      <c r="X27" s="463"/>
-      <c r="Y27" s="464"/>
+      <c r="W27" s="481"/>
+      <c r="X27" s="482"/>
+      <c r="Y27" s="483"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -18257,9 +18449,9 @@
       <c r="V28" t="s">
         <v>240</v>
       </c>
-      <c r="W28" s="463"/>
-      <c r="X28" s="463"/>
-      <c r="Y28" s="464"/>
+      <c r="W28" s="482"/>
+      <c r="X28" s="482"/>
+      <c r="Y28" s="483"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -18575,11 +18767,11 @@
       <c r="J36" s="266"/>
       <c r="K36" s="250"/>
       <c r="L36" s="44"/>
-      <c r="M36" s="480">
+      <c r="M36" s="472">
         <f t="shared" ref="M36" si="4">SUM(M5:M35)</f>
         <v>1077791.3</v>
       </c>
-      <c r="N36" s="482">
+      <c r="N36" s="474">
         <f t="shared" ref="N36" si="5">SUM(N5:N35)</f>
         <v>936398</v>
       </c>
@@ -18587,7 +18779,7 @@
       <c r="P36" s="277">
         <v>0</v>
       </c>
-      <c r="Q36" s="484">
+      <c r="Q36" s="476">
         <f t="shared" ref="Q36" si="6">SUM(Q5:Q35)</f>
         <v>-14262.940000000002</v>
       </c>
@@ -18606,13 +18798,13 @@
       <c r="J37" s="60"/>
       <c r="K37" s="41"/>
       <c r="L37" s="61"/>
-      <c r="M37" s="481"/>
-      <c r="N37" s="483"/>
+      <c r="M37" s="473"/>
+      <c r="N37" s="475"/>
       <c r="O37" s="276"/>
       <c r="P37" s="277">
         <v>0</v>
       </c>
-      <c r="Q37" s="485"/>
+      <c r="Q37" s="477"/>
     </row>
     <row r="38" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="23"/>
@@ -18886,26 +19078,26 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="435" t="s">
+      <c r="H52" s="449" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="436"/>
+      <c r="I52" s="450"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="437">
+      <c r="K52" s="451">
         <f>I50+L50</f>
         <v>90750.75</v>
       </c>
-      <c r="L52" s="470"/>
+      <c r="L52" s="478"/>
       <c r="M52" s="272"/>
       <c r="N52" s="272"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="13"/>
     </row>
     <row r="53" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D53" s="441" t="s">
+      <c r="D53" s="455" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="441"/>
+      <c r="E53" s="455"/>
       <c r="F53" s="313">
         <f>F50-K52-C50</f>
         <v>1739855.03</v>
@@ -18914,29 +19106,29 @@
       <c r="J53" s="103"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="471" t="s">
+      <c r="D54" s="479" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="471"/>
+      <c r="E54" s="479"/>
       <c r="F54" s="111">
         <v>-1567070.66</v>
       </c>
-      <c r="I54" s="442" t="s">
+      <c r="I54" s="456" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="443"/>
-      <c r="K54" s="444">
+      <c r="J54" s="457"/>
+      <c r="K54" s="458">
         <f>F56+F57+F58</f>
         <v>703192.8600000001</v>
       </c>
-      <c r="L54" s="444"/>
-      <c r="M54" s="472" t="s">
+      <c r="L54" s="458"/>
+      <c r="M54" s="464" t="s">
         <v>211</v>
       </c>
-      <c r="N54" s="473"/>
-      <c r="O54" s="473"/>
-      <c r="P54" s="473"/>
-      <c r="Q54" s="474"/>
+      <c r="N54" s="465"/>
+      <c r="O54" s="465"/>
+      <c r="P54" s="465"/>
+      <c r="Q54" s="466"/>
     </row>
     <row r="55" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D55" s="314" t="s">
@@ -18950,11 +19142,11 @@
       <c r="J55" s="106"/>
       <c r="K55" s="178"/>
       <c r="L55" s="107"/>
-      <c r="M55" s="475"/>
-      <c r="N55" s="476"/>
-      <c r="O55" s="476"/>
-      <c r="P55" s="476"/>
-      <c r="Q55" s="477"/>
+      <c r="M55" s="467"/>
+      <c r="N55" s="468"/>
+      <c r="O55" s="468"/>
+      <c r="P55" s="468"/>
+      <c r="Q55" s="469"/>
     </row>
     <row r="56" spans="1:17" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="C56" s="4" t="s">
@@ -18972,11 +19164,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="446">
+      <c r="K56" s="460">
         <f>-C4</f>
         <v>-567389.35</v>
       </c>
-      <c r="L56" s="447"/>
+      <c r="L56" s="461"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -18993,22 +19185,22 @@
       <c r="C58" s="112">
         <v>44563</v>
       </c>
-      <c r="D58" s="424" t="s">
+      <c r="D58" s="438" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="425"/>
+      <c r="E58" s="439"/>
       <c r="F58" s="113">
         <v>754143.23</v>
       </c>
-      <c r="I58" s="426" t="s">
+      <c r="I58" s="440" t="s">
         <v>198</v>
       </c>
-      <c r="J58" s="427"/>
-      <c r="K58" s="428">
+      <c r="J58" s="441"/>
+      <c r="K58" s="442">
         <f>K54+K56</f>
         <v>135803.51000000013</v>
       </c>
-      <c r="L58" s="428"/>
+      <c r="L58" s="442"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -19152,13 +19344,20 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="I58:J58"/>
+    <mergeCell ref="K58:L58"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="I54:J54"/>
+    <mergeCell ref="K54:L54"/>
+    <mergeCell ref="M54:Q55"/>
+    <mergeCell ref="K56:L56"/>
+    <mergeCell ref="W27:X28"/>
+    <mergeCell ref="Y27:Y28"/>
+    <mergeCell ref="M36:M37"/>
+    <mergeCell ref="N36:N37"/>
+    <mergeCell ref="Q36:Q37"/>
     <mergeCell ref="H52:I52"/>
     <mergeCell ref="K52:L52"/>
     <mergeCell ref="W4:X5"/>
@@ -19168,20 +19367,13 @@
     <mergeCell ref="W25:X25"/>
     <mergeCell ref="W26:X26"/>
     <mergeCell ref="R3:R4"/>
-    <mergeCell ref="M54:Q55"/>
-    <mergeCell ref="K56:L56"/>
-    <mergeCell ref="W27:X28"/>
-    <mergeCell ref="Y27:Y28"/>
-    <mergeCell ref="M36:M37"/>
-    <mergeCell ref="N36:N37"/>
-    <mergeCell ref="Q36:Q37"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="I58:J58"/>
-    <mergeCell ref="K58:L58"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="I54:J54"/>
-    <mergeCell ref="K54:L54"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -19197,8 +19389,8 @@
   </sheetPr>
   <dimension ref="A1:N110"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="L77" sqref="L77"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="F85" sqref="F85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21571,7 +21763,7 @@
       <c r="C75" s="214"/>
       <c r="D75" s="256"/>
       <c r="E75" s="3"/>
-      <c r="F75" s="486" t="s">
+      <c r="F75" s="489" t="s">
         <v>207</v>
       </c>
       <c r="K75" s="1"/>
@@ -21584,7 +21776,7 @@
       <c r="C76" s="1"/>
       <c r="D76" s="256"/>
       <c r="E76" s="3"/>
-      <c r="F76" s="487"/>
+      <c r="F76" s="490"/>
       <c r="K76" s="1"/>
       <c r="L76" s="256"/>
       <c r="M76" s="3"/>
@@ -21608,65 +21800,73 @@
       <c r="I79"/>
       <c r="J79" s="194"/>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A80"/>
       <c r="B80" s="23"/>
+      <c r="C80" s="96"/>
       <c r="F80"/>
       <c r="I80"/>
       <c r="J80" s="194"/>
       <c r="N80"/>
     </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A81"/>
       <c r="B81" s="23"/>
+      <c r="C81" s="96"/>
       <c r="F81"/>
       <c r="I81"/>
       <c r="J81" s="194"/>
       <c r="N81"/>
     </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A82"/>
       <c r="B82" s="23"/>
+      <c r="C82" s="96"/>
       <c r="F82"/>
       <c r="I82"/>
       <c r="J82" s="194"/>
       <c r="N82"/>
     </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A83"/>
       <c r="B83" s="23"/>
+      <c r="C83" s="96"/>
       <c r="F83"/>
       <c r="I83"/>
       <c r="J83" s="194"/>
       <c r="N83"/>
     </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A84"/>
       <c r="B84" s="23"/>
+      <c r="C84" s="96"/>
       <c r="F84"/>
       <c r="I84"/>
       <c r="J84" s="194"/>
       <c r="N84"/>
     </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A85"/>
       <c r="B85" s="23"/>
+      <c r="C85" s="96"/>
       <c r="F85"/>
       <c r="I85"/>
       <c r="J85" s="194"/>
       <c r="N85"/>
     </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A86"/>
       <c r="B86" s="23"/>
+      <c r="C86" s="96"/>
       <c r="F86"/>
       <c r="I86"/>
       <c r="J86" s="194"/>
       <c r="N86"/>
     </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A87"/>
       <c r="B87" s="23"/>
+      <c r="C87" s="96"/>
       <c r="F87"/>
       <c r="I87"/>
       <c r="J87" s="194"/>
@@ -21838,8 +22038,8 @@
   </sheetPr>
   <dimension ref="A1:Z80"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="H63" sqref="H63"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E61" sqref="E61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -21868,23 +22068,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="448"/>
-      <c r="C1" s="490" t="s">
+      <c r="B1" s="427"/>
+      <c r="C1" s="493" t="s">
         <v>323</v>
       </c>
-      <c r="D1" s="491"/>
-      <c r="E1" s="491"/>
-      <c r="F1" s="491"/>
-      <c r="G1" s="491"/>
-      <c r="H1" s="491"/>
-      <c r="I1" s="491"/>
-      <c r="J1" s="491"/>
-      <c r="K1" s="491"/>
-      <c r="L1" s="491"/>
-      <c r="M1" s="491"/>
+      <c r="D1" s="494"/>
+      <c r="E1" s="494"/>
+      <c r="F1" s="494"/>
+      <c r="G1" s="494"/>
+      <c r="H1" s="494"/>
+      <c r="I1" s="494"/>
+      <c r="J1" s="494"/>
+      <c r="K1" s="494"/>
+      <c r="L1" s="494"/>
+      <c r="M1" s="494"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="449"/>
+      <c r="B2" s="428"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -21894,24 +22094,24 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="452" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="453"/>
+      <c r="B3" s="431" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="432"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="454" t="s">
+      <c r="H3" s="433" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="454"/>
+      <c r="I3" s="433"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="478" t="s">
+      <c r="P3" s="470" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="488" t="s">
+      <c r="R3" s="491" t="s">
         <v>216</v>
       </c>
     </row>
@@ -21926,14 +22126,14 @@
       <c r="D4" s="18">
         <v>44563</v>
       </c>
-      <c r="E4" s="455" t="s">
+      <c r="E4" s="434" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="456"/>
-      <c r="H4" s="457" t="s">
+      <c r="F4" s="435"/>
+      <c r="H4" s="436" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="458"/>
+      <c r="I4" s="437"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -21943,15 +22143,15 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="479"/>
+      <c r="P4" s="471"/>
       <c r="Q4" s="323" t="s">
         <v>217</v>
       </c>
-      <c r="R4" s="489"/>
-      <c r="W4" s="461" t="s">
+      <c r="R4" s="492"/>
+      <c r="W4" s="480" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="461"/>
+      <c r="X4" s="480"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -22002,8 +22202,8 @@
         <v>0</v>
       </c>
       <c r="S5" s="325"/>
-      <c r="W5" s="461"/>
-      <c r="X5" s="461"/>
+      <c r="W5" s="480"/>
+      <c r="X5" s="480"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -22767,7 +22967,7 @@
         <v>0</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="465">
+      <c r="W19" s="484">
         <f t="shared" ref="W19" si="3">SUM(W6:W18)</f>
         <v>0</v>
       </c>
@@ -22820,7 +23020,7 @@
         <v>0</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="466"/>
+      <c r="W20" s="485"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -22869,8 +23069,8 @@
         <v>377273.87</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="467"/>
-      <c r="X21" s="467"/>
+      <c r="W21" s="486"/>
+      <c r="X21" s="486"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -22970,8 +23170,8 @@
         <v>0</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="468"/>
-      <c r="X23" s="468"/>
+      <c r="W23" s="487"/>
+      <c r="X23" s="487"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -23026,8 +23226,8 @@
         <v>0</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="468"/>
-      <c r="X24" s="468"/>
+      <c r="W24" s="487"/>
+      <c r="X24" s="487"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -23072,8 +23272,8 @@
       <c r="R25" s="320">
         <v>0</v>
       </c>
-      <c r="W25" s="469"/>
-      <c r="X25" s="469"/>
+      <c r="W25" s="488"/>
+      <c r="X25" s="488"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -23121,8 +23321,8 @@
       <c r="R26" s="320">
         <v>0</v>
       </c>
-      <c r="W26" s="469"/>
-      <c r="X26" s="469"/>
+      <c r="W26" s="488"/>
+      <c r="X26" s="488"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -23176,9 +23376,9 @@
       <c r="V27" t="s">
         <v>240</v>
       </c>
-      <c r="W27" s="462"/>
-      <c r="X27" s="463"/>
-      <c r="Y27" s="464"/>
+      <c r="W27" s="481"/>
+      <c r="X27" s="482"/>
+      <c r="Y27" s="483"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -23232,9 +23432,9 @@
       <c r="V28" t="s">
         <v>240</v>
       </c>
-      <c r="W28" s="463"/>
-      <c r="X28" s="463"/>
-      <c r="Y28" s="464"/>
+      <c r="W28" s="482"/>
+      <c r="X28" s="482"/>
+      <c r="Y28" s="483"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -23539,11 +23739,11 @@
       <c r="L36" s="44">
         <v>13275.84</v>
       </c>
-      <c r="M36" s="480">
+      <c r="M36" s="472">
         <f t="shared" ref="M36:N36" si="4">SUM(M5:M35)</f>
         <v>1818445.73</v>
       </c>
-      <c r="N36" s="482">
+      <c r="N36" s="474">
         <f t="shared" si="4"/>
         <v>739014</v>
       </c>
@@ -23551,7 +23751,7 @@
       <c r="P36" s="277">
         <v>0</v>
       </c>
-      <c r="Q36" s="484">
+      <c r="Q36" s="476">
         <f t="shared" ref="Q36" si="5">SUM(Q5:Q35)</f>
         <v>-7.2800000000133878</v>
       </c>
@@ -23576,13 +23776,13 @@
       <c r="L37" s="61">
         <v>15060.32</v>
       </c>
-      <c r="M37" s="481"/>
-      <c r="N37" s="483"/>
+      <c r="M37" s="473"/>
+      <c r="N37" s="475"/>
       <c r="O37" s="276"/>
       <c r="P37" s="277">
         <v>0</v>
       </c>
-      <c r="Q37" s="485"/>
+      <c r="Q37" s="477"/>
       <c r="R37" s="227" t="s">
         <v>7</v>
       </c>
@@ -23869,26 +24069,26 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="435" t="s">
+      <c r="H52" s="449" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="436"/>
+      <c r="I52" s="450"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="437">
+      <c r="K52" s="451">
         <f>I50+L50</f>
         <v>144994.20000000001</v>
       </c>
-      <c r="L52" s="470"/>
+      <c r="L52" s="478"/>
       <c r="M52" s="272"/>
       <c r="N52" s="272"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="13"/>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D53" s="441" t="s">
+      <c r="D53" s="455" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="441"/>
+      <c r="E53" s="455"/>
       <c r="F53" s="313">
         <f>F50-K52-C50</f>
         <v>2135426.1199999996</v>
@@ -23897,22 +24097,22 @@
       <c r="J53" s="103"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="471" t="s">
+      <c r="D54" s="479" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="471"/>
+      <c r="E54" s="479"/>
       <c r="F54" s="111">
         <v>-1448401.2</v>
       </c>
-      <c r="I54" s="442" t="s">
+      <c r="I54" s="456" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="443"/>
-      <c r="K54" s="444">
+      <c r="J54" s="457"/>
+      <c r="K54" s="458">
         <f>F56+F57+F58</f>
         <v>1082916.0699999996</v>
       </c>
-      <c r="L54" s="444"/>
+      <c r="L54" s="458"/>
       <c r="M54" s="423"/>
       <c r="N54" s="423"/>
       <c r="O54" s="423"/>
@@ -23953,11 +24153,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="446">
+      <c r="K56" s="460">
         <f>-C4</f>
         <v>-754143.23</v>
       </c>
-      <c r="L56" s="447"/>
+      <c r="L56" s="461"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -23974,22 +24174,22 @@
       <c r="C58" s="112">
         <v>44591</v>
       </c>
-      <c r="D58" s="424" t="s">
+      <c r="D58" s="438" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="425"/>
+      <c r="E58" s="439"/>
       <c r="F58" s="113">
         <v>1149740.4099999999</v>
       </c>
-      <c r="I58" s="426" t="s">
+      <c r="I58" s="440" t="s">
         <v>198</v>
       </c>
-      <c r="J58" s="427"/>
-      <c r="K58" s="428">
+      <c r="J58" s="441"/>
+      <c r="K58" s="442">
         <f>K54+K56</f>
         <v>328772.83999999962</v>
       </c>
-      <c r="L58" s="428"/>
+      <c r="L58" s="442"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -24133,23 +24333,6 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="H52:I52"/>
-    <mergeCell ref="K52:L52"/>
-    <mergeCell ref="W4:X5"/>
-    <mergeCell ref="W19:W20"/>
-    <mergeCell ref="W21:X21"/>
-    <mergeCell ref="W23:X24"/>
-    <mergeCell ref="W25:X25"/>
-    <mergeCell ref="W26:X26"/>
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="W27:X28"/>
     <mergeCell ref="Y27:Y28"/>
     <mergeCell ref="M36:M37"/>
     <mergeCell ref="N36:N37"/>
@@ -24162,6 +24345,23 @@
     <mergeCell ref="I54:J54"/>
     <mergeCell ref="K54:L54"/>
     <mergeCell ref="K56:L56"/>
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="K52:L52"/>
+    <mergeCell ref="W4:X5"/>
+    <mergeCell ref="W19:W20"/>
+    <mergeCell ref="W21:X21"/>
+    <mergeCell ref="W23:X24"/>
+    <mergeCell ref="W25:X25"/>
+    <mergeCell ref="W26:X26"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="W27:X28"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -24177,8 +24377,8 @@
   </sheetPr>
   <dimension ref="A1:N115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28:F29"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="G45" sqref="G45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24268,7 +24468,7 @@
       <c r="C3" s="411">
         <v>52139.3</v>
       </c>
-      <c r="D3" s="514">
+      <c r="D3" s="424">
         <v>44589</v>
       </c>
       <c r="E3" s="411">
@@ -24308,7 +24508,7 @@
       <c r="C4" s="411">
         <v>22993.599999999999</v>
       </c>
-      <c r="D4" s="514">
+      <c r="D4" s="424">
         <v>44589</v>
       </c>
       <c r="E4" s="411">
@@ -24349,7 +24549,7 @@
       <c r="C5" s="411">
         <v>12157.4</v>
       </c>
-      <c r="D5" s="514">
+      <c r="D5" s="424">
         <v>44589</v>
       </c>
       <c r="E5" s="411">
@@ -24389,7 +24589,7 @@
       <c r="C6" s="411">
         <v>39663.4</v>
       </c>
-      <c r="D6" s="514">
+      <c r="D6" s="424">
         <v>44589</v>
       </c>
       <c r="E6" s="411">
@@ -24429,7 +24629,7 @@
       <c r="C7" s="411">
         <v>16690</v>
       </c>
-      <c r="D7" s="514">
+      <c r="D7" s="424">
         <v>44589</v>
       </c>
       <c r="E7" s="411">
@@ -24469,7 +24669,7 @@
       <c r="C8" s="411">
         <v>16161</v>
       </c>
-      <c r="D8" s="514">
+      <c r="D8" s="424">
         <v>44589</v>
       </c>
       <c r="E8" s="411">
@@ -24509,7 +24709,7 @@
       <c r="C9" s="411">
         <v>4375</v>
       </c>
-      <c r="D9" s="514">
+      <c r="D9" s="424">
         <v>44589</v>
       </c>
       <c r="E9" s="411">
@@ -24549,7 +24749,7 @@
       <c r="C10" s="411">
         <v>88022.6</v>
       </c>
-      <c r="D10" s="514">
+      <c r="D10" s="424">
         <v>44589</v>
       </c>
       <c r="E10" s="411">
@@ -24590,7 +24790,7 @@
       <c r="C11" s="411">
         <v>6223.4</v>
       </c>
-      <c r="D11" s="514">
+      <c r="D11" s="424">
         <v>44589</v>
       </c>
       <c r="E11" s="411">
@@ -24630,7 +24830,7 @@
       <c r="C12" s="411">
         <v>1350</v>
       </c>
-      <c r="D12" s="514">
+      <c r="D12" s="424">
         <v>44589</v>
       </c>
       <c r="E12" s="411">
@@ -24670,7 +24870,7 @@
       <c r="C13" s="411">
         <v>54930.2</v>
       </c>
-      <c r="D13" s="514">
+      <c r="D13" s="424">
         <v>44589</v>
       </c>
       <c r="E13" s="411">
@@ -24710,7 +24910,7 @@
       <c r="C14" s="411">
         <v>381</v>
       </c>
-      <c r="D14" s="514">
+      <c r="D14" s="424">
         <v>44589</v>
       </c>
       <c r="E14" s="411">
@@ -24750,7 +24950,7 @@
       <c r="C15" s="411">
         <v>32571.32</v>
       </c>
-      <c r="D15" s="514">
+      <c r="D15" s="424">
         <v>44589</v>
       </c>
       <c r="E15" s="411">
@@ -24790,7 +24990,7 @@
       <c r="C16" s="411">
         <v>40306.14</v>
       </c>
-      <c r="D16" s="514">
+      <c r="D16" s="424">
         <v>44589</v>
       </c>
       <c r="E16" s="411">
@@ -24830,7 +25030,7 @@
       <c r="C17" s="411">
         <v>0</v>
       </c>
-      <c r="D17" s="515" t="s">
+      <c r="D17" s="425" t="s">
         <v>419</v>
       </c>
       <c r="E17" s="411">
@@ -24870,7 +25070,7 @@
       <c r="C18" s="411">
         <v>87756.3</v>
       </c>
-      <c r="D18" s="514">
+      <c r="D18" s="424">
         <v>44589</v>
       </c>
       <c r="E18" s="411">
@@ -24910,7 +25110,7 @@
       <c r="C19" s="411">
         <v>92082.85</v>
       </c>
-      <c r="D19" s="514">
+      <c r="D19" s="424">
         <v>44589</v>
       </c>
       <c r="E19" s="411">
@@ -24950,7 +25150,7 @@
       <c r="C20" s="411">
         <v>28628.81</v>
       </c>
-      <c r="D20" s="514">
+      <c r="D20" s="424">
         <v>44589</v>
       </c>
       <c r="E20" s="411">
@@ -24990,7 +25190,7 @@
       <c r="C21" s="411">
         <v>214.8</v>
       </c>
-      <c r="D21" s="514">
+      <c r="D21" s="424">
         <v>44589</v>
       </c>
       <c r="E21" s="411">
@@ -25030,7 +25230,7 @@
       <c r="C22" s="411">
         <v>53381.2</v>
       </c>
-      <c r="D22" s="514">
+      <c r="D22" s="424">
         <v>44589</v>
       </c>
       <c r="E22" s="411">
@@ -25071,7 +25271,7 @@
       <c r="C23" s="411">
         <v>558</v>
       </c>
-      <c r="D23" s="514">
+      <c r="D23" s="424">
         <v>44589</v>
       </c>
       <c r="E23" s="411">
@@ -25111,7 +25311,7 @@
       <c r="C24" s="411">
         <v>81629.2</v>
       </c>
-      <c r="D24" s="514">
+      <c r="D24" s="424">
         <v>44589</v>
       </c>
       <c r="E24" s="411">
@@ -25151,7 +25351,7 @@
       <c r="C25" s="411">
         <v>6085</v>
       </c>
-      <c r="D25" s="514">
+      <c r="D25" s="424">
         <v>44589</v>
       </c>
       <c r="E25" s="411">
@@ -25191,7 +25391,7 @@
       <c r="C26" s="411">
         <v>42951.199999999997</v>
       </c>
-      <c r="D26" s="514">
+      <c r="D26" s="424">
         <v>44589</v>
       </c>
       <c r="E26" s="411">
@@ -25231,7 +25431,7 @@
       <c r="C27" s="411">
         <v>0</v>
       </c>
-      <c r="D27" s="515" t="s">
+      <c r="D27" s="425" t="s">
         <v>419</v>
       </c>
       <c r="E27" s="411">
@@ -25271,7 +25471,7 @@
       <c r="C28" s="411">
         <v>40814.9</v>
       </c>
-      <c r="D28" s="514">
+      <c r="D28" s="424">
         <v>44589</v>
       </c>
       <c r="E28" s="411">
@@ -25311,7 +25511,7 @@
       <c r="C29" s="411">
         <v>84819.68</v>
       </c>
-      <c r="D29" s="514">
+      <c r="D29" s="424">
         <v>44589</v>
       </c>
       <c r="E29" s="411">
@@ -25351,7 +25551,7 @@
       <c r="C30" s="411">
         <v>74257.8</v>
       </c>
-      <c r="D30" s="514">
+      <c r="D30" s="424">
         <v>44589</v>
       </c>
       <c r="E30" s="411">
@@ -25390,7 +25590,7 @@
       <c r="C31" s="411">
         <v>115953.8</v>
       </c>
-      <c r="D31" s="514">
+      <c r="D31" s="424">
         <v>44589</v>
       </c>
       <c r="E31" s="411">
@@ -25428,7 +25628,7 @@
       <c r="C32" s="411">
         <v>420</v>
       </c>
-      <c r="D32" s="514">
+      <c r="D32" s="424">
         <v>44589</v>
       </c>
       <c r="E32" s="411">
@@ -25466,7 +25666,7 @@
       <c r="C33" s="411">
         <v>12359.2</v>
       </c>
-      <c r="D33" s="514">
+      <c r="D33" s="424">
         <v>44589</v>
       </c>
       <c r="E33" s="411">
@@ -25504,7 +25704,7 @@
       <c r="C34" s="411">
         <v>66416.800000000003</v>
       </c>
-      <c r="D34" s="514">
+      <c r="D34" s="424">
         <v>44589</v>
       </c>
       <c r="E34" s="411">
@@ -25542,7 +25742,7 @@
       <c r="C35" s="411">
         <v>10750</v>
       </c>
-      <c r="D35" s="514">
+      <c r="D35" s="424">
         <v>44589</v>
       </c>
       <c r="E35" s="411">
@@ -25580,7 +25780,7 @@
       <c r="C36" s="411">
         <v>28322</v>
       </c>
-      <c r="D36" s="514">
+      <c r="D36" s="424">
         <v>44589</v>
       </c>
       <c r="E36" s="411">
@@ -25618,7 +25818,7 @@
       <c r="C37" s="411">
         <v>61861.4</v>
       </c>
-      <c r="D37" s="514">
+      <c r="D37" s="424">
         <v>44589</v>
       </c>
       <c r="E37" s="411">
@@ -25656,7 +25856,7 @@
       <c r="C38" s="411">
         <v>78773.820000000007</v>
       </c>
-      <c r="D38" s="514" t="s">
+      <c r="D38" s="424" t="s">
         <v>310</v>
       </c>
       <c r="E38" s="411">
@@ -25694,7 +25894,7 @@
       <c r="C39" s="411">
         <v>38574.800000000003</v>
       </c>
-      <c r="D39" s="514" t="s">
+      <c r="D39" s="424" t="s">
         <v>310</v>
       </c>
       <c r="E39" s="411">
@@ -25732,7 +25932,7 @@
       <c r="C40" s="411">
         <v>53825.279999999999</v>
       </c>
-      <c r="D40" s="514" t="s">
+      <c r="D40" s="424" t="s">
         <v>310</v>
       </c>
       <c r="E40" s="411">
@@ -25764,7 +25964,7 @@
       <c r="A41" s="412"/>
       <c r="B41" s="413"/>
       <c r="C41" s="411"/>
-      <c r="D41" s="514" t="s">
+      <c r="D41" s="424" t="s">
         <v>310</v>
       </c>
       <c r="E41" s="411">
@@ -25822,10 +26022,12 @@
     </row>
     <row r="43" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="245"/>
-      <c r="B43" s="246"/>
-      <c r="C43" s="111"/>
-      <c r="D43" s="253"/>
-      <c r="E43" s="69"/>
+      <c r="B43" s="517" t="s">
+        <v>420</v>
+      </c>
+      <c r="C43" s="518"/>
+      <c r="D43" s="518"/>
+      <c r="E43" s="519"/>
       <c r="F43" s="411">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -25850,10 +26052,10 @@
     </row>
     <row r="44" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="245"/>
-      <c r="B44" s="246"/>
-      <c r="C44" s="111"/>
-      <c r="D44" s="253"/>
-      <c r="E44" s="69"/>
+      <c r="B44" s="520"/>
+      <c r="C44" s="521"/>
+      <c r="D44" s="521"/>
+      <c r="E44" s="522"/>
       <c r="F44" s="411">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -25878,10 +26080,10 @@
     </row>
     <row r="45" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="245"/>
-      <c r="B45" s="246"/>
-      <c r="C45" s="111"/>
-      <c r="D45" s="253"/>
-      <c r="E45" s="69"/>
+      <c r="B45" s="523"/>
+      <c r="C45" s="524"/>
+      <c r="D45" s="524"/>
+      <c r="E45" s="525"/>
       <c r="F45" s="411">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -25932,7 +26134,7 @@
         <v>404627.30000000005</v>
       </c>
     </row>
-    <row r="47" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="245"/>
       <c r="B47" s="246"/>
       <c r="C47" s="111"/>
@@ -25943,11 +26145,11 @@
         <v>0</v>
       </c>
       <c r="I47" s="349"/>
-      <c r="J47" s="348"/>
-      <c r="K47" s="350">
-        <v>0</v>
-      </c>
-      <c r="L47" s="140"/>
+      <c r="J47" s="360"/>
+      <c r="K47" s="361">
+        <v>0</v>
+      </c>
+      <c r="L47" s="526"/>
       <c r="M47" s="69"/>
       <c r="N47" s="137">
         <f t="shared" si="1"/>
@@ -25965,18 +26167,18 @@
         <v>0</v>
       </c>
       <c r="I48" s="349"/>
-      <c r="J48" s="348"/>
-      <c r="K48" s="350">
-        <v>0</v>
-      </c>
-      <c r="L48" s="140"/>
-      <c r="M48" s="69"/>
+      <c r="J48" s="529" t="s">
+        <v>421</v>
+      </c>
+      <c r="K48" s="530"/>
+      <c r="L48" s="531"/>
+      <c r="M48" s="206"/>
       <c r="N48" s="137">
-        <f t="shared" si="1"/>
+        <f>N47+K48-M48</f>
         <v>404627.30000000005</v>
       </c>
     </row>
-    <row r="49" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="134"/>
       <c r="B49" s="139"/>
       <c r="C49" s="69"/>
@@ -25987,12 +26189,10 @@
         <v>0</v>
       </c>
       <c r="I49" s="349"/>
-      <c r="J49" s="348"/>
-      <c r="K49" s="350">
-        <v>0</v>
-      </c>
-      <c r="L49" s="140"/>
-      <c r="M49" s="69"/>
+      <c r="J49" s="532"/>
+      <c r="K49" s="533"/>
+      <c r="L49" s="534"/>
+      <c r="M49" s="206"/>
       <c r="N49" s="137">
         <f t="shared" si="1"/>
         <v>404627.30000000005</v>
@@ -26009,11 +26209,11 @@
         <v>0</v>
       </c>
       <c r="I50" s="134"/>
-      <c r="J50" s="139"/>
-      <c r="K50" s="69">
-        <v>0</v>
-      </c>
-      <c r="L50" s="140"/>
+      <c r="J50" s="527"/>
+      <c r="K50" s="215">
+        <v>0</v>
+      </c>
+      <c r="L50" s="528"/>
       <c r="M50" s="69"/>
       <c r="N50" s="137">
         <f t="shared" si="1"/>
@@ -26590,7 +26790,7 @@
         <f>SUM(C3:C78)</f>
         <v>1448401.2000000002</v>
       </c>
-      <c r="D79" s="516"/>
+      <c r="D79" s="426"/>
       <c r="E79" s="414">
         <f t="shared" ref="E79" si="5">SUM(E3:E78)</f>
         <v>1277227.3</v>
@@ -26618,7 +26818,7 @@
       <c r="C80" s="214"/>
       <c r="D80" s="256"/>
       <c r="E80" s="3"/>
-      <c r="F80" s="486" t="s">
+      <c r="F80" s="489" t="s">
         <v>207</v>
       </c>
       <c r="K80" s="1"/>
@@ -26631,7 +26831,7 @@
       <c r="C81" s="1"/>
       <c r="D81" s="256"/>
       <c r="E81" s="3"/>
-      <c r="F81" s="487"/>
+      <c r="F81" s="490"/>
       <c r="K81" s="1"/>
       <c r="L81" s="97"/>
       <c r="M81" s="3"/>
@@ -26898,11 +27098,14 @@
       <c r="K115" s="154"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="3">
     <mergeCell ref="F80:F81"/>
+    <mergeCell ref="B43:E45"/>
+    <mergeCell ref="J48:L49"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
